--- a/raw/project_UVP_standardizer.xlsx
+++ b/raw/project_UVP_standardizer.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="68">
   <si>
     <t>Project_ID</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>process_pixel</t>
+  </si>
+  <si>
+    <t>object_annotation_category</t>
   </si>
   <si>
     <t>Variables</t>
@@ -693,6 +696,9 @@
       <c r="W2" t="s">
         <v>36</v>
       </c>
+      <c r="Y2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3">
@@ -731,6 +737,9 @@
       <c r="W3" t="s">
         <v>36</v>
       </c>
+      <c r="Y3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4">
@@ -769,6 +778,9 @@
       <c r="W4" t="s">
         <v>36</v>
       </c>
+      <c r="Y4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5">
@@ -807,6 +819,9 @@
       <c r="W5" t="s">
         <v>36</v>
       </c>
+      <c r="Y5" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6">
@@ -845,6 +860,9 @@
       <c r="W6" t="s">
         <v>36</v>
       </c>
+      <c r="Y6" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7">
@@ -882,6 +900,9 @@
       </c>
       <c r="W7" t="s">
         <v>36</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -899,13 +920,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -913,10 +934,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -924,10 +945,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -935,10 +956,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -946,10 +967,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -957,10 +978,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -968,10 +989,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -979,10 +1000,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -990,10 +1011,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1001,10 +1022,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1012,10 +1033,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1023,10 +1044,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1034,10 +1055,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1045,10 +1066,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1056,10 +1077,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1067,10 +1088,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1078,10 +1099,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1089,10 +1110,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1100,10 +1121,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1111,10 +1132,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1122,10 +1143,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1133,10 +1154,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1144,10 +1165,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1155,10 +1176,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1166,10 +1187,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1177,10 +1198,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C26" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/raw/project_UVP_standardizer.xlsx
+++ b/raw/project_UVP_standardizer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dugennem/GIT/PSSdb_LOV_orga/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B7159C-14D7-4849-A80E-64933DE80F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8027DD83-59D6-1542-803C-7EE7C362DA6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="760" windowWidth="30000" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -581,12 +581,6 @@
     <t>micrometer</t>
   </si>
   <si>
-    <t>process_esd_max</t>
-  </si>
-  <si>
-    <t>platform:rosette,serial_number:{field:acq_sn},size_calibration:{slope_field:acq_exp,intercept_field:acq_aa}</t>
-  </si>
-  <si>
     <t>Variables</t>
   </si>
   <si>
@@ -774,6 +768,12 @@
   </si>
   <si>
     <t>uvp5_sn003_tara_microbiome_2021</t>
+  </si>
+  <si>
+    <t>process_esdmax</t>
+  </si>
+  <si>
+    <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
   </si>
 </sst>
 </file>
@@ -1191,10 +1191,10 @@
   <dimension ref="A1:AS63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AI31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AM33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AN50" sqref="AN50:AS63"/>
+      <selection pane="bottomRight" activeCell="AS3" sqref="AS3:AS63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1488,13 +1488,13 @@
         <v>129</v>
       </c>
       <c r="AQ2" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="AR2" t="s">
         <v>185</v>
       </c>
       <c r="AS2" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.2">
@@ -1604,13 +1604,13 @@
         <v>129</v>
       </c>
       <c r="AQ3" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="AR3" t="s">
         <v>185</v>
       </c>
       <c r="AS3" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.2">
@@ -1720,13 +1720,13 @@
         <v>129</v>
       </c>
       <c r="AQ4" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="AR4" t="s">
         <v>185</v>
       </c>
       <c r="AS4" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.2">
@@ -1836,13 +1836,13 @@
         <v>129</v>
       </c>
       <c r="AQ5" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="AR5" t="s">
         <v>185</v>
       </c>
       <c r="AS5" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.2">
@@ -1952,13 +1952,13 @@
         <v>129</v>
       </c>
       <c r="AQ6" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="AR6" t="s">
         <v>185</v>
       </c>
       <c r="AS6" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.2">
@@ -2068,13 +2068,13 @@
         <v>129</v>
       </c>
       <c r="AQ7" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="AR7" t="s">
         <v>185</v>
       </c>
       <c r="AS7" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.2">
@@ -2184,13 +2184,13 @@
         <v>129</v>
       </c>
       <c r="AQ8" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="AR8" t="s">
         <v>185</v>
       </c>
       <c r="AS8" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.2">
@@ -2300,13 +2300,13 @@
         <v>129</v>
       </c>
       <c r="AQ9" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="AR9" t="s">
         <v>185</v>
       </c>
       <c r="AS9" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.2">
@@ -2416,13 +2416,13 @@
         <v>129</v>
       </c>
       <c r="AQ10" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="AR10" t="s">
         <v>185</v>
       </c>
       <c r="AS10" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.2">
@@ -2532,13 +2532,13 @@
         <v>129</v>
       </c>
       <c r="AQ11" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="AR11" t="s">
         <v>185</v>
       </c>
       <c r="AS11" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.2">
@@ -2648,13 +2648,13 @@
         <v>129</v>
       </c>
       <c r="AQ12" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="AR12" t="s">
         <v>185</v>
       </c>
       <c r="AS12" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.2">
@@ -2764,13 +2764,13 @@
         <v>129</v>
       </c>
       <c r="AQ13" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="AR13" t="s">
         <v>185</v>
       </c>
       <c r="AS13" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.2">
@@ -2880,13 +2880,13 @@
         <v>129</v>
       </c>
       <c r="AQ14" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="AR14" t="s">
         <v>185</v>
       </c>
       <c r="AS14" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.2">
@@ -2996,13 +2996,13 @@
         <v>129</v>
       </c>
       <c r="AQ15" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="AR15" t="s">
         <v>185</v>
       </c>
       <c r="AS15" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.2">
@@ -3112,13 +3112,13 @@
         <v>129</v>
       </c>
       <c r="AQ16" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="AR16" t="s">
         <v>185</v>
       </c>
       <c r="AS16" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:45" x14ac:dyDescent="0.2">
@@ -3228,13 +3228,13 @@
         <v>129</v>
       </c>
       <c r="AQ17" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="AR17" t="s">
         <v>185</v>
       </c>
       <c r="AS17" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:45" x14ac:dyDescent="0.2">
@@ -3344,13 +3344,13 @@
         <v>129</v>
       </c>
       <c r="AQ18" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="AR18" t="s">
         <v>185</v>
       </c>
       <c r="AS18" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:45" x14ac:dyDescent="0.2">
@@ -3460,13 +3460,13 @@
         <v>129</v>
       </c>
       <c r="AQ19" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="AR19" t="s">
         <v>185</v>
       </c>
       <c r="AS19" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:45" x14ac:dyDescent="0.2">
@@ -3576,13 +3576,13 @@
         <v>129</v>
       </c>
       <c r="AQ20" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="AR20" t="s">
         <v>185</v>
       </c>
       <c r="AS20" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:45" x14ac:dyDescent="0.2">
@@ -3692,13 +3692,13 @@
         <v>129</v>
       </c>
       <c r="AQ21" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="AR21" t="s">
         <v>185</v>
       </c>
       <c r="AS21" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22" spans="1:45" x14ac:dyDescent="0.2">
@@ -3808,13 +3808,13 @@
         <v>129</v>
       </c>
       <c r="AQ22" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="AR22" t="s">
         <v>185</v>
       </c>
       <c r="AS22" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" spans="1:45" x14ac:dyDescent="0.2">
@@ -3924,13 +3924,13 @@
         <v>129</v>
       </c>
       <c r="AQ23" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="AR23" t="s">
         <v>185</v>
       </c>
       <c r="AS23" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24" spans="1:45" x14ac:dyDescent="0.2">
@@ -4040,13 +4040,13 @@
         <v>129</v>
       </c>
       <c r="AQ24" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="AR24" t="s">
         <v>185</v>
       </c>
       <c r="AS24" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
     </row>
     <row r="25" spans="1:45" x14ac:dyDescent="0.2">
@@ -4156,13 +4156,13 @@
         <v>129</v>
       </c>
       <c r="AQ25" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="AR25" t="s">
         <v>185</v>
       </c>
       <c r="AS25" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26" spans="1:45" x14ac:dyDescent="0.2">
@@ -4272,13 +4272,13 @@
         <v>129</v>
       </c>
       <c r="AQ26" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="AR26" t="s">
         <v>185</v>
       </c>
       <c r="AS26" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27" spans="1:45" x14ac:dyDescent="0.2">
@@ -4388,13 +4388,13 @@
         <v>129</v>
       </c>
       <c r="AQ27" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="AR27" t="s">
         <v>185</v>
       </c>
       <c r="AS27" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
     </row>
     <row r="28" spans="1:45" x14ac:dyDescent="0.2">
@@ -4504,13 +4504,13 @@
         <v>129</v>
       </c>
       <c r="AQ28" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="AR28" t="s">
         <v>185</v>
       </c>
       <c r="AS28" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29" spans="1:45" x14ac:dyDescent="0.2">
@@ -4620,13 +4620,13 @@
         <v>129</v>
       </c>
       <c r="AQ29" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="AR29" t="s">
         <v>185</v>
       </c>
       <c r="AS29" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30" spans="1:45" x14ac:dyDescent="0.2">
@@ -4736,13 +4736,13 @@
         <v>129</v>
       </c>
       <c r="AQ30" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="AR30" t="s">
         <v>185</v>
       </c>
       <c r="AS30" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
     </row>
     <row r="31" spans="1:45" x14ac:dyDescent="0.2">
@@ -4852,13 +4852,13 @@
         <v>129</v>
       </c>
       <c r="AQ31" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="AR31" t="s">
         <v>185</v>
       </c>
       <c r="AS31" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32" spans="1:45" x14ac:dyDescent="0.2">
@@ -4968,13 +4968,13 @@
         <v>129</v>
       </c>
       <c r="AQ32" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="AR32" t="s">
         <v>185</v>
       </c>
       <c r="AS32" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
     </row>
     <row r="33" spans="1:45" x14ac:dyDescent="0.2">
@@ -5084,13 +5084,13 @@
         <v>129</v>
       </c>
       <c r="AQ33" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="AR33" t="s">
         <v>185</v>
       </c>
       <c r="AS33" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
     </row>
     <row r="34" spans="1:45" x14ac:dyDescent="0.2">
@@ -5200,13 +5200,13 @@
         <v>129</v>
       </c>
       <c r="AQ34" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="AR34" t="s">
         <v>185</v>
       </c>
       <c r="AS34" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
     </row>
     <row r="35" spans="1:45" x14ac:dyDescent="0.2">
@@ -5316,13 +5316,13 @@
         <v>129</v>
       </c>
       <c r="AQ35" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="AR35" t="s">
         <v>185</v>
       </c>
       <c r="AS35" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
     </row>
     <row r="36" spans="1:45" x14ac:dyDescent="0.2">
@@ -5432,13 +5432,13 @@
         <v>129</v>
       </c>
       <c r="AQ36" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="AR36" t="s">
         <v>185</v>
       </c>
       <c r="AS36" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
     </row>
     <row r="37" spans="1:45" x14ac:dyDescent="0.2">
@@ -5548,13 +5548,13 @@
         <v>129</v>
       </c>
       <c r="AQ37" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="AR37" t="s">
         <v>185</v>
       </c>
       <c r="AS37" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
     </row>
     <row r="38" spans="1:45" x14ac:dyDescent="0.2">
@@ -5664,13 +5664,13 @@
         <v>129</v>
       </c>
       <c r="AQ38" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="AR38" t="s">
         <v>185</v>
       </c>
       <c r="AS38" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
     </row>
     <row r="39" spans="1:45" x14ac:dyDescent="0.2">
@@ -5780,13 +5780,13 @@
         <v>129</v>
       </c>
       <c r="AQ39" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="AR39" t="s">
         <v>185</v>
       </c>
       <c r="AS39" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
     </row>
     <row r="40" spans="1:45" x14ac:dyDescent="0.2">
@@ -5890,13 +5890,13 @@
         <v>129</v>
       </c>
       <c r="AQ40" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="AR40" t="s">
         <v>185</v>
       </c>
       <c r="AS40" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
     </row>
     <row r="41" spans="1:45" x14ac:dyDescent="0.2">
@@ -6000,13 +6000,13 @@
         <v>129</v>
       </c>
       <c r="AQ41" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="AR41" t="s">
         <v>185</v>
       </c>
       <c r="AS41" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
     </row>
     <row r="42" spans="1:45" x14ac:dyDescent="0.2">
@@ -6110,13 +6110,13 @@
         <v>129</v>
       </c>
       <c r="AQ42" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="AR42" t="s">
         <v>185</v>
       </c>
       <c r="AS42" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
     </row>
     <row r="43" spans="1:45" x14ac:dyDescent="0.2">
@@ -6226,13 +6226,13 @@
         <v>185</v>
       </c>
       <c r="AQ43" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="AR43" t="s">
         <v>185</v>
       </c>
       <c r="AS43" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
     </row>
     <row r="44" spans="1:45" x14ac:dyDescent="0.2">
@@ -6342,13 +6342,13 @@
         <v>129</v>
       </c>
       <c r="AQ44" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="AR44" t="s">
         <v>185</v>
       </c>
       <c r="AS44" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
     </row>
     <row r="45" spans="1:45" x14ac:dyDescent="0.2">
@@ -6458,13 +6458,13 @@
         <v>129</v>
       </c>
       <c r="AQ45" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="AR45" t="s">
         <v>185</v>
       </c>
       <c r="AS45" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
     </row>
     <row r="46" spans="1:45" x14ac:dyDescent="0.2">
@@ -6574,13 +6574,13 @@
         <v>185</v>
       </c>
       <c r="AQ46" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="AR46" t="s">
         <v>185</v>
       </c>
       <c r="AS46" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
     </row>
     <row r="47" spans="1:45" x14ac:dyDescent="0.2">
@@ -6684,13 +6684,13 @@
         <v>129</v>
       </c>
       <c r="AQ47" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="AR47" t="s">
         <v>185</v>
       </c>
       <c r="AS47" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
     </row>
     <row r="48" spans="1:45" x14ac:dyDescent="0.2">
@@ -6794,13 +6794,13 @@
         <v>129</v>
       </c>
       <c r="AQ48" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="AR48" t="s">
         <v>185</v>
       </c>
       <c r="AS48" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
     </row>
     <row r="49" spans="1:45" x14ac:dyDescent="0.2">
@@ -6904,13 +6904,13 @@
         <v>129</v>
       </c>
       <c r="AQ49" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="AR49" t="s">
         <v>185</v>
       </c>
       <c r="AS49" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
     </row>
     <row r="50" spans="1:45" x14ac:dyDescent="0.2">
@@ -7008,7 +7008,7 @@
         <v>134</v>
       </c>
       <c r="AM50" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AN50" t="s">
         <v>183</v>
@@ -7020,13 +7020,13 @@
         <v>129</v>
       </c>
       <c r="AQ50" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="AR50" t="s">
         <v>185</v>
       </c>
       <c r="AS50" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
     </row>
     <row r="51" spans="1:45" x14ac:dyDescent="0.2">
@@ -7124,7 +7124,7 @@
         <v>134</v>
       </c>
       <c r="AM51" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AN51" t="s">
         <v>183</v>
@@ -7136,13 +7136,13 @@
         <v>129</v>
       </c>
       <c r="AQ51" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="AR51" t="s">
         <v>185</v>
       </c>
       <c r="AS51" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
     </row>
     <row r="52" spans="1:45" x14ac:dyDescent="0.2">
@@ -7240,7 +7240,7 @@
         <v>134</v>
       </c>
       <c r="AM52" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AN52" t="s">
         <v>183</v>
@@ -7252,13 +7252,13 @@
         <v>129</v>
       </c>
       <c r="AQ52" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="AR52" t="s">
         <v>185</v>
       </c>
       <c r="AS52" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
     </row>
     <row r="53" spans="1:45" x14ac:dyDescent="0.2">
@@ -7356,7 +7356,7 @@
         <v>134</v>
       </c>
       <c r="AM53" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AN53" t="s">
         <v>183</v>
@@ -7368,13 +7368,13 @@
         <v>129</v>
       </c>
       <c r="AQ53" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="AR53" t="s">
         <v>185</v>
       </c>
       <c r="AS53" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
     </row>
     <row r="54" spans="1:45" x14ac:dyDescent="0.2">
@@ -7472,7 +7472,7 @@
         <v>134</v>
       </c>
       <c r="AM54" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AN54" t="s">
         <v>183</v>
@@ -7484,13 +7484,13 @@
         <v>129</v>
       </c>
       <c r="AQ54" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="AR54" t="s">
         <v>185</v>
       </c>
       <c r="AS54" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
     </row>
     <row r="55" spans="1:45" x14ac:dyDescent="0.2">
@@ -7588,7 +7588,7 @@
         <v>134</v>
       </c>
       <c r="AM55" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AN55" t="s">
         <v>183</v>
@@ -7600,13 +7600,13 @@
         <v>129</v>
       </c>
       <c r="AQ55" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="AR55" t="s">
         <v>185</v>
       </c>
       <c r="AS55" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
     </row>
     <row r="56" spans="1:45" x14ac:dyDescent="0.2">
@@ -7704,7 +7704,7 @@
         <v>134</v>
       </c>
       <c r="AM56" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AN56" t="s">
         <v>183</v>
@@ -7716,13 +7716,13 @@
         <v>129</v>
       </c>
       <c r="AQ56" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="AR56" t="s">
         <v>185</v>
       </c>
       <c r="AS56" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
     </row>
     <row r="57" spans="1:45" x14ac:dyDescent="0.2">
@@ -7820,7 +7820,7 @@
         <v>134</v>
       </c>
       <c r="AM57" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AN57" t="s">
         <v>183</v>
@@ -7832,13 +7832,13 @@
         <v>129</v>
       </c>
       <c r="AQ57" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="AR57" t="s">
         <v>185</v>
       </c>
       <c r="AS57" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
     </row>
     <row r="58" spans="1:45" x14ac:dyDescent="0.2">
@@ -7936,7 +7936,7 @@
         <v>134</v>
       </c>
       <c r="AM58" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AN58" t="s">
         <v>183</v>
@@ -7948,13 +7948,13 @@
         <v>129</v>
       </c>
       <c r="AQ58" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="AR58" t="s">
         <v>185</v>
       </c>
       <c r="AS58" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
     </row>
     <row r="59" spans="1:45" x14ac:dyDescent="0.2">
@@ -8052,7 +8052,7 @@
         <v>134</v>
       </c>
       <c r="AM59" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AN59" t="s">
         <v>183</v>
@@ -8064,13 +8064,13 @@
         <v>129</v>
       </c>
       <c r="AQ59" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="AR59" t="s">
         <v>185</v>
       </c>
       <c r="AS59" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
     </row>
     <row r="60" spans="1:45" x14ac:dyDescent="0.2">
@@ -8168,7 +8168,7 @@
         <v>134</v>
       </c>
       <c r="AM60" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AN60" t="s">
         <v>183</v>
@@ -8180,13 +8180,13 @@
         <v>129</v>
       </c>
       <c r="AQ60" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="AR60" t="s">
         <v>185</v>
       </c>
       <c r="AS60" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
     </row>
     <row r="61" spans="1:45" x14ac:dyDescent="0.2">
@@ -8278,7 +8278,7 @@
         <v>131</v>
       </c>
       <c r="AM61" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AN61" t="s">
         <v>183</v>
@@ -8290,13 +8290,13 @@
         <v>129</v>
       </c>
       <c r="AQ61" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="AR61" t="s">
         <v>185</v>
       </c>
       <c r="AS61" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
     </row>
     <row r="62" spans="1:45" x14ac:dyDescent="0.2">
@@ -8403,13 +8403,13 @@
         <v>129</v>
       </c>
       <c r="AQ62" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="AR62" t="s">
         <v>185</v>
       </c>
       <c r="AS62" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
     </row>
     <row r="63" spans="1:45" x14ac:dyDescent="0.2">
@@ -8507,7 +8507,7 @@
         <v>134</v>
       </c>
       <c r="AM63" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AN63" t="s">
         <v>183</v>
@@ -8519,13 +8519,13 @@
         <v>129</v>
       </c>
       <c r="AQ63" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="AR63" t="s">
         <v>185</v>
       </c>
       <c r="AS63" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -8607,13 +8607,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -8621,10 +8621,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" t="s">
         <v>191</v>
-      </c>
-      <c r="C2" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -8632,10 +8632,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C3" t="s">
         <v>192</v>
-      </c>
-      <c r="C3" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -8643,10 +8643,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -8654,10 +8654,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -8665,10 +8665,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -8676,10 +8676,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -8687,10 +8687,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -8698,10 +8698,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -8709,10 +8709,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -8720,10 +8720,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -8731,10 +8731,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -8742,10 +8742,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C13" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -8753,10 +8753,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -8764,10 +8764,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -8775,10 +8775,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C16" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -8786,10 +8786,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C17" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -8797,10 +8797,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C18" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -8808,10 +8808,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C19" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -8819,10 +8819,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -8830,10 +8830,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C21" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -8841,10 +8841,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C22" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -8852,10 +8852,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C23" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -8863,10 +8863,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C24" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -8874,10 +8874,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C25" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -8885,10 +8885,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -8896,10 +8896,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C27" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -8907,10 +8907,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C28" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -8918,10 +8918,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C29" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -8929,10 +8929,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C30" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -8940,10 +8940,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C31" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -8951,10 +8951,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C32" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -8962,10 +8962,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C33" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -8973,10 +8973,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C34" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -8984,10 +8984,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C35" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -8995,10 +8995,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C36" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -9006,10 +9006,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C37" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -9017,10 +9017,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C38" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -9028,10 +9028,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C39" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -9039,10 +9039,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C40" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -9050,10 +9050,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C41" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -9061,10 +9061,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C42" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -9072,10 +9072,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C43" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -9083,10 +9083,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C44" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -9094,10 +9094,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C45" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -9105,10 +9105,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C46" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/raw/project_UVP_standardizer.xlsx
+++ b/raw/project_UVP_standardizer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dugennem/GIT/PSSdb_LOV_orga/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8027DD83-59D6-1542-803C-7EE7C362DA6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972F55F0-72B5-DE4C-81A9-C8A7F55E7246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="760" windowWidth="30000" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="22260" windowHeight="13840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2462" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2318" uniqueCount="251">
   <si>
     <t>Project_ID</t>
   </si>
@@ -416,10 +416,13 @@
     <t>process_pixel</t>
   </si>
   <si>
+    <t>acq_pixel</t>
+  </si>
+  <si>
     <t>millimeter_per_pixel</t>
   </si>
   <si>
-    <t>pixel_per_millimeter</t>
+    <t>micron_per_pixel</t>
   </si>
   <si>
     <t>object_annotation_category</t>
@@ -572,6 +575,45 @@
     <t>uvp5_sn203_2022_so289</t>
   </si>
   <si>
+    <t>uvp5_sn005_dewex_winter_2013</t>
+  </si>
+  <si>
+    <t>uvp5_sn003_dewex_spring_2013</t>
+  </si>
+  <si>
+    <t>uvp5_sn000_malina2009</t>
+  </si>
+  <si>
+    <t>uvp5_sn002_somba_ge_2014</t>
+  </si>
+  <si>
+    <t>uvp5_sn003_outpace_2015</t>
+  </si>
+  <si>
+    <t>uvp5_sn003_cassiopee_2015</t>
+  </si>
+  <si>
+    <t>uvp5_sn003_medsea2013</t>
+  </si>
+  <si>
+    <t>uvp5_sn003_jerico_2017</t>
+  </si>
+  <si>
+    <t>uvp6_sn000110lp_2020_07_float_recover</t>
+  </si>
+  <si>
+    <t>uvp6_sn000006lp_2020_sc_basintest</t>
+  </si>
+  <si>
+    <t>uvp6_sn000003lp_20201109_seaexplorer_002</t>
+  </si>
+  <si>
+    <t>uvp6_sn000125hf_20201022_rade_test_cdt</t>
+  </si>
+  <si>
+    <t>uvp5_sn003_tara_microbiome_2021</t>
+  </si>
+  <si>
     <t>acq_instrument</t>
   </si>
   <si>
@@ -581,6 +623,9 @@
     <t>micrometer</t>
   </si>
   <si>
+    <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
+  </si>
+  <si>
     <t>Variables</t>
   </si>
   <si>
@@ -729,51 +774,6 @@
   </si>
   <si>
     <t>Additoinal description of the sampling method or protocol (e.g. net_aperture:{field:net_surf,unit:square_meter}, fixative:{chemical:glutaraldehyde,concentration:0.1%}, reference: {https://doi.org/...,https://www.protocols.io/view/zooscan-protocol-yxmvmk8j9g3p/v1})</t>
-  </si>
-  <si>
-    <t>uvp5_sn003_dewex_spring_2013</t>
-  </si>
-  <si>
-    <t>uvp5_sn005_dewex_winter_2013</t>
-  </si>
-  <si>
-    <t>uvp5_sn000_malina2009</t>
-  </si>
-  <si>
-    <t>uvp5_sn002_somba_ge_2014</t>
-  </si>
-  <si>
-    <t>uvp5_sn003_outpace_2015</t>
-  </si>
-  <si>
-    <t>uvp5_sn003_cassiopee_2015</t>
-  </si>
-  <si>
-    <t>uvp5_sn003_medsea2013</t>
-  </si>
-  <si>
-    <t>uvp5_sn003_jerico_2017</t>
-  </si>
-  <si>
-    <t>uvp6_sn000110lp_2020_07_float_recover</t>
-  </si>
-  <si>
-    <t>uvp6_sn000006lp_2020_sc_basintest</t>
-  </si>
-  <si>
-    <t>uvp6_sn000003lp_20201109_seaexplorer_002</t>
-  </si>
-  <si>
-    <t>uvp6_sn000125hf_20201022_rade_test_cdt</t>
-  </si>
-  <si>
-    <t>uvp5_sn003_tara_microbiome_2021</t>
-  </si>
-  <si>
-    <t>process_esdmax</t>
-  </si>
-  <si>
-    <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
   </si>
 </sst>
 </file>
@@ -1190,59 +1190,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AM33" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AS3" sqref="AS3:AS63"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AK2" sqref="AK2:AK30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="23" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="37" max="38" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="91.5" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="17" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="22" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="83.83203125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -1467,34 +1419,28 @@
         <v>130</v>
       </c>
       <c r="AH2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AI2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AN2" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="AO2" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="AP2" t="s">
         <v>129</v>
       </c>
-      <c r="AQ2" t="s">
-        <v>249</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>185</v>
-      </c>
       <c r="AS2" t="s">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.2">
@@ -1583,34 +1529,28 @@
         <v>130</v>
       </c>
       <c r="AH3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AI3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN3" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="AO3" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="AP3" t="s">
         <v>129</v>
       </c>
-      <c r="AQ3" t="s">
-        <v>249</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>185</v>
-      </c>
       <c r="AS3" t="s">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.2">
@@ -1699,34 +1639,28 @@
         <v>130</v>
       </c>
       <c r="AH4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AI4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AN4" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="AO4" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="AP4" t="s">
         <v>129</v>
       </c>
-      <c r="AQ4" t="s">
-        <v>249</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>185</v>
-      </c>
       <c r="AS4" t="s">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.2">
@@ -1815,34 +1749,28 @@
         <v>130</v>
       </c>
       <c r="AH5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AI5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AN5" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="AO5" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="AP5" t="s">
         <v>129</v>
       </c>
-      <c r="AQ5" t="s">
-        <v>249</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>185</v>
-      </c>
       <c r="AS5" t="s">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.2">
@@ -1931,34 +1859,28 @@
         <v>130</v>
       </c>
       <c r="AH6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AI6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AN6" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="AO6" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="AP6" t="s">
         <v>129</v>
       </c>
-      <c r="AQ6" t="s">
-        <v>249</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>185</v>
-      </c>
       <c r="AS6" t="s">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.2">
@@ -2047,34 +1969,28 @@
         <v>130</v>
       </c>
       <c r="AH7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AI7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AN7" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="AO7" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="AP7" t="s">
         <v>129</v>
       </c>
-      <c r="AQ7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AR7" t="s">
-        <v>185</v>
-      </c>
       <c r="AS7" t="s">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.2">
@@ -2163,34 +2079,22 @@
         <v>130</v>
       </c>
       <c r="AH8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AI8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AN8" t="s">
-        <v>183</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>184</v>
-      </c>
-      <c r="AP8" t="s">
-        <v>129</v>
-      </c>
-      <c r="AQ8" t="s">
-        <v>249</v>
-      </c>
-      <c r="AR8" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="AS8" t="s">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.2">
@@ -2279,34 +2183,22 @@
         <v>130</v>
       </c>
       <c r="AH9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AI9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AN9" t="s">
-        <v>183</v>
-      </c>
-      <c r="AO9" t="s">
-        <v>184</v>
-      </c>
-      <c r="AP9" t="s">
-        <v>129</v>
-      </c>
-      <c r="AQ9" t="s">
-        <v>249</v>
-      </c>
-      <c r="AR9" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="AS9" t="s">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.2">
@@ -2395,34 +2287,28 @@
         <v>130</v>
       </c>
       <c r="AH10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AI10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AN10" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="AO10" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="AP10" t="s">
         <v>129</v>
       </c>
-      <c r="AQ10" t="s">
-        <v>249</v>
-      </c>
-      <c r="AR10" t="s">
-        <v>185</v>
-      </c>
       <c r="AS10" t="s">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.2">
@@ -2511,34 +2397,28 @@
         <v>130</v>
       </c>
       <c r="AH11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AI11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AN11" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="AO11" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="AP11" t="s">
         <v>129</v>
       </c>
-      <c r="AQ11" t="s">
-        <v>249</v>
-      </c>
-      <c r="AR11" t="s">
-        <v>185</v>
-      </c>
       <c r="AS11" t="s">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.2">
@@ -2627,34 +2507,28 @@
         <v>130</v>
       </c>
       <c r="AH12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AI12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AN12" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="AO12" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="AP12" t="s">
         <v>129</v>
       </c>
-      <c r="AQ12" t="s">
-        <v>249</v>
-      </c>
-      <c r="AR12" t="s">
-        <v>185</v>
-      </c>
       <c r="AS12" t="s">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.2">
@@ -2743,34 +2617,28 @@
         <v>130</v>
       </c>
       <c r="AH13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AI13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AN13" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="AO13" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="AP13" t="s">
         <v>129</v>
       </c>
-      <c r="AQ13" t="s">
-        <v>249</v>
-      </c>
-      <c r="AR13" t="s">
-        <v>185</v>
-      </c>
       <c r="AS13" t="s">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.2">
@@ -2859,34 +2727,28 @@
         <v>130</v>
       </c>
       <c r="AH14" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AI14" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM14" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AN14" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="AO14" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="AP14" t="s">
         <v>129</v>
       </c>
-      <c r="AQ14" t="s">
-        <v>249</v>
-      </c>
-      <c r="AR14" t="s">
-        <v>185</v>
-      </c>
       <c r="AS14" t="s">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.2">
@@ -2975,34 +2837,22 @@
         <v>130</v>
       </c>
       <c r="AH15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AI15" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM15" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AN15" t="s">
-        <v>183</v>
-      </c>
-      <c r="AO15" t="s">
-        <v>184</v>
-      </c>
-      <c r="AP15" t="s">
-        <v>129</v>
-      </c>
-      <c r="AQ15" t="s">
-        <v>249</v>
-      </c>
-      <c r="AR15" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="AS15" t="s">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.2">
@@ -3091,34 +2941,28 @@
         <v>130</v>
       </c>
       <c r="AH16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AI16" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM16" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AN16" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="AO16" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="AP16" t="s">
         <v>129</v>
       </c>
-      <c r="AQ16" t="s">
-        <v>249</v>
-      </c>
-      <c r="AR16" t="s">
-        <v>185</v>
-      </c>
       <c r="AS16" t="s">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:45" x14ac:dyDescent="0.2">
@@ -3207,34 +3051,22 @@
         <v>130</v>
       </c>
       <c r="AH17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AI17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AN17" t="s">
-        <v>183</v>
-      </c>
-      <c r="AO17" t="s">
-        <v>184</v>
-      </c>
-      <c r="AP17" t="s">
-        <v>129</v>
-      </c>
-      <c r="AQ17" t="s">
-        <v>249</v>
-      </c>
-      <c r="AR17" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="AS17" t="s">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:45" x14ac:dyDescent="0.2">
@@ -3323,34 +3155,28 @@
         <v>130</v>
       </c>
       <c r="AH18" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AI18" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM18" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AN18" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="AO18" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="AP18" t="s">
         <v>129</v>
       </c>
-      <c r="AQ18" t="s">
-        <v>249</v>
-      </c>
-      <c r="AR18" t="s">
-        <v>185</v>
-      </c>
       <c r="AS18" t="s">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:45" x14ac:dyDescent="0.2">
@@ -3439,34 +3265,28 @@
         <v>130</v>
       </c>
       <c r="AH19" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AI19" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM19" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AN19" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="AO19" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="AP19" t="s">
         <v>129</v>
       </c>
-      <c r="AQ19" t="s">
-        <v>249</v>
-      </c>
-      <c r="AR19" t="s">
-        <v>185</v>
-      </c>
       <c r="AS19" t="s">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:45" x14ac:dyDescent="0.2">
@@ -3555,34 +3375,28 @@
         <v>130</v>
       </c>
       <c r="AH20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AI20" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM20" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AN20" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="AO20" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="AP20" t="s">
         <v>129</v>
       </c>
-      <c r="AQ20" t="s">
-        <v>249</v>
-      </c>
-      <c r="AR20" t="s">
-        <v>185</v>
-      </c>
       <c r="AS20" t="s">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:45" x14ac:dyDescent="0.2">
@@ -3671,34 +3485,22 @@
         <v>130</v>
       </c>
       <c r="AH21" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AI21" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM21" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AN21" t="s">
-        <v>183</v>
-      </c>
-      <c r="AO21" t="s">
-        <v>184</v>
-      </c>
-      <c r="AP21" t="s">
-        <v>129</v>
-      </c>
-      <c r="AQ21" t="s">
-        <v>249</v>
-      </c>
-      <c r="AR21" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="AS21" t="s">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:45" x14ac:dyDescent="0.2">
@@ -3787,34 +3589,28 @@
         <v>130</v>
       </c>
       <c r="AH22" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AI22" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM22" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AN22" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="AO22" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="AP22" t="s">
         <v>129</v>
       </c>
-      <c r="AQ22" t="s">
-        <v>249</v>
-      </c>
-      <c r="AR22" t="s">
-        <v>185</v>
-      </c>
       <c r="AS22" t="s">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:45" x14ac:dyDescent="0.2">
@@ -3903,34 +3699,28 @@
         <v>130</v>
       </c>
       <c r="AH23" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AI23" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM23" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AN23" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="AO23" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="AP23" t="s">
         <v>129</v>
       </c>
-      <c r="AQ23" t="s">
-        <v>249</v>
-      </c>
-      <c r="AR23" t="s">
-        <v>185</v>
-      </c>
       <c r="AS23" t="s">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:45" x14ac:dyDescent="0.2">
@@ -4019,34 +3809,22 @@
         <v>130</v>
       </c>
       <c r="AH24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AI24" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM24" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AN24" t="s">
-        <v>183</v>
-      </c>
-      <c r="AO24" t="s">
-        <v>184</v>
-      </c>
-      <c r="AP24" t="s">
-        <v>129</v>
-      </c>
-      <c r="AQ24" t="s">
-        <v>249</v>
-      </c>
-      <c r="AR24" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="AS24" t="s">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:45" x14ac:dyDescent="0.2">
@@ -4135,34 +3913,22 @@
         <v>130</v>
       </c>
       <c r="AH25" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AI25" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ25" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM25" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AN25" t="s">
-        <v>183</v>
-      </c>
-      <c r="AO25" t="s">
-        <v>184</v>
-      </c>
-      <c r="AP25" t="s">
-        <v>129</v>
-      </c>
-      <c r="AQ25" t="s">
-        <v>249</v>
-      </c>
-      <c r="AR25" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="AS25" t="s">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:45" x14ac:dyDescent="0.2">
@@ -4251,34 +4017,22 @@
         <v>130</v>
       </c>
       <c r="AH26" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AI26" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ26" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM26" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AN26" t="s">
-        <v>183</v>
-      </c>
-      <c r="AO26" t="s">
-        <v>184</v>
-      </c>
-      <c r="AP26" t="s">
-        <v>129</v>
-      </c>
-      <c r="AQ26" t="s">
-        <v>249</v>
-      </c>
-      <c r="AR26" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="AS26" t="s">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:45" x14ac:dyDescent="0.2">
@@ -4367,34 +4121,28 @@
         <v>130</v>
       </c>
       <c r="AH27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AI27" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM27" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AN27" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="AO27" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="AP27" t="s">
         <v>129</v>
       </c>
-      <c r="AQ27" t="s">
-        <v>249</v>
-      </c>
-      <c r="AR27" t="s">
-        <v>185</v>
-      </c>
       <c r="AS27" t="s">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:45" x14ac:dyDescent="0.2">
@@ -4483,34 +4231,28 @@
         <v>130</v>
       </c>
       <c r="AH28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AI28" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ28" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM28" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AN28" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="AO28" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="AP28" t="s">
         <v>129</v>
       </c>
-      <c r="AQ28" t="s">
-        <v>249</v>
-      </c>
-      <c r="AR28" t="s">
-        <v>185</v>
-      </c>
       <c r="AS28" t="s">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:45" x14ac:dyDescent="0.2">
@@ -4599,34 +4341,22 @@
         <v>130</v>
       </c>
       <c r="AH29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AI29" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ29" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM29" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AN29" t="s">
-        <v>183</v>
-      </c>
-      <c r="AO29" t="s">
-        <v>184</v>
-      </c>
-      <c r="AP29" t="s">
-        <v>129</v>
-      </c>
-      <c r="AQ29" t="s">
-        <v>249</v>
-      </c>
-      <c r="AR29" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="AS29" t="s">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:45" x14ac:dyDescent="0.2">
@@ -4715,34 +4445,28 @@
         <v>130</v>
       </c>
       <c r="AH30" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AI30" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ30" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM30" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AN30" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="AO30" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="AP30" t="s">
         <v>129</v>
       </c>
-      <c r="AQ30" t="s">
-        <v>249</v>
-      </c>
-      <c r="AR30" t="s">
-        <v>185</v>
-      </c>
       <c r="AS30" t="s">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:45" x14ac:dyDescent="0.2">
@@ -4831,34 +4555,28 @@
         <v>130</v>
       </c>
       <c r="AH31" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AI31" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ31" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM31" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AN31" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="AO31" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="AP31" t="s">
         <v>129</v>
       </c>
-      <c r="AQ31" t="s">
-        <v>249</v>
-      </c>
-      <c r="AR31" t="s">
-        <v>185</v>
-      </c>
       <c r="AS31" t="s">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:45" x14ac:dyDescent="0.2">
@@ -4947,34 +4665,28 @@
         <v>130</v>
       </c>
       <c r="AH32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AI32" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ32" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM32" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AN32" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="AO32" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="AP32" t="s">
         <v>129</v>
       </c>
-      <c r="AQ32" t="s">
-        <v>249</v>
-      </c>
-      <c r="AR32" t="s">
-        <v>185</v>
-      </c>
       <c r="AS32" t="s">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="33" spans="1:45" x14ac:dyDescent="0.2">
@@ -5063,34 +4775,28 @@
         <v>130</v>
       </c>
       <c r="AH33" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AI33" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ33" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM33" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AN33" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="AO33" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="AP33" t="s">
         <v>129</v>
       </c>
-      <c r="AQ33" t="s">
-        <v>249</v>
-      </c>
-      <c r="AR33" t="s">
-        <v>185</v>
-      </c>
       <c r="AS33" t="s">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34" spans="1:45" x14ac:dyDescent="0.2">
@@ -5179,34 +4885,28 @@
         <v>130</v>
       </c>
       <c r="AH34" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AI34" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ34" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM34" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AN34" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="AO34" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="AP34" t="s">
         <v>129</v>
       </c>
-      <c r="AQ34" t="s">
-        <v>249</v>
-      </c>
-      <c r="AR34" t="s">
-        <v>185</v>
-      </c>
       <c r="AS34" t="s">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="35" spans="1:45" x14ac:dyDescent="0.2">
@@ -5295,34 +4995,28 @@
         <v>130</v>
       </c>
       <c r="AH35" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AI35" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ35" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM35" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AN35" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="AO35" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="AP35" t="s">
         <v>129</v>
       </c>
-      <c r="AQ35" t="s">
-        <v>249</v>
-      </c>
-      <c r="AR35" t="s">
-        <v>185</v>
-      </c>
       <c r="AS35" t="s">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="36" spans="1:45" x14ac:dyDescent="0.2">
@@ -5411,34 +5105,28 @@
         <v>130</v>
       </c>
       <c r="AH36" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AI36" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ36" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM36" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AN36" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="AO36" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="AP36" t="s">
         <v>129</v>
       </c>
-      <c r="AQ36" t="s">
-        <v>249</v>
-      </c>
-      <c r="AR36" t="s">
-        <v>185</v>
-      </c>
       <c r="AS36" t="s">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="37" spans="1:45" x14ac:dyDescent="0.2">
@@ -5527,34 +5215,28 @@
         <v>130</v>
       </c>
       <c r="AH37" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AI37" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ37" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM37" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AN37" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="AO37" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="AP37" t="s">
         <v>129</v>
       </c>
-      <c r="AQ37" t="s">
-        <v>249</v>
-      </c>
-      <c r="AR37" t="s">
-        <v>185</v>
-      </c>
       <c r="AS37" t="s">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38" spans="1:45" x14ac:dyDescent="0.2">
@@ -5643,34 +5325,28 @@
         <v>130</v>
       </c>
       <c r="AH38" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AI38" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ38" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM38" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AN38" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="AO38" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="AP38" t="s">
         <v>129</v>
       </c>
-      <c r="AQ38" t="s">
-        <v>249</v>
-      </c>
-      <c r="AR38" t="s">
-        <v>185</v>
-      </c>
       <c r="AS38" t="s">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="39" spans="1:45" x14ac:dyDescent="0.2">
@@ -5759,34 +5435,28 @@
         <v>130</v>
       </c>
       <c r="AH39" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AI39" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ39" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM39" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AN39" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="AO39" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="AP39" t="s">
         <v>129</v>
       </c>
-      <c r="AQ39" t="s">
-        <v>249</v>
-      </c>
-      <c r="AR39" t="s">
-        <v>185</v>
-      </c>
       <c r="AS39" t="s">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:45" x14ac:dyDescent="0.2">
@@ -5875,28 +5545,22 @@
         <v>130</v>
       </c>
       <c r="AH40" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AM40" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AN40" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="AO40" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="AP40" t="s">
         <v>129</v>
       </c>
-      <c r="AQ40" t="s">
-        <v>249</v>
-      </c>
-      <c r="AR40" t="s">
-        <v>185</v>
-      </c>
       <c r="AS40" t="s">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="41" spans="1:45" x14ac:dyDescent="0.2">
@@ -5985,28 +5649,22 @@
         <v>130</v>
       </c>
       <c r="AH41" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AM41" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AN41" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="AO41" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="AP41" t="s">
         <v>129</v>
       </c>
-      <c r="AQ41" t="s">
-        <v>249</v>
-      </c>
-      <c r="AR41" t="s">
-        <v>185</v>
-      </c>
       <c r="AS41" t="s">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="42" spans="1:45" x14ac:dyDescent="0.2">
@@ -6095,28 +5753,22 @@
         <v>130</v>
       </c>
       <c r="AH42" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AM42" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AN42" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="AO42" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="AP42" t="s">
         <v>129</v>
       </c>
-      <c r="AQ42" t="s">
-        <v>249</v>
-      </c>
-      <c r="AR42" t="s">
-        <v>185</v>
-      </c>
       <c r="AS42" t="s">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="43" spans="1:45" x14ac:dyDescent="0.2">
@@ -6202,37 +5854,31 @@
         <v>129</v>
       </c>
       <c r="AG43" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AH43" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AI43" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ43" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM43" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AN43" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="AO43" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="AP43" t="s">
-        <v>185</v>
-      </c>
-      <c r="AQ43" t="s">
-        <v>249</v>
-      </c>
-      <c r="AR43" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="AS43" t="s">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="44" spans="1:45" x14ac:dyDescent="0.2">
@@ -6321,34 +5967,28 @@
         <v>130</v>
       </c>
       <c r="AH44" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AI44" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ44" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM44" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AN44" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="AO44" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="AP44" t="s">
         <v>129</v>
       </c>
-      <c r="AQ44" t="s">
-        <v>249</v>
-      </c>
-      <c r="AR44" t="s">
-        <v>185</v>
-      </c>
       <c r="AS44" t="s">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="45" spans="1:45" x14ac:dyDescent="0.2">
@@ -6437,34 +6077,28 @@
         <v>130</v>
       </c>
       <c r="AH45" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AI45" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ45" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM45" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AN45" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="AO45" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="AP45" t="s">
         <v>129</v>
       </c>
-      <c r="AQ45" t="s">
-        <v>249</v>
-      </c>
-      <c r="AR45" t="s">
-        <v>185</v>
-      </c>
       <c r="AS45" t="s">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="46" spans="1:45" x14ac:dyDescent="0.2">
@@ -6550,37 +6184,31 @@
         <v>129</v>
       </c>
       <c r="AG46" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AH46" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AI46" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ46" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM46" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AN46" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="AO46" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="AP46" t="s">
-        <v>185</v>
-      </c>
-      <c r="AQ46" t="s">
-        <v>249</v>
-      </c>
-      <c r="AR46" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="AS46" t="s">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="47" spans="1:45" x14ac:dyDescent="0.2">
@@ -6669,28 +6297,22 @@
         <v>130</v>
       </c>
       <c r="AH47" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AM47" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AN47" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="AO47" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="AP47" t="s">
         <v>129</v>
       </c>
-      <c r="AQ47" t="s">
-        <v>249</v>
-      </c>
-      <c r="AR47" t="s">
-        <v>185</v>
-      </c>
       <c r="AS47" t="s">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="48" spans="1:45" x14ac:dyDescent="0.2">
@@ -6779,28 +6401,22 @@
         <v>130</v>
       </c>
       <c r="AH48" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AM48" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AN48" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="AO48" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="AP48" t="s">
         <v>129</v>
       </c>
-      <c r="AQ48" t="s">
-        <v>249</v>
-      </c>
-      <c r="AR48" t="s">
-        <v>185</v>
-      </c>
       <c r="AS48" t="s">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="49" spans="1:45" x14ac:dyDescent="0.2">
@@ -6889,28 +6505,22 @@
         <v>130</v>
       </c>
       <c r="AH49" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AM49" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AN49" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="AO49" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="AP49" t="s">
         <v>129</v>
       </c>
-      <c r="AQ49" t="s">
-        <v>249</v>
-      </c>
-      <c r="AR49" t="s">
-        <v>185</v>
-      </c>
       <c r="AS49" t="s">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="50" spans="1:45" x14ac:dyDescent="0.2">
@@ -6999,34 +6609,28 @@
         <v>130</v>
       </c>
       <c r="AH50" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AI50" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ50" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM50" t="s">
-        <v>237</v>
+        <v>184</v>
       </c>
       <c r="AN50" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="AO50" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="AP50" t="s">
         <v>129</v>
       </c>
-      <c r="AQ50" t="s">
-        <v>249</v>
-      </c>
-      <c r="AR50" t="s">
-        <v>185</v>
-      </c>
       <c r="AS50" t="s">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="51" spans="1:45" x14ac:dyDescent="0.2">
@@ -7115,34 +6719,28 @@
         <v>130</v>
       </c>
       <c r="AH51" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AI51" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ51" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM51" t="s">
-        <v>236</v>
+        <v>185</v>
       </c>
       <c r="AN51" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="AO51" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="AP51" t="s">
         <v>129</v>
       </c>
-      <c r="AQ51" t="s">
-        <v>249</v>
-      </c>
-      <c r="AR51" t="s">
-        <v>185</v>
-      </c>
       <c r="AS51" t="s">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="52" spans="1:45" x14ac:dyDescent="0.2">
@@ -7231,34 +6829,22 @@
         <v>130</v>
       </c>
       <c r="AH52" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AI52" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ52" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM52" t="s">
-        <v>238</v>
+        <v>186</v>
       </c>
       <c r="AN52" t="s">
-        <v>183</v>
-      </c>
-      <c r="AO52" t="s">
-        <v>184</v>
-      </c>
-      <c r="AP52" t="s">
-        <v>129</v>
-      </c>
-      <c r="AQ52" t="s">
-        <v>249</v>
-      </c>
-      <c r="AR52" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="AS52" t="s">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="53" spans="1:45" x14ac:dyDescent="0.2">
@@ -7347,34 +6933,28 @@
         <v>130</v>
       </c>
       <c r="AH53" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AI53" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ53" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM53" t="s">
-        <v>239</v>
+        <v>187</v>
       </c>
       <c r="AN53" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="AO53" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="AP53" t="s">
         <v>129</v>
       </c>
-      <c r="AQ53" t="s">
-        <v>249</v>
-      </c>
-      <c r="AR53" t="s">
-        <v>185</v>
-      </c>
       <c r="AS53" t="s">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="54" spans="1:45" x14ac:dyDescent="0.2">
@@ -7463,34 +7043,28 @@
         <v>130</v>
       </c>
       <c r="AH54" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AI54" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ54" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM54" t="s">
-        <v>240</v>
+        <v>188</v>
       </c>
       <c r="AN54" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="AO54" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="AP54" t="s">
         <v>129</v>
       </c>
-      <c r="AQ54" t="s">
-        <v>249</v>
-      </c>
-      <c r="AR54" t="s">
-        <v>185</v>
-      </c>
       <c r="AS54" t="s">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="55" spans="1:45" x14ac:dyDescent="0.2">
@@ -7579,34 +7153,28 @@
         <v>130</v>
       </c>
       <c r="AH55" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AI55" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ55" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM55" t="s">
-        <v>241</v>
+        <v>189</v>
       </c>
       <c r="AN55" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="AO55" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="AP55" t="s">
         <v>129</v>
       </c>
-      <c r="AQ55" t="s">
-        <v>249</v>
-      </c>
-      <c r="AR55" t="s">
-        <v>185</v>
-      </c>
       <c r="AS55" t="s">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="56" spans="1:45" x14ac:dyDescent="0.2">
@@ -7695,34 +7263,28 @@
         <v>130</v>
       </c>
       <c r="AH56" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AI56" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ56" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM56" t="s">
-        <v>242</v>
+        <v>190</v>
       </c>
       <c r="AN56" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="AO56" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="AP56" t="s">
         <v>129</v>
       </c>
-      <c r="AQ56" t="s">
-        <v>249</v>
-      </c>
-      <c r="AR56" t="s">
-        <v>185</v>
-      </c>
       <c r="AS56" t="s">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="57" spans="1:45" x14ac:dyDescent="0.2">
@@ -7811,34 +7373,28 @@
         <v>130</v>
       </c>
       <c r="AH57" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AI57" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ57" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM57" t="s">
-        <v>243</v>
+        <v>191</v>
       </c>
       <c r="AN57" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="AO57" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="AP57" t="s">
         <v>129</v>
       </c>
-      <c r="AQ57" t="s">
-        <v>249</v>
-      </c>
-      <c r="AR57" t="s">
-        <v>185</v>
-      </c>
       <c r="AS57" t="s">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="58" spans="1:45" x14ac:dyDescent="0.2">
@@ -7924,37 +7480,31 @@
         <v>129</v>
       </c>
       <c r="AG58" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AH58" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AI58" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ58" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM58" t="s">
-        <v>244</v>
+        <v>192</v>
       </c>
       <c r="AN58" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="AO58" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="AP58" t="s">
-        <v>129</v>
-      </c>
-      <c r="AQ58" t="s">
-        <v>249</v>
-      </c>
-      <c r="AR58" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="AS58" t="s">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="59" spans="1:45" x14ac:dyDescent="0.2">
@@ -8040,37 +7590,31 @@
         <v>129</v>
       </c>
       <c r="AG59" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AH59" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AI59" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ59" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM59" t="s">
-        <v>245</v>
+        <v>193</v>
       </c>
       <c r="AN59" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="AO59" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="AP59" t="s">
-        <v>129</v>
-      </c>
-      <c r="AQ59" t="s">
-        <v>249</v>
-      </c>
-      <c r="AR59" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="AS59" t="s">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="60" spans="1:45" x14ac:dyDescent="0.2">
@@ -8156,37 +7700,31 @@
         <v>129</v>
       </c>
       <c r="AG60" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AH60" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AI60" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ60" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM60" t="s">
-        <v>246</v>
+        <v>194</v>
       </c>
       <c r="AN60" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="AO60" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="AP60" t="s">
-        <v>129</v>
-      </c>
-      <c r="AQ60" t="s">
-        <v>249</v>
-      </c>
-      <c r="AR60" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="AS60" t="s">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="61" spans="1:45" x14ac:dyDescent="0.2">
@@ -8272,31 +7810,25 @@
         <v>129</v>
       </c>
       <c r="AG61" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AH61" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AM61" t="s">
-        <v>247</v>
+        <v>195</v>
       </c>
       <c r="AN61" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="AO61" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="AP61" t="s">
-        <v>129</v>
-      </c>
-      <c r="AQ61" t="s">
-        <v>249</v>
-      </c>
-      <c r="AR61" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="AS61" t="s">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="62" spans="1:45" x14ac:dyDescent="0.2">
@@ -8382,34 +7914,28 @@
         <v>129</v>
       </c>
       <c r="AG62" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AH62" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AI62" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ62" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AN62" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="AO62" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="AP62" t="s">
-        <v>129</v>
-      </c>
-      <c r="AQ62" t="s">
-        <v>249</v>
-      </c>
-      <c r="AR62" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="AS62" t="s">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="63" spans="1:45" x14ac:dyDescent="0.2">
@@ -8498,34 +8024,28 @@
         <v>130</v>
       </c>
       <c r="AH63" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AI63" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ63" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM63" t="s">
-        <v>248</v>
+        <v>196</v>
       </c>
       <c r="AN63" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="AO63" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="AP63" t="s">
         <v>129</v>
       </c>
-      <c r="AQ63" t="s">
-        <v>249</v>
-      </c>
-      <c r="AR63" t="s">
-        <v>185</v>
-      </c>
       <c r="AS63" t="s">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -8607,13 +8127,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -8621,10 +8141,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="C2" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -8632,10 +8152,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="C3" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -8643,10 +8163,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="C4" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -8654,10 +8174,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="C5" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -8665,10 +8185,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="C6" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -8676,10 +8196,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="C7" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -8687,10 +8207,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="C8" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -8698,10 +8218,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="C9" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -8709,10 +8229,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="C10" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -8720,10 +8240,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="C11" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -8731,10 +8251,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="C12" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -8742,10 +8262,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="C13" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -8753,10 +8273,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="C14" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -8764,10 +8284,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="C15" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -8775,10 +8295,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="C16" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -8786,10 +8306,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="C17" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -8797,10 +8317,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="C18" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -8808,10 +8328,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="C19" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -8819,10 +8339,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="C20" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -8830,10 +8350,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="C21" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -8841,10 +8361,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="C22" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -8852,10 +8372,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="C23" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -8863,10 +8383,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="C24" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -8874,10 +8394,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="C25" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -8885,10 +8405,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="C26" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -8896,10 +8416,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="C27" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -8907,10 +8427,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="C28" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -8918,10 +8438,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="C29" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -8929,10 +8449,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="C30" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -8940,10 +8460,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="C31" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -8951,10 +8471,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="C32" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -8962,10 +8482,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="C33" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -8973,10 +8493,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="C34" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -8984,10 +8504,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="C35" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -8995,10 +8515,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="C36" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -9006,10 +8526,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="C37" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -9017,10 +8537,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="C38" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -9028,10 +8548,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="C39" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -9039,10 +8559,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="C40" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -9050,10 +8570,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="C41" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -9061,10 +8581,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="C42" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -9072,10 +8592,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="C43" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -9083,10 +8603,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="C44" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -9094,10 +8614,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="C45" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -9105,10 +8625,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="C46" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/raw/project_UVP_standardizer.xlsx
+++ b/raw/project_UVP_standardizer.xlsx
@@ -1,27 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11009"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dugennem/GIT/PSSdb_LOV_orga/Data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972F55F0-72B5-DE4C-81A9-C8A7F55E7246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="760" windowWidth="22260" windowHeight="13840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Metadata" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2318" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2320" uniqueCount="253">
   <si>
     <t>Project_ID</t>
   </si>
@@ -344,7 +338,7 @@
     <t>https://ecotaxa.obs-vlfr.fr/prj/5254</t>
   </si>
   <si>
-    <t>~/GIT/PSSdb_LOV_orga/Data/API/UVP</t>
+    <t>~/GIT/PSSdb/raw/API/UVP</t>
   </si>
   <si>
     <t>UVP</t>
@@ -429,6 +423,12 @@
   </si>
   <si>
     <t>object_annotation_status</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/Flags/UVP/ecotaxa_export_22_20220929_1317_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/Flags/UVP/ecotaxa_export_110_20221007_1442_flags.tsv</t>
   </si>
   <si>
     <t>uvp5_sn003_sargasso_a,uvp5_sn003_sargasso_b</t>
@@ -779,8 +779,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -856,14 +856,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -910,7 +902,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -942,27 +934,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -994,24 +968,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1187,16 +1143,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AS63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AK2" sqref="AK2:AK30"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1333,7 +1287,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:45">
       <c r="A2">
         <v>22</v>
       </c>
@@ -1427,23 +1381,26 @@
       <c r="AJ2" t="s">
         <v>135</v>
       </c>
+      <c r="AK2" t="s">
+        <v>136</v>
+      </c>
       <c r="AM2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AN2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AO2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AP2" t="s">
         <v>129</v>
       </c>
       <c r="AS2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45">
       <c r="A3">
         <v>110</v>
       </c>
@@ -1537,23 +1494,26 @@
       <c r="AJ3" t="s">
         <v>135</v>
       </c>
+      <c r="AK3" t="s">
+        <v>137</v>
+      </c>
       <c r="AM3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AN3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AO3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AP3" t="s">
         <v>129</v>
       </c>
       <c r="AS3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45">
       <c r="A4">
         <v>214</v>
       </c>
@@ -1648,22 +1608,22 @@
         <v>135</v>
       </c>
       <c r="AM4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AN4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AO4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AP4" t="s">
         <v>129</v>
       </c>
       <c r="AS4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45">
       <c r="A5">
         <v>507</v>
       </c>
@@ -1758,22 +1718,22 @@
         <v>135</v>
       </c>
       <c r="AM5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AN5" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AO5" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AP5" t="s">
         <v>129</v>
       </c>
       <c r="AS5" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45">
       <c r="A6">
         <v>545</v>
       </c>
@@ -1868,22 +1828,22 @@
         <v>135</v>
       </c>
       <c r="AM6" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AN6" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AO6" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AP6" t="s">
         <v>129</v>
       </c>
       <c r="AS6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45">
       <c r="A7">
         <v>548</v>
       </c>
@@ -1978,22 +1938,22 @@
         <v>135</v>
       </c>
       <c r="AM7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AN7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AO7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AP7" t="s">
         <v>129</v>
       </c>
       <c r="AS7" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45">
       <c r="A8">
         <v>556</v>
       </c>
@@ -2088,16 +2048,16 @@
         <v>135</v>
       </c>
       <c r="AM8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AN8" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AS8" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:45">
       <c r="A9">
         <v>558</v>
       </c>
@@ -2192,16 +2152,16 @@
         <v>135</v>
       </c>
       <c r="AM9" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AN9" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AS9" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:45">
       <c r="A10">
         <v>559</v>
       </c>
@@ -2296,22 +2256,22 @@
         <v>135</v>
       </c>
       <c r="AM10" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AN10" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AO10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AP10" t="s">
         <v>129</v>
       </c>
       <c r="AS10" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45">
       <c r="A11">
         <v>560</v>
       </c>
@@ -2406,22 +2366,22 @@
         <v>135</v>
       </c>
       <c r="AM11" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AN11" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AO11" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AP11" t="s">
         <v>129</v>
       </c>
       <c r="AS11" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:45">
       <c r="A12">
         <v>563</v>
       </c>
@@ -2516,22 +2476,22 @@
         <v>135</v>
       </c>
       <c r="AM12" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AN12" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AO12" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AP12" t="s">
         <v>129</v>
       </c>
       <c r="AS12" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="13" spans="1:45">
       <c r="A13">
         <v>579</v>
       </c>
@@ -2626,22 +2586,22 @@
         <v>135</v>
       </c>
       <c r="AM13" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AN13" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AO13" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AP13" t="s">
         <v>129</v>
       </c>
       <c r="AS13" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:45">
       <c r="A14">
         <v>584</v>
       </c>
@@ -2736,22 +2696,22 @@
         <v>135</v>
       </c>
       <c r="AM14" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AN14" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AO14" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AP14" t="s">
         <v>129</v>
       </c>
       <c r="AS14" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:45">
       <c r="A15">
         <v>585</v>
       </c>
@@ -2846,16 +2806,16 @@
         <v>135</v>
       </c>
       <c r="AM15" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AN15" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AS15" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:45">
       <c r="A16">
         <v>586</v>
       </c>
@@ -2950,22 +2910,22 @@
         <v>135</v>
       </c>
       <c r="AM16" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AN16" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AO16" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AP16" t="s">
         <v>129</v>
       </c>
       <c r="AS16" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:45">
       <c r="A17">
         <v>587</v>
       </c>
@@ -3060,16 +3020,16 @@
         <v>135</v>
       </c>
       <c r="AM17" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AN17" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AS17" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="18" spans="1:45">
       <c r="A18">
         <v>588</v>
       </c>
@@ -3164,22 +3124,22 @@
         <v>135</v>
       </c>
       <c r="AM18" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AN18" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AO18" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AP18" t="s">
         <v>129</v>
       </c>
       <c r="AS18" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19" spans="1:45" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="19" spans="1:45">
       <c r="A19">
         <v>589</v>
       </c>
@@ -3274,22 +3234,22 @@
         <v>135</v>
       </c>
       <c r="AM19" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AN19" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AO19" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AP19" t="s">
         <v>129</v>
       </c>
       <c r="AS19" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="20" spans="1:45" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="20" spans="1:45">
       <c r="A20">
         <v>590</v>
       </c>
@@ -3384,22 +3344,22 @@
         <v>135</v>
       </c>
       <c r="AM20" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AN20" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AO20" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AP20" t="s">
         <v>129</v>
       </c>
       <c r="AS20" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21" spans="1:45" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="21" spans="1:45">
       <c r="A21">
         <v>593</v>
       </c>
@@ -3494,16 +3454,16 @@
         <v>135</v>
       </c>
       <c r="AM21" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AN21" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AS21" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22" spans="1:45" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="22" spans="1:45">
       <c r="A22">
         <v>594</v>
       </c>
@@ -3598,22 +3558,22 @@
         <v>135</v>
       </c>
       <c r="AM22" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AN22" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AO22" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AP22" t="s">
         <v>129</v>
       </c>
       <c r="AS22" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="23" spans="1:45" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="23" spans="1:45">
       <c r="A23">
         <v>595</v>
       </c>
@@ -3708,22 +3668,22 @@
         <v>135</v>
       </c>
       <c r="AM23" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AN23" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AO23" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AP23" t="s">
         <v>129</v>
       </c>
       <c r="AS23" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24" spans="1:45" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="24" spans="1:45">
       <c r="A24">
         <v>602</v>
       </c>
@@ -3818,16 +3778,16 @@
         <v>135</v>
       </c>
       <c r="AM24" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AN24" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AS24" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="25" spans="1:45" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="25" spans="1:45">
       <c r="A25">
         <v>603</v>
       </c>
@@ -3922,16 +3882,16 @@
         <v>135</v>
       </c>
       <c r="AM25" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AN25" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AS25" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="26" spans="1:45" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="26" spans="1:45">
       <c r="A26">
         <v>610</v>
       </c>
@@ -4026,16 +3986,16 @@
         <v>135</v>
       </c>
       <c r="AM26" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AN26" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AS26" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="1:45" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="27" spans="1:45">
       <c r="A27">
         <v>620</v>
       </c>
@@ -4130,22 +4090,22 @@
         <v>135</v>
       </c>
       <c r="AM27" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AN27" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AO27" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AP27" t="s">
         <v>129</v>
       </c>
       <c r="AS27" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="1:45" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="28" spans="1:45">
       <c r="A28">
         <v>621</v>
       </c>
@@ -4240,22 +4200,22 @@
         <v>135</v>
       </c>
       <c r="AM28" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AN28" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AO28" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AP28" t="s">
         <v>129</v>
       </c>
       <c r="AS28" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="29" spans="1:45" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="29" spans="1:45">
       <c r="A29">
         <v>622</v>
       </c>
@@ -4350,16 +4310,16 @@
         <v>135</v>
       </c>
       <c r="AM29" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AN29" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AS29" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="30" spans="1:45" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="30" spans="1:45">
       <c r="A30">
         <v>651</v>
       </c>
@@ -4454,22 +4414,22 @@
         <v>135</v>
       </c>
       <c r="AM30" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AN30" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AO30" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AP30" t="s">
         <v>129</v>
       </c>
       <c r="AS30" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="31" spans="1:45" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="31" spans="1:45">
       <c r="A31">
         <v>855</v>
       </c>
@@ -4564,22 +4524,22 @@
         <v>135</v>
       </c>
       <c r="AM31" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AN31" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AO31" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AP31" t="s">
         <v>129</v>
       </c>
       <c r="AS31" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="32" spans="1:45" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="32" spans="1:45">
       <c r="A32">
         <v>881</v>
       </c>
@@ -4674,22 +4634,22 @@
         <v>135</v>
       </c>
       <c r="AM32" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AN32" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AO32" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AP32" t="s">
         <v>129</v>
       </c>
       <c r="AS32" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="33" spans="1:45" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="33" spans="1:45">
       <c r="A33">
         <v>1343</v>
       </c>
@@ -4784,22 +4744,22 @@
         <v>135</v>
       </c>
       <c r="AM33" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AN33" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AO33" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AP33" t="s">
         <v>129</v>
       </c>
       <c r="AS33" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="34" spans="1:45" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="34" spans="1:45">
       <c r="A34">
         <v>2465</v>
       </c>
@@ -4894,22 +4854,22 @@
         <v>135</v>
       </c>
       <c r="AM34" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AN34" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AO34" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AP34" t="s">
         <v>129</v>
       </c>
       <c r="AS34" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="35" spans="1:45" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="35" spans="1:45">
       <c r="A35">
         <v>2483</v>
       </c>
@@ -5004,22 +4964,22 @@
         <v>135</v>
       </c>
       <c r="AM35" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AN35" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AO35" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AP35" t="s">
         <v>129</v>
       </c>
       <c r="AS35" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="36" spans="1:45" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="36" spans="1:45">
       <c r="A36">
         <v>2806</v>
       </c>
@@ -5114,22 +5074,22 @@
         <v>135</v>
       </c>
       <c r="AM36" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AN36" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AO36" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AP36" t="s">
         <v>129</v>
       </c>
       <c r="AS36" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="37" spans="1:45" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="37" spans="1:45">
       <c r="A37">
         <v>2807</v>
       </c>
@@ -5224,22 +5184,22 @@
         <v>135</v>
       </c>
       <c r="AM37" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AN37" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AO37" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AP37" t="s">
         <v>129</v>
       </c>
       <c r="AS37" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="38" spans="1:45" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="38" spans="1:45">
       <c r="A38">
         <v>2808</v>
       </c>
@@ -5334,22 +5294,22 @@
         <v>135</v>
       </c>
       <c r="AM38" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AN38" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AO38" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AP38" t="s">
         <v>129</v>
       </c>
       <c r="AS38" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="39" spans="1:45">
       <c r="A39">
         <v>3117</v>
       </c>
@@ -5444,22 +5404,22 @@
         <v>135</v>
       </c>
       <c r="AM39" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AN39" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AO39" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AP39" t="s">
         <v>129</v>
       </c>
       <c r="AS39" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="40" spans="1:45">
       <c r="A40">
         <v>3403</v>
       </c>
@@ -5548,22 +5508,22 @@
         <v>132</v>
       </c>
       <c r="AM40" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AN40" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AO40" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AP40" t="s">
         <v>129</v>
       </c>
       <c r="AS40" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="41" spans="1:45">
       <c r="A41">
         <v>5197</v>
       </c>
@@ -5652,22 +5612,22 @@
         <v>132</v>
       </c>
       <c r="AM41" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AN41" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AO41" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AP41" t="s">
         <v>129</v>
       </c>
       <c r="AS41" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="42" spans="1:45">
       <c r="A42">
         <v>5208</v>
       </c>
@@ -5756,22 +5716,22 @@
         <v>132</v>
       </c>
       <c r="AM42" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AN42" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AO42" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AP42" t="s">
         <v>129</v>
       </c>
       <c r="AS42" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="43" spans="1:45">
       <c r="A43">
         <v>5680</v>
       </c>
@@ -5866,22 +5826,22 @@
         <v>135</v>
       </c>
       <c r="AM43" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AN43" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AO43" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AP43" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AS43" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="44" spans="1:45">
       <c r="A44">
         <v>5690</v>
       </c>
@@ -5976,22 +5936,22 @@
         <v>135</v>
       </c>
       <c r="AM44" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AN44" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AO44" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AP44" t="s">
         <v>129</v>
       </c>
       <c r="AS44" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="45" spans="1:45" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="45" spans="1:45">
       <c r="A45">
         <v>5693</v>
       </c>
@@ -6086,22 +6046,22 @@
         <v>135</v>
       </c>
       <c r="AM45" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AN45" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AO45" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AP45" t="s">
         <v>129</v>
       </c>
       <c r="AS45" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="46" spans="1:45">
       <c r="A46">
         <v>6047</v>
       </c>
@@ -6196,22 +6156,22 @@
         <v>135</v>
       </c>
       <c r="AM46" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AN46" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AO46" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AP46" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AS46" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="47" spans="1:45">
       <c r="A47">
         <v>6702</v>
       </c>
@@ -6300,22 +6260,22 @@
         <v>132</v>
       </c>
       <c r="AM47" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AN47" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AO47" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AP47" t="s">
         <v>129</v>
       </c>
       <c r="AS47" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="48" spans="1:45" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="48" spans="1:45">
       <c r="A48">
         <v>6703</v>
       </c>
@@ -6404,22 +6364,22 @@
         <v>132</v>
       </c>
       <c r="AM48" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AN48" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AO48" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AP48" t="s">
         <v>129</v>
       </c>
       <c r="AS48" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="49" spans="1:45" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="49" spans="1:45">
       <c r="A49">
         <v>6704</v>
       </c>
@@ -6508,22 +6468,22 @@
         <v>132</v>
       </c>
       <c r="AM49" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AN49" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AO49" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AP49" t="s">
         <v>129</v>
       </c>
       <c r="AS49" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="50" spans="1:45" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="50" spans="1:45">
       <c r="A50">
         <v>3</v>
       </c>
@@ -6618,22 +6578,22 @@
         <v>135</v>
       </c>
       <c r="AM50" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AN50" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AO50" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AP50" t="s">
         <v>129</v>
       </c>
       <c r="AS50" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="51" spans="1:45" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="51" spans="1:45">
       <c r="A51">
         <v>4</v>
       </c>
@@ -6728,22 +6688,22 @@
         <v>135</v>
       </c>
       <c r="AM51" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AN51" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AO51" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AP51" t="s">
         <v>129</v>
       </c>
       <c r="AS51" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="52" spans="1:45" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="52" spans="1:45">
       <c r="A52">
         <v>28</v>
       </c>
@@ -6838,16 +6798,16 @@
         <v>135</v>
       </c>
       <c r="AM52" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AN52" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AS52" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="53" spans="1:45" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="53" spans="1:45">
       <c r="A53">
         <v>36</v>
       </c>
@@ -6942,22 +6902,22 @@
         <v>135</v>
       </c>
       <c r="AM53" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AN53" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AO53" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AP53" t="s">
         <v>129</v>
       </c>
       <c r="AS53" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="54" spans="1:45" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="54" spans="1:45">
       <c r="A54">
         <v>37</v>
       </c>
@@ -7052,22 +7012,22 @@
         <v>135</v>
       </c>
       <c r="AM54" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AN54" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AO54" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AP54" t="s">
         <v>129</v>
       </c>
       <c r="AS54" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="55" spans="1:45" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="55" spans="1:45">
       <c r="A55">
         <v>38</v>
       </c>
@@ -7162,22 +7122,22 @@
         <v>135</v>
       </c>
       <c r="AM55" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AN55" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AO55" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AP55" t="s">
         <v>129</v>
       </c>
       <c r="AS55" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="56" spans="1:45" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="56" spans="1:45">
       <c r="A56">
         <v>39</v>
       </c>
@@ -7272,22 +7232,22 @@
         <v>135</v>
       </c>
       <c r="AM56" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AN56" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AO56" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AP56" t="s">
         <v>129</v>
       </c>
       <c r="AS56" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="57" spans="1:45" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="57" spans="1:45">
       <c r="A57">
         <v>578</v>
       </c>
@@ -7382,22 +7342,22 @@
         <v>135</v>
       </c>
       <c r="AM57" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AN57" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AO57" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AP57" t="s">
         <v>129</v>
       </c>
       <c r="AS57" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="58" spans="1:45" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="58" spans="1:45">
       <c r="A58">
         <v>3278</v>
       </c>
@@ -7492,22 +7452,22 @@
         <v>135</v>
       </c>
       <c r="AM58" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AN58" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AO58" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AP58" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AS58" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="59" spans="1:45" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="59" spans="1:45">
       <c r="A59">
         <v>3327</v>
       </c>
@@ -7602,22 +7562,22 @@
         <v>135</v>
       </c>
       <c r="AM59" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AN59" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AO59" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AP59" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AS59" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="60" spans="1:45" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="60" spans="1:45">
       <c r="A60">
         <v>3887</v>
       </c>
@@ -7712,22 +7672,22 @@
         <v>135</v>
       </c>
       <c r="AM60" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AN60" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AO60" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AP60" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AS60" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="61" spans="1:45" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="61" spans="1:45">
       <c r="A61">
         <v>3943</v>
       </c>
@@ -7816,22 +7776,22 @@
         <v>132</v>
       </c>
       <c r="AM61" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AN61" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AO61" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AP61" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AS61" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="62" spans="1:45" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="62" spans="1:45">
       <c r="A62">
         <v>4591</v>
       </c>
@@ -7926,19 +7886,19 @@
         <v>135</v>
       </c>
       <c r="AN62" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AO62" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AP62" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AS62" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="63" spans="1:45" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="63" spans="1:45">
       <c r="A63">
         <v>5254</v>
       </c>
@@ -8033,602 +7993,602 @@
         <v>135</v>
       </c>
       <c r="AM63" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AN63" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AO63" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AP63" t="s">
         <v>129</v>
       </c>
       <c r="AS63" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="B11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="B12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="B13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="B15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="B16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="B17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="B18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="B19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="B20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="B21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="B22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="B23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="B24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="B25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="B26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="B27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="B28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="B29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="B30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="B31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="B32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="B33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="B34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="B35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="B36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="B37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="B38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="B39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="B40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="B41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="B42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="B43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="B44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="B45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="B46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="B47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="B48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="B49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="B50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="B51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="B52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="B53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="B54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="B55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="B56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="B57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="B58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="B59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="B60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="B61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="B62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="B63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="B11" r:id="rId10"/>
+    <hyperlink ref="B12" r:id="rId11"/>
+    <hyperlink ref="B13" r:id="rId12"/>
+    <hyperlink ref="B14" r:id="rId13"/>
+    <hyperlink ref="B15" r:id="rId14"/>
+    <hyperlink ref="B16" r:id="rId15"/>
+    <hyperlink ref="B17" r:id="rId16"/>
+    <hyperlink ref="B18" r:id="rId17"/>
+    <hyperlink ref="B19" r:id="rId18"/>
+    <hyperlink ref="B20" r:id="rId19"/>
+    <hyperlink ref="B21" r:id="rId20"/>
+    <hyperlink ref="B22" r:id="rId21"/>
+    <hyperlink ref="B23" r:id="rId22"/>
+    <hyperlink ref="B24" r:id="rId23"/>
+    <hyperlink ref="B25" r:id="rId24"/>
+    <hyperlink ref="B26" r:id="rId25"/>
+    <hyperlink ref="B27" r:id="rId26"/>
+    <hyperlink ref="B28" r:id="rId27"/>
+    <hyperlink ref="B29" r:id="rId28"/>
+    <hyperlink ref="B30" r:id="rId29"/>
+    <hyperlink ref="B31" r:id="rId30"/>
+    <hyperlink ref="B32" r:id="rId31"/>
+    <hyperlink ref="B33" r:id="rId32"/>
+    <hyperlink ref="B34" r:id="rId33"/>
+    <hyperlink ref="B35" r:id="rId34"/>
+    <hyperlink ref="B36" r:id="rId35"/>
+    <hyperlink ref="B37" r:id="rId36"/>
+    <hyperlink ref="B38" r:id="rId37"/>
+    <hyperlink ref="B39" r:id="rId38"/>
+    <hyperlink ref="B40" r:id="rId39"/>
+    <hyperlink ref="B41" r:id="rId40"/>
+    <hyperlink ref="B42" r:id="rId41"/>
+    <hyperlink ref="B43" r:id="rId42"/>
+    <hyperlink ref="B44" r:id="rId43"/>
+    <hyperlink ref="B45" r:id="rId44"/>
+    <hyperlink ref="B46" r:id="rId45"/>
+    <hyperlink ref="B47" r:id="rId46"/>
+    <hyperlink ref="B48" r:id="rId47"/>
+    <hyperlink ref="B49" r:id="rId48"/>
+    <hyperlink ref="B50" r:id="rId49"/>
+    <hyperlink ref="B51" r:id="rId50"/>
+    <hyperlink ref="B52" r:id="rId51"/>
+    <hyperlink ref="B53" r:id="rId52"/>
+    <hyperlink ref="B54" r:id="rId53"/>
+    <hyperlink ref="B55" r:id="rId54"/>
+    <hyperlink ref="B56" r:id="rId55"/>
+    <hyperlink ref="B57" r:id="rId56"/>
+    <hyperlink ref="B58" r:id="rId57"/>
+    <hyperlink ref="B59" r:id="rId58"/>
+    <hyperlink ref="B60" r:id="rId59"/>
+    <hyperlink ref="B61" r:id="rId60"/>
+    <hyperlink ref="B62" r:id="rId61"/>
+    <hyperlink ref="B63" r:id="rId62"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C5" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C7" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C8" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C9" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C11" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C12" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C13" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C14" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C15" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C16" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C17" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C18" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C19" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C20" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C21" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C22" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C23" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C24" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C25" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C26" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C27" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C28" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C29" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C30" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C31" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C32" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C33" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C34" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C35" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C36" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C37" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C38" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C39" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C40" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C41" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C42" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C43" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C44" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C45" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C46" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>

--- a/raw/project_UVP_standardizer.xlsx
+++ b/raw/project_UVP_standardizer.xlsx
@@ -425,10 +425,10 @@
     <t>object_annotation_status</t>
   </si>
   <si>
-    <t>~/GIT/PSSdb/raw/Flags/UVP/ecotaxa_export_22_20220929_1317_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/Flags/UVP/ecotaxa_export_110_20221007_1442_flags.tsv</t>
+    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_22_20220929_1317_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_110_20221007_1442_flags.tsv</t>
   </si>
   <si>
     <t>uvp5_sn003_sargasso_a,uvp5_sn003_sargasso_b</t>

--- a/raw/project_UVP_standardizer.xlsx
+++ b/raw/project_UVP_standardizer.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2320" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2380" uniqueCount="313">
   <si>
     <t>Project_ID</t>
   </si>
@@ -429,6 +429,186 @@
   </si>
   <si>
     <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_110_20221007_1442_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_214_20220929_1318_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_507_20220929_1325_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_545_20220929_1328_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_548_20221008_1224_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_556_20220929_1817_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_558_20220929_1821_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_559_20220929_1823_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_560_20220609_1315_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_563_20220929_1828_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_579_20220609_1319_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_584_20220829_1544_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_585_20221008_1235_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_586_20220929_1844_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_587_20220929_1845_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_588_20220929_1845_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_589_20220929_1846_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_590_20220929_1849_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_593_20220829_1547_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_594_20220929_1851_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_595_20220929_1851_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_602_20221008_1237_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_603_20220930_0408_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_610_20220930_0415_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_620_20221007_1444_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_621_20220930_0515_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_622_20220829_1554_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_651_20220930_0520_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_855_20221007_1452_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_881_20221007_1456_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_1343_20221008_1046_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_2465_20221007_1507_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_2483_20221007_1511_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_2806_20221007_1532_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_2807_20221007_1533_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_2808_20221007_1538_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_3117_20221007_1543_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_3403_20221008_1115_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_5197_20221008_1127_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_5208_20221008_1134_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_5680_20221007_1544_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_5690_20221007_1548_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_5693_20220610_0940_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_6047_20221007_1614_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_6702_20221008_1159_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_6703_20221008_1201_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_6704_20221008_1208_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_3_20221012_0944_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_4_20221012_0946_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_28_20221012_0954_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_36_20221012_0958_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_37_20221012_1001_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_38_20221012_1005_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_39_20221012_1007_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_578_20221012_1021_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_3278_20221012_1056_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_3327_20221012_1057_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_3887_20221012_1059_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_3943_20221012_1059_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_4591_20221012_1103_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_5254_20221012_1136_flags.tsv</t>
   </si>
   <si>
     <t>uvp5_sn003_sargasso_a,uvp5_sn003_sargasso_b</t>
@@ -1385,19 +1565,19 @@
         <v>136</v>
       </c>
       <c r="AM2" t="s">
-        <v>138</v>
+        <v>198</v>
       </c>
       <c r="AN2" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="AO2" t="s">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="AP2" t="s">
         <v>129</v>
       </c>
       <c r="AS2" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:45">
@@ -1498,19 +1678,19 @@
         <v>137</v>
       </c>
       <c r="AM3" t="s">
-        <v>139</v>
+        <v>199</v>
       </c>
       <c r="AN3" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="AO3" t="s">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="AP3" t="s">
         <v>129</v>
       </c>
       <c r="AS3" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:45">
@@ -1607,20 +1787,23 @@
       <c r="AJ4" t="s">
         <v>135</v>
       </c>
+      <c r="AK4" t="s">
+        <v>138</v>
+      </c>
       <c r="AM4" t="s">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="AN4" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="AO4" t="s">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="AP4" t="s">
         <v>129</v>
       </c>
       <c r="AS4" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:45">
@@ -1717,20 +1900,23 @@
       <c r="AJ5" t="s">
         <v>135</v>
       </c>
+      <c r="AK5" t="s">
+        <v>139</v>
+      </c>
       <c r="AM5" t="s">
-        <v>141</v>
+        <v>201</v>
       </c>
       <c r="AN5" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="AO5" t="s">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="AP5" t="s">
         <v>129</v>
       </c>
       <c r="AS5" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:45">
@@ -1827,20 +2013,23 @@
       <c r="AJ6" t="s">
         <v>135</v>
       </c>
+      <c r="AK6" t="s">
+        <v>140</v>
+      </c>
       <c r="AM6" t="s">
-        <v>142</v>
+        <v>202</v>
       </c>
       <c r="AN6" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="AO6" t="s">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="AP6" t="s">
         <v>129</v>
       </c>
       <c r="AS6" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:45">
@@ -1937,20 +2126,23 @@
       <c r="AJ7" t="s">
         <v>135</v>
       </c>
+      <c r="AK7" t="s">
+        <v>141</v>
+      </c>
       <c r="AM7" t="s">
-        <v>143</v>
+        <v>203</v>
       </c>
       <c r="AN7" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="AO7" t="s">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="AP7" t="s">
         <v>129</v>
       </c>
       <c r="AS7" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:45">
@@ -2047,14 +2239,17 @@
       <c r="AJ8" t="s">
         <v>135</v>
       </c>
+      <c r="AK8" t="s">
+        <v>142</v>
+      </c>
       <c r="AM8" t="s">
-        <v>144</v>
+        <v>204</v>
       </c>
       <c r="AN8" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="AS8" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:45">
@@ -2151,14 +2346,17 @@
       <c r="AJ9" t="s">
         <v>135</v>
       </c>
+      <c r="AK9" t="s">
+        <v>143</v>
+      </c>
       <c r="AM9" t="s">
-        <v>145</v>
+        <v>205</v>
       </c>
       <c r="AN9" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="AS9" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:45">
@@ -2255,20 +2453,23 @@
       <c r="AJ10" t="s">
         <v>135</v>
       </c>
+      <c r="AK10" t="s">
+        <v>144</v>
+      </c>
       <c r="AM10" t="s">
-        <v>146</v>
+        <v>206</v>
       </c>
       <c r="AN10" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="AO10" t="s">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="AP10" t="s">
         <v>129</v>
       </c>
       <c r="AS10" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:45">
@@ -2365,20 +2566,23 @@
       <c r="AJ11" t="s">
         <v>135</v>
       </c>
+      <c r="AK11" t="s">
+        <v>145</v>
+      </c>
       <c r="AM11" t="s">
-        <v>147</v>
+        <v>207</v>
       </c>
       <c r="AN11" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="AO11" t="s">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="AP11" t="s">
         <v>129</v>
       </c>
       <c r="AS11" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:45">
@@ -2475,20 +2679,23 @@
       <c r="AJ12" t="s">
         <v>135</v>
       </c>
+      <c r="AK12" t="s">
+        <v>146</v>
+      </c>
       <c r="AM12" t="s">
-        <v>148</v>
+        <v>208</v>
       </c>
       <c r="AN12" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="AO12" t="s">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="AP12" t="s">
         <v>129</v>
       </c>
       <c r="AS12" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:45">
@@ -2585,20 +2792,23 @@
       <c r="AJ13" t="s">
         <v>135</v>
       </c>
+      <c r="AK13" t="s">
+        <v>147</v>
+      </c>
       <c r="AM13" t="s">
-        <v>149</v>
+        <v>209</v>
       </c>
       <c r="AN13" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="AO13" t="s">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="AP13" t="s">
         <v>129</v>
       </c>
       <c r="AS13" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:45">
@@ -2695,20 +2905,23 @@
       <c r="AJ14" t="s">
         <v>135</v>
       </c>
+      <c r="AK14" t="s">
+        <v>148</v>
+      </c>
       <c r="AM14" t="s">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="AN14" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="AO14" t="s">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="AP14" t="s">
         <v>129</v>
       </c>
       <c r="AS14" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:45">
@@ -2805,14 +3018,17 @@
       <c r="AJ15" t="s">
         <v>135</v>
       </c>
+      <c r="AK15" t="s">
+        <v>149</v>
+      </c>
       <c r="AM15" t="s">
-        <v>151</v>
+        <v>211</v>
       </c>
       <c r="AN15" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="AS15" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:45">
@@ -2909,20 +3125,23 @@
       <c r="AJ16" t="s">
         <v>135</v>
       </c>
+      <c r="AK16" t="s">
+        <v>150</v>
+      </c>
       <c r="AM16" t="s">
-        <v>152</v>
+        <v>212</v>
       </c>
       <c r="AN16" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="AO16" t="s">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="AP16" t="s">
         <v>129</v>
       </c>
       <c r="AS16" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:45">
@@ -3019,14 +3238,17 @@
       <c r="AJ17" t="s">
         <v>135</v>
       </c>
+      <c r="AK17" t="s">
+        <v>151</v>
+      </c>
       <c r="AM17" t="s">
-        <v>153</v>
+        <v>213</v>
       </c>
       <c r="AN17" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="AS17" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18" spans="1:45">
@@ -3123,20 +3345,23 @@
       <c r="AJ18" t="s">
         <v>135</v>
       </c>
+      <c r="AK18" t="s">
+        <v>152</v>
+      </c>
       <c r="AM18" t="s">
-        <v>154</v>
+        <v>214</v>
       </c>
       <c r="AN18" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="AO18" t="s">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="AP18" t="s">
         <v>129</v>
       </c>
       <c r="AS18" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
     </row>
     <row r="19" spans="1:45">
@@ -3233,20 +3458,23 @@
       <c r="AJ19" t="s">
         <v>135</v>
       </c>
+      <c r="AK19" t="s">
+        <v>153</v>
+      </c>
       <c r="AM19" t="s">
-        <v>155</v>
+        <v>215</v>
       </c>
       <c r="AN19" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="AO19" t="s">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="AP19" t="s">
         <v>129</v>
       </c>
       <c r="AS19" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:45">
@@ -3343,20 +3571,23 @@
       <c r="AJ20" t="s">
         <v>135</v>
       </c>
+      <c r="AK20" t="s">
+        <v>154</v>
+      </c>
       <c r="AM20" t="s">
-        <v>156</v>
+        <v>216</v>
       </c>
       <c r="AN20" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="AO20" t="s">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="AP20" t="s">
         <v>129</v>
       </c>
       <c r="AS20" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:45">
@@ -3453,14 +3684,17 @@
       <c r="AJ21" t="s">
         <v>135</v>
       </c>
+      <c r="AK21" t="s">
+        <v>155</v>
+      </c>
       <c r="AM21" t="s">
-        <v>157</v>
+        <v>217</v>
       </c>
       <c r="AN21" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="AS21" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
     </row>
     <row r="22" spans="1:45">
@@ -3557,20 +3791,23 @@
       <c r="AJ22" t="s">
         <v>135</v>
       </c>
+      <c r="AK22" t="s">
+        <v>156</v>
+      </c>
       <c r="AM22" t="s">
-        <v>158</v>
+        <v>218</v>
       </c>
       <c r="AN22" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="AO22" t="s">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="AP22" t="s">
         <v>129</v>
       </c>
       <c r="AS22" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
     </row>
     <row r="23" spans="1:45">
@@ -3667,20 +3904,23 @@
       <c r="AJ23" t="s">
         <v>135</v>
       </c>
+      <c r="AK23" t="s">
+        <v>157</v>
+      </c>
       <c r="AM23" t="s">
-        <v>159</v>
+        <v>219</v>
       </c>
       <c r="AN23" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="AO23" t="s">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="AP23" t="s">
         <v>129</v>
       </c>
       <c r="AS23" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
     </row>
     <row r="24" spans="1:45">
@@ -3777,14 +4017,17 @@
       <c r="AJ24" t="s">
         <v>135</v>
       </c>
+      <c r="AK24" t="s">
+        <v>158</v>
+      </c>
       <c r="AM24" t="s">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="AN24" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="AS24" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
     </row>
     <row r="25" spans="1:45">
@@ -3881,14 +4124,17 @@
       <c r="AJ25" t="s">
         <v>135</v>
       </c>
+      <c r="AK25" t="s">
+        <v>159</v>
+      </c>
       <c r="AM25" t="s">
-        <v>161</v>
+        <v>221</v>
       </c>
       <c r="AN25" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="AS25" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
     </row>
     <row r="26" spans="1:45">
@@ -3985,14 +4231,17 @@
       <c r="AJ26" t="s">
         <v>135</v>
       </c>
+      <c r="AK26" t="s">
+        <v>160</v>
+      </c>
       <c r="AM26" t="s">
-        <v>162</v>
+        <v>222</v>
       </c>
       <c r="AN26" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="AS26" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:45">
@@ -4089,20 +4338,23 @@
       <c r="AJ27" t="s">
         <v>135</v>
       </c>
+      <c r="AK27" t="s">
+        <v>161</v>
+      </c>
       <c r="AM27" t="s">
-        <v>163</v>
+        <v>223</v>
       </c>
       <c r="AN27" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="AO27" t="s">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="AP27" t="s">
         <v>129</v>
       </c>
       <c r="AS27" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
     </row>
     <row r="28" spans="1:45">
@@ -4199,20 +4451,23 @@
       <c r="AJ28" t="s">
         <v>135</v>
       </c>
+      <c r="AK28" t="s">
+        <v>162</v>
+      </c>
       <c r="AM28" t="s">
-        <v>164</v>
+        <v>224</v>
       </c>
       <c r="AN28" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="AO28" t="s">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="AP28" t="s">
         <v>129</v>
       </c>
       <c r="AS28" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
     </row>
     <row r="29" spans="1:45">
@@ -4309,14 +4564,17 @@
       <c r="AJ29" t="s">
         <v>135</v>
       </c>
+      <c r="AK29" t="s">
+        <v>163</v>
+      </c>
       <c r="AM29" t="s">
-        <v>165</v>
+        <v>225</v>
       </c>
       <c r="AN29" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="AS29" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
     </row>
     <row r="30" spans="1:45">
@@ -4413,20 +4671,23 @@
       <c r="AJ30" t="s">
         <v>135</v>
       </c>
+      <c r="AK30" t="s">
+        <v>164</v>
+      </c>
       <c r="AM30" t="s">
-        <v>166</v>
+        <v>226</v>
       </c>
       <c r="AN30" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="AO30" t="s">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="AP30" t="s">
         <v>129</v>
       </c>
       <c r="AS30" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
     </row>
     <row r="31" spans="1:45">
@@ -4523,20 +4784,23 @@
       <c r="AJ31" t="s">
         <v>135</v>
       </c>
+      <c r="AK31" t="s">
+        <v>165</v>
+      </c>
       <c r="AM31" t="s">
-        <v>167</v>
+        <v>227</v>
       </c>
       <c r="AN31" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="AO31" t="s">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="AP31" t="s">
         <v>129</v>
       </c>
       <c r="AS31" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
     </row>
     <row r="32" spans="1:45">
@@ -4633,20 +4897,23 @@
       <c r="AJ32" t="s">
         <v>135</v>
       </c>
+      <c r="AK32" t="s">
+        <v>166</v>
+      </c>
       <c r="AM32" t="s">
-        <v>168</v>
+        <v>228</v>
       </c>
       <c r="AN32" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="AO32" t="s">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="AP32" t="s">
         <v>129</v>
       </c>
       <c r="AS32" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
     </row>
     <row r="33" spans="1:45">
@@ -4743,20 +5010,23 @@
       <c r="AJ33" t="s">
         <v>135</v>
       </c>
+      <c r="AK33" t="s">
+        <v>167</v>
+      </c>
       <c r="AM33" t="s">
-        <v>169</v>
+        <v>229</v>
       </c>
       <c r="AN33" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="AO33" t="s">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="AP33" t="s">
         <v>129</v>
       </c>
       <c r="AS33" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
     </row>
     <row r="34" spans="1:45">
@@ -4853,20 +5123,23 @@
       <c r="AJ34" t="s">
         <v>135</v>
       </c>
+      <c r="AK34" t="s">
+        <v>168</v>
+      </c>
       <c r="AM34" t="s">
-        <v>170</v>
+        <v>230</v>
       </c>
       <c r="AN34" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="AO34" t="s">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="AP34" t="s">
         <v>129</v>
       </c>
       <c r="AS34" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
     </row>
     <row r="35" spans="1:45">
@@ -4963,20 +5236,23 @@
       <c r="AJ35" t="s">
         <v>135</v>
       </c>
+      <c r="AK35" t="s">
+        <v>169</v>
+      </c>
       <c r="AM35" t="s">
-        <v>171</v>
+        <v>231</v>
       </c>
       <c r="AN35" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="AO35" t="s">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="AP35" t="s">
         <v>129</v>
       </c>
       <c r="AS35" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
     </row>
     <row r="36" spans="1:45">
@@ -5073,20 +5349,23 @@
       <c r="AJ36" t="s">
         <v>135</v>
       </c>
+      <c r="AK36" t="s">
+        <v>170</v>
+      </c>
       <c r="AM36" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="AN36" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="AO36" t="s">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="AP36" t="s">
         <v>129</v>
       </c>
       <c r="AS36" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
     </row>
     <row r="37" spans="1:45">
@@ -5183,20 +5462,23 @@
       <c r="AJ37" t="s">
         <v>135</v>
       </c>
+      <c r="AK37" t="s">
+        <v>171</v>
+      </c>
       <c r="AM37" t="s">
-        <v>173</v>
+        <v>233</v>
       </c>
       <c r="AN37" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="AO37" t="s">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="AP37" t="s">
         <v>129</v>
       </c>
       <c r="AS37" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
     </row>
     <row r="38" spans="1:45">
@@ -5293,20 +5575,23 @@
       <c r="AJ38" t="s">
         <v>135</v>
       </c>
+      <c r="AK38" t="s">
+        <v>172</v>
+      </c>
       <c r="AM38" t="s">
-        <v>174</v>
+        <v>234</v>
       </c>
       <c r="AN38" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="AO38" t="s">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="AP38" t="s">
         <v>129</v>
       </c>
       <c r="AS38" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
     </row>
     <row r="39" spans="1:45">
@@ -5403,20 +5688,23 @@
       <c r="AJ39" t="s">
         <v>135</v>
       </c>
+      <c r="AK39" t="s">
+        <v>173</v>
+      </c>
       <c r="AM39" t="s">
-        <v>175</v>
+        <v>235</v>
       </c>
       <c r="AN39" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="AO39" t="s">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="AP39" t="s">
         <v>129</v>
       </c>
       <c r="AS39" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
     </row>
     <row r="40" spans="1:45">
@@ -5507,20 +5795,23 @@
       <c r="AH40" t="s">
         <v>132</v>
       </c>
+      <c r="AK40" t="s">
+        <v>174</v>
+      </c>
       <c r="AM40" t="s">
-        <v>176</v>
+        <v>236</v>
       </c>
       <c r="AN40" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="AO40" t="s">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="AP40" t="s">
         <v>129</v>
       </c>
       <c r="AS40" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
     </row>
     <row r="41" spans="1:45">
@@ -5611,20 +5902,23 @@
       <c r="AH41" t="s">
         <v>132</v>
       </c>
+      <c r="AK41" t="s">
+        <v>175</v>
+      </c>
       <c r="AM41" t="s">
-        <v>177</v>
+        <v>237</v>
       </c>
       <c r="AN41" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="AO41" t="s">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="AP41" t="s">
         <v>129</v>
       </c>
       <c r="AS41" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
     </row>
     <row r="42" spans="1:45">
@@ -5715,20 +6009,23 @@
       <c r="AH42" t="s">
         <v>132</v>
       </c>
+      <c r="AK42" t="s">
+        <v>176</v>
+      </c>
       <c r="AM42" t="s">
-        <v>178</v>
+        <v>238</v>
       </c>
       <c r="AN42" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="AO42" t="s">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="AP42" t="s">
         <v>129</v>
       </c>
       <c r="AS42" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
     </row>
     <row r="43" spans="1:45">
@@ -5825,20 +6122,23 @@
       <c r="AJ43" t="s">
         <v>135</v>
       </c>
+      <c r="AK43" t="s">
+        <v>177</v>
+      </c>
       <c r="AM43" t="s">
-        <v>179</v>
+        <v>239</v>
       </c>
       <c r="AN43" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="AO43" t="s">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="AP43" t="s">
-        <v>201</v>
+        <v>261</v>
       </c>
       <c r="AS43" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
     </row>
     <row r="44" spans="1:45">
@@ -5935,20 +6235,23 @@
       <c r="AJ44" t="s">
         <v>135</v>
       </c>
+      <c r="AK44" t="s">
+        <v>178</v>
+      </c>
       <c r="AM44" t="s">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="AN44" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="AO44" t="s">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="AP44" t="s">
         <v>129</v>
       </c>
       <c r="AS44" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
     </row>
     <row r="45" spans="1:45">
@@ -6045,20 +6348,23 @@
       <c r="AJ45" t="s">
         <v>135</v>
       </c>
+      <c r="AK45" t="s">
+        <v>179</v>
+      </c>
       <c r="AM45" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="AN45" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="AO45" t="s">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="AP45" t="s">
         <v>129</v>
       </c>
       <c r="AS45" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
     </row>
     <row r="46" spans="1:45">
@@ -6155,20 +6461,23 @@
       <c r="AJ46" t="s">
         <v>135</v>
       </c>
+      <c r="AK46" t="s">
+        <v>180</v>
+      </c>
       <c r="AM46" t="s">
-        <v>182</v>
+        <v>242</v>
       </c>
       <c r="AN46" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="AO46" t="s">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="AP46" t="s">
-        <v>201</v>
+        <v>261</v>
       </c>
       <c r="AS46" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
     </row>
     <row r="47" spans="1:45">
@@ -6259,20 +6568,23 @@
       <c r="AH47" t="s">
         <v>132</v>
       </c>
+      <c r="AK47" t="s">
+        <v>181</v>
+      </c>
       <c r="AM47" t="s">
-        <v>183</v>
+        <v>243</v>
       </c>
       <c r="AN47" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="AO47" t="s">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="AP47" t="s">
         <v>129</v>
       </c>
       <c r="AS47" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
     </row>
     <row r="48" spans="1:45">
@@ -6363,20 +6675,23 @@
       <c r="AH48" t="s">
         <v>132</v>
       </c>
+      <c r="AK48" t="s">
+        <v>182</v>
+      </c>
       <c r="AM48" t="s">
-        <v>184</v>
+        <v>244</v>
       </c>
       <c r="AN48" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="AO48" t="s">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="AP48" t="s">
         <v>129</v>
       </c>
       <c r="AS48" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
     </row>
     <row r="49" spans="1:45">
@@ -6467,20 +6782,23 @@
       <c r="AH49" t="s">
         <v>132</v>
       </c>
+      <c r="AK49" t="s">
+        <v>183</v>
+      </c>
       <c r="AM49" t="s">
-        <v>185</v>
+        <v>245</v>
       </c>
       <c r="AN49" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="AO49" t="s">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="AP49" t="s">
         <v>129</v>
       </c>
       <c r="AS49" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
     </row>
     <row r="50" spans="1:45">
@@ -6577,20 +6895,23 @@
       <c r="AJ50" t="s">
         <v>135</v>
       </c>
+      <c r="AK50" t="s">
+        <v>184</v>
+      </c>
       <c r="AM50" t="s">
-        <v>186</v>
+        <v>246</v>
       </c>
       <c r="AN50" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="AO50" t="s">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="AP50" t="s">
         <v>129</v>
       </c>
       <c r="AS50" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
     </row>
     <row r="51" spans="1:45">
@@ -6687,20 +7008,23 @@
       <c r="AJ51" t="s">
         <v>135</v>
       </c>
+      <c r="AK51" t="s">
+        <v>185</v>
+      </c>
       <c r="AM51" t="s">
-        <v>187</v>
+        <v>247</v>
       </c>
       <c r="AN51" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="AO51" t="s">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="AP51" t="s">
         <v>129</v>
       </c>
       <c r="AS51" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
     </row>
     <row r="52" spans="1:45">
@@ -6797,14 +7121,17 @@
       <c r="AJ52" t="s">
         <v>135</v>
       </c>
+      <c r="AK52" t="s">
+        <v>186</v>
+      </c>
       <c r="AM52" t="s">
-        <v>188</v>
+        <v>248</v>
       </c>
       <c r="AN52" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="AS52" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
     </row>
     <row r="53" spans="1:45">
@@ -6901,20 +7228,23 @@
       <c r="AJ53" t="s">
         <v>135</v>
       </c>
+      <c r="AK53" t="s">
+        <v>187</v>
+      </c>
       <c r="AM53" t="s">
-        <v>189</v>
+        <v>249</v>
       </c>
       <c r="AN53" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="AO53" t="s">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="AP53" t="s">
         <v>129</v>
       </c>
       <c r="AS53" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
     </row>
     <row r="54" spans="1:45">
@@ -7011,20 +7341,23 @@
       <c r="AJ54" t="s">
         <v>135</v>
       </c>
+      <c r="AK54" t="s">
+        <v>188</v>
+      </c>
       <c r="AM54" t="s">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="AN54" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="AO54" t="s">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="AP54" t="s">
         <v>129</v>
       </c>
       <c r="AS54" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
     </row>
     <row r="55" spans="1:45">
@@ -7121,20 +7454,23 @@
       <c r="AJ55" t="s">
         <v>135</v>
       </c>
+      <c r="AK55" t="s">
+        <v>189</v>
+      </c>
       <c r="AM55" t="s">
-        <v>191</v>
+        <v>251</v>
       </c>
       <c r="AN55" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="AO55" t="s">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="AP55" t="s">
         <v>129</v>
       </c>
       <c r="AS55" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
     </row>
     <row r="56" spans="1:45">
@@ -7231,20 +7567,23 @@
       <c r="AJ56" t="s">
         <v>135</v>
       </c>
+      <c r="AK56" t="s">
+        <v>190</v>
+      </c>
       <c r="AM56" t="s">
-        <v>192</v>
+        <v>252</v>
       </c>
       <c r="AN56" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="AO56" t="s">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="AP56" t="s">
         <v>129</v>
       </c>
       <c r="AS56" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
     </row>
     <row r="57" spans="1:45">
@@ -7341,20 +7680,23 @@
       <c r="AJ57" t="s">
         <v>135</v>
       </c>
+      <c r="AK57" t="s">
+        <v>191</v>
+      </c>
       <c r="AM57" t="s">
-        <v>193</v>
+        <v>253</v>
       </c>
       <c r="AN57" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="AO57" t="s">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="AP57" t="s">
         <v>129</v>
       </c>
       <c r="AS57" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
     </row>
     <row r="58" spans="1:45">
@@ -7451,20 +7793,23 @@
       <c r="AJ58" t="s">
         <v>135</v>
       </c>
+      <c r="AK58" t="s">
+        <v>192</v>
+      </c>
       <c r="AM58" t="s">
-        <v>194</v>
+        <v>254</v>
       </c>
       <c r="AN58" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="AO58" t="s">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="AP58" t="s">
-        <v>201</v>
+        <v>261</v>
       </c>
       <c r="AS58" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
     </row>
     <row r="59" spans="1:45">
@@ -7561,20 +7906,23 @@
       <c r="AJ59" t="s">
         <v>135</v>
       </c>
+      <c r="AK59" t="s">
+        <v>193</v>
+      </c>
       <c r="AM59" t="s">
-        <v>195</v>
+        <v>255</v>
       </c>
       <c r="AN59" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="AO59" t="s">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="AP59" t="s">
-        <v>201</v>
+        <v>261</v>
       </c>
       <c r="AS59" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
     </row>
     <row r="60" spans="1:45">
@@ -7671,20 +8019,23 @@
       <c r="AJ60" t="s">
         <v>135</v>
       </c>
+      <c r="AK60" t="s">
+        <v>194</v>
+      </c>
       <c r="AM60" t="s">
-        <v>196</v>
+        <v>256</v>
       </c>
       <c r="AN60" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="AO60" t="s">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="AP60" t="s">
-        <v>201</v>
+        <v>261</v>
       </c>
       <c r="AS60" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
     </row>
     <row r="61" spans="1:45">
@@ -7775,20 +8126,23 @@
       <c r="AH61" t="s">
         <v>132</v>
       </c>
+      <c r="AK61" t="s">
+        <v>195</v>
+      </c>
       <c r="AM61" t="s">
-        <v>197</v>
+        <v>257</v>
       </c>
       <c r="AN61" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="AO61" t="s">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="AP61" t="s">
-        <v>201</v>
+        <v>261</v>
       </c>
       <c r="AS61" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
     </row>
     <row r="62" spans="1:45">
@@ -7885,17 +8239,20 @@
       <c r="AJ62" t="s">
         <v>135</v>
       </c>
+      <c r="AK62" t="s">
+        <v>196</v>
+      </c>
       <c r="AN62" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="AO62" t="s">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="AP62" t="s">
-        <v>201</v>
+        <v>261</v>
       </c>
       <c r="AS62" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
     </row>
     <row r="63" spans="1:45">
@@ -7992,20 +8349,23 @@
       <c r="AJ63" t="s">
         <v>135</v>
       </c>
+      <c r="AK63" t="s">
+        <v>197</v>
+      </c>
       <c r="AM63" t="s">
-        <v>198</v>
+        <v>258</v>
       </c>
       <c r="AN63" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="AO63" t="s">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="AP63" t="s">
         <v>129</v>
       </c>
       <c r="AS63" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -8087,13 +8447,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>203</v>
+        <v>263</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>204</v>
+        <v>264</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>205</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -8101,10 +8461,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>206</v>
+        <v>266</v>
       </c>
       <c r="C2" t="s">
-        <v>208</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -8112,10 +8472,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
       <c r="C3" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -8123,10 +8483,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
       <c r="C4" t="s">
-        <v>210</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -8134,10 +8494,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
       <c r="C5" t="s">
-        <v>211</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -8145,10 +8505,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
       <c r="C6" t="s">
-        <v>212</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -8156,10 +8516,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
       <c r="C7" t="s">
-        <v>213</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -8167,10 +8527,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
       <c r="C8" t="s">
-        <v>214</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -8178,10 +8538,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
       <c r="C9" t="s">
-        <v>215</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -8189,10 +8549,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
       <c r="C10" t="s">
-        <v>216</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -8200,10 +8560,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
       <c r="C11" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -8211,10 +8571,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
       <c r="C12" t="s">
-        <v>218</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -8222,10 +8582,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
       <c r="C13" t="s">
-        <v>219</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -8233,10 +8593,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
       <c r="C14" t="s">
-        <v>220</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -8244,10 +8604,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
       <c r="C15" t="s">
-        <v>221</v>
+        <v>281</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -8255,10 +8615,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
       <c r="C16" t="s">
-        <v>222</v>
+        <v>282</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -8266,10 +8626,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
       <c r="C17" t="s">
-        <v>223</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -8277,10 +8637,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
       <c r="C18" t="s">
-        <v>224</v>
+        <v>284</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -8288,10 +8648,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
       <c r="C19" t="s">
-        <v>225</v>
+        <v>285</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -8299,10 +8659,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
       <c r="C20" t="s">
-        <v>226</v>
+        <v>286</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -8310,10 +8670,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
       <c r="C21" t="s">
-        <v>227</v>
+        <v>287</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -8321,10 +8681,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
       <c r="C22" t="s">
-        <v>228</v>
+        <v>288</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -8332,10 +8692,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
       <c r="C23" t="s">
-        <v>229</v>
+        <v>289</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -8343,10 +8703,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
       <c r="C24" t="s">
-        <v>230</v>
+        <v>290</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -8354,10 +8714,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
       <c r="C25" t="s">
-        <v>231</v>
+        <v>291</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -8365,10 +8725,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
       <c r="C26" t="s">
-        <v>232</v>
+        <v>292</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -8376,10 +8736,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
       <c r="C27" t="s">
-        <v>233</v>
+        <v>293</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -8387,10 +8747,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
       <c r="C28" t="s">
-        <v>234</v>
+        <v>294</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -8398,10 +8758,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
       <c r="C29" t="s">
-        <v>235</v>
+        <v>295</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -8409,10 +8769,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
       <c r="C30" t="s">
-        <v>236</v>
+        <v>296</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -8420,10 +8780,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
       <c r="C31" t="s">
-        <v>237</v>
+        <v>297</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -8431,10 +8791,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
       <c r="C32" t="s">
-        <v>238</v>
+        <v>298</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -8442,10 +8802,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
       <c r="C33" t="s">
-        <v>239</v>
+        <v>299</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -8453,10 +8813,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
       <c r="C34" t="s">
-        <v>240</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -8464,10 +8824,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
       <c r="C35" t="s">
-        <v>241</v>
+        <v>301</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -8475,10 +8835,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
       <c r="C36" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -8486,10 +8846,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
       <c r="C37" t="s">
-        <v>243</v>
+        <v>303</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -8497,10 +8857,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
       <c r="C38" t="s">
-        <v>244</v>
+        <v>304</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -8508,10 +8868,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
       <c r="C39" t="s">
-        <v>245</v>
+        <v>305</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -8519,10 +8879,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
       <c r="C40" t="s">
-        <v>246</v>
+        <v>306</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -8530,10 +8890,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
       <c r="C41" t="s">
-        <v>247</v>
+        <v>307</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -8541,10 +8901,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
       <c r="C42" t="s">
-        <v>248</v>
+        <v>308</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -8552,10 +8912,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
       <c r="C43" t="s">
-        <v>249</v>
+        <v>309</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -8563,10 +8923,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
       <c r="C44" t="s">
-        <v>250</v>
+        <v>310</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -8574,10 +8934,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
       <c r="C45" t="s">
-        <v>251</v>
+        <v>311</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -8585,10 +8945,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
       <c r="C46" t="s">
-        <v>252</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>

--- a/raw/project_UVP_standardizer.xlsx
+++ b/raw/project_UVP_standardizer.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dugennem/GIT/PSSdb/raw/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84FBD7EB-802A-8045-9543-4ED4635DD02B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Metadata" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2380" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2318" uniqueCount="251">
   <si>
     <t>Project_ID</t>
   </si>
@@ -423,192 +429,6 @@
   </si>
   <si>
     <t>object_annotation_status</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_22_20220929_1317_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_110_20221007_1442_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_214_20220929_1318_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_507_20220929_1325_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_545_20220929_1328_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_548_20221008_1224_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_556_20220929_1817_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_558_20220929_1821_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_559_20220929_1823_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_560_20220609_1315_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_563_20220929_1828_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_579_20220609_1319_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_584_20220829_1544_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_585_20221008_1235_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_586_20220929_1844_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_587_20220929_1845_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_588_20220929_1845_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_589_20220929_1846_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_590_20220929_1849_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_593_20220829_1547_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_594_20220929_1851_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_595_20220929_1851_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_602_20221008_1237_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_603_20220930_0408_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_610_20220930_0415_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_620_20221007_1444_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_621_20220930_0515_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_622_20220829_1554_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_651_20220930_0520_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_855_20221007_1452_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_881_20221007_1456_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_1343_20221008_1046_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_2465_20221007_1507_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_2483_20221007_1511_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_2806_20221007_1532_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_2807_20221007_1533_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_2808_20221007_1538_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_3117_20221007_1543_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_3403_20221008_1115_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_5197_20221008_1127_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_5208_20221008_1134_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_5680_20221007_1544_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_5690_20221007_1548_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_5693_20220610_0940_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_6047_20221007_1614_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_6702_20221008_1159_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_6703_20221008_1201_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_6704_20221008_1208_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_3_20221012_0944_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_4_20221012_0946_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_28_20221012_0954_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_36_20221012_0958_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_37_20221012_1001_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_38_20221012_1005_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_39_20221012_1007_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_578_20221012_1021_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_3278_20221012_1056_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_3327_20221012_1057_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_3887_20221012_1059_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_3943_20221012_1059_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_4591_20221012_1103_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/UVP/ecotaxa_export_5254_20221012_1136_flags.tsv</t>
   </si>
   <si>
     <t>uvp5_sn003_sargasso_a,uvp5_sn003_sargasso_b</t>
@@ -959,8 +779,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1036,6 +856,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1082,7 +910,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1114,9 +942,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1148,6 +994,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1323,14 +1187,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AK2" sqref="AK2:AK63"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:45">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1467,7 +1333,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:45">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>22</v>
       </c>
@@ -1561,26 +1427,23 @@
       <c r="AJ2" t="s">
         <v>135</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AM2" t="s">
         <v>136</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AN2" t="s">
+        <v>197</v>
+      </c>
+      <c r="AO2" t="s">
         <v>198</v>
       </c>
-      <c r="AN2" t="s">
-        <v>259</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>260</v>
-      </c>
       <c r="AP2" t="s">
         <v>129</v>
       </c>
       <c r="AS2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="3" spans="1:45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>110</v>
       </c>
@@ -1674,26 +1537,23 @@
       <c r="AJ3" t="s">
         <v>135</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AM3" t="s">
         <v>137</v>
       </c>
-      <c r="AM3" t="s">
-        <v>199</v>
-      </c>
       <c r="AN3" t="s">
-        <v>259</v>
+        <v>197</v>
       </c>
       <c r="AO3" t="s">
-        <v>260</v>
+        <v>198</v>
       </c>
       <c r="AP3" t="s">
         <v>129</v>
       </c>
       <c r="AS3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="4" spans="1:45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>214</v>
       </c>
@@ -1787,26 +1647,23 @@
       <c r="AJ4" t="s">
         <v>135</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AM4" t="s">
         <v>138</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="AN4" t="s">
+        <v>197</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>198</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AS4" t="s">
         <v>200</v>
       </c>
-      <c r="AN4" t="s">
-        <v>259</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>260</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="5" spans="1:45">
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>507</v>
       </c>
@@ -1900,26 +1757,23 @@
       <c r="AJ5" t="s">
         <v>135</v>
       </c>
-      <c r="AK5" t="s">
+      <c r="AM5" t="s">
         <v>139</v>
       </c>
-      <c r="AM5" t="s">
-        <v>201</v>
-      </c>
       <c r="AN5" t="s">
-        <v>259</v>
+        <v>197</v>
       </c>
       <c r="AO5" t="s">
-        <v>260</v>
+        <v>198</v>
       </c>
       <c r="AP5" t="s">
         <v>129</v>
       </c>
       <c r="AS5" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="6" spans="1:45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>545</v>
       </c>
@@ -2013,26 +1867,23 @@
       <c r="AJ6" t="s">
         <v>135</v>
       </c>
-      <c r="AK6" t="s">
+      <c r="AM6" t="s">
         <v>140</v>
       </c>
-      <c r="AM6" t="s">
-        <v>202</v>
-      </c>
       <c r="AN6" t="s">
-        <v>259</v>
+        <v>197</v>
       </c>
       <c r="AO6" t="s">
-        <v>260</v>
+        <v>198</v>
       </c>
       <c r="AP6" t="s">
         <v>129</v>
       </c>
       <c r="AS6" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="7" spans="1:45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>548</v>
       </c>
@@ -2126,26 +1977,23 @@
       <c r="AJ7" t="s">
         <v>135</v>
       </c>
-      <c r="AK7" t="s">
+      <c r="AM7" t="s">
         <v>141</v>
       </c>
-      <c r="AM7" t="s">
-        <v>203</v>
-      </c>
       <c r="AN7" t="s">
-        <v>259</v>
+        <v>197</v>
       </c>
       <c r="AO7" t="s">
-        <v>260</v>
+        <v>198</v>
       </c>
       <c r="AP7" t="s">
         <v>129</v>
       </c>
       <c r="AS7" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="8" spans="1:45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>556</v>
       </c>
@@ -2239,20 +2087,17 @@
       <c r="AJ8" t="s">
         <v>135</v>
       </c>
-      <c r="AK8" t="s">
+      <c r="AM8" t="s">
         <v>142</v>
       </c>
-      <c r="AM8" t="s">
-        <v>204</v>
-      </c>
       <c r="AN8" t="s">
-        <v>259</v>
+        <v>197</v>
       </c>
       <c r="AS8" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="9" spans="1:45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>558</v>
       </c>
@@ -2346,20 +2191,17 @@
       <c r="AJ9" t="s">
         <v>135</v>
       </c>
-      <c r="AK9" t="s">
+      <c r="AM9" t="s">
         <v>143</v>
       </c>
-      <c r="AM9" t="s">
-        <v>205</v>
-      </c>
       <c r="AN9" t="s">
-        <v>259</v>
+        <v>197</v>
       </c>
       <c r="AS9" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="10" spans="1:45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>559</v>
       </c>
@@ -2453,26 +2295,23 @@
       <c r="AJ10" t="s">
         <v>135</v>
       </c>
-      <c r="AK10" t="s">
+      <c r="AM10" t="s">
         <v>144</v>
       </c>
-      <c r="AM10" t="s">
-        <v>206</v>
-      </c>
       <c r="AN10" t="s">
-        <v>259</v>
+        <v>197</v>
       </c>
       <c r="AO10" t="s">
-        <v>260</v>
+        <v>198</v>
       </c>
       <c r="AP10" t="s">
         <v>129</v>
       </c>
       <c r="AS10" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="11" spans="1:45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>560</v>
       </c>
@@ -2566,26 +2405,23 @@
       <c r="AJ11" t="s">
         <v>135</v>
       </c>
-      <c r="AK11" t="s">
+      <c r="AM11" t="s">
         <v>145</v>
       </c>
-      <c r="AM11" t="s">
-        <v>207</v>
-      </c>
       <c r="AN11" t="s">
-        <v>259</v>
+        <v>197</v>
       </c>
       <c r="AO11" t="s">
-        <v>260</v>
+        <v>198</v>
       </c>
       <c r="AP11" t="s">
         <v>129</v>
       </c>
       <c r="AS11" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="12" spans="1:45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>563</v>
       </c>
@@ -2679,26 +2515,23 @@
       <c r="AJ12" t="s">
         <v>135</v>
       </c>
-      <c r="AK12" t="s">
+      <c r="AM12" t="s">
         <v>146</v>
       </c>
-      <c r="AM12" t="s">
-        <v>208</v>
-      </c>
       <c r="AN12" t="s">
-        <v>259</v>
+        <v>197</v>
       </c>
       <c r="AO12" t="s">
-        <v>260</v>
+        <v>198</v>
       </c>
       <c r="AP12" t="s">
         <v>129</v>
       </c>
       <c r="AS12" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="13" spans="1:45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>579</v>
       </c>
@@ -2792,26 +2625,23 @@
       <c r="AJ13" t="s">
         <v>135</v>
       </c>
-      <c r="AK13" t="s">
+      <c r="AM13" t="s">
         <v>147</v>
       </c>
-      <c r="AM13" t="s">
-        <v>209</v>
-      </c>
       <c r="AN13" t="s">
-        <v>259</v>
+        <v>197</v>
       </c>
       <c r="AO13" t="s">
-        <v>260</v>
+        <v>198</v>
       </c>
       <c r="AP13" t="s">
         <v>129</v>
       </c>
       <c r="AS13" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="14" spans="1:45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>584</v>
       </c>
@@ -2905,26 +2735,23 @@
       <c r="AJ14" t="s">
         <v>135</v>
       </c>
-      <c r="AK14" t="s">
+      <c r="AM14" t="s">
         <v>148</v>
       </c>
-      <c r="AM14" t="s">
-        <v>210</v>
-      </c>
       <c r="AN14" t="s">
-        <v>259</v>
+        <v>197</v>
       </c>
       <c r="AO14" t="s">
-        <v>260</v>
+        <v>198</v>
       </c>
       <c r="AP14" t="s">
         <v>129</v>
       </c>
       <c r="AS14" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="15" spans="1:45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>585</v>
       </c>
@@ -3018,20 +2845,17 @@
       <c r="AJ15" t="s">
         <v>135</v>
       </c>
-      <c r="AK15" t="s">
+      <c r="AM15" t="s">
         <v>149</v>
       </c>
-      <c r="AM15" t="s">
-        <v>211</v>
-      </c>
       <c r="AN15" t="s">
-        <v>259</v>
+        <v>197</v>
       </c>
       <c r="AS15" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="16" spans="1:45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>586</v>
       </c>
@@ -3125,26 +2949,23 @@
       <c r="AJ16" t="s">
         <v>135</v>
       </c>
-      <c r="AK16" t="s">
+      <c r="AM16" t="s">
         <v>150</v>
       </c>
-      <c r="AM16" t="s">
-        <v>212</v>
-      </c>
       <c r="AN16" t="s">
-        <v>259</v>
+        <v>197</v>
       </c>
       <c r="AO16" t="s">
-        <v>260</v>
+        <v>198</v>
       </c>
       <c r="AP16" t="s">
         <v>129</v>
       </c>
       <c r="AS16" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="17" spans="1:45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>587</v>
       </c>
@@ -3238,20 +3059,17 @@
       <c r="AJ17" t="s">
         <v>135</v>
       </c>
-      <c r="AK17" t="s">
+      <c r="AM17" t="s">
         <v>151</v>
       </c>
-      <c r="AM17" t="s">
-        <v>213</v>
-      </c>
       <c r="AN17" t="s">
-        <v>259</v>
+        <v>197</v>
       </c>
       <c r="AS17" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="18" spans="1:45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>588</v>
       </c>
@@ -3345,26 +3163,23 @@
       <c r="AJ18" t="s">
         <v>135</v>
       </c>
-      <c r="AK18" t="s">
+      <c r="AM18" t="s">
         <v>152</v>
       </c>
-      <c r="AM18" t="s">
-        <v>214</v>
-      </c>
       <c r="AN18" t="s">
-        <v>259</v>
+        <v>197</v>
       </c>
       <c r="AO18" t="s">
-        <v>260</v>
+        <v>198</v>
       </c>
       <c r="AP18" t="s">
         <v>129</v>
       </c>
       <c r="AS18" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="19" spans="1:45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>589</v>
       </c>
@@ -3458,26 +3273,23 @@
       <c r="AJ19" t="s">
         <v>135</v>
       </c>
-      <c r="AK19" t="s">
+      <c r="AM19" t="s">
         <v>153</v>
       </c>
-      <c r="AM19" t="s">
-        <v>215</v>
-      </c>
       <c r="AN19" t="s">
-        <v>259</v>
+        <v>197</v>
       </c>
       <c r="AO19" t="s">
-        <v>260</v>
+        <v>198</v>
       </c>
       <c r="AP19" t="s">
         <v>129</v>
       </c>
       <c r="AS19" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="20" spans="1:45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>590</v>
       </c>
@@ -3571,26 +3383,23 @@
       <c r="AJ20" t="s">
         <v>135</v>
       </c>
-      <c r="AK20" t="s">
+      <c r="AM20" t="s">
         <v>154</v>
       </c>
-      <c r="AM20" t="s">
-        <v>216</v>
-      </c>
       <c r="AN20" t="s">
-        <v>259</v>
+        <v>197</v>
       </c>
       <c r="AO20" t="s">
-        <v>260</v>
+        <v>198</v>
       </c>
       <c r="AP20" t="s">
         <v>129</v>
       </c>
       <c r="AS20" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="21" spans="1:45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>593</v>
       </c>
@@ -3684,20 +3493,17 @@
       <c r="AJ21" t="s">
         <v>135</v>
       </c>
-      <c r="AK21" t="s">
+      <c r="AM21" t="s">
         <v>155</v>
       </c>
-      <c r="AM21" t="s">
-        <v>217</v>
-      </c>
       <c r="AN21" t="s">
-        <v>259</v>
+        <v>197</v>
       </c>
       <c r="AS21" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="22" spans="1:45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>594</v>
       </c>
@@ -3791,26 +3597,23 @@
       <c r="AJ22" t="s">
         <v>135</v>
       </c>
-      <c r="AK22" t="s">
+      <c r="AM22" t="s">
         <v>156</v>
       </c>
-      <c r="AM22" t="s">
-        <v>218</v>
-      </c>
       <c r="AN22" t="s">
-        <v>259</v>
+        <v>197</v>
       </c>
       <c r="AO22" t="s">
-        <v>260</v>
+        <v>198</v>
       </c>
       <c r="AP22" t="s">
         <v>129</v>
       </c>
       <c r="AS22" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="23" spans="1:45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>595</v>
       </c>
@@ -3904,26 +3707,23 @@
       <c r="AJ23" t="s">
         <v>135</v>
       </c>
-      <c r="AK23" t="s">
+      <c r="AM23" t="s">
         <v>157</v>
       </c>
-      <c r="AM23" t="s">
-        <v>219</v>
-      </c>
       <c r="AN23" t="s">
-        <v>259</v>
+        <v>197</v>
       </c>
       <c r="AO23" t="s">
-        <v>260</v>
+        <v>198</v>
       </c>
       <c r="AP23" t="s">
         <v>129</v>
       </c>
       <c r="AS23" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="24" spans="1:45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>602</v>
       </c>
@@ -4017,20 +3817,17 @@
       <c r="AJ24" t="s">
         <v>135</v>
       </c>
-      <c r="AK24" t="s">
+      <c r="AM24" t="s">
         <v>158</v>
       </c>
-      <c r="AM24" t="s">
-        <v>220</v>
-      </c>
       <c r="AN24" t="s">
-        <v>259</v>
+        <v>197</v>
       </c>
       <c r="AS24" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="25" spans="1:45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>603</v>
       </c>
@@ -4124,20 +3921,17 @@
       <c r="AJ25" t="s">
         <v>135</v>
       </c>
-      <c r="AK25" t="s">
+      <c r="AM25" t="s">
         <v>159</v>
       </c>
-      <c r="AM25" t="s">
-        <v>221</v>
-      </c>
       <c r="AN25" t="s">
-        <v>259</v>
+        <v>197</v>
       </c>
       <c r="AS25" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="26" spans="1:45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>610</v>
       </c>
@@ -4231,20 +4025,17 @@
       <c r="AJ26" t="s">
         <v>135</v>
       </c>
-      <c r="AK26" t="s">
+      <c r="AM26" t="s">
         <v>160</v>
       </c>
-      <c r="AM26" t="s">
-        <v>222</v>
-      </c>
       <c r="AN26" t="s">
-        <v>259</v>
+        <v>197</v>
       </c>
       <c r="AS26" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="27" spans="1:45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>620</v>
       </c>
@@ -4338,26 +4129,23 @@
       <c r="AJ27" t="s">
         <v>135</v>
       </c>
-      <c r="AK27" t="s">
+      <c r="AM27" t="s">
         <v>161</v>
       </c>
-      <c r="AM27" t="s">
-        <v>223</v>
-      </c>
       <c r="AN27" t="s">
-        <v>259</v>
+        <v>197</v>
       </c>
       <c r="AO27" t="s">
-        <v>260</v>
+        <v>198</v>
       </c>
       <c r="AP27" t="s">
         <v>129</v>
       </c>
       <c r="AS27" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="28" spans="1:45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>621</v>
       </c>
@@ -4451,26 +4239,23 @@
       <c r="AJ28" t="s">
         <v>135</v>
       </c>
-      <c r="AK28" t="s">
+      <c r="AM28" t="s">
         <v>162</v>
       </c>
-      <c r="AM28" t="s">
-        <v>224</v>
-      </c>
       <c r="AN28" t="s">
-        <v>259</v>
+        <v>197</v>
       </c>
       <c r="AO28" t="s">
-        <v>260</v>
+        <v>198</v>
       </c>
       <c r="AP28" t="s">
         <v>129</v>
       </c>
       <c r="AS28" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="29" spans="1:45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>622</v>
       </c>
@@ -4564,20 +4349,17 @@
       <c r="AJ29" t="s">
         <v>135</v>
       </c>
-      <c r="AK29" t="s">
+      <c r="AM29" t="s">
         <v>163</v>
       </c>
-      <c r="AM29" t="s">
-        <v>225</v>
-      </c>
       <c r="AN29" t="s">
-        <v>259</v>
+        <v>197</v>
       </c>
       <c r="AS29" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="30" spans="1:45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>651</v>
       </c>
@@ -4671,26 +4453,23 @@
       <c r="AJ30" t="s">
         <v>135</v>
       </c>
-      <c r="AK30" t="s">
+      <c r="AM30" t="s">
         <v>164</v>
       </c>
-      <c r="AM30" t="s">
-        <v>226</v>
-      </c>
       <c r="AN30" t="s">
-        <v>259</v>
+        <v>197</v>
       </c>
       <c r="AO30" t="s">
-        <v>260</v>
+        <v>198</v>
       </c>
       <c r="AP30" t="s">
         <v>129</v>
       </c>
       <c r="AS30" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="31" spans="1:45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>855</v>
       </c>
@@ -4784,26 +4563,23 @@
       <c r="AJ31" t="s">
         <v>135</v>
       </c>
-      <c r="AK31" t="s">
+      <c r="AM31" t="s">
         <v>165</v>
       </c>
-      <c r="AM31" t="s">
-        <v>227</v>
-      </c>
       <c r="AN31" t="s">
-        <v>259</v>
+        <v>197</v>
       </c>
       <c r="AO31" t="s">
-        <v>260</v>
+        <v>198</v>
       </c>
       <c r="AP31" t="s">
         <v>129</v>
       </c>
       <c r="AS31" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="32" spans="1:45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>881</v>
       </c>
@@ -4897,26 +4673,23 @@
       <c r="AJ32" t="s">
         <v>135</v>
       </c>
-      <c r="AK32" t="s">
+      <c r="AM32" t="s">
         <v>166</v>
       </c>
-      <c r="AM32" t="s">
-        <v>228</v>
-      </c>
       <c r="AN32" t="s">
-        <v>259</v>
+        <v>197</v>
       </c>
       <c r="AO32" t="s">
-        <v>260</v>
+        <v>198</v>
       </c>
       <c r="AP32" t="s">
         <v>129</v>
       </c>
       <c r="AS32" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="33" spans="1:45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1343</v>
       </c>
@@ -5010,26 +4783,23 @@
       <c r="AJ33" t="s">
         <v>135</v>
       </c>
-      <c r="AK33" t="s">
+      <c r="AM33" t="s">
         <v>167</v>
       </c>
-      <c r="AM33" t="s">
-        <v>229</v>
-      </c>
       <c r="AN33" t="s">
-        <v>259</v>
+        <v>197</v>
       </c>
       <c r="AO33" t="s">
-        <v>260</v>
+        <v>198</v>
       </c>
       <c r="AP33" t="s">
         <v>129</v>
       </c>
       <c r="AS33" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="34" spans="1:45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2465</v>
       </c>
@@ -5123,26 +4893,23 @@
       <c r="AJ34" t="s">
         <v>135</v>
       </c>
-      <c r="AK34" t="s">
+      <c r="AM34" t="s">
         <v>168</v>
       </c>
-      <c r="AM34" t="s">
-        <v>230</v>
-      </c>
       <c r="AN34" t="s">
-        <v>259</v>
+        <v>197</v>
       </c>
       <c r="AO34" t="s">
-        <v>260</v>
+        <v>198</v>
       </c>
       <c r="AP34" t="s">
         <v>129</v>
       </c>
       <c r="AS34" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="35" spans="1:45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2483</v>
       </c>
@@ -5236,26 +5003,23 @@
       <c r="AJ35" t="s">
         <v>135</v>
       </c>
-      <c r="AK35" t="s">
+      <c r="AM35" t="s">
         <v>169</v>
       </c>
-      <c r="AM35" t="s">
-        <v>231</v>
-      </c>
       <c r="AN35" t="s">
-        <v>259</v>
+        <v>197</v>
       </c>
       <c r="AO35" t="s">
-        <v>260</v>
+        <v>198</v>
       </c>
       <c r="AP35" t="s">
         <v>129</v>
       </c>
       <c r="AS35" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="36" spans="1:45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2806</v>
       </c>
@@ -5349,26 +5113,23 @@
       <c r="AJ36" t="s">
         <v>135</v>
       </c>
-      <c r="AK36" t="s">
+      <c r="AM36" t="s">
         <v>170</v>
       </c>
-      <c r="AM36" t="s">
-        <v>232</v>
-      </c>
       <c r="AN36" t="s">
-        <v>259</v>
+        <v>197</v>
       </c>
       <c r="AO36" t="s">
-        <v>260</v>
+        <v>198</v>
       </c>
       <c r="AP36" t="s">
         <v>129</v>
       </c>
       <c r="AS36" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="37" spans="1:45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2807</v>
       </c>
@@ -5462,26 +5223,23 @@
       <c r="AJ37" t="s">
         <v>135</v>
       </c>
-      <c r="AK37" t="s">
+      <c r="AM37" t="s">
         <v>171</v>
       </c>
-      <c r="AM37" t="s">
-        <v>233</v>
-      </c>
       <c r="AN37" t="s">
-        <v>259</v>
+        <v>197</v>
       </c>
       <c r="AO37" t="s">
-        <v>260</v>
+        <v>198</v>
       </c>
       <c r="AP37" t="s">
         <v>129</v>
       </c>
       <c r="AS37" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="38" spans="1:45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2808</v>
       </c>
@@ -5575,26 +5333,23 @@
       <c r="AJ38" t="s">
         <v>135</v>
       </c>
-      <c r="AK38" t="s">
+      <c r="AM38" t="s">
         <v>172</v>
       </c>
-      <c r="AM38" t="s">
-        <v>234</v>
-      </c>
       <c r="AN38" t="s">
-        <v>259</v>
+        <v>197</v>
       </c>
       <c r="AO38" t="s">
-        <v>260</v>
+        <v>198</v>
       </c>
       <c r="AP38" t="s">
         <v>129</v>
       </c>
       <c r="AS38" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="39" spans="1:45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>3117</v>
       </c>
@@ -5688,26 +5443,23 @@
       <c r="AJ39" t="s">
         <v>135</v>
       </c>
-      <c r="AK39" t="s">
+      <c r="AM39" t="s">
         <v>173</v>
       </c>
-      <c r="AM39" t="s">
-        <v>235</v>
-      </c>
       <c r="AN39" t="s">
-        <v>259</v>
+        <v>197</v>
       </c>
       <c r="AO39" t="s">
-        <v>260</v>
+        <v>198</v>
       </c>
       <c r="AP39" t="s">
         <v>129</v>
       </c>
       <c r="AS39" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="40" spans="1:45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>3403</v>
       </c>
@@ -5795,26 +5547,23 @@
       <c r="AH40" t="s">
         <v>132</v>
       </c>
-      <c r="AK40" t="s">
+      <c r="AM40" t="s">
         <v>174</v>
       </c>
-      <c r="AM40" t="s">
-        <v>236</v>
-      </c>
       <c r="AN40" t="s">
-        <v>259</v>
+        <v>197</v>
       </c>
       <c r="AO40" t="s">
-        <v>260</v>
+        <v>198</v>
       </c>
       <c r="AP40" t="s">
         <v>129</v>
       </c>
       <c r="AS40" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="41" spans="1:45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>5197</v>
       </c>
@@ -5902,26 +5651,23 @@
       <c r="AH41" t="s">
         <v>132</v>
       </c>
-      <c r="AK41" t="s">
+      <c r="AM41" t="s">
         <v>175</v>
       </c>
-      <c r="AM41" t="s">
-        <v>237</v>
-      </c>
       <c r="AN41" t="s">
-        <v>259</v>
+        <v>197</v>
       </c>
       <c r="AO41" t="s">
-        <v>260</v>
+        <v>198</v>
       </c>
       <c r="AP41" t="s">
         <v>129</v>
       </c>
       <c r="AS41" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="42" spans="1:45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>5208</v>
       </c>
@@ -6009,26 +5755,23 @@
       <c r="AH42" t="s">
         <v>132</v>
       </c>
-      <c r="AK42" t="s">
+      <c r="AM42" t="s">
         <v>176</v>
       </c>
-      <c r="AM42" t="s">
-        <v>238</v>
-      </c>
       <c r="AN42" t="s">
-        <v>259</v>
+        <v>197</v>
       </c>
       <c r="AO42" t="s">
-        <v>260</v>
+        <v>198</v>
       </c>
       <c r="AP42" t="s">
         <v>129</v>
       </c>
       <c r="AS42" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="43" spans="1:45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>5680</v>
       </c>
@@ -6122,26 +5865,23 @@
       <c r="AJ43" t="s">
         <v>135</v>
       </c>
-      <c r="AK43" t="s">
+      <c r="AM43" t="s">
         <v>177</v>
       </c>
-      <c r="AM43" t="s">
-        <v>239</v>
-      </c>
       <c r="AN43" t="s">
-        <v>259</v>
+        <v>197</v>
       </c>
       <c r="AO43" t="s">
-        <v>260</v>
+        <v>198</v>
       </c>
       <c r="AP43" t="s">
-        <v>261</v>
+        <v>199</v>
       </c>
       <c r="AS43" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="44" spans="1:45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>5690</v>
       </c>
@@ -6235,26 +5975,23 @@
       <c r="AJ44" t="s">
         <v>135</v>
       </c>
-      <c r="AK44" t="s">
+      <c r="AM44" t="s">
         <v>178</v>
       </c>
-      <c r="AM44" t="s">
-        <v>240</v>
-      </c>
       <c r="AN44" t="s">
-        <v>259</v>
+        <v>197</v>
       </c>
       <c r="AO44" t="s">
-        <v>260</v>
+        <v>198</v>
       </c>
       <c r="AP44" t="s">
         <v>129</v>
       </c>
       <c r="AS44" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="45" spans="1:45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>5693</v>
       </c>
@@ -6348,26 +6085,23 @@
       <c r="AJ45" t="s">
         <v>135</v>
       </c>
-      <c r="AK45" t="s">
+      <c r="AM45" t="s">
         <v>179</v>
       </c>
-      <c r="AM45" t="s">
-        <v>241</v>
-      </c>
       <c r="AN45" t="s">
-        <v>259</v>
+        <v>197</v>
       </c>
       <c r="AO45" t="s">
-        <v>260</v>
+        <v>198</v>
       </c>
       <c r="AP45" t="s">
         <v>129</v>
       </c>
       <c r="AS45" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="46" spans="1:45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>6047</v>
       </c>
@@ -6461,26 +6195,23 @@
       <c r="AJ46" t="s">
         <v>135</v>
       </c>
-      <c r="AK46" t="s">
+      <c r="AM46" t="s">
         <v>180</v>
       </c>
-      <c r="AM46" t="s">
-        <v>242</v>
-      </c>
       <c r="AN46" t="s">
-        <v>259</v>
+        <v>197</v>
       </c>
       <c r="AO46" t="s">
-        <v>260</v>
+        <v>198</v>
       </c>
       <c r="AP46" t="s">
-        <v>261</v>
+        <v>199</v>
       </c>
       <c r="AS46" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="47" spans="1:45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>6702</v>
       </c>
@@ -6568,26 +6299,23 @@
       <c r="AH47" t="s">
         <v>132</v>
       </c>
-      <c r="AK47" t="s">
+      <c r="AM47" t="s">
         <v>181</v>
       </c>
-      <c r="AM47" t="s">
-        <v>243</v>
-      </c>
       <c r="AN47" t="s">
-        <v>259</v>
+        <v>197</v>
       </c>
       <c r="AO47" t="s">
-        <v>260</v>
+        <v>198</v>
       </c>
       <c r="AP47" t="s">
         <v>129</v>
       </c>
       <c r="AS47" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="48" spans="1:45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>6703</v>
       </c>
@@ -6675,26 +6403,23 @@
       <c r="AH48" t="s">
         <v>132</v>
       </c>
-      <c r="AK48" t="s">
+      <c r="AM48" t="s">
         <v>182</v>
       </c>
-      <c r="AM48" t="s">
-        <v>244</v>
-      </c>
       <c r="AN48" t="s">
-        <v>259</v>
+        <v>197</v>
       </c>
       <c r="AO48" t="s">
-        <v>260</v>
+        <v>198</v>
       </c>
       <c r="AP48" t="s">
         <v>129</v>
       </c>
       <c r="AS48" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="49" spans="1:45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>6704</v>
       </c>
@@ -6782,26 +6507,23 @@
       <c r="AH49" t="s">
         <v>132</v>
       </c>
-      <c r="AK49" t="s">
+      <c r="AM49" t="s">
         <v>183</v>
       </c>
-      <c r="AM49" t="s">
-        <v>245</v>
-      </c>
       <c r="AN49" t="s">
-        <v>259</v>
+        <v>197</v>
       </c>
       <c r="AO49" t="s">
-        <v>260</v>
+        <v>198</v>
       </c>
       <c r="AP49" t="s">
         <v>129</v>
       </c>
       <c r="AS49" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="50" spans="1:45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>3</v>
       </c>
@@ -6895,26 +6617,23 @@
       <c r="AJ50" t="s">
         <v>135</v>
       </c>
-      <c r="AK50" t="s">
+      <c r="AM50" t="s">
         <v>184</v>
       </c>
-      <c r="AM50" t="s">
-        <v>246</v>
-      </c>
       <c r="AN50" t="s">
-        <v>259</v>
+        <v>197</v>
       </c>
       <c r="AO50" t="s">
-        <v>260</v>
+        <v>198</v>
       </c>
       <c r="AP50" t="s">
         <v>129</v>
       </c>
       <c r="AS50" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="51" spans="1:45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="51" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>4</v>
       </c>
@@ -6997,7 +6716,7 @@
         <v>129</v>
       </c>
       <c r="AG51" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AH51" t="s">
         <v>132</v>
@@ -7008,26 +6727,23 @@
       <c r="AJ51" t="s">
         <v>135</v>
       </c>
-      <c r="AK51" t="s">
+      <c r="AM51" t="s">
         <v>185</v>
       </c>
-      <c r="AM51" t="s">
-        <v>247</v>
-      </c>
       <c r="AN51" t="s">
-        <v>259</v>
+        <v>197</v>
       </c>
       <c r="AO51" t="s">
-        <v>260</v>
+        <v>198</v>
       </c>
       <c r="AP51" t="s">
         <v>129</v>
       </c>
       <c r="AS51" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="52" spans="1:45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>28</v>
       </c>
@@ -7121,20 +6837,17 @@
       <c r="AJ52" t="s">
         <v>135</v>
       </c>
-      <c r="AK52" t="s">
+      <c r="AM52" t="s">
         <v>186</v>
       </c>
-      <c r="AM52" t="s">
-        <v>248</v>
-      </c>
       <c r="AN52" t="s">
-        <v>259</v>
+        <v>197</v>
       </c>
       <c r="AS52" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="53" spans="1:45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>36</v>
       </c>
@@ -7228,26 +6941,23 @@
       <c r="AJ53" t="s">
         <v>135</v>
       </c>
-      <c r="AK53" t="s">
+      <c r="AM53" t="s">
         <v>187</v>
       </c>
-      <c r="AM53" t="s">
-        <v>249</v>
-      </c>
       <c r="AN53" t="s">
-        <v>259</v>
+        <v>197</v>
       </c>
       <c r="AO53" t="s">
-        <v>260</v>
+        <v>198</v>
       </c>
       <c r="AP53" t="s">
         <v>129</v>
       </c>
       <c r="AS53" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="54" spans="1:45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>37</v>
       </c>
@@ -7341,26 +7051,23 @@
       <c r="AJ54" t="s">
         <v>135</v>
       </c>
-      <c r="AK54" t="s">
+      <c r="AM54" t="s">
         <v>188</v>
       </c>
-      <c r="AM54" t="s">
-        <v>250</v>
-      </c>
       <c r="AN54" t="s">
-        <v>259</v>
+        <v>197</v>
       </c>
       <c r="AO54" t="s">
-        <v>260</v>
+        <v>198</v>
       </c>
       <c r="AP54" t="s">
         <v>129</v>
       </c>
       <c r="AS54" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="55" spans="1:45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>38</v>
       </c>
@@ -7454,26 +7161,23 @@
       <c r="AJ55" t="s">
         <v>135</v>
       </c>
-      <c r="AK55" t="s">
+      <c r="AM55" t="s">
         <v>189</v>
       </c>
-      <c r="AM55" t="s">
-        <v>251</v>
-      </c>
       <c r="AN55" t="s">
-        <v>259</v>
+        <v>197</v>
       </c>
       <c r="AO55" t="s">
-        <v>260</v>
+        <v>198</v>
       </c>
       <c r="AP55" t="s">
         <v>129</v>
       </c>
       <c r="AS55" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="56" spans="1:45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="56" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>39</v>
       </c>
@@ -7567,26 +7271,23 @@
       <c r="AJ56" t="s">
         <v>135</v>
       </c>
-      <c r="AK56" t="s">
+      <c r="AM56" t="s">
         <v>190</v>
       </c>
-      <c r="AM56" t="s">
-        <v>252</v>
-      </c>
       <c r="AN56" t="s">
-        <v>259</v>
+        <v>197</v>
       </c>
       <c r="AO56" t="s">
-        <v>260</v>
+        <v>198</v>
       </c>
       <c r="AP56" t="s">
         <v>129</v>
       </c>
       <c r="AS56" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="57" spans="1:45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="57" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>578</v>
       </c>
@@ -7680,26 +7381,23 @@
       <c r="AJ57" t="s">
         <v>135</v>
       </c>
-      <c r="AK57" t="s">
+      <c r="AM57" t="s">
         <v>191</v>
       </c>
-      <c r="AM57" t="s">
-        <v>253</v>
-      </c>
       <c r="AN57" t="s">
-        <v>259</v>
+        <v>197</v>
       </c>
       <c r="AO57" t="s">
-        <v>260</v>
+        <v>198</v>
       </c>
       <c r="AP57" t="s">
         <v>129</v>
       </c>
       <c r="AS57" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="58" spans="1:45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>3278</v>
       </c>
@@ -7793,26 +7491,23 @@
       <c r="AJ58" t="s">
         <v>135</v>
       </c>
-      <c r="AK58" t="s">
+      <c r="AM58" t="s">
         <v>192</v>
       </c>
-      <c r="AM58" t="s">
-        <v>254</v>
-      </c>
       <c r="AN58" t="s">
-        <v>259</v>
+        <v>197</v>
       </c>
       <c r="AO58" t="s">
-        <v>260</v>
+        <v>198</v>
       </c>
       <c r="AP58" t="s">
-        <v>261</v>
+        <v>199</v>
       </c>
       <c r="AS58" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="59" spans="1:45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>3327</v>
       </c>
@@ -7906,26 +7601,23 @@
       <c r="AJ59" t="s">
         <v>135</v>
       </c>
-      <c r="AK59" t="s">
+      <c r="AM59" t="s">
         <v>193</v>
       </c>
-      <c r="AM59" t="s">
-        <v>255</v>
-      </c>
       <c r="AN59" t="s">
-        <v>259</v>
+        <v>197</v>
       </c>
       <c r="AO59" t="s">
-        <v>260</v>
+        <v>198</v>
       </c>
       <c r="AP59" t="s">
-        <v>261</v>
+        <v>199</v>
       </c>
       <c r="AS59" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="60" spans="1:45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>3887</v>
       </c>
@@ -8019,26 +7711,23 @@
       <c r="AJ60" t="s">
         <v>135</v>
       </c>
-      <c r="AK60" t="s">
+      <c r="AM60" t="s">
         <v>194</v>
       </c>
-      <c r="AM60" t="s">
-        <v>256</v>
-      </c>
       <c r="AN60" t="s">
-        <v>259</v>
+        <v>197</v>
       </c>
       <c r="AO60" t="s">
-        <v>260</v>
+        <v>198</v>
       </c>
       <c r="AP60" t="s">
-        <v>261</v>
+        <v>199</v>
       </c>
       <c r="AS60" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="61" spans="1:45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>3943</v>
       </c>
@@ -8126,26 +7815,23 @@
       <c r="AH61" t="s">
         <v>132</v>
       </c>
-      <c r="AK61" t="s">
+      <c r="AM61" t="s">
         <v>195</v>
       </c>
-      <c r="AM61" t="s">
-        <v>257</v>
-      </c>
       <c r="AN61" t="s">
-        <v>259</v>
+        <v>197</v>
       </c>
       <c r="AO61" t="s">
-        <v>260</v>
+        <v>198</v>
       </c>
       <c r="AP61" t="s">
-        <v>261</v>
+        <v>199</v>
       </c>
       <c r="AS61" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="62" spans="1:45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>4591</v>
       </c>
@@ -8239,23 +7925,20 @@
       <c r="AJ62" t="s">
         <v>135</v>
       </c>
-      <c r="AK62" t="s">
-        <v>196</v>
-      </c>
       <c r="AN62" t="s">
-        <v>259</v>
+        <v>197</v>
       </c>
       <c r="AO62" t="s">
-        <v>260</v>
+        <v>198</v>
       </c>
       <c r="AP62" t="s">
-        <v>261</v>
+        <v>199</v>
       </c>
       <c r="AS62" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="63" spans="1:45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>5254</v>
       </c>
@@ -8349,606 +8032,603 @@
       <c r="AJ63" t="s">
         <v>135</v>
       </c>
-      <c r="AK63" t="s">
+      <c r="AM63" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN63" t="s">
         <v>197</v>
       </c>
-      <c r="AM63" t="s">
-        <v>258</v>
-      </c>
-      <c r="AN63" t="s">
-        <v>259</v>
-      </c>
       <c r="AO63" t="s">
-        <v>260</v>
+        <v>198</v>
       </c>
       <c r="AP63" t="s">
         <v>129</v>
       </c>
       <c r="AS63" t="s">
-        <v>262</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B8" r:id="rId7"/>
-    <hyperlink ref="B9" r:id="rId8"/>
-    <hyperlink ref="B10" r:id="rId9"/>
-    <hyperlink ref="B11" r:id="rId10"/>
-    <hyperlink ref="B12" r:id="rId11"/>
-    <hyperlink ref="B13" r:id="rId12"/>
-    <hyperlink ref="B14" r:id="rId13"/>
-    <hyperlink ref="B15" r:id="rId14"/>
-    <hyperlink ref="B16" r:id="rId15"/>
-    <hyperlink ref="B17" r:id="rId16"/>
-    <hyperlink ref="B18" r:id="rId17"/>
-    <hyperlink ref="B19" r:id="rId18"/>
-    <hyperlink ref="B20" r:id="rId19"/>
-    <hyperlink ref="B21" r:id="rId20"/>
-    <hyperlink ref="B22" r:id="rId21"/>
-    <hyperlink ref="B23" r:id="rId22"/>
-    <hyperlink ref="B24" r:id="rId23"/>
-    <hyperlink ref="B25" r:id="rId24"/>
-    <hyperlink ref="B26" r:id="rId25"/>
-    <hyperlink ref="B27" r:id="rId26"/>
-    <hyperlink ref="B28" r:id="rId27"/>
-    <hyperlink ref="B29" r:id="rId28"/>
-    <hyperlink ref="B30" r:id="rId29"/>
-    <hyperlink ref="B31" r:id="rId30"/>
-    <hyperlink ref="B32" r:id="rId31"/>
-    <hyperlink ref="B33" r:id="rId32"/>
-    <hyperlink ref="B34" r:id="rId33"/>
-    <hyperlink ref="B35" r:id="rId34"/>
-    <hyperlink ref="B36" r:id="rId35"/>
-    <hyperlink ref="B37" r:id="rId36"/>
-    <hyperlink ref="B38" r:id="rId37"/>
-    <hyperlink ref="B39" r:id="rId38"/>
-    <hyperlink ref="B40" r:id="rId39"/>
-    <hyperlink ref="B41" r:id="rId40"/>
-    <hyperlink ref="B42" r:id="rId41"/>
-    <hyperlink ref="B43" r:id="rId42"/>
-    <hyperlink ref="B44" r:id="rId43"/>
-    <hyperlink ref="B45" r:id="rId44"/>
-    <hyperlink ref="B46" r:id="rId45"/>
-    <hyperlink ref="B47" r:id="rId46"/>
-    <hyperlink ref="B48" r:id="rId47"/>
-    <hyperlink ref="B49" r:id="rId48"/>
-    <hyperlink ref="B50" r:id="rId49"/>
-    <hyperlink ref="B51" r:id="rId50"/>
-    <hyperlink ref="B52" r:id="rId51"/>
-    <hyperlink ref="B53" r:id="rId52"/>
-    <hyperlink ref="B54" r:id="rId53"/>
-    <hyperlink ref="B55" r:id="rId54"/>
-    <hyperlink ref="B56" r:id="rId55"/>
-    <hyperlink ref="B57" r:id="rId56"/>
-    <hyperlink ref="B58" r:id="rId57"/>
-    <hyperlink ref="B59" r:id="rId58"/>
-    <hyperlink ref="B60" r:id="rId59"/>
-    <hyperlink ref="B61" r:id="rId60"/>
-    <hyperlink ref="B62" r:id="rId61"/>
-    <hyperlink ref="B63" r:id="rId62"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="B27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="B29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="B30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="B31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="B32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="B33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="B34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="B35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="B36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="B37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="B38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="B39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="B40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="B41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="B42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="B43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="B44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="B45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="B46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="B47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="B48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="B49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="B50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="B51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="B52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="B53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="B54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="B55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="B56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="B57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="B58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="B59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="B60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="B61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="B62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="B63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>263</v>
+        <v>201</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>264</v>
+        <v>202</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>266</v>
+        <v>204</v>
       </c>
       <c r="C2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>267</v>
+        <v>205</v>
       </c>
       <c r="C3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>267</v>
+        <v>205</v>
       </c>
       <c r="C4" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>267</v>
+        <v>205</v>
       </c>
       <c r="C5" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>267</v>
+        <v>205</v>
       </c>
       <c r="C6" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>267</v>
+        <v>205</v>
       </c>
       <c r="C7" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>267</v>
+        <v>205</v>
       </c>
       <c r="C8" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>267</v>
+        <v>205</v>
       </c>
       <c r="C9" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>267</v>
+        <v>205</v>
       </c>
       <c r="C10" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>267</v>
+        <v>205</v>
       </c>
       <c r="C11" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>267</v>
+        <v>205</v>
       </c>
       <c r="C12" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>267</v>
+        <v>205</v>
       </c>
       <c r="C13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>267</v>
+        <v>205</v>
       </c>
       <c r="C14" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>267</v>
+        <v>205</v>
       </c>
       <c r="C15" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>267</v>
+        <v>205</v>
       </c>
       <c r="C16" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>267</v>
+        <v>205</v>
       </c>
       <c r="C17" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>267</v>
+        <v>205</v>
       </c>
       <c r="C18" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>267</v>
+        <v>205</v>
       </c>
       <c r="C19" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>267</v>
+        <v>205</v>
       </c>
       <c r="C20" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>267</v>
+        <v>205</v>
       </c>
       <c r="C21" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>267</v>
+        <v>205</v>
       </c>
       <c r="C22" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>267</v>
+        <v>205</v>
       </c>
       <c r="C23" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>267</v>
+        <v>205</v>
       </c>
       <c r="C24" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>267</v>
+        <v>205</v>
       </c>
       <c r="C25" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>267</v>
+        <v>205</v>
       </c>
       <c r="C26" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>267</v>
+        <v>205</v>
       </c>
       <c r="C27" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>267</v>
+        <v>205</v>
       </c>
       <c r="C28" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>267</v>
+        <v>205</v>
       </c>
       <c r="C29" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>267</v>
+        <v>205</v>
       </c>
       <c r="C30" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>267</v>
+        <v>205</v>
       </c>
       <c r="C31" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>267</v>
+        <v>205</v>
       </c>
       <c r="C32" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>267</v>
+        <v>205</v>
       </c>
       <c r="C33" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>267</v>
+        <v>205</v>
       </c>
       <c r="C34" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>267</v>
+        <v>205</v>
       </c>
       <c r="C35" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>267</v>
+        <v>205</v>
       </c>
       <c r="C36" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>267</v>
+        <v>205</v>
       </c>
       <c r="C37" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>267</v>
+        <v>205</v>
       </c>
       <c r="C38" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>267</v>
+        <v>205</v>
       </c>
       <c r="C39" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>267</v>
+        <v>205</v>
       </c>
       <c r="C40" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>267</v>
+        <v>205</v>
       </c>
       <c r="C41" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>267</v>
+        <v>205</v>
       </c>
       <c r="C42" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>267</v>
+        <v>205</v>
       </c>
       <c r="C43" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>267</v>
+        <v>205</v>
       </c>
       <c r="C44" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>267</v>
+        <v>205</v>
       </c>
       <c r="C45" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>267</v>
+        <v>205</v>
       </c>
       <c r="C46" t="s">
-        <v>312</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/raw/project_UVP_standardizer.xlsx
+++ b/raw/project_UVP_standardizer.xlsx
@@ -767,7 +767,7 @@
     <t>Unit of the largest sampled size column in project file (e.g. mesh size). Used to describe the sampling collection threshold</t>
   </si>
   <si>
-    <t>Additoinal description of the sampling method or protocol (e.g. net_aperture:{field:net_surf,unit:square_meter}, fixative:{chemical:glutaraldehyde,concentration:0.1%}, reference: {https://doi.org/...,https://www.protocols.io/view/zooscan-protocol-yxmvmk8j9g3p/v1})</t>
+    <t>Additional description of the sampling method or protocol (e.g. net_aperture:{field:net_surf,unit:square_meter}, fixative:{chemical:glutaraldehyde,concentration:0.1%}, reference: {https://doi.org/...,https://www.protocols.io/view/zooscan-protocol-yxmvmk8j9g3p/v1})</t>
   </si>
 </sst>
 </file>

--- a/raw/project_UVP_standardizer.xlsx
+++ b/raw/project_UVP_standardizer.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dugennem/GIT/PSSdb/raw/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DAEE99D-B057-114C-96D4-4115939B412F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="26660" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Metadata" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2318" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2315" uniqueCount="248">
   <si>
     <t>Project_ID</t>
   </si>
@@ -425,189 +431,6 @@
     <t>object_annotation_status</t>
   </si>
   <si>
-    <t>uvp5_sn005_dewex_winter_2013</t>
-  </si>
-  <si>
-    <t>uvp5_sn003_dewex_spring_2013</t>
-  </si>
-  <si>
-    <t>uvp5_sn003_sargasso_a,uvp5_sn003_sargasso_b</t>
-  </si>
-  <si>
-    <t>uvp5_sn000_malina2009</t>
-  </si>
-  <si>
-    <t>uvp5_sn002_somba_ge_2014</t>
-  </si>
-  <si>
-    <t>uvp5_sn003_outpace_2015</t>
-  </si>
-  <si>
-    <t>uvp5_sn003_cassiopee_2015</t>
-  </si>
-  <si>
-    <t>uvp5_sn003_medsea2013</t>
-  </si>
-  <si>
-    <t>uvp5_sn000_operex2008</t>
-  </si>
-  <si>
-    <t>uvp5_sn010_2016_m130</t>
-  </si>
-  <si>
-    <t>uvp5_sn010_2017_fluxes1</t>
-  </si>
-  <si>
-    <t>uvp5_sn010_2016_m131</t>
-  </si>
-  <si>
-    <t>uvp5_sn010_2017_m135</t>
-  </si>
-  <si>
-    <t>uvp5_sn001_2013_m92</t>
-  </si>
-  <si>
-    <t>uvp5_sn010_2014_ps88b</t>
-  </si>
-  <si>
-    <t>uvp5_sn010_2014_m107</t>
-  </si>
-  <si>
-    <t>sn010_2015_m121</t>
-  </si>
-  <si>
-    <t>uvp5_sn001_2013_m93</t>
-  </si>
-  <si>
-    <t>uvp5_sn003_jerico_2017</t>
-  </si>
-  <si>
-    <t>uvp5_sn000_tara2009,uvp5_sn000_tara2010,uvp5_sn000_tara2011,uvp5_sn000_tara2012,uvp5_sn000_tara2013</t>
-  </si>
-  <si>
-    <t>uvp5_sn001_2012_msm23</t>
-  </si>
-  <si>
-    <t>uvp5_sn001_2013_m96</t>
-  </si>
-  <si>
-    <t>uvp5_sn010_2014_m108</t>
-  </si>
-  <si>
-    <t>uvp5_sn001_2014_msm40</t>
-  </si>
-  <si>
-    <t>uvp5_sn000_msm049</t>
-  </si>
-  <si>
-    <t>uvp5_sn010_2015_m116</t>
-  </si>
-  <si>
-    <t>uvp5_sn010_2015_m119</t>
-  </si>
-  <si>
-    <t>uvp5_sn001_2012_msm22</t>
-  </si>
-  <si>
-    <t>uvp5_sn010_2015_m120</t>
-  </si>
-  <si>
-    <t>uvp5_sn010_2014_m106</t>
-  </si>
-  <si>
-    <t>uvp5_sn010_2014_m105</t>
-  </si>
-  <si>
-    <t>uvp5_sn001_2013_m97</t>
-  </si>
-  <si>
-    <t>uvp4_sn001_2013_m98</t>
-  </si>
-  <si>
-    <t>uvp5_sn010_2017_m136</t>
-  </si>
-  <si>
-    <t>uvp5_sn010_2017_m137</t>
-  </si>
-  <si>
-    <t>uvp5_sn001_2017_m138</t>
-  </si>
-  <si>
-    <t>uvp5_sn003_iado_2017</t>
-  </si>
-  <si>
-    <t>uvp5_sn010_2017_fluxes2</t>
-  </si>
-  <si>
-    <t>uvp5_sn010_2014_eddy</t>
-  </si>
-  <si>
-    <t>uvp5_sn002_iado_2018</t>
-  </si>
-  <si>
-    <t>uvp5_sn210_2019_lima</t>
-  </si>
-  <si>
-    <t>uvp5_sn205_coastdark_2019</t>
-  </si>
-  <si>
-    <t>uvp5_sn010_2018_m147</t>
-  </si>
-  <si>
-    <t>uvp5_sn010_2018_m145</t>
-  </si>
-  <si>
-    <t>uvp5_sn010_2018_m148</t>
-  </si>
-  <si>
-    <t>uvp5_sn010_2016_love</t>
-  </si>
-  <si>
-    <t>uvp6_sn000110lp_2020_07_float_recover</t>
-  </si>
-  <si>
-    <t>uvp6_sn000006lp_2020_sc_basintest</t>
-  </si>
-  <si>
-    <t>uvp5_sn002_iado_2020</t>
-  </si>
-  <si>
-    <t>uvp6_sn000003lp_20201109_seaexplorer_002</t>
-  </si>
-  <si>
-    <t>uvp6_sn000125hf_20201022_rade_test_cdt</t>
-  </si>
-  <si>
-    <t>uvp5_sn205_so284_2021_filtered</t>
-  </si>
-  <si>
-    <t>uvp5_sn205_so285_2021_filtered</t>
-  </si>
-  <si>
-    <t>uvp5_sn003_tara_microbiome_2021</t>
-  </si>
-  <si>
-    <t>uvp6_sn000130hf_2021_amazomix</t>
-  </si>
-  <si>
-    <t>uvp5_sn210_2018_msm080</t>
-  </si>
-  <si>
-    <t>uvp5_sn210_2019_m158</t>
-  </si>
-  <si>
-    <t>uvp6_sn000130hf_202205_champlain_lake</t>
-  </si>
-  <si>
-    <t>uvp5_sn203_2022_so287</t>
-  </si>
-  <si>
-    <t>uvp5_sn203_2022_so288</t>
-  </si>
-  <si>
-    <t>uvp5_sn203_2022_so289</t>
-  </si>
-  <si>
     <t>acq_instrument</t>
   </si>
   <si>
@@ -768,13 +591,187 @@
   </si>
   <si>
     <t>Additional description of the sampling method or protocol (e.g. net_aperture:{field:net_surf,unit:square_meter}, fixative:{chemical:glutaraldehyde,concentration:0.1%}, reference: {https://doi.org/...,https://www.protocols.io/view/zooscan-protocol-yxmvmk8j9g3p/v1})</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>48;47</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>223</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>99;51;49;9;7;6</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>310</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>226</t>
+  </si>
+  <si>
+    <t>249</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>254</t>
+  </si>
+  <si>
+    <t>276</t>
+  </si>
+  <si>
+    <t>428</t>
+  </si>
+  <si>
+    <t>430</t>
+  </si>
+  <si>
+    <t>433</t>
+  </si>
+  <si>
+    <t>438</t>
+  </si>
+  <si>
+    <t>255</t>
+  </si>
+  <si>
+    <t>494</t>
+  </si>
+  <si>
+    <t>558</t>
+  </si>
+  <si>
+    <t>559</t>
+  </si>
+  <si>
+    <t>560</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -850,6 +847,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -896,7 +901,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -928,9 +933,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -962,6 +985,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1137,14 +1178,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="AK43" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B63" sqref="B63"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="13.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:45">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1281,7 +1331,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:45">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3</v>
       </c>
@@ -1376,22 +1426,22 @@
         <v>135</v>
       </c>
       <c r="AM2" t="s">
+        <v>190</v>
+      </c>
+      <c r="AN2" t="s">
         <v>136</v>
       </c>
-      <c r="AN2" t="s">
-        <v>197</v>
-      </c>
       <c r="AO2" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="AP2" t="s">
         <v>129</v>
       </c>
       <c r="AS2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>4</v>
       </c>
@@ -1486,22 +1536,22 @@
         <v>135</v>
       </c>
       <c r="AM3" t="s">
+        <v>191</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>136</v>
+      </c>
+      <c r="AO3" t="s">
         <v>137</v>
       </c>
-      <c r="AN3" t="s">
-        <v>197</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>198</v>
-      </c>
       <c r="AP3" t="s">
         <v>129</v>
       </c>
       <c r="AS3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>22</v>
       </c>
@@ -1596,22 +1646,22 @@
         <v>135</v>
       </c>
       <c r="AM4" t="s">
-        <v>138</v>
+        <v>192</v>
       </c>
       <c r="AN4" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="AO4" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="AP4" t="s">
         <v>129</v>
       </c>
       <c r="AS4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>28</v>
       </c>
@@ -1706,16 +1756,16 @@
         <v>135</v>
       </c>
       <c r="AM5" t="s">
+        <v>193</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>136</v>
+      </c>
+      <c r="AS5" t="s">
         <v>139</v>
       </c>
-      <c r="AN5" t="s">
-        <v>197</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:45">
+    </row>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>36</v>
       </c>
@@ -1810,22 +1860,22 @@
         <v>135</v>
       </c>
       <c r="AM6" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="AN6" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="AO6" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="AP6" t="s">
         <v>129</v>
       </c>
       <c r="AS6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>37</v>
       </c>
@@ -1920,22 +1970,22 @@
         <v>135</v>
       </c>
       <c r="AM7" t="s">
-        <v>141</v>
+        <v>195</v>
       </c>
       <c r="AN7" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="AO7" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="AP7" t="s">
         <v>129</v>
       </c>
       <c r="AS7" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>38</v>
       </c>
@@ -2030,22 +2080,22 @@
         <v>135</v>
       </c>
       <c r="AM8" t="s">
-        <v>142</v>
+        <v>196</v>
       </c>
       <c r="AN8" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="AO8" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="AP8" t="s">
         <v>129</v>
       </c>
       <c r="AS8" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>39</v>
       </c>
@@ -2140,22 +2190,22 @@
         <v>135</v>
       </c>
       <c r="AM9" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="AN9" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="AO9" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="AP9" t="s">
         <v>129</v>
       </c>
       <c r="AS9" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>110</v>
       </c>
@@ -2250,22 +2300,22 @@
         <v>135</v>
       </c>
       <c r="AM10" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="AN10" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="AO10" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="AP10" t="s">
         <v>129</v>
       </c>
       <c r="AS10" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>214</v>
       </c>
@@ -2360,22 +2410,22 @@
         <v>135</v>
       </c>
       <c r="AM11" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="AN11" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="AO11" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="AP11" t="s">
         <v>129</v>
       </c>
       <c r="AS11" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>507</v>
       </c>
@@ -2470,22 +2520,22 @@
         <v>135</v>
       </c>
       <c r="AM12" t="s">
-        <v>146</v>
+        <v>200</v>
       </c>
       <c r="AN12" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="AO12" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="AP12" t="s">
         <v>129</v>
       </c>
       <c r="AS12" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>545</v>
       </c>
@@ -2580,22 +2630,22 @@
         <v>135</v>
       </c>
       <c r="AM13" t="s">
-        <v>147</v>
+        <v>201</v>
       </c>
       <c r="AN13" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="AO13" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="AP13" t="s">
         <v>129</v>
       </c>
       <c r="AS13" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>548</v>
       </c>
@@ -2690,22 +2740,22 @@
         <v>135</v>
       </c>
       <c r="AM14" t="s">
-        <v>148</v>
+        <v>202</v>
       </c>
       <c r="AN14" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="AO14" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="AP14" t="s">
         <v>129</v>
       </c>
       <c r="AS14" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="15" spans="1:45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>556</v>
       </c>
@@ -2800,16 +2850,16 @@
         <v>135</v>
       </c>
       <c r="AM15" t="s">
-        <v>149</v>
+        <v>203</v>
       </c>
       <c r="AN15" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="AS15" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>558</v>
       </c>
@@ -2904,16 +2954,16 @@
         <v>135</v>
       </c>
       <c r="AM16" t="s">
-        <v>150</v>
+        <v>204</v>
       </c>
       <c r="AN16" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="AS16" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>559</v>
       </c>
@@ -3008,22 +3058,22 @@
         <v>135</v>
       </c>
       <c r="AM17" t="s">
-        <v>151</v>
+        <v>205</v>
       </c>
       <c r="AN17" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="AO17" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="AP17" t="s">
         <v>129</v>
       </c>
       <c r="AS17" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>560</v>
       </c>
@@ -3117,23 +3167,23 @@
       <c r="AJ18" t="s">
         <v>135</v>
       </c>
-      <c r="AM18" t="s">
-        <v>152</v>
+      <c r="AM18">
+        <v>76</v>
       </c>
       <c r="AN18" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="AO18" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="AP18" t="s">
         <v>129</v>
       </c>
       <c r="AS18" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19" spans="1:45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>563</v>
       </c>
@@ -3228,22 +3278,22 @@
         <v>135</v>
       </c>
       <c r="AM19" t="s">
-        <v>153</v>
+        <v>206</v>
       </c>
       <c r="AN19" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="AO19" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="AP19" t="s">
         <v>129</v>
       </c>
       <c r="AS19" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="20" spans="1:45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>578</v>
       </c>
@@ -3338,22 +3388,22 @@
         <v>135</v>
       </c>
       <c r="AM20" t="s">
-        <v>154</v>
+        <v>207</v>
       </c>
       <c r="AN20" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="AO20" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="AP20" t="s">
         <v>129</v>
       </c>
       <c r="AS20" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21" spans="1:45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>579</v>
       </c>
@@ -3448,22 +3498,22 @@
         <v>135</v>
       </c>
       <c r="AM21" t="s">
-        <v>155</v>
+        <v>208</v>
       </c>
       <c r="AN21" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="AO21" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="AP21" t="s">
         <v>129</v>
       </c>
       <c r="AS21" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22" spans="1:45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>584</v>
       </c>
@@ -3558,22 +3608,22 @@
         <v>135</v>
       </c>
       <c r="AM22" t="s">
-        <v>156</v>
+        <v>209</v>
       </c>
       <c r="AN22" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="AO22" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="AP22" t="s">
         <v>129</v>
       </c>
       <c r="AS22" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="23" spans="1:45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>585</v>
       </c>
@@ -3668,16 +3718,16 @@
         <v>135</v>
       </c>
       <c r="AM23" t="s">
-        <v>157</v>
+        <v>210</v>
       </c>
       <c r="AN23" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="AS23" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24" spans="1:45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>586</v>
       </c>
@@ -3772,22 +3822,22 @@
         <v>135</v>
       </c>
       <c r="AM24" t="s">
-        <v>158</v>
+        <v>211</v>
       </c>
       <c r="AN24" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="AO24" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="AP24" t="s">
         <v>129</v>
       </c>
       <c r="AS24" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="25" spans="1:45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>587</v>
       </c>
@@ -3882,16 +3932,16 @@
         <v>135</v>
       </c>
       <c r="AM25" t="s">
-        <v>159</v>
+        <v>212</v>
       </c>
       <c r="AN25" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="AS25" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="26" spans="1:45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>588</v>
       </c>
@@ -3986,22 +4036,22 @@
         <v>135</v>
       </c>
       <c r="AM26" t="s">
-        <v>160</v>
+        <v>213</v>
       </c>
       <c r="AN26" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="AO26" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="AP26" t="s">
         <v>129</v>
       </c>
       <c r="AS26" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="1:45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>589</v>
       </c>
@@ -4096,22 +4146,22 @@
         <v>135</v>
       </c>
       <c r="AM27" t="s">
-        <v>161</v>
+        <v>214</v>
       </c>
       <c r="AN27" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="AO27" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="AP27" t="s">
         <v>129</v>
       </c>
       <c r="AS27" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="1:45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="28" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>590</v>
       </c>
@@ -4206,22 +4256,22 @@
         <v>135</v>
       </c>
       <c r="AM28" t="s">
-        <v>162</v>
+        <v>215</v>
       </c>
       <c r="AN28" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="AO28" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="AP28" t="s">
         <v>129</v>
       </c>
       <c r="AS28" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="29" spans="1:45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>593</v>
       </c>
@@ -4316,16 +4366,16 @@
         <v>135</v>
       </c>
       <c r="AM29" t="s">
-        <v>163</v>
+        <v>216</v>
       </c>
       <c r="AN29" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="AS29" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="30" spans="1:45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>594</v>
       </c>
@@ -4420,22 +4470,22 @@
         <v>135</v>
       </c>
       <c r="AM30" t="s">
-        <v>164</v>
+        <v>217</v>
       </c>
       <c r="AN30" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="AO30" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="AP30" t="s">
         <v>129</v>
       </c>
       <c r="AS30" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="31" spans="1:45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="31" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>595</v>
       </c>
@@ -4530,22 +4580,22 @@
         <v>135</v>
       </c>
       <c r="AM31" t="s">
-        <v>165</v>
+        <v>218</v>
       </c>
       <c r="AN31" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="AO31" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="AP31" t="s">
         <v>129</v>
       </c>
       <c r="AS31" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="32" spans="1:45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="32" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>602</v>
       </c>
@@ -4640,16 +4690,16 @@
         <v>135</v>
       </c>
       <c r="AM32" t="s">
-        <v>166</v>
+        <v>219</v>
       </c>
       <c r="AN32" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="AS32" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="33" spans="1:45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>603</v>
       </c>
@@ -4744,16 +4794,16 @@
         <v>135</v>
       </c>
       <c r="AM33" t="s">
-        <v>167</v>
+        <v>220</v>
       </c>
       <c r="AN33" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="AS33" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="34" spans="1:45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="34" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>610</v>
       </c>
@@ -4848,16 +4898,16 @@
         <v>135</v>
       </c>
       <c r="AM34" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="AN34" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="AS34" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="35" spans="1:45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>620</v>
       </c>
@@ -4952,22 +5002,22 @@
         <v>135</v>
       </c>
       <c r="AM35" t="s">
-        <v>169</v>
+        <v>222</v>
       </c>
       <c r="AN35" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="AO35" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="AP35" t="s">
         <v>129</v>
       </c>
       <c r="AS35" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="36" spans="1:45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>621</v>
       </c>
@@ -5062,22 +5112,22 @@
         <v>135</v>
       </c>
       <c r="AM36" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="AN36" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="AO36" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="AP36" t="s">
         <v>129</v>
       </c>
       <c r="AS36" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="37" spans="1:45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="37" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>622</v>
       </c>
@@ -5172,16 +5222,16 @@
         <v>135</v>
       </c>
       <c r="AM37" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="AN37" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="AS37" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="38" spans="1:45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="38" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>651</v>
       </c>
@@ -5276,22 +5326,22 @@
         <v>135</v>
       </c>
       <c r="AM38" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="AN38" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="AO38" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="AP38" t="s">
         <v>129</v>
       </c>
       <c r="AS38" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="39" spans="1:45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="39" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>855</v>
       </c>
@@ -5386,22 +5436,22 @@
         <v>135</v>
       </c>
       <c r="AM39" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="AN39" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="AO39" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="AP39" t="s">
         <v>129</v>
       </c>
       <c r="AS39" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="40" spans="1:45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="40" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>881</v>
       </c>
@@ -5496,22 +5546,22 @@
         <v>135</v>
       </c>
       <c r="AM40" t="s">
-        <v>174</v>
+        <v>227</v>
       </c>
       <c r="AN40" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="AO40" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="AP40" t="s">
         <v>129</v>
       </c>
       <c r="AS40" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="41" spans="1:45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="41" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1343</v>
       </c>
@@ -5606,22 +5656,22 @@
         <v>135</v>
       </c>
       <c r="AM41" t="s">
-        <v>175</v>
+        <v>228</v>
       </c>
       <c r="AN41" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="AO41" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="AP41" t="s">
         <v>129</v>
       </c>
       <c r="AS41" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="42" spans="1:45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="42" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2465</v>
       </c>
@@ -5716,22 +5766,22 @@
         <v>135</v>
       </c>
       <c r="AM42" t="s">
-        <v>176</v>
+        <v>229</v>
       </c>
       <c r="AN42" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="AO42" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="AP42" t="s">
         <v>129</v>
       </c>
       <c r="AS42" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="43" spans="1:45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="43" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2483</v>
       </c>
@@ -5826,22 +5876,22 @@
         <v>135</v>
       </c>
       <c r="AM43" t="s">
-        <v>177</v>
+        <v>230</v>
       </c>
       <c r="AN43" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="AO43" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="AP43" t="s">
         <v>129</v>
       </c>
       <c r="AS43" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="44" spans="1:45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="44" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2806</v>
       </c>
@@ -5936,22 +5986,22 @@
         <v>135</v>
       </c>
       <c r="AM44" t="s">
-        <v>178</v>
+        <v>231</v>
       </c>
       <c r="AN44" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="AO44" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="AP44" t="s">
         <v>129</v>
       </c>
       <c r="AS44" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="45" spans="1:45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="45" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2807</v>
       </c>
@@ -6046,22 +6096,22 @@
         <v>135</v>
       </c>
       <c r="AM45" t="s">
-        <v>179</v>
+        <v>232</v>
       </c>
       <c r="AN45" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="AO45" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="AP45" t="s">
         <v>129</v>
       </c>
       <c r="AS45" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="46" spans="1:45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="46" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2808</v>
       </c>
@@ -6156,22 +6206,22 @@
         <v>135</v>
       </c>
       <c r="AM46" t="s">
-        <v>180</v>
+        <v>233</v>
       </c>
       <c r="AN46" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="AO46" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="AP46" t="s">
         <v>129</v>
       </c>
       <c r="AS46" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="47" spans="1:45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="47" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>3117</v>
       </c>
@@ -6266,22 +6316,22 @@
         <v>135</v>
       </c>
       <c r="AM47" t="s">
-        <v>181</v>
+        <v>234</v>
       </c>
       <c r="AN47" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="AO47" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="AP47" t="s">
         <v>129</v>
       </c>
       <c r="AS47" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="48" spans="1:45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="48" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>3278</v>
       </c>
@@ -6376,22 +6426,22 @@
         <v>135</v>
       </c>
       <c r="AM48" t="s">
-        <v>182</v>
+        <v>235</v>
       </c>
       <c r="AN48" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="AO48" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="AP48" t="s">
-        <v>199</v>
+        <v>138</v>
       </c>
       <c r="AS48" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="49" spans="1:45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="49" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>3327</v>
       </c>
@@ -6486,22 +6536,22 @@
         <v>135</v>
       </c>
       <c r="AM49" t="s">
-        <v>183</v>
+        <v>236</v>
       </c>
       <c r="AN49" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="AO49" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="AP49" t="s">
-        <v>199</v>
+        <v>138</v>
       </c>
       <c r="AS49" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="50" spans="1:45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="50" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>3403</v>
       </c>
@@ -6590,22 +6640,22 @@
         <v>132</v>
       </c>
       <c r="AM50" t="s">
-        <v>184</v>
+        <v>237</v>
       </c>
       <c r="AN50" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="AO50" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="AP50" t="s">
         <v>129</v>
       </c>
       <c r="AS50" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="51" spans="1:45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="51" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>3887</v>
       </c>
@@ -6700,22 +6750,22 @@
         <v>135</v>
       </c>
       <c r="AM51" t="s">
-        <v>185</v>
+        <v>238</v>
       </c>
       <c r="AN51" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="AO51" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="AP51" t="s">
-        <v>199</v>
+        <v>138</v>
       </c>
       <c r="AS51" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="52" spans="1:45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="52" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>3943</v>
       </c>
@@ -6803,23 +6853,23 @@
       <c r="AH52" t="s">
         <v>133</v>
       </c>
-      <c r="AM52" t="s">
-        <v>186</v>
+      <c r="AM52">
+        <v>284</v>
       </c>
       <c r="AN52" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="AO52" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="AP52" t="s">
-        <v>199</v>
+        <v>138</v>
       </c>
       <c r="AS52" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="53" spans="1:45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="53" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>4591</v>
       </c>
@@ -6914,19 +6964,19 @@
         <v>135</v>
       </c>
       <c r="AN53" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="AO53" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="AP53" t="s">
-        <v>199</v>
+        <v>138</v>
       </c>
       <c r="AS53" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="54" spans="1:45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="54" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>5197</v>
       </c>
@@ -7015,22 +7065,22 @@
         <v>132</v>
       </c>
       <c r="AM54" t="s">
-        <v>187</v>
+        <v>239</v>
       </c>
       <c r="AN54" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="AO54" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="AP54" t="s">
         <v>129</v>
       </c>
       <c r="AS54" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="55" spans="1:45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="55" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>5208</v>
       </c>
@@ -7119,22 +7169,22 @@
         <v>132</v>
       </c>
       <c r="AM55" t="s">
-        <v>188</v>
+        <v>240</v>
       </c>
       <c r="AN55" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="AO55" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="AP55" t="s">
         <v>129</v>
       </c>
       <c r="AS55" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="56" spans="1:45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="56" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>5254</v>
       </c>
@@ -7229,22 +7279,22 @@
         <v>135</v>
       </c>
       <c r="AM56" t="s">
-        <v>189</v>
+        <v>241</v>
       </c>
       <c r="AN56" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="AO56" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="AP56" t="s">
         <v>129</v>
       </c>
       <c r="AS56" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="57" spans="1:45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="57" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>5680</v>
       </c>
@@ -7339,22 +7389,22 @@
         <v>135</v>
       </c>
       <c r="AM57" t="s">
-        <v>190</v>
+        <v>242</v>
       </c>
       <c r="AN57" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="AO57" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="AP57" t="s">
-        <v>199</v>
+        <v>138</v>
       </c>
       <c r="AS57" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="58" spans="1:45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="58" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>5690</v>
       </c>
@@ -7448,23 +7498,23 @@
       <c r="AJ58" t="s">
         <v>135</v>
       </c>
-      <c r="AM58" t="s">
-        <v>191</v>
+      <c r="AM58">
+        <v>270</v>
       </c>
       <c r="AN58" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="AO58" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="AP58" t="s">
         <v>129</v>
       </c>
       <c r="AS58" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="59" spans="1:45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="59" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>5693</v>
       </c>
@@ -7559,22 +7609,22 @@
         <v>135</v>
       </c>
       <c r="AM59" t="s">
-        <v>192</v>
+        <v>243</v>
       </c>
       <c r="AN59" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="AO59" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="AP59" t="s">
         <v>129</v>
       </c>
       <c r="AS59" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="60" spans="1:45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="60" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>6047</v>
       </c>
@@ -7669,22 +7719,22 @@
         <v>135</v>
       </c>
       <c r="AM60" t="s">
-        <v>193</v>
+        <v>244</v>
       </c>
       <c r="AN60" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="AO60" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="AP60" t="s">
-        <v>199</v>
+        <v>138</v>
       </c>
       <c r="AS60" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="61" spans="1:45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="61" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>6702</v>
       </c>
@@ -7773,22 +7823,22 @@
         <v>132</v>
       </c>
       <c r="AM61" t="s">
-        <v>194</v>
+        <v>245</v>
       </c>
       <c r="AN61" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="AO61" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="AP61" t="s">
         <v>129</v>
       </c>
       <c r="AS61" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="62" spans="1:45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="62" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>6703</v>
       </c>
@@ -7877,22 +7927,22 @@
         <v>132</v>
       </c>
       <c r="AM62" t="s">
-        <v>195</v>
+        <v>246</v>
       </c>
       <c r="AN62" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="AO62" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="AP62" t="s">
         <v>129</v>
       </c>
       <c r="AS62" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="63" spans="1:45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="63" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>6704</v>
       </c>
@@ -7981,602 +8031,602 @@
         <v>132</v>
       </c>
       <c r="AM63" t="s">
-        <v>196</v>
+        <v>247</v>
       </c>
       <c r="AN63" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="AO63" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="AP63" t="s">
         <v>129</v>
       </c>
       <c r="AS63" t="s">
-        <v>200</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B8" r:id="rId7"/>
-    <hyperlink ref="B9" r:id="rId8"/>
-    <hyperlink ref="B10" r:id="rId9"/>
-    <hyperlink ref="B11" r:id="rId10"/>
-    <hyperlink ref="B12" r:id="rId11"/>
-    <hyperlink ref="B13" r:id="rId12"/>
-    <hyperlink ref="B14" r:id="rId13"/>
-    <hyperlink ref="B15" r:id="rId14"/>
-    <hyperlink ref="B16" r:id="rId15"/>
-    <hyperlink ref="B17" r:id="rId16"/>
-    <hyperlink ref="B18" r:id="rId17"/>
-    <hyperlink ref="B19" r:id="rId18"/>
-    <hyperlink ref="B20" r:id="rId19"/>
-    <hyperlink ref="B21" r:id="rId20"/>
-    <hyperlink ref="B22" r:id="rId21"/>
-    <hyperlink ref="B23" r:id="rId22"/>
-    <hyperlink ref="B24" r:id="rId23"/>
-    <hyperlink ref="B25" r:id="rId24"/>
-    <hyperlink ref="B26" r:id="rId25"/>
-    <hyperlink ref="B27" r:id="rId26"/>
-    <hyperlink ref="B28" r:id="rId27"/>
-    <hyperlink ref="B29" r:id="rId28"/>
-    <hyperlink ref="B30" r:id="rId29"/>
-    <hyperlink ref="B31" r:id="rId30"/>
-    <hyperlink ref="B32" r:id="rId31"/>
-    <hyperlink ref="B33" r:id="rId32"/>
-    <hyperlink ref="B34" r:id="rId33"/>
-    <hyperlink ref="B35" r:id="rId34"/>
-    <hyperlink ref="B36" r:id="rId35"/>
-    <hyperlink ref="B37" r:id="rId36"/>
-    <hyperlink ref="B38" r:id="rId37"/>
-    <hyperlink ref="B39" r:id="rId38"/>
-    <hyperlink ref="B40" r:id="rId39"/>
-    <hyperlink ref="B41" r:id="rId40"/>
-    <hyperlink ref="B42" r:id="rId41"/>
-    <hyperlink ref="B43" r:id="rId42"/>
-    <hyperlink ref="B44" r:id="rId43"/>
-    <hyperlink ref="B45" r:id="rId44"/>
-    <hyperlink ref="B46" r:id="rId45"/>
-    <hyperlink ref="B47" r:id="rId46"/>
-    <hyperlink ref="B48" r:id="rId47"/>
-    <hyperlink ref="B49" r:id="rId48"/>
-    <hyperlink ref="B50" r:id="rId49"/>
-    <hyperlink ref="B51" r:id="rId50"/>
-    <hyperlink ref="B52" r:id="rId51"/>
-    <hyperlink ref="B53" r:id="rId52"/>
-    <hyperlink ref="B54" r:id="rId53"/>
-    <hyperlink ref="B55" r:id="rId54"/>
-    <hyperlink ref="B56" r:id="rId55"/>
-    <hyperlink ref="B57" r:id="rId56"/>
-    <hyperlink ref="B58" r:id="rId57"/>
-    <hyperlink ref="B59" r:id="rId58"/>
-    <hyperlink ref="B60" r:id="rId59"/>
-    <hyperlink ref="B61" r:id="rId60"/>
-    <hyperlink ref="B62" r:id="rId61"/>
-    <hyperlink ref="B63" r:id="rId62"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="B27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="B29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="B30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="B31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="B32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="B33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="B34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="B35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="B36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="B37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="B38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="B39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="B40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="B41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="B42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="B43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="B44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="B45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="B46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="B47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="B48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="B49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="B50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="B51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="B52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="B53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="B54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="B55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="B56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="B57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="B58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="B59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="B60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="B61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="B62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="B63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>201</v>
+        <v>140</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>202</v>
+        <v>141</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>204</v>
+        <v>143</v>
       </c>
       <c r="C2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>205</v>
+        <v>144</v>
       </c>
       <c r="C3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>205</v>
+        <v>144</v>
       </c>
       <c r="C4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>205</v>
+        <v>144</v>
       </c>
       <c r="C5" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>205</v>
+        <v>144</v>
       </c>
       <c r="C6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>205</v>
+        <v>144</v>
       </c>
       <c r="C7" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>205</v>
+        <v>144</v>
       </c>
       <c r="C8" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>205</v>
+        <v>144</v>
       </c>
       <c r="C9" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>205</v>
+        <v>144</v>
       </c>
       <c r="C10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>205</v>
+        <v>144</v>
       </c>
       <c r="C11" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>205</v>
+        <v>144</v>
       </c>
       <c r="C12" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>205</v>
+        <v>144</v>
       </c>
       <c r="C13" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>205</v>
+        <v>144</v>
       </c>
       <c r="C14" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>205</v>
+        <v>144</v>
       </c>
       <c r="C15" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>205</v>
+        <v>144</v>
       </c>
       <c r="C16" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>205</v>
+        <v>144</v>
       </c>
       <c r="C17" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>205</v>
+        <v>144</v>
       </c>
       <c r="C18" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>205</v>
+        <v>144</v>
       </c>
       <c r="C19" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>205</v>
+        <v>144</v>
       </c>
       <c r="C20" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>205</v>
+        <v>144</v>
       </c>
       <c r="C21" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>205</v>
+        <v>144</v>
       </c>
       <c r="C22" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>205</v>
+        <v>144</v>
       </c>
       <c r="C23" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>205</v>
+        <v>144</v>
       </c>
       <c r="C24" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>205</v>
+        <v>144</v>
       </c>
       <c r="C25" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>205</v>
+        <v>144</v>
       </c>
       <c r="C26" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>205</v>
+        <v>144</v>
       </c>
       <c r="C27" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>205</v>
+        <v>144</v>
       </c>
       <c r="C28" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>205</v>
+        <v>144</v>
       </c>
       <c r="C29" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>205</v>
+        <v>144</v>
       </c>
       <c r="C30" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>205</v>
+        <v>144</v>
       </c>
       <c r="C31" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>205</v>
+        <v>144</v>
       </c>
       <c r="C32" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>205</v>
+        <v>144</v>
       </c>
       <c r="C33" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>205</v>
+        <v>144</v>
       </c>
       <c r="C34" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>205</v>
+        <v>144</v>
       </c>
       <c r="C35" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>205</v>
+        <v>144</v>
       </c>
       <c r="C36" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>205</v>
+        <v>144</v>
       </c>
       <c r="C37" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>205</v>
+        <v>144</v>
       </c>
       <c r="C38" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>205</v>
+        <v>144</v>
       </c>
       <c r="C39" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>205</v>
+        <v>144</v>
       </c>
       <c r="C40" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>205</v>
+        <v>144</v>
       </c>
       <c r="C41" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>205</v>
+        <v>144</v>
       </c>
       <c r="C42" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>205</v>
+        <v>144</v>
       </c>
       <c r="C43" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>205</v>
+        <v>144</v>
       </c>
       <c r="C44" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>205</v>
+        <v>144</v>
       </c>
       <c r="C45" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>205</v>
+        <v>144</v>
       </c>
       <c r="C46" t="s">
-        <v>250</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/raw/project_UVP_standardizer.xlsx
+++ b/raw/project_UVP_standardizer.xlsx
@@ -1,27 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11113"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dugennem/GIT/PSSdb/raw/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DAEE99D-B057-114C-96D4-4115939B412F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="760" windowWidth="26660" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Metadata" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2315" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2374" uniqueCount="307">
   <si>
     <t>Project_ID</t>
   </si>
@@ -431,6 +425,357 @@
     <t>object_annotation_status</t>
   </si>
   <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/project_3_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/project_4_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/project_22_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/project_28_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/project_36_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/project_37_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/project_38_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/project_39_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/project_110_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/project_214_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/project_507_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/project_545_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/project_556_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/project_558_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/project_559_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/project_560_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/project_563_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/project_578_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/project_579_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/project_584_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/project_585_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/project_586_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/project_587_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/project_588_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/project_589_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/project_590_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/project_593_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/project_594_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/project_595_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/project_602_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/project_603_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/project_610_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/project_620_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/project_621_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/project_622_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/project_651_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/project_855_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/project_881_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/project_1343_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/project_2465_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/project_2806_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/project_2807_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/project_2808_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/project_3117_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/project_3278_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/project_3327_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/project_3403_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/project_3887_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/project_3943_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/project_5197_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/project_5208_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/project_5254_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/project_5680_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/project_5690_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/project_5693_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/project_6047_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/project_6702_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/project_6703_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/UVP/project_6704_flags.tsv</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>48;47</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>223</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>99;51;49;9;7;6</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>310</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>226</t>
+  </si>
+  <si>
+    <t>249</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>254</t>
+  </si>
+  <si>
+    <t>276</t>
+  </si>
+  <si>
+    <t>428</t>
+  </si>
+  <si>
+    <t>430</t>
+  </si>
+  <si>
+    <t>433</t>
+  </si>
+  <si>
+    <t>438</t>
+  </si>
+  <si>
+    <t>255</t>
+  </si>
+  <si>
+    <t>494</t>
+  </si>
+  <si>
+    <t>558</t>
+  </si>
+  <si>
+    <t>559</t>
+  </si>
+  <si>
+    <t>560</t>
+  </si>
+  <si>
     <t>acq_instrument</t>
   </si>
   <si>
@@ -591,187 +936,13 @@
   </si>
   <si>
     <t>Additional description of the sampling method or protocol (e.g. net_aperture:{field:net_surf,unit:square_meter}, fixative:{chemical:glutaraldehyde,concentration:0.1%}, reference: {https://doi.org/...,https://www.protocols.io/view/zooscan-protocol-yxmvmk8j9g3p/v1})</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>48;47</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>223</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>99;51;49;9;7;6</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>310</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>171</t>
-  </si>
-  <si>
-    <t>172</t>
-  </si>
-  <si>
-    <t>173</t>
-  </si>
-  <si>
-    <t>226</t>
-  </si>
-  <si>
-    <t>249</t>
-  </si>
-  <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>254</t>
-  </si>
-  <si>
-    <t>276</t>
-  </si>
-  <si>
-    <t>428</t>
-  </si>
-  <si>
-    <t>430</t>
-  </si>
-  <si>
-    <t>433</t>
-  </si>
-  <si>
-    <t>438</t>
-  </si>
-  <si>
-    <t>255</t>
-  </si>
-  <si>
-    <t>494</t>
-  </si>
-  <si>
-    <t>558</t>
-  </si>
-  <si>
-    <t>559</t>
-  </si>
-  <si>
-    <t>560</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -847,14 +1018,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -901,7 +1064,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -933,27 +1096,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -985,24 +1130,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1178,23 +1305,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AS63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AK43" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B63" sqref="B63"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="13.5" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1331,7 +1449,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:45">
       <c r="A2">
         <v>3</v>
       </c>
@@ -1425,23 +1543,26 @@
       <c r="AJ2" t="s">
         <v>135</v>
       </c>
+      <c r="AK2" t="s">
+        <v>136</v>
+      </c>
       <c r="AM2" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="AN2" t="s">
-        <v>136</v>
+        <v>253</v>
       </c>
       <c r="AO2" t="s">
-        <v>137</v>
+        <v>254</v>
       </c>
       <c r="AP2" t="s">
         <v>129</v>
       </c>
       <c r="AS2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45">
       <c r="A3">
         <v>4</v>
       </c>
@@ -1535,23 +1656,26 @@
       <c r="AJ3" t="s">
         <v>135</v>
       </c>
+      <c r="AK3" t="s">
+        <v>137</v>
+      </c>
       <c r="AM3" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="AN3" t="s">
-        <v>136</v>
+        <v>253</v>
       </c>
       <c r="AO3" t="s">
-        <v>137</v>
+        <v>254</v>
       </c>
       <c r="AP3" t="s">
         <v>129</v>
       </c>
       <c r="AS3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45">
       <c r="A4">
         <v>22</v>
       </c>
@@ -1645,23 +1769,26 @@
       <c r="AJ4" t="s">
         <v>135</v>
       </c>
+      <c r="AK4" t="s">
+        <v>138</v>
+      </c>
       <c r="AM4" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="AN4" t="s">
-        <v>136</v>
+        <v>253</v>
       </c>
       <c r="AO4" t="s">
-        <v>137</v>
+        <v>254</v>
       </c>
       <c r="AP4" t="s">
         <v>129</v>
       </c>
       <c r="AS4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45">
       <c r="A5">
         <v>28</v>
       </c>
@@ -1755,17 +1882,20 @@
       <c r="AJ5" t="s">
         <v>135</v>
       </c>
+      <c r="AK5" t="s">
+        <v>139</v>
+      </c>
       <c r="AM5" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="AN5" t="s">
-        <v>136</v>
+        <v>253</v>
       </c>
       <c r="AS5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45">
       <c r="A6">
         <v>36</v>
       </c>
@@ -1859,23 +1989,26 @@
       <c r="AJ6" t="s">
         <v>135</v>
       </c>
+      <c r="AK6" t="s">
+        <v>140</v>
+      </c>
       <c r="AM6" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="AN6" t="s">
-        <v>136</v>
+        <v>253</v>
       </c>
       <c r="AO6" t="s">
-        <v>137</v>
+        <v>254</v>
       </c>
       <c r="AP6" t="s">
         <v>129</v>
       </c>
       <c r="AS6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45">
       <c r="A7">
         <v>37</v>
       </c>
@@ -1969,23 +2102,26 @@
       <c r="AJ7" t="s">
         <v>135</v>
       </c>
+      <c r="AK7" t="s">
+        <v>141</v>
+      </c>
       <c r="AM7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="AN7" t="s">
-        <v>136</v>
+        <v>253</v>
       </c>
       <c r="AO7" t="s">
-        <v>137</v>
+        <v>254</v>
       </c>
       <c r="AP7" t="s">
         <v>129</v>
       </c>
       <c r="AS7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45">
       <c r="A8">
         <v>38</v>
       </c>
@@ -2079,23 +2215,26 @@
       <c r="AJ8" t="s">
         <v>135</v>
       </c>
+      <c r="AK8" t="s">
+        <v>142</v>
+      </c>
       <c r="AM8" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="AN8" t="s">
-        <v>136</v>
+        <v>253</v>
       </c>
       <c r="AO8" t="s">
-        <v>137</v>
+        <v>254</v>
       </c>
       <c r="AP8" t="s">
         <v>129</v>
       </c>
       <c r="AS8" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="9" spans="1:45">
       <c r="A9">
         <v>39</v>
       </c>
@@ -2189,23 +2328,26 @@
       <c r="AJ9" t="s">
         <v>135</v>
       </c>
+      <c r="AK9" t="s">
+        <v>143</v>
+      </c>
       <c r="AM9" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="AN9" t="s">
-        <v>136</v>
+        <v>253</v>
       </c>
       <c r="AO9" t="s">
-        <v>137</v>
+        <v>254</v>
       </c>
       <c r="AP9" t="s">
         <v>129</v>
       </c>
       <c r="AS9" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:45">
       <c r="A10">
         <v>110</v>
       </c>
@@ -2299,23 +2441,26 @@
       <c r="AJ10" t="s">
         <v>135</v>
       </c>
+      <c r="AK10" t="s">
+        <v>144</v>
+      </c>
       <c r="AM10" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="AN10" t="s">
-        <v>136</v>
+        <v>253</v>
       </c>
       <c r="AO10" t="s">
-        <v>137</v>
+        <v>254</v>
       </c>
       <c r="AP10" t="s">
         <v>129</v>
       </c>
       <c r="AS10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45">
       <c r="A11">
         <v>214</v>
       </c>
@@ -2409,23 +2554,26 @@
       <c r="AJ11" t="s">
         <v>135</v>
       </c>
+      <c r="AK11" t="s">
+        <v>145</v>
+      </c>
       <c r="AM11" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="AN11" t="s">
-        <v>136</v>
+        <v>253</v>
       </c>
       <c r="AO11" t="s">
-        <v>137</v>
+        <v>254</v>
       </c>
       <c r="AP11" t="s">
         <v>129</v>
       </c>
       <c r="AS11" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="12" spans="1:45">
       <c r="A12">
         <v>507</v>
       </c>
@@ -2519,23 +2667,26 @@
       <c r="AJ12" t="s">
         <v>135</v>
       </c>
+      <c r="AK12" t="s">
+        <v>146</v>
+      </c>
       <c r="AM12" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="AN12" t="s">
-        <v>136</v>
+        <v>253</v>
       </c>
       <c r="AO12" t="s">
-        <v>137</v>
+        <v>254</v>
       </c>
       <c r="AP12" t="s">
         <v>129</v>
       </c>
       <c r="AS12" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="13" spans="1:45">
       <c r="A13">
         <v>545</v>
       </c>
@@ -2629,23 +2780,26 @@
       <c r="AJ13" t="s">
         <v>135</v>
       </c>
+      <c r="AK13" t="s">
+        <v>147</v>
+      </c>
       <c r="AM13" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="AN13" t="s">
-        <v>136</v>
+        <v>253</v>
       </c>
       <c r="AO13" t="s">
-        <v>137</v>
+        <v>254</v>
       </c>
       <c r="AP13" t="s">
         <v>129</v>
       </c>
       <c r="AS13" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="14" spans="1:45">
       <c r="A14">
         <v>548</v>
       </c>
@@ -2740,22 +2894,22 @@
         <v>135</v>
       </c>
       <c r="AM14" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="AN14" t="s">
-        <v>136</v>
+        <v>253</v>
       </c>
       <c r="AO14" t="s">
-        <v>137</v>
+        <v>254</v>
       </c>
       <c r="AP14" t="s">
         <v>129</v>
       </c>
       <c r="AS14" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="15" spans="1:45">
       <c r="A15">
         <v>556</v>
       </c>
@@ -2849,17 +3003,20 @@
       <c r="AJ15" t="s">
         <v>135</v>
       </c>
+      <c r="AK15" t="s">
+        <v>148</v>
+      </c>
       <c r="AM15" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="AN15" t="s">
-        <v>136</v>
+        <v>253</v>
       </c>
       <c r="AS15" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="16" spans="1:45">
       <c r="A16">
         <v>558</v>
       </c>
@@ -2953,17 +3110,20 @@
       <c r="AJ16" t="s">
         <v>135</v>
       </c>
+      <c r="AK16" t="s">
+        <v>149</v>
+      </c>
       <c r="AM16" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="AN16" t="s">
-        <v>136</v>
+        <v>253</v>
       </c>
       <c r="AS16" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="17" spans="1:45">
       <c r="A17">
         <v>559</v>
       </c>
@@ -3057,23 +3217,26 @@
       <c r="AJ17" t="s">
         <v>135</v>
       </c>
+      <c r="AK17" t="s">
+        <v>150</v>
+      </c>
       <c r="AM17" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="AN17" t="s">
-        <v>136</v>
+        <v>253</v>
       </c>
       <c r="AO17" t="s">
-        <v>137</v>
+        <v>254</v>
       </c>
       <c r="AP17" t="s">
         <v>129</v>
       </c>
       <c r="AS17" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="18" spans="1:45">
       <c r="A18">
         <v>560</v>
       </c>
@@ -3167,23 +3330,26 @@
       <c r="AJ18" t="s">
         <v>135</v>
       </c>
+      <c r="AK18" t="s">
+        <v>151</v>
+      </c>
       <c r="AM18">
         <v>76</v>
       </c>
       <c r="AN18" t="s">
-        <v>136</v>
+        <v>253</v>
       </c>
       <c r="AO18" t="s">
-        <v>137</v>
+        <v>254</v>
       </c>
       <c r="AP18" t="s">
         <v>129</v>
       </c>
       <c r="AS18" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="19" spans="1:45" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="19" spans="1:45">
       <c r="A19">
         <v>563</v>
       </c>
@@ -3277,23 +3443,26 @@
       <c r="AJ19" t="s">
         <v>135</v>
       </c>
+      <c r="AK19" t="s">
+        <v>152</v>
+      </c>
       <c r="AM19" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="AN19" t="s">
-        <v>136</v>
+        <v>253</v>
       </c>
       <c r="AO19" t="s">
-        <v>137</v>
+        <v>254</v>
       </c>
       <c r="AP19" t="s">
         <v>129</v>
       </c>
       <c r="AS19" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="20" spans="1:45" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="20" spans="1:45">
       <c r="A20">
         <v>578</v>
       </c>
@@ -3387,23 +3556,26 @@
       <c r="AJ20" t="s">
         <v>135</v>
       </c>
+      <c r="AK20" t="s">
+        <v>153</v>
+      </c>
       <c r="AM20" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="AN20" t="s">
-        <v>136</v>
+        <v>253</v>
       </c>
       <c r="AO20" t="s">
-        <v>137</v>
+        <v>254</v>
       </c>
       <c r="AP20" t="s">
         <v>129</v>
       </c>
       <c r="AS20" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="21" spans="1:45" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="21" spans="1:45">
       <c r="A21">
         <v>579</v>
       </c>
@@ -3497,23 +3669,26 @@
       <c r="AJ21" t="s">
         <v>135</v>
       </c>
+      <c r="AK21" t="s">
+        <v>154</v>
+      </c>
       <c r="AM21" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="AN21" t="s">
-        <v>136</v>
+        <v>253</v>
       </c>
       <c r="AO21" t="s">
-        <v>137</v>
+        <v>254</v>
       </c>
       <c r="AP21" t="s">
         <v>129</v>
       </c>
       <c r="AS21" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="22" spans="1:45" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="22" spans="1:45">
       <c r="A22">
         <v>584</v>
       </c>
@@ -3607,23 +3782,26 @@
       <c r="AJ22" t="s">
         <v>135</v>
       </c>
+      <c r="AK22" t="s">
+        <v>155</v>
+      </c>
       <c r="AM22" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="AN22" t="s">
-        <v>136</v>
+        <v>253</v>
       </c>
       <c r="AO22" t="s">
-        <v>137</v>
+        <v>254</v>
       </c>
       <c r="AP22" t="s">
         <v>129</v>
       </c>
       <c r="AS22" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="23" spans="1:45" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="23" spans="1:45">
       <c r="A23">
         <v>585</v>
       </c>
@@ -3717,17 +3895,20 @@
       <c r="AJ23" t="s">
         <v>135</v>
       </c>
+      <c r="AK23" t="s">
+        <v>156</v>
+      </c>
       <c r="AM23" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="AN23" t="s">
-        <v>136</v>
+        <v>253</v>
       </c>
       <c r="AS23" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="24" spans="1:45" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="24" spans="1:45">
       <c r="A24">
         <v>586</v>
       </c>
@@ -3821,23 +4002,26 @@
       <c r="AJ24" t="s">
         <v>135</v>
       </c>
+      <c r="AK24" t="s">
+        <v>157</v>
+      </c>
       <c r="AM24" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="AN24" t="s">
-        <v>136</v>
+        <v>253</v>
       </c>
       <c r="AO24" t="s">
-        <v>137</v>
+        <v>254</v>
       </c>
       <c r="AP24" t="s">
         <v>129</v>
       </c>
       <c r="AS24" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="25" spans="1:45" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="25" spans="1:45">
       <c r="A25">
         <v>587</v>
       </c>
@@ -3931,17 +4115,20 @@
       <c r="AJ25" t="s">
         <v>135</v>
       </c>
+      <c r="AK25" t="s">
+        <v>158</v>
+      </c>
       <c r="AM25" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="AN25" t="s">
-        <v>136</v>
+        <v>253</v>
       </c>
       <c r="AS25" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="26" spans="1:45" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="26" spans="1:45">
       <c r="A26">
         <v>588</v>
       </c>
@@ -4035,23 +4222,26 @@
       <c r="AJ26" t="s">
         <v>135</v>
       </c>
+      <c r="AK26" t="s">
+        <v>159</v>
+      </c>
       <c r="AM26" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="AN26" t="s">
-        <v>136</v>
+        <v>253</v>
       </c>
       <c r="AO26" t="s">
-        <v>137</v>
+        <v>254</v>
       </c>
       <c r="AP26" t="s">
         <v>129</v>
       </c>
       <c r="AS26" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="27" spans="1:45" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="27" spans="1:45">
       <c r="A27">
         <v>589</v>
       </c>
@@ -4145,23 +4335,26 @@
       <c r="AJ27" t="s">
         <v>135</v>
       </c>
+      <c r="AK27" t="s">
+        <v>160</v>
+      </c>
       <c r="AM27" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="AN27" t="s">
-        <v>136</v>
+        <v>253</v>
       </c>
       <c r="AO27" t="s">
-        <v>137</v>
+        <v>254</v>
       </c>
       <c r="AP27" t="s">
         <v>129</v>
       </c>
       <c r="AS27" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="28" spans="1:45" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="28" spans="1:45">
       <c r="A28">
         <v>590</v>
       </c>
@@ -4255,23 +4448,26 @@
       <c r="AJ28" t="s">
         <v>135</v>
       </c>
+      <c r="AK28" t="s">
+        <v>161</v>
+      </c>
       <c r="AM28" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="AN28" t="s">
-        <v>136</v>
+        <v>253</v>
       </c>
       <c r="AO28" t="s">
-        <v>137</v>
+        <v>254</v>
       </c>
       <c r="AP28" t="s">
         <v>129</v>
       </c>
       <c r="AS28" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="29" spans="1:45" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="29" spans="1:45">
       <c r="A29">
         <v>593</v>
       </c>
@@ -4365,17 +4561,20 @@
       <c r="AJ29" t="s">
         <v>135</v>
       </c>
+      <c r="AK29" t="s">
+        <v>162</v>
+      </c>
       <c r="AM29" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="AN29" t="s">
-        <v>136</v>
+        <v>253</v>
       </c>
       <c r="AS29" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="30" spans="1:45" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="30" spans="1:45">
       <c r="A30">
         <v>594</v>
       </c>
@@ -4469,23 +4668,26 @@
       <c r="AJ30" t="s">
         <v>135</v>
       </c>
+      <c r="AK30" t="s">
+        <v>163</v>
+      </c>
       <c r="AM30" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="AN30" t="s">
-        <v>136</v>
+        <v>253</v>
       </c>
       <c r="AO30" t="s">
-        <v>137</v>
+        <v>254</v>
       </c>
       <c r="AP30" t="s">
         <v>129</v>
       </c>
       <c r="AS30" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="31" spans="1:45" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="31" spans="1:45">
       <c r="A31">
         <v>595</v>
       </c>
@@ -4579,23 +4781,26 @@
       <c r="AJ31" t="s">
         <v>135</v>
       </c>
+      <c r="AK31" t="s">
+        <v>164</v>
+      </c>
       <c r="AM31" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="AN31" t="s">
-        <v>136</v>
+        <v>253</v>
       </c>
       <c r="AO31" t="s">
-        <v>137</v>
+        <v>254</v>
       </c>
       <c r="AP31" t="s">
         <v>129</v>
       </c>
       <c r="AS31" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="32" spans="1:45" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="32" spans="1:45">
       <c r="A32">
         <v>602</v>
       </c>
@@ -4689,17 +4894,20 @@
       <c r="AJ32" t="s">
         <v>135</v>
       </c>
+      <c r="AK32" t="s">
+        <v>165</v>
+      </c>
       <c r="AM32" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="AN32" t="s">
-        <v>136</v>
+        <v>253</v>
       </c>
       <c r="AS32" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="33" spans="1:45" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="33" spans="1:45">
       <c r="A33">
         <v>603</v>
       </c>
@@ -4793,17 +5001,20 @@
       <c r="AJ33" t="s">
         <v>135</v>
       </c>
+      <c r="AK33" t="s">
+        <v>166</v>
+      </c>
       <c r="AM33" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="AN33" t="s">
-        <v>136</v>
+        <v>253</v>
       </c>
       <c r="AS33" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="34" spans="1:45" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="34" spans="1:45">
       <c r="A34">
         <v>610</v>
       </c>
@@ -4897,17 +5108,20 @@
       <c r="AJ34" t="s">
         <v>135</v>
       </c>
+      <c r="AK34" t="s">
+        <v>167</v>
+      </c>
       <c r="AM34" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="AN34" t="s">
-        <v>136</v>
+        <v>253</v>
       </c>
       <c r="AS34" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="35" spans="1:45" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="35" spans="1:45">
       <c r="A35">
         <v>620</v>
       </c>
@@ -5001,23 +5215,26 @@
       <c r="AJ35" t="s">
         <v>135</v>
       </c>
+      <c r="AK35" t="s">
+        <v>168</v>
+      </c>
       <c r="AM35" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="AN35" t="s">
-        <v>136</v>
+        <v>253</v>
       </c>
       <c r="AO35" t="s">
-        <v>137</v>
+        <v>254</v>
       </c>
       <c r="AP35" t="s">
         <v>129</v>
       </c>
       <c r="AS35" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="36" spans="1:45" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="36" spans="1:45">
       <c r="A36">
         <v>621</v>
       </c>
@@ -5111,23 +5328,26 @@
       <c r="AJ36" t="s">
         <v>135</v>
       </c>
+      <c r="AK36" t="s">
+        <v>169</v>
+      </c>
       <c r="AM36" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="AN36" t="s">
-        <v>136</v>
+        <v>253</v>
       </c>
       <c r="AO36" t="s">
-        <v>137</v>
+        <v>254</v>
       </c>
       <c r="AP36" t="s">
         <v>129</v>
       </c>
       <c r="AS36" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="37" spans="1:45" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="37" spans="1:45">
       <c r="A37">
         <v>622</v>
       </c>
@@ -5221,17 +5441,20 @@
       <c r="AJ37" t="s">
         <v>135</v>
       </c>
+      <c r="AK37" t="s">
+        <v>170</v>
+      </c>
       <c r="AM37" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="AN37" t="s">
-        <v>136</v>
+        <v>253</v>
       </c>
       <c r="AS37" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="38" spans="1:45" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="38" spans="1:45">
       <c r="A38">
         <v>651</v>
       </c>
@@ -5325,23 +5548,26 @@
       <c r="AJ38" t="s">
         <v>135</v>
       </c>
+      <c r="AK38" t="s">
+        <v>171</v>
+      </c>
       <c r="AM38" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="AN38" t="s">
-        <v>136</v>
+        <v>253</v>
       </c>
       <c r="AO38" t="s">
-        <v>137</v>
+        <v>254</v>
       </c>
       <c r="AP38" t="s">
         <v>129</v>
       </c>
       <c r="AS38" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="39" spans="1:45">
       <c r="A39">
         <v>855</v>
       </c>
@@ -5435,23 +5661,26 @@
       <c r="AJ39" t="s">
         <v>135</v>
       </c>
+      <c r="AK39" t="s">
+        <v>172</v>
+      </c>
       <c r="AM39" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="AN39" t="s">
-        <v>136</v>
+        <v>253</v>
       </c>
       <c r="AO39" t="s">
-        <v>137</v>
+        <v>254</v>
       </c>
       <c r="AP39" t="s">
         <v>129</v>
       </c>
       <c r="AS39" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="40" spans="1:45">
       <c r="A40">
         <v>881</v>
       </c>
@@ -5545,23 +5774,26 @@
       <c r="AJ40" t="s">
         <v>135</v>
       </c>
+      <c r="AK40" t="s">
+        <v>173</v>
+      </c>
       <c r="AM40" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="AN40" t="s">
-        <v>136</v>
+        <v>253</v>
       </c>
       <c r="AO40" t="s">
-        <v>137</v>
+        <v>254</v>
       </c>
       <c r="AP40" t="s">
         <v>129</v>
       </c>
       <c r="AS40" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="41" spans="1:45">
       <c r="A41">
         <v>1343</v>
       </c>
@@ -5655,23 +5887,26 @@
       <c r="AJ41" t="s">
         <v>135</v>
       </c>
+      <c r="AK41" t="s">
+        <v>174</v>
+      </c>
       <c r="AM41" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="AN41" t="s">
-        <v>136</v>
+        <v>253</v>
       </c>
       <c r="AO41" t="s">
-        <v>137</v>
+        <v>254</v>
       </c>
       <c r="AP41" t="s">
         <v>129</v>
       </c>
       <c r="AS41" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="42" spans="1:45">
       <c r="A42">
         <v>2465</v>
       </c>
@@ -5765,23 +6000,26 @@
       <c r="AJ42" t="s">
         <v>135</v>
       </c>
+      <c r="AK42" t="s">
+        <v>175</v>
+      </c>
       <c r="AM42" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="AN42" t="s">
-        <v>136</v>
+        <v>253</v>
       </c>
       <c r="AO42" t="s">
-        <v>137</v>
+        <v>254</v>
       </c>
       <c r="AP42" t="s">
         <v>129</v>
       </c>
       <c r="AS42" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="43" spans="1:45">
       <c r="A43">
         <v>2483</v>
       </c>
@@ -5876,22 +6114,22 @@
         <v>135</v>
       </c>
       <c r="AM43" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="AN43" t="s">
-        <v>136</v>
+        <v>253</v>
       </c>
       <c r="AO43" t="s">
-        <v>137</v>
+        <v>254</v>
       </c>
       <c r="AP43" t="s">
         <v>129</v>
       </c>
       <c r="AS43" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="44" spans="1:45">
       <c r="A44">
         <v>2806</v>
       </c>
@@ -5985,23 +6223,26 @@
       <c r="AJ44" t="s">
         <v>135</v>
       </c>
+      <c r="AK44" t="s">
+        <v>176</v>
+      </c>
       <c r="AM44" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="AN44" t="s">
-        <v>136</v>
+        <v>253</v>
       </c>
       <c r="AO44" t="s">
-        <v>137</v>
+        <v>254</v>
       </c>
       <c r="AP44" t="s">
         <v>129</v>
       </c>
       <c r="AS44" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="45" spans="1:45" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="45" spans="1:45">
       <c r="A45">
         <v>2807</v>
       </c>
@@ -6095,23 +6336,26 @@
       <c r="AJ45" t="s">
         <v>135</v>
       </c>
+      <c r="AK45" t="s">
+        <v>177</v>
+      </c>
       <c r="AM45" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="AN45" t="s">
-        <v>136</v>
+        <v>253</v>
       </c>
       <c r="AO45" t="s">
-        <v>137</v>
+        <v>254</v>
       </c>
       <c r="AP45" t="s">
         <v>129</v>
       </c>
       <c r="AS45" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="46" spans="1:45">
       <c r="A46">
         <v>2808</v>
       </c>
@@ -6205,23 +6449,26 @@
       <c r="AJ46" t="s">
         <v>135</v>
       </c>
+      <c r="AK46" t="s">
+        <v>178</v>
+      </c>
       <c r="AM46" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="AN46" t="s">
-        <v>136</v>
+        <v>253</v>
       </c>
       <c r="AO46" t="s">
-        <v>137</v>
+        <v>254</v>
       </c>
       <c r="AP46" t="s">
         <v>129</v>
       </c>
       <c r="AS46" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="47" spans="1:45">
       <c r="A47">
         <v>3117</v>
       </c>
@@ -6315,23 +6562,26 @@
       <c r="AJ47" t="s">
         <v>135</v>
       </c>
+      <c r="AK47" t="s">
+        <v>179</v>
+      </c>
       <c r="AM47" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="AN47" t="s">
-        <v>136</v>
+        <v>253</v>
       </c>
       <c r="AO47" t="s">
-        <v>137</v>
+        <v>254</v>
       </c>
       <c r="AP47" t="s">
         <v>129</v>
       </c>
       <c r="AS47" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="48" spans="1:45" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="48" spans="1:45">
       <c r="A48">
         <v>3278</v>
       </c>
@@ -6425,23 +6675,26 @@
       <c r="AJ48" t="s">
         <v>135</v>
       </c>
+      <c r="AK48" t="s">
+        <v>180</v>
+      </c>
       <c r="AM48" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="AN48" t="s">
-        <v>136</v>
+        <v>253</v>
       </c>
       <c r="AO48" t="s">
-        <v>137</v>
+        <v>254</v>
       </c>
       <c r="AP48" t="s">
-        <v>138</v>
+        <v>255</v>
       </c>
       <c r="AS48" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="49" spans="1:45" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="49" spans="1:45">
       <c r="A49">
         <v>3327</v>
       </c>
@@ -6535,23 +6788,26 @@
       <c r="AJ49" t="s">
         <v>135</v>
       </c>
+      <c r="AK49" t="s">
+        <v>181</v>
+      </c>
       <c r="AM49" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="AN49" t="s">
-        <v>136</v>
+        <v>253</v>
       </c>
       <c r="AO49" t="s">
-        <v>137</v>
+        <v>254</v>
       </c>
       <c r="AP49" t="s">
-        <v>138</v>
+        <v>255</v>
       </c>
       <c r="AS49" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="50" spans="1:45" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="50" spans="1:45">
       <c r="A50">
         <v>3403</v>
       </c>
@@ -6639,23 +6895,26 @@
       <c r="AH50" t="s">
         <v>132</v>
       </c>
+      <c r="AK50" t="s">
+        <v>182</v>
+      </c>
       <c r="AM50" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="AN50" t="s">
-        <v>136</v>
+        <v>253</v>
       </c>
       <c r="AO50" t="s">
-        <v>137</v>
+        <v>254</v>
       </c>
       <c r="AP50" t="s">
         <v>129</v>
       </c>
       <c r="AS50" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="51" spans="1:45" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="51" spans="1:45">
       <c r="A51">
         <v>3887</v>
       </c>
@@ -6749,23 +7008,26 @@
       <c r="AJ51" t="s">
         <v>135</v>
       </c>
+      <c r="AK51" t="s">
+        <v>183</v>
+      </c>
       <c r="AM51" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="AN51" t="s">
-        <v>136</v>
+        <v>253</v>
       </c>
       <c r="AO51" t="s">
-        <v>137</v>
+        <v>254</v>
       </c>
       <c r="AP51" t="s">
-        <v>138</v>
+        <v>255</v>
       </c>
       <c r="AS51" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="52" spans="1:45" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="52" spans="1:45">
       <c r="A52">
         <v>3943</v>
       </c>
@@ -6853,23 +7115,26 @@
       <c r="AH52" t="s">
         <v>133</v>
       </c>
+      <c r="AK52" t="s">
+        <v>184</v>
+      </c>
       <c r="AM52">
         <v>284</v>
       </c>
       <c r="AN52" t="s">
-        <v>136</v>
+        <v>253</v>
       </c>
       <c r="AO52" t="s">
-        <v>137</v>
+        <v>254</v>
       </c>
       <c r="AP52" t="s">
-        <v>138</v>
+        <v>255</v>
       </c>
       <c r="AS52" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="53" spans="1:45" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="53" spans="1:45">
       <c r="A53">
         <v>4591</v>
       </c>
@@ -6964,19 +7229,19 @@
         <v>135</v>
       </c>
       <c r="AN53" t="s">
-        <v>136</v>
+        <v>253</v>
       </c>
       <c r="AO53" t="s">
-        <v>137</v>
+        <v>254</v>
       </c>
       <c r="AP53" t="s">
-        <v>138</v>
+        <v>255</v>
       </c>
       <c r="AS53" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="54" spans="1:45" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="54" spans="1:45">
       <c r="A54">
         <v>5197</v>
       </c>
@@ -7064,23 +7329,26 @@
       <c r="AH54" t="s">
         <v>132</v>
       </c>
+      <c r="AK54" t="s">
+        <v>185</v>
+      </c>
       <c r="AM54" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="AN54" t="s">
-        <v>136</v>
+        <v>253</v>
       </c>
       <c r="AO54" t="s">
-        <v>137</v>
+        <v>254</v>
       </c>
       <c r="AP54" t="s">
         <v>129</v>
       </c>
       <c r="AS54" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="55" spans="1:45" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="55" spans="1:45">
       <c r="A55">
         <v>5208</v>
       </c>
@@ -7168,23 +7436,26 @@
       <c r="AH55" t="s">
         <v>132</v>
       </c>
+      <c r="AK55" t="s">
+        <v>186</v>
+      </c>
       <c r="AM55" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="AN55" t="s">
-        <v>136</v>
+        <v>253</v>
       </c>
       <c r="AO55" t="s">
-        <v>137</v>
+        <v>254</v>
       </c>
       <c r="AP55" t="s">
         <v>129</v>
       </c>
       <c r="AS55" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="56" spans="1:45" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="56" spans="1:45">
       <c r="A56">
         <v>5254</v>
       </c>
@@ -7278,23 +7549,26 @@
       <c r="AJ56" t="s">
         <v>135</v>
       </c>
+      <c r="AK56" t="s">
+        <v>187</v>
+      </c>
       <c r="AM56" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="AN56" t="s">
-        <v>136</v>
+        <v>253</v>
       </c>
       <c r="AO56" t="s">
-        <v>137</v>
+        <v>254</v>
       </c>
       <c r="AP56" t="s">
         <v>129</v>
       </c>
       <c r="AS56" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="57" spans="1:45" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="57" spans="1:45">
       <c r="A57">
         <v>5680</v>
       </c>
@@ -7388,23 +7662,26 @@
       <c r="AJ57" t="s">
         <v>135</v>
       </c>
+      <c r="AK57" t="s">
+        <v>188</v>
+      </c>
       <c r="AM57" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="AN57" t="s">
-        <v>136</v>
+        <v>253</v>
       </c>
       <c r="AO57" t="s">
-        <v>137</v>
+        <v>254</v>
       </c>
       <c r="AP57" t="s">
-        <v>138</v>
+        <v>255</v>
       </c>
       <c r="AS57" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="58" spans="1:45" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="58" spans="1:45">
       <c r="A58">
         <v>5690</v>
       </c>
@@ -7498,23 +7775,26 @@
       <c r="AJ58" t="s">
         <v>135</v>
       </c>
+      <c r="AK58" t="s">
+        <v>189</v>
+      </c>
       <c r="AM58">
         <v>270</v>
       </c>
       <c r="AN58" t="s">
-        <v>136</v>
+        <v>253</v>
       </c>
       <c r="AO58" t="s">
-        <v>137</v>
+        <v>254</v>
       </c>
       <c r="AP58" t="s">
         <v>129</v>
       </c>
       <c r="AS58" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="59" spans="1:45" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="59" spans="1:45">
       <c r="A59">
         <v>5693</v>
       </c>
@@ -7608,23 +7888,26 @@
       <c r="AJ59" t="s">
         <v>135</v>
       </c>
+      <c r="AK59" t="s">
+        <v>190</v>
+      </c>
       <c r="AM59" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="AN59" t="s">
-        <v>136</v>
+        <v>253</v>
       </c>
       <c r="AO59" t="s">
-        <v>137</v>
+        <v>254</v>
       </c>
       <c r="AP59" t="s">
         <v>129</v>
       </c>
       <c r="AS59" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="60" spans="1:45" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="60" spans="1:45">
       <c r="A60">
         <v>6047</v>
       </c>
@@ -7718,23 +8001,26 @@
       <c r="AJ60" t="s">
         <v>135</v>
       </c>
+      <c r="AK60" t="s">
+        <v>191</v>
+      </c>
       <c r="AM60" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="AN60" t="s">
-        <v>136</v>
+        <v>253</v>
       </c>
       <c r="AO60" t="s">
-        <v>137</v>
+        <v>254</v>
       </c>
       <c r="AP60" t="s">
-        <v>138</v>
+        <v>255</v>
       </c>
       <c r="AS60" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="61" spans="1:45" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="61" spans="1:45">
       <c r="A61">
         <v>6702</v>
       </c>
@@ -7822,23 +8108,26 @@
       <c r="AH61" t="s">
         <v>132</v>
       </c>
+      <c r="AK61" t="s">
+        <v>192</v>
+      </c>
       <c r="AM61" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="AN61" t="s">
-        <v>136</v>
+        <v>253</v>
       </c>
       <c r="AO61" t="s">
-        <v>137</v>
+        <v>254</v>
       </c>
       <c r="AP61" t="s">
         <v>129</v>
       </c>
       <c r="AS61" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="62" spans="1:45" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="62" spans="1:45">
       <c r="A62">
         <v>6703</v>
       </c>
@@ -7926,23 +8215,26 @@
       <c r="AH62" t="s">
         <v>132</v>
       </c>
+      <c r="AK62" t="s">
+        <v>193</v>
+      </c>
       <c r="AM62" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="AN62" t="s">
-        <v>136</v>
+        <v>253</v>
       </c>
       <c r="AO62" t="s">
-        <v>137</v>
+        <v>254</v>
       </c>
       <c r="AP62" t="s">
         <v>129</v>
       </c>
       <c r="AS62" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="63" spans="1:45" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="63" spans="1:45">
       <c r="A63">
         <v>6704</v>
       </c>
@@ -8030,603 +8322,606 @@
       <c r="AH63" t="s">
         <v>132</v>
       </c>
+      <c r="AK63" t="s">
+        <v>194</v>
+      </c>
       <c r="AM63" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="AN63" t="s">
-        <v>136</v>
+        <v>253</v>
       </c>
       <c r="AO63" t="s">
-        <v>137</v>
+        <v>254</v>
       </c>
       <c r="AP63" t="s">
         <v>129</v>
       </c>
       <c r="AS63" t="s">
-        <v>139</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="B11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="B12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="B13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="B15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="B16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="B17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="B18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="B19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="B20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="B21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="B22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="B23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="B24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="B25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="B26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="B27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="B28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="B29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="B30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="B31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="B32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="B33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="B34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="B35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="B36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="B37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="B38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="B39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="B40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="B41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="B42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="B43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="B44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="B45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="B46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="B47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="B48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="B49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="B50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="B51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="B52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="B53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="B54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="B55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="B56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="B57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="B58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="B59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="B60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="B61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="B62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="B63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="B11" r:id="rId10"/>
+    <hyperlink ref="B12" r:id="rId11"/>
+    <hyperlink ref="B13" r:id="rId12"/>
+    <hyperlink ref="B14" r:id="rId13"/>
+    <hyperlink ref="B15" r:id="rId14"/>
+    <hyperlink ref="B16" r:id="rId15"/>
+    <hyperlink ref="B17" r:id="rId16"/>
+    <hyperlink ref="B18" r:id="rId17"/>
+    <hyperlink ref="B19" r:id="rId18"/>
+    <hyperlink ref="B20" r:id="rId19"/>
+    <hyperlink ref="B21" r:id="rId20"/>
+    <hyperlink ref="B22" r:id="rId21"/>
+    <hyperlink ref="B23" r:id="rId22"/>
+    <hyperlink ref="B24" r:id="rId23"/>
+    <hyperlink ref="B25" r:id="rId24"/>
+    <hyperlink ref="B26" r:id="rId25"/>
+    <hyperlink ref="B27" r:id="rId26"/>
+    <hyperlink ref="B28" r:id="rId27"/>
+    <hyperlink ref="B29" r:id="rId28"/>
+    <hyperlink ref="B30" r:id="rId29"/>
+    <hyperlink ref="B31" r:id="rId30"/>
+    <hyperlink ref="B32" r:id="rId31"/>
+    <hyperlink ref="B33" r:id="rId32"/>
+    <hyperlink ref="B34" r:id="rId33"/>
+    <hyperlink ref="B35" r:id="rId34"/>
+    <hyperlink ref="B36" r:id="rId35"/>
+    <hyperlink ref="B37" r:id="rId36"/>
+    <hyperlink ref="B38" r:id="rId37"/>
+    <hyperlink ref="B39" r:id="rId38"/>
+    <hyperlink ref="B40" r:id="rId39"/>
+    <hyperlink ref="B41" r:id="rId40"/>
+    <hyperlink ref="B42" r:id="rId41"/>
+    <hyperlink ref="B43" r:id="rId42"/>
+    <hyperlink ref="B44" r:id="rId43"/>
+    <hyperlink ref="B45" r:id="rId44"/>
+    <hyperlink ref="B46" r:id="rId45"/>
+    <hyperlink ref="B47" r:id="rId46"/>
+    <hyperlink ref="B48" r:id="rId47"/>
+    <hyperlink ref="B49" r:id="rId48"/>
+    <hyperlink ref="B50" r:id="rId49"/>
+    <hyperlink ref="B51" r:id="rId50"/>
+    <hyperlink ref="B52" r:id="rId51"/>
+    <hyperlink ref="B53" r:id="rId52"/>
+    <hyperlink ref="B54" r:id="rId53"/>
+    <hyperlink ref="B55" r:id="rId54"/>
+    <hyperlink ref="B56" r:id="rId55"/>
+    <hyperlink ref="B57" r:id="rId56"/>
+    <hyperlink ref="B58" r:id="rId57"/>
+    <hyperlink ref="B59" r:id="rId58"/>
+    <hyperlink ref="B60" r:id="rId59"/>
+    <hyperlink ref="B61" r:id="rId60"/>
+    <hyperlink ref="B62" r:id="rId61"/>
+    <hyperlink ref="B63" r:id="rId62"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>140</v>
+        <v>257</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>141</v>
+        <v>258</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>260</v>
       </c>
       <c r="C2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>261</v>
       </c>
       <c r="C3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>261</v>
       </c>
       <c r="C4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>144</v>
+        <v>261</v>
       </c>
       <c r="C5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>144</v>
+        <v>261</v>
       </c>
       <c r="C6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>144</v>
+        <v>261</v>
       </c>
       <c r="C7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>144</v>
+        <v>261</v>
       </c>
       <c r="C8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>144</v>
+        <v>261</v>
       </c>
       <c r="C9" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>144</v>
+        <v>261</v>
       </c>
       <c r="C10" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>144</v>
+        <v>261</v>
       </c>
       <c r="C11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>144</v>
+        <v>261</v>
       </c>
       <c r="C12" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>144</v>
+        <v>261</v>
       </c>
       <c r="C13" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>144</v>
+        <v>261</v>
       </c>
       <c r="C14" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>144</v>
+        <v>261</v>
       </c>
       <c r="C15" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>144</v>
+        <v>261</v>
       </c>
       <c r="C16" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>144</v>
+        <v>261</v>
       </c>
       <c r="C17" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>144</v>
+        <v>261</v>
       </c>
       <c r="C18" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>144</v>
+        <v>261</v>
       </c>
       <c r="C19" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>144</v>
+        <v>261</v>
       </c>
       <c r="C20" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>144</v>
+        <v>261</v>
       </c>
       <c r="C21" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>144</v>
+        <v>261</v>
       </c>
       <c r="C22" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>144</v>
+        <v>261</v>
       </c>
       <c r="C23" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>144</v>
+        <v>261</v>
       </c>
       <c r="C24" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>144</v>
+        <v>261</v>
       </c>
       <c r="C25" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>144</v>
+        <v>261</v>
       </c>
       <c r="C26" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>144</v>
+        <v>261</v>
       </c>
       <c r="C27" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>144</v>
+        <v>261</v>
       </c>
       <c r="C28" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>144</v>
+        <v>261</v>
       </c>
       <c r="C29" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>144</v>
+        <v>261</v>
       </c>
       <c r="C30" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>144</v>
+        <v>261</v>
       </c>
       <c r="C31" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>144</v>
+        <v>261</v>
       </c>
       <c r="C32" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>144</v>
+        <v>261</v>
       </c>
       <c r="C33" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>144</v>
+        <v>261</v>
       </c>
       <c r="C34" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>144</v>
+        <v>261</v>
       </c>
       <c r="C35" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>144</v>
+        <v>261</v>
       </c>
       <c r="C36" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>144</v>
+        <v>261</v>
       </c>
       <c r="C37" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>144</v>
+        <v>261</v>
       </c>
       <c r="C38" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>144</v>
+        <v>261</v>
       </c>
       <c r="C39" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>144</v>
+        <v>261</v>
       </c>
       <c r="C40" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>144</v>
+        <v>261</v>
       </c>
       <c r="C41" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>144</v>
+        <v>261</v>
       </c>
       <c r="C42" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>144</v>
+        <v>261</v>
       </c>
       <c r="C43" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>144</v>
+        <v>261</v>
       </c>
       <c r="C44" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>144</v>
+        <v>261</v>
       </c>
       <c r="C45" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>144</v>
+        <v>261</v>
       </c>
       <c r="C46" t="s">
-        <v>189</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>

--- a/raw/project_UVP_standardizer.xlsx
+++ b/raw/project_UVP_standardizer.xlsx
@@ -1111,7 +1111,11 @@
           <t>object_annotation_status</t>
         </is>
       </c>
-      <c r="AK3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_4_flags.csv</t>
+        </is>
+      </c>
       <c r="AL3" t="inlineStr"/>
       <c r="AM3" t="inlineStr">
         <is>
@@ -1300,7 +1304,11 @@
           <t>object_annotation_status</t>
         </is>
       </c>
-      <c r="AK4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_22_flags.csv</t>
+        </is>
+      </c>
       <c r="AL4" t="inlineStr"/>
       <c r="AM4" t="inlineStr">
         <is>
@@ -1489,7 +1497,11 @@
           <t>object_annotation_status</t>
         </is>
       </c>
-      <c r="AK5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_28_flags.csv</t>
+        </is>
+      </c>
       <c r="AL5" t="inlineStr"/>
       <c r="AM5" t="inlineStr">
         <is>
@@ -1670,7 +1682,11 @@
           <t>object_annotation_status</t>
         </is>
       </c>
-      <c r="AK6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_36_flags.csv</t>
+        </is>
+      </c>
       <c r="AL6" t="inlineStr"/>
       <c r="AM6" t="inlineStr">
         <is>
@@ -1859,7 +1875,11 @@
           <t>object_annotation_status</t>
         </is>
       </c>
-      <c r="AK7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_37_flags.csv</t>
+        </is>
+      </c>
       <c r="AL7" t="inlineStr"/>
       <c r="AM7" t="inlineStr">
         <is>
@@ -2048,7 +2068,11 @@
           <t>object_annotation_status</t>
         </is>
       </c>
-      <c r="AK8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_38_flags.csv</t>
+        </is>
+      </c>
       <c r="AL8" t="inlineStr"/>
       <c r="AM8" t="inlineStr">
         <is>
@@ -2615,7 +2639,11 @@
           <t>object_annotation_status</t>
         </is>
       </c>
-      <c r="AK11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_110_flags.csv</t>
+        </is>
+      </c>
       <c r="AL11" t="inlineStr"/>
       <c r="AM11" t="inlineStr">
         <is>
@@ -2993,7 +3021,11 @@
           <t>object_annotation_status</t>
         </is>
       </c>
-      <c r="AK13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_507_flags.csv</t>
+        </is>
+      </c>
       <c r="AL13" t="inlineStr"/>
       <c r="AM13" t="inlineStr">
         <is>
@@ -3371,7 +3403,11 @@
           <t>object_annotation_status</t>
         </is>
       </c>
-      <c r="AK15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_548_flags.csv</t>
+        </is>
+      </c>
       <c r="AL15" t="inlineStr"/>
       <c r="AM15" t="inlineStr">
         <is>
@@ -3560,7 +3596,11 @@
           <t>object_annotation_status</t>
         </is>
       </c>
-      <c r="AK16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_556_flags.csv</t>
+        </is>
+      </c>
       <c r="AL16" t="inlineStr"/>
       <c r="AM16" t="inlineStr">
         <is>
@@ -3741,7 +3781,11 @@
           <t>object_annotation_status</t>
         </is>
       </c>
-      <c r="AK17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_558_flags.csv</t>
+        </is>
+      </c>
       <c r="AL17" t="inlineStr"/>
       <c r="AM17" t="inlineStr">
         <is>
@@ -3922,7 +3966,11 @@
           <t>object_annotation_status</t>
         </is>
       </c>
-      <c r="AK18" t="inlineStr"/>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_559_flags.csv</t>
+        </is>
+      </c>
       <c r="AL18" t="inlineStr"/>
       <c r="AM18" t="inlineStr">
         <is>
@@ -4111,7 +4159,11 @@
           <t>object_annotation_status</t>
         </is>
       </c>
-      <c r="AK19" t="inlineStr"/>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_560_flags.csv</t>
+        </is>
+      </c>
       <c r="AL19" t="inlineStr"/>
       <c r="AM19" t="n">
         <v>76</v>
@@ -4298,7 +4350,11 @@
           <t>object_annotation_status</t>
         </is>
       </c>
-      <c r="AK20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_563_flags.csv</t>
+        </is>
+      </c>
       <c r="AL20" t="inlineStr"/>
       <c r="AM20" t="inlineStr">
         <is>
@@ -4487,7 +4543,11 @@
           <t>object_annotation_status</t>
         </is>
       </c>
-      <c r="AK21" t="inlineStr"/>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_578_flags.csv</t>
+        </is>
+      </c>
       <c r="AL21" t="inlineStr"/>
       <c r="AM21" t="inlineStr">
         <is>
@@ -4676,7 +4736,11 @@
           <t>object_annotation_status</t>
         </is>
       </c>
-      <c r="AK22" t="inlineStr"/>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_579_flags.csv</t>
+        </is>
+      </c>
       <c r="AL22" t="inlineStr"/>
       <c r="AM22" t="inlineStr">
         <is>
@@ -4865,7 +4929,11 @@
           <t>object_annotation_status</t>
         </is>
       </c>
-      <c r="AK23" t="inlineStr"/>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_584_flags.csv</t>
+        </is>
+      </c>
       <c r="AL23" t="inlineStr"/>
       <c r="AM23" t="inlineStr">
         <is>
@@ -5054,7 +5122,11 @@
           <t>object_annotation_status</t>
         </is>
       </c>
-      <c r="AK24" t="inlineStr"/>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_585_flags.csv</t>
+        </is>
+      </c>
       <c r="AL24" t="inlineStr"/>
       <c r="AM24" t="inlineStr">
         <is>
@@ -5235,7 +5307,11 @@
           <t>object_annotation_status</t>
         </is>
       </c>
-      <c r="AK25" t="inlineStr"/>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_586_flags.csv</t>
+        </is>
+      </c>
       <c r="AL25" t="inlineStr"/>
       <c r="AM25" t="inlineStr">
         <is>
@@ -5424,7 +5500,11 @@
           <t>object_annotation_status</t>
         </is>
       </c>
-      <c r="AK26" t="inlineStr"/>
+      <c r="AK26" t="inlineStr">
+        <is>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_587_flags.csv</t>
+        </is>
+      </c>
       <c r="AL26" t="inlineStr"/>
       <c r="AM26" t="inlineStr">
         <is>
@@ -5605,7 +5685,11 @@
           <t>object_annotation_status</t>
         </is>
       </c>
-      <c r="AK27" t="inlineStr"/>
+      <c r="AK27" t="inlineStr">
+        <is>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_588_flags.csv</t>
+        </is>
+      </c>
       <c r="AL27" t="inlineStr"/>
       <c r="AM27" t="inlineStr">
         <is>
@@ -5794,7 +5878,11 @@
           <t>object_annotation_status</t>
         </is>
       </c>
-      <c r="AK28" t="inlineStr"/>
+      <c r="AK28" t="inlineStr">
+        <is>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_589_flags.csv</t>
+        </is>
+      </c>
       <c r="AL28" t="inlineStr"/>
       <c r="AM28" t="inlineStr">
         <is>
@@ -5983,7 +6071,11 @@
           <t>object_annotation_status</t>
         </is>
       </c>
-      <c r="AK29" t="inlineStr"/>
+      <c r="AK29" t="inlineStr">
+        <is>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_590_flags.csv</t>
+        </is>
+      </c>
       <c r="AL29" t="inlineStr"/>
       <c r="AM29" t="inlineStr">
         <is>
@@ -6172,7 +6264,11 @@
           <t>object_annotation_status</t>
         </is>
       </c>
-      <c r="AK30" t="inlineStr"/>
+      <c r="AK30" t="inlineStr">
+        <is>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_593_flags.csv</t>
+        </is>
+      </c>
       <c r="AL30" t="inlineStr"/>
       <c r="AM30" t="inlineStr">
         <is>
@@ -6353,7 +6449,11 @@
           <t>object_annotation_status</t>
         </is>
       </c>
-      <c r="AK31" t="inlineStr"/>
+      <c r="AK31" t="inlineStr">
+        <is>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_594_flags.csv</t>
+        </is>
+      </c>
       <c r="AL31" t="inlineStr"/>
       <c r="AM31" t="inlineStr">
         <is>
@@ -6542,7 +6642,11 @@
           <t>object_annotation_status</t>
         </is>
       </c>
-      <c r="AK32" t="inlineStr"/>
+      <c r="AK32" t="inlineStr">
+        <is>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_595_flags.csv</t>
+        </is>
+      </c>
       <c r="AL32" t="inlineStr"/>
       <c r="AM32" t="inlineStr">
         <is>
@@ -6731,7 +6835,11 @@
           <t>object_annotation_status</t>
         </is>
       </c>
-      <c r="AK33" t="inlineStr"/>
+      <c r="AK33" t="inlineStr">
+        <is>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_602_flags.csv</t>
+        </is>
+      </c>
       <c r="AL33" t="inlineStr"/>
       <c r="AM33" t="inlineStr">
         <is>
@@ -6912,7 +7020,11 @@
           <t>object_annotation_status</t>
         </is>
       </c>
-      <c r="AK34" t="inlineStr"/>
+      <c r="AK34" t="inlineStr">
+        <is>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_603_flags.csv</t>
+        </is>
+      </c>
       <c r="AL34" t="inlineStr"/>
       <c r="AM34" t="inlineStr">
         <is>
@@ -7093,7 +7205,11 @@
           <t>object_annotation_status</t>
         </is>
       </c>
-      <c r="AK35" t="inlineStr"/>
+      <c r="AK35" t="inlineStr">
+        <is>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_610_flags.csv</t>
+        </is>
+      </c>
       <c r="AL35" t="inlineStr"/>
       <c r="AM35" t="inlineStr">
         <is>
@@ -7274,7 +7390,11 @@
           <t>object_annotation_status</t>
         </is>
       </c>
-      <c r="AK36" t="inlineStr"/>
+      <c r="AK36" t="inlineStr">
+        <is>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_620_flags.csv</t>
+        </is>
+      </c>
       <c r="AL36" t="inlineStr"/>
       <c r="AM36" t="inlineStr">
         <is>
@@ -7652,7 +7772,11 @@
           <t>object_annotation_status</t>
         </is>
       </c>
-      <c r="AK38" t="inlineStr"/>
+      <c r="AK38" t="inlineStr">
+        <is>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_622_flags.csv</t>
+        </is>
+      </c>
       <c r="AL38" t="inlineStr"/>
       <c r="AM38" t="inlineStr">
         <is>
@@ -7833,7 +7957,11 @@
           <t>object_annotation_status</t>
         </is>
       </c>
-      <c r="AK39" t="inlineStr"/>
+      <c r="AK39" t="inlineStr">
+        <is>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_651_flags.csv</t>
+        </is>
+      </c>
       <c r="AL39" t="inlineStr"/>
       <c r="AM39" t="inlineStr">
         <is>
@@ -8022,7 +8150,11 @@
           <t>object_annotation_status</t>
         </is>
       </c>
-      <c r="AK40" t="inlineStr"/>
+      <c r="AK40" t="inlineStr">
+        <is>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_855_flags.csv</t>
+        </is>
+      </c>
       <c r="AL40" t="inlineStr"/>
       <c r="AM40" t="inlineStr">
         <is>
@@ -8211,7 +8343,11 @@
           <t>object_annotation_status</t>
         </is>
       </c>
-      <c r="AK41" t="inlineStr"/>
+      <c r="AK41" t="inlineStr">
+        <is>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_881_flags.csv</t>
+        </is>
+      </c>
       <c r="AL41" t="inlineStr"/>
       <c r="AM41" t="inlineStr">
         <is>
@@ -8400,7 +8536,11 @@
           <t>object_annotation_status</t>
         </is>
       </c>
-      <c r="AK42" t="inlineStr"/>
+      <c r="AK42" t="inlineStr">
+        <is>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_1343_flags.csv</t>
+        </is>
+      </c>
       <c r="AL42" t="inlineStr"/>
       <c r="AM42" t="inlineStr">
         <is>
@@ -8967,7 +9107,11 @@
           <t>object_annotation_status</t>
         </is>
       </c>
-      <c r="AK45" t="inlineStr"/>
+      <c r="AK45" t="inlineStr">
+        <is>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_2465_flags.csv</t>
+        </is>
+      </c>
       <c r="AL45" t="inlineStr"/>
       <c r="AM45" t="inlineStr">
         <is>
@@ -9156,7 +9300,11 @@
           <t>object_annotation_status</t>
         </is>
       </c>
-      <c r="AK46" t="inlineStr"/>
+      <c r="AK46" t="inlineStr">
+        <is>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_2483_flags.csv</t>
+        </is>
+      </c>
       <c r="AL46" t="inlineStr"/>
       <c r="AM46" t="inlineStr">
         <is>
@@ -9345,7 +9493,11 @@
           <t>object_annotation_status</t>
         </is>
       </c>
-      <c r="AK47" t="inlineStr"/>
+      <c r="AK47" t="inlineStr">
+        <is>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_2806_flags.csv</t>
+        </is>
+      </c>
       <c r="AL47" t="inlineStr"/>
       <c r="AM47" t="inlineStr">
         <is>
@@ -9534,7 +9686,11 @@
           <t>object_annotation_status</t>
         </is>
       </c>
-      <c r="AK48" t="inlineStr"/>
+      <c r="AK48" t="inlineStr">
+        <is>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_2807_flags.csv</t>
+        </is>
+      </c>
       <c r="AL48" t="inlineStr"/>
       <c r="AM48" t="inlineStr">
         <is>
@@ -9723,7 +9879,11 @@
           <t>object_annotation_status</t>
         </is>
       </c>
-      <c r="AK49" t="inlineStr"/>
+      <c r="AK49" t="inlineStr">
+        <is>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_2808_flags.csv</t>
+        </is>
+      </c>
       <c r="AL49" t="inlineStr"/>
       <c r="AM49" t="inlineStr">
         <is>
@@ -9912,7 +10072,11 @@
           <t>object_annotation_status</t>
         </is>
       </c>
-      <c r="AK50" t="inlineStr"/>
+      <c r="AK50" t="inlineStr">
+        <is>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_3117_flags.csv</t>
+        </is>
+      </c>
       <c r="AL50" t="inlineStr"/>
       <c r="AM50" t="inlineStr">
         <is>
@@ -10101,7 +10265,11 @@
           <t>object_annotation_status</t>
         </is>
       </c>
-      <c r="AK51" t="inlineStr"/>
+      <c r="AK51" t="inlineStr">
+        <is>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_3278_flags.csv</t>
+        </is>
+      </c>
       <c r="AL51" t="inlineStr"/>
       <c r="AM51" t="inlineStr">
         <is>
@@ -10290,7 +10458,11 @@
           <t>object_annotation_status</t>
         </is>
       </c>
-      <c r="AK52" t="inlineStr"/>
+      <c r="AK52" t="inlineStr">
+        <is>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_3327_flags.csv</t>
+        </is>
+      </c>
       <c r="AL52" t="inlineStr"/>
       <c r="AM52" t="inlineStr">
         <is>
@@ -10471,7 +10643,11 @@
       </c>
       <c r="AI53" t="inlineStr"/>
       <c r="AJ53" t="inlineStr"/>
-      <c r="AK53" t="inlineStr"/>
+      <c r="AK53" t="inlineStr">
+        <is>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_3403_flags.csv</t>
+        </is>
+      </c>
       <c r="AL53" t="inlineStr"/>
       <c r="AM53" t="inlineStr">
         <is>
@@ -10660,7 +10836,11 @@
           <t>object_annotation_status</t>
         </is>
       </c>
-      <c r="AK54" t="inlineStr"/>
+      <c r="AK54" t="inlineStr">
+        <is>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_3887_flags.csv</t>
+        </is>
+      </c>
       <c r="AL54" t="inlineStr"/>
       <c r="AM54" t="inlineStr">
         <is>
@@ -10841,7 +11021,11 @@
       </c>
       <c r="AI55" t="inlineStr"/>
       <c r="AJ55" t="inlineStr"/>
-      <c r="AK55" t="inlineStr"/>
+      <c r="AK55" t="inlineStr">
+        <is>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_3943_flags.csv</t>
+        </is>
+      </c>
       <c r="AL55" t="inlineStr"/>
       <c r="AM55" t="n">
         <v>284</v>
@@ -11028,7 +11212,11 @@
           <t>object_annotation_status</t>
         </is>
       </c>
-      <c r="AK56" t="inlineStr"/>
+      <c r="AK56" t="inlineStr">
+        <is>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_4591_flags.csv</t>
+        </is>
+      </c>
       <c r="AL56" t="inlineStr"/>
       <c r="AM56" t="inlineStr"/>
       <c r="AN56" t="inlineStr">
@@ -11205,7 +11393,11 @@
       </c>
       <c r="AI57" t="inlineStr"/>
       <c r="AJ57" t="inlineStr"/>
-      <c r="AK57" t="inlineStr"/>
+      <c r="AK57" t="inlineStr">
+        <is>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_5197_flags.csv</t>
+        </is>
+      </c>
       <c r="AL57" t="inlineStr"/>
       <c r="AM57" t="inlineStr">
         <is>
@@ -11386,7 +11578,11 @@
       </c>
       <c r="AI58" t="inlineStr"/>
       <c r="AJ58" t="inlineStr"/>
-      <c r="AK58" t="inlineStr"/>
+      <c r="AK58" t="inlineStr">
+        <is>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_5208_flags.csv</t>
+        </is>
+      </c>
       <c r="AL58" t="inlineStr"/>
       <c r="AM58" t="inlineStr">
         <is>
@@ -11575,7 +11771,11 @@
           <t>object_annotation_status</t>
         </is>
       </c>
-      <c r="AK59" t="inlineStr"/>
+      <c r="AK59" t="inlineStr">
+        <is>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_5254_flags.csv</t>
+        </is>
+      </c>
       <c r="AL59" t="inlineStr"/>
       <c r="AM59" t="inlineStr">
         <is>
@@ -11764,7 +11964,11 @@
           <t>object_annotation_status</t>
         </is>
       </c>
-      <c r="AK60" t="inlineStr"/>
+      <c r="AK60" t="inlineStr">
+        <is>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_5680_flags.csv</t>
+        </is>
+      </c>
       <c r="AL60" t="inlineStr"/>
       <c r="AM60" t="inlineStr">
         <is>
@@ -11953,7 +12157,11 @@
           <t>object_annotation_status</t>
         </is>
       </c>
-      <c r="AK61" t="inlineStr"/>
+      <c r="AK61" t="inlineStr">
+        <is>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_5690_flags.csv</t>
+        </is>
+      </c>
       <c r="AL61" t="inlineStr"/>
       <c r="AM61" t="n">
         <v>270</v>
@@ -12329,7 +12537,11 @@
           <t>object_annotation_status</t>
         </is>
       </c>
-      <c r="AK63" t="inlineStr"/>
+      <c r="AK63" t="inlineStr">
+        <is>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_6047_flags.csv</t>
+        </is>
+      </c>
       <c r="AL63" t="inlineStr"/>
       <c r="AM63" t="inlineStr">
         <is>
@@ -12510,7 +12722,11 @@
       </c>
       <c r="AI64" t="inlineStr"/>
       <c r="AJ64" t="inlineStr"/>
-      <c r="AK64" t="inlineStr"/>
+      <c r="AK64" t="inlineStr">
+        <is>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_6702_flags.csv</t>
+        </is>
+      </c>
       <c r="AL64" t="inlineStr"/>
       <c r="AM64" t="inlineStr">
         <is>
@@ -12691,7 +12907,11 @@
       </c>
       <c r="AI65" t="inlineStr"/>
       <c r="AJ65" t="inlineStr"/>
-      <c r="AK65" t="inlineStr"/>
+      <c r="AK65" t="inlineStr">
+        <is>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_6703_flags.csv</t>
+        </is>
+      </c>
       <c r="AL65" t="inlineStr"/>
       <c r="AM65" t="inlineStr">
         <is>
@@ -12872,7 +13092,11 @@
       </c>
       <c r="AI66" t="inlineStr"/>
       <c r="AJ66" t="inlineStr"/>
-      <c r="AK66" t="inlineStr"/>
+      <c r="AK66" t="inlineStr">
+        <is>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_6704_flags.csv</t>
+        </is>
+      </c>
       <c r="AL66" t="inlineStr"/>
       <c r="AM66" t="inlineStr">
         <is>

--- a/raw/project_UVP_standardizer.xlsx
+++ b/raw/project_UVP_standardizer.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dugennem/GIT/PSSdb/raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dugennem/GIT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65EF5D2-6A13-584B-81E5-E9E9906CC5E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814BC9A2-DE56-4E44-BAA3-DF99ADFE908B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="760" windowWidth="25940" windowHeight="11940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="25940" windowHeight="11940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ecotaxa" sheetId="1" r:id="rId1"/>
@@ -2448,11 +2448,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS66"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AK2" sqref="AK2:AK66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
@@ -9645,8 +9648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AS244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S241" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:AI244"/>
+    <sheetView topLeftCell="S241" workbookViewId="0">
+      <selection activeCell="U253" sqref="U253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/raw/project_UVP_standardizer.xlsx
+++ b/raw/project_UVP_standardizer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dugennem/GIT/PSSdb/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C828783-433C-0040-9BE6-F157073C3072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24ACD22-6034-274A-8B85-E4309FC1362B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="760" windowWidth="25940" windowHeight="11940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -249,6 +249,24 @@
     <t>https://ecotaxa.obs-vlfr.fr/prj/22</t>
   </si>
   <si>
+    <t>48;47</t>
+  </si>
+  <si>
+    <t>https://ecotaxa.obs-vlfr.fr/prj/28</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>https://ecotaxa.obs-vlfr.fr/prj/36</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>https://ecotaxa.obs-vlfr.fr/prj/37</t>
+  </si>
+  <si>
     <t>~/GIT/PSSdb/raw/ecotaxa</t>
   </si>
   <si>
@@ -267,28 +285,10 @@
     <t>object_minor</t>
   </si>
   <si>
-    <t>48;47</t>
+    <t>46</t>
   </si>
   <si>
     <t>acq_smzoo</t>
-  </si>
-  <si>
-    <t>https://ecotaxa.obs-vlfr.fr/prj/28</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>https://ecotaxa.obs-vlfr.fr/prj/36</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>https://ecotaxa.obs-vlfr.fr/prj/37</t>
-  </si>
-  <si>
-    <t>46</t>
   </si>
   <si>
     <t>https://ecotaxa.obs-vlfr.fr/prj/38</t>
@@ -2447,55 +2447,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:AS25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:AS6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="23" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="61" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="14" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="17" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="22" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="90.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.2">
@@ -2643,7 +2602,7 @@
         <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D2" t="s">
         <v>46</v>
@@ -2673,13 +2632,13 @@
         <v>52</v>
       </c>
       <c r="M2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N2" t="s">
         <v>54</v>
       </c>
       <c r="O2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P2" t="s">
         <v>54</v>
@@ -2697,7 +2656,7 @@
         <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V2" t="s">
         <v>59</v>
@@ -2706,13 +2665,13 @@
         <v>60</v>
       </c>
       <c r="AC2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AD2" t="s">
         <v>61</v>
       </c>
       <c r="AE2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AF2" t="s">
         <v>69</v>
@@ -2736,7 +2695,7 @@
         <v>67</v>
       </c>
       <c r="AO2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AP2" t="s">
         <v>69</v>
@@ -2753,7 +2712,7 @@
         <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D3" t="s">
         <v>46</v>
@@ -2783,13 +2742,13 @@
         <v>52</v>
       </c>
       <c r="M3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N3" t="s">
         <v>54</v>
       </c>
       <c r="O3" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P3" t="s">
         <v>54</v>
@@ -2807,7 +2766,7 @@
         <v>58</v>
       </c>
       <c r="U3" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V3" t="s">
         <v>59</v>
@@ -2816,13 +2775,13 @@
         <v>60</v>
       </c>
       <c r="AC3" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AD3" t="s">
         <v>61</v>
       </c>
       <c r="AE3" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AF3" t="s">
         <v>69</v>
@@ -2846,7 +2805,7 @@
         <v>67</v>
       </c>
       <c r="AO3" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AP3" t="s">
         <v>69</v>
@@ -2863,7 +2822,7 @@
         <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D4" t="s">
         <v>46</v>
@@ -2893,13 +2852,13 @@
         <v>52</v>
       </c>
       <c r="M4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N4" t="s">
         <v>54</v>
       </c>
       <c r="O4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P4" t="s">
         <v>54</v>
@@ -2917,7 +2876,7 @@
         <v>58</v>
       </c>
       <c r="U4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V4" t="s">
         <v>59</v>
@@ -2926,13 +2885,13 @@
         <v>60</v>
       </c>
       <c r="AC4" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AD4" t="s">
         <v>61</v>
       </c>
       <c r="AE4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AF4" t="s">
         <v>69</v>
@@ -2950,13 +2909,13 @@
         <v>65</v>
       </c>
       <c r="AM4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AN4" t="s">
         <v>67</v>
       </c>
       <c r="AO4" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AP4" t="s">
         <v>69</v>
@@ -2970,10 +2929,10 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
         <v>46</v>
@@ -3003,13 +2962,13 @@
         <v>52</v>
       </c>
       <c r="M5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N5" t="s">
         <v>54</v>
       </c>
       <c r="O5" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P5" t="s">
         <v>54</v>
@@ -3027,7 +2986,7 @@
         <v>58</v>
       </c>
       <c r="U5" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V5" t="s">
         <v>59</v>
@@ -3036,13 +2995,13 @@
         <v>60</v>
       </c>
       <c r="AC5" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AD5" t="s">
         <v>61</v>
       </c>
       <c r="AE5" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AF5" t="s">
         <v>69</v>
@@ -3060,7 +3019,7 @@
         <v>65</v>
       </c>
       <c r="AM5" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AN5" t="s">
         <v>67</v>
@@ -3074,10 +3033,10 @@
         <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D6" t="s">
         <v>46</v>
@@ -3107,13 +3066,13 @@
         <v>52</v>
       </c>
       <c r="M6" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N6" t="s">
         <v>54</v>
       </c>
       <c r="O6" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P6" t="s">
         <v>54</v>
@@ -3131,7 +3090,7 @@
         <v>58</v>
       </c>
       <c r="U6" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V6" t="s">
         <v>59</v>
@@ -3140,13 +3099,13 @@
         <v>60</v>
       </c>
       <c r="AC6" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AD6" t="s">
         <v>61</v>
       </c>
       <c r="AE6" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AF6" t="s">
         <v>69</v>
@@ -3164,13 +3123,13 @@
         <v>65</v>
       </c>
       <c r="AM6" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AN6" t="s">
         <v>67</v>
       </c>
       <c r="AO6" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AP6" t="s">
         <v>69</v>
@@ -3184,10 +3143,10 @@
         <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D7" t="s">
         <v>46</v>
@@ -3217,13 +3176,13 @@
         <v>52</v>
       </c>
       <c r="M7" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N7" t="s">
         <v>54</v>
       </c>
       <c r="O7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P7" t="s">
         <v>54</v>
@@ -3241,7 +3200,7 @@
         <v>58</v>
       </c>
       <c r="U7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V7" t="s">
         <v>59</v>
@@ -3250,13 +3209,13 @@
         <v>60</v>
       </c>
       <c r="AC7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AD7" t="s">
         <v>61</v>
       </c>
       <c r="AE7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AF7" t="s">
         <v>69</v>
@@ -3274,13 +3233,13 @@
         <v>65</v>
       </c>
       <c r="AM7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AN7" t="s">
         <v>67</v>
       </c>
       <c r="AO7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AP7" t="s">
         <v>69</v>
@@ -3297,7 +3256,7 @@
         <v>89</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D8" t="s">
         <v>46</v>
@@ -3327,13 +3286,13 @@
         <v>52</v>
       </c>
       <c r="M8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N8" t="s">
         <v>54</v>
       </c>
       <c r="O8" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P8" t="s">
         <v>54</v>
@@ -3351,7 +3310,7 @@
         <v>58</v>
       </c>
       <c r="U8" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V8" t="s">
         <v>59</v>
@@ -3360,13 +3319,13 @@
         <v>60</v>
       </c>
       <c r="AC8" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AD8" t="s">
         <v>61</v>
       </c>
       <c r="AE8" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AF8" t="s">
         <v>69</v>
@@ -3390,7 +3349,7 @@
         <v>67</v>
       </c>
       <c r="AO8" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AP8" t="s">
         <v>69</v>
@@ -3407,7 +3366,7 @@
         <v>91</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D9" t="s">
         <v>46</v>
@@ -3437,13 +3396,13 @@
         <v>52</v>
       </c>
       <c r="M9" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N9" t="s">
         <v>54</v>
       </c>
       <c r="O9" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P9" t="s">
         <v>54</v>
@@ -3461,7 +3420,7 @@
         <v>58</v>
       </c>
       <c r="U9" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V9" t="s">
         <v>59</v>
@@ -3470,13 +3429,13 @@
         <v>60</v>
       </c>
       <c r="AC9" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AD9" t="s">
         <v>61</v>
       </c>
       <c r="AE9" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AF9" t="s">
         <v>69</v>
@@ -3500,7 +3459,7 @@
         <v>67</v>
       </c>
       <c r="AO9" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AP9" t="s">
         <v>69</v>
@@ -3517,7 +3476,7 @@
         <v>93</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D10" t="s">
         <v>46</v>
@@ -3547,13 +3506,13 @@
         <v>52</v>
       </c>
       <c r="M10" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N10" t="s">
         <v>54</v>
       </c>
       <c r="O10" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P10" t="s">
         <v>54</v>
@@ -3571,7 +3530,7 @@
         <v>58</v>
       </c>
       <c r="U10" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V10" t="s">
         <v>59</v>
@@ -3580,13 +3539,13 @@
         <v>60</v>
       </c>
       <c r="AC10" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AD10" t="s">
         <v>61</v>
       </c>
       <c r="AE10" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AF10" t="s">
         <v>69</v>
@@ -3610,7 +3569,7 @@
         <v>67</v>
       </c>
       <c r="AO10" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AP10" t="s">
         <v>69</v>
@@ -3627,7 +3586,7 @@
         <v>95</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D11" t="s">
         <v>46</v>
@@ -3657,13 +3616,13 @@
         <v>52</v>
       </c>
       <c r="M11" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N11" t="s">
         <v>54</v>
       </c>
       <c r="O11" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P11" t="s">
         <v>54</v>
@@ -3681,7 +3640,7 @@
         <v>58</v>
       </c>
       <c r="U11" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V11" t="s">
         <v>59</v>
@@ -3690,13 +3649,13 @@
         <v>60</v>
       </c>
       <c r="AC11" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AD11" t="s">
         <v>61</v>
       </c>
       <c r="AE11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AF11" t="s">
         <v>69</v>
@@ -3720,7 +3679,7 @@
         <v>67</v>
       </c>
       <c r="AO11" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AP11" t="s">
         <v>69</v>
@@ -3737,7 +3696,7 @@
         <v>97</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D12" t="s">
         <v>46</v>
@@ -3767,13 +3726,13 @@
         <v>52</v>
       </c>
       <c r="M12" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N12" t="s">
         <v>54</v>
       </c>
       <c r="O12" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P12" t="s">
         <v>54</v>
@@ -3791,7 +3750,7 @@
         <v>58</v>
       </c>
       <c r="U12" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V12" t="s">
         <v>59</v>
@@ -3800,13 +3759,13 @@
         <v>60</v>
       </c>
       <c r="AC12" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AD12" t="s">
         <v>61</v>
       </c>
       <c r="AE12" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AF12" t="s">
         <v>69</v>
@@ -3830,7 +3789,7 @@
         <v>67</v>
       </c>
       <c r="AO12" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AP12" t="s">
         <v>69</v>
@@ -3847,7 +3806,7 @@
         <v>99</v>
       </c>
       <c r="C13" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D13" t="s">
         <v>46</v>
@@ -3877,13 +3836,13 @@
         <v>52</v>
       </c>
       <c r="M13" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N13" t="s">
         <v>54</v>
       </c>
       <c r="O13" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P13" t="s">
         <v>54</v>
@@ -3901,7 +3860,7 @@
         <v>58</v>
       </c>
       <c r="U13" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V13" t="s">
         <v>59</v>
@@ -3910,13 +3869,13 @@
         <v>60</v>
       </c>
       <c r="AC13" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AD13" t="s">
         <v>61</v>
       </c>
       <c r="AE13" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AF13" t="s">
         <v>69</v>
@@ -3940,7 +3899,7 @@
         <v>67</v>
       </c>
       <c r="AO13" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AP13" t="s">
         <v>69</v>
@@ -3957,7 +3916,7 @@
         <v>101</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D14" t="s">
         <v>46</v>
@@ -3987,13 +3946,13 @@
         <v>52</v>
       </c>
       <c r="M14" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N14" t="s">
         <v>54</v>
       </c>
       <c r="O14" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P14" t="s">
         <v>54</v>
@@ -4011,7 +3970,7 @@
         <v>58</v>
       </c>
       <c r="U14" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V14" t="s">
         <v>59</v>
@@ -4020,13 +3979,13 @@
         <v>60</v>
       </c>
       <c r="AC14" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AD14" t="s">
         <v>61</v>
       </c>
       <c r="AE14" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AF14" t="s">
         <v>69</v>
@@ -4050,7 +4009,7 @@
         <v>67</v>
       </c>
       <c r="AO14" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AP14" t="s">
         <v>69</v>
@@ -4067,7 +4026,7 @@
         <v>103</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D15" t="s">
         <v>46</v>
@@ -4097,13 +4056,13 @@
         <v>52</v>
       </c>
       <c r="M15" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N15" t="s">
         <v>54</v>
       </c>
       <c r="O15" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P15" t="s">
         <v>54</v>
@@ -4121,7 +4080,7 @@
         <v>58</v>
       </c>
       <c r="U15" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V15" t="s">
         <v>59</v>
@@ -4130,13 +4089,13 @@
         <v>60</v>
       </c>
       <c r="AC15" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AD15" t="s">
         <v>61</v>
       </c>
       <c r="AE15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AF15" t="s">
         <v>69</v>
@@ -4160,7 +4119,7 @@
         <v>67</v>
       </c>
       <c r="AO15" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AP15" t="s">
         <v>69</v>
@@ -4177,7 +4136,7 @@
         <v>105</v>
       </c>
       <c r="C16" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D16" t="s">
         <v>46</v>
@@ -4207,13 +4166,13 @@
         <v>52</v>
       </c>
       <c r="M16" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N16" t="s">
         <v>54</v>
       </c>
       <c r="O16" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P16" t="s">
         <v>54</v>
@@ -4231,7 +4190,7 @@
         <v>58</v>
       </c>
       <c r="U16" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V16" t="s">
         <v>59</v>
@@ -4240,13 +4199,13 @@
         <v>60</v>
       </c>
       <c r="AC16" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AD16" t="s">
         <v>61</v>
       </c>
       <c r="AE16" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AF16" t="s">
         <v>69</v>
@@ -4281,7 +4240,7 @@
         <v>107</v>
       </c>
       <c r="C17" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D17" t="s">
         <v>46</v>
@@ -4311,13 +4270,13 @@
         <v>52</v>
       </c>
       <c r="M17" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N17" t="s">
         <v>54</v>
       </c>
       <c r="O17" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P17" t="s">
         <v>54</v>
@@ -4335,7 +4294,7 @@
         <v>58</v>
       </c>
       <c r="U17" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V17" t="s">
         <v>59</v>
@@ -4344,13 +4303,13 @@
         <v>60</v>
       </c>
       <c r="AC17" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AD17" t="s">
         <v>61</v>
       </c>
       <c r="AE17" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AF17" t="s">
         <v>69</v>
@@ -4385,7 +4344,7 @@
         <v>109</v>
       </c>
       <c r="C18" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D18" t="s">
         <v>46</v>
@@ -4415,13 +4374,13 @@
         <v>52</v>
       </c>
       <c r="M18" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N18" t="s">
         <v>54</v>
       </c>
       <c r="O18" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P18" t="s">
         <v>54</v>
@@ -4439,7 +4398,7 @@
         <v>58</v>
       </c>
       <c r="U18" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V18" t="s">
         <v>59</v>
@@ -4448,13 +4407,13 @@
         <v>60</v>
       </c>
       <c r="AC18" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AD18" t="s">
         <v>61</v>
       </c>
       <c r="AE18" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AF18" t="s">
         <v>69</v>
@@ -4478,7 +4437,7 @@
         <v>67</v>
       </c>
       <c r="AO18" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AP18" t="s">
         <v>69</v>
@@ -4495,7 +4454,7 @@
         <v>111</v>
       </c>
       <c r="C19" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D19" t="s">
         <v>46</v>
@@ -4525,13 +4484,13 @@
         <v>52</v>
       </c>
       <c r="M19" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N19" t="s">
         <v>54</v>
       </c>
       <c r="O19" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P19" t="s">
         <v>54</v>
@@ -4549,7 +4508,7 @@
         <v>58</v>
       </c>
       <c r="U19" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V19" t="s">
         <v>59</v>
@@ -4558,13 +4517,13 @@
         <v>60</v>
       </c>
       <c r="AC19" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AD19" t="s">
         <v>61</v>
       </c>
       <c r="AE19" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AF19" t="s">
         <v>69</v>
@@ -4588,7 +4547,7 @@
         <v>67</v>
       </c>
       <c r="AO19" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AP19" t="s">
         <v>69</v>
@@ -4605,7 +4564,7 @@
         <v>112</v>
       </c>
       <c r="C20" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D20" t="s">
         <v>46</v>
@@ -4635,13 +4594,13 @@
         <v>52</v>
       </c>
       <c r="M20" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N20" t="s">
         <v>54</v>
       </c>
       <c r="O20" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P20" t="s">
         <v>54</v>
@@ -4659,7 +4618,7 @@
         <v>58</v>
       </c>
       <c r="U20" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V20" t="s">
         <v>59</v>
@@ -4668,13 +4627,13 @@
         <v>60</v>
       </c>
       <c r="AC20" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AD20" t="s">
         <v>61</v>
       </c>
       <c r="AE20" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AF20" t="s">
         <v>69</v>
@@ -4698,7 +4657,7 @@
         <v>67</v>
       </c>
       <c r="AO20" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AP20" t="s">
         <v>69</v>
@@ -4715,7 +4674,7 @@
         <v>114</v>
       </c>
       <c r="C21" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D21" t="s">
         <v>46</v>
@@ -4745,13 +4704,13 @@
         <v>52</v>
       </c>
       <c r="M21" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N21" t="s">
         <v>54</v>
       </c>
       <c r="O21" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P21" t="s">
         <v>54</v>
@@ -4769,7 +4728,7 @@
         <v>58</v>
       </c>
       <c r="U21" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V21" t="s">
         <v>59</v>
@@ -4778,13 +4737,13 @@
         <v>60</v>
       </c>
       <c r="AC21" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AD21" t="s">
         <v>61</v>
       </c>
       <c r="AE21" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AF21" t="s">
         <v>69</v>
@@ -4808,7 +4767,7 @@
         <v>67</v>
       </c>
       <c r="AO21" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AP21" t="s">
         <v>69</v>
@@ -4825,7 +4784,7 @@
         <v>116</v>
       </c>
       <c r="C22" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D22" t="s">
         <v>46</v>
@@ -4855,13 +4814,13 @@
         <v>52</v>
       </c>
       <c r="M22" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N22" t="s">
         <v>54</v>
       </c>
       <c r="O22" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P22" t="s">
         <v>54</v>
@@ -4879,7 +4838,7 @@
         <v>58</v>
       </c>
       <c r="U22" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V22" t="s">
         <v>59</v>
@@ -4888,13 +4847,13 @@
         <v>60</v>
       </c>
       <c r="AC22" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AD22" t="s">
         <v>61</v>
       </c>
       <c r="AE22" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AF22" t="s">
         <v>69</v>
@@ -4918,7 +4877,7 @@
         <v>67</v>
       </c>
       <c r="AO22" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AP22" t="s">
         <v>69</v>
@@ -4935,7 +4894,7 @@
         <v>118</v>
       </c>
       <c r="C23" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D23" t="s">
         <v>46</v>
@@ -4965,13 +4924,13 @@
         <v>52</v>
       </c>
       <c r="M23" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N23" t="s">
         <v>54</v>
       </c>
       <c r="O23" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P23" t="s">
         <v>54</v>
@@ -4989,7 +4948,7 @@
         <v>58</v>
       </c>
       <c r="U23" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V23" t="s">
         <v>59</v>
@@ -4998,13 +4957,13 @@
         <v>60</v>
       </c>
       <c r="AC23" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AD23" t="s">
         <v>61</v>
       </c>
       <c r="AE23" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AF23" t="s">
         <v>69</v>
@@ -5028,7 +4987,7 @@
         <v>67</v>
       </c>
       <c r="AO23" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AP23" t="s">
         <v>69</v>
@@ -5045,7 +5004,7 @@
         <v>120</v>
       </c>
       <c r="C24" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D24" t="s">
         <v>46</v>
@@ -5075,13 +5034,13 @@
         <v>52</v>
       </c>
       <c r="M24" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N24" t="s">
         <v>54</v>
       </c>
       <c r="O24" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P24" t="s">
         <v>54</v>
@@ -5099,7 +5058,7 @@
         <v>58</v>
       </c>
       <c r="U24" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V24" t="s">
         <v>59</v>
@@ -5108,13 +5067,13 @@
         <v>60</v>
       </c>
       <c r="AC24" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AD24" t="s">
         <v>61</v>
       </c>
       <c r="AE24" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AF24" t="s">
         <v>69</v>
@@ -5149,7 +5108,7 @@
         <v>122</v>
       </c>
       <c r="C25" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D25" t="s">
         <v>46</v>
@@ -5179,13 +5138,13 @@
         <v>52</v>
       </c>
       <c r="M25" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N25" t="s">
         <v>54</v>
       </c>
       <c r="O25" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P25" t="s">
         <v>54</v>
@@ -5203,7 +5162,7 @@
         <v>58</v>
       </c>
       <c r="U25" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V25" t="s">
         <v>59</v>
@@ -5212,13 +5171,13 @@
         <v>60</v>
       </c>
       <c r="AC25" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AD25" t="s">
         <v>61</v>
       </c>
       <c r="AE25" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AF25" t="s">
         <v>69</v>
@@ -5242,7 +5201,7 @@
         <v>67</v>
       </c>
       <c r="AO25" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AP25" t="s">
         <v>69</v>
@@ -5259,7 +5218,7 @@
         <v>124</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D26" t="s">
         <v>46</v>
@@ -5289,13 +5248,13 @@
         <v>52</v>
       </c>
       <c r="M26" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N26" t="s">
         <v>54</v>
       </c>
       <c r="O26" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P26" t="s">
         <v>54</v>
@@ -5313,7 +5272,7 @@
         <v>58</v>
       </c>
       <c r="U26" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V26" t="s">
         <v>59</v>
@@ -5322,13 +5281,13 @@
         <v>60</v>
       </c>
       <c r="AC26" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AD26" t="s">
         <v>61</v>
       </c>
       <c r="AE26" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AF26" t="s">
         <v>69</v>
@@ -5363,7 +5322,7 @@
         <v>126</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D27" t="s">
         <v>46</v>
@@ -5393,13 +5352,13 @@
         <v>52</v>
       </c>
       <c r="M27" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N27" t="s">
         <v>54</v>
       </c>
       <c r="O27" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P27" t="s">
         <v>54</v>
@@ -5417,7 +5376,7 @@
         <v>58</v>
       </c>
       <c r="U27" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V27" t="s">
         <v>59</v>
@@ -5426,13 +5385,13 @@
         <v>60</v>
       </c>
       <c r="AC27" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AD27" t="s">
         <v>61</v>
       </c>
       <c r="AE27" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AF27" t="s">
         <v>69</v>
@@ -5456,7 +5415,7 @@
         <v>67</v>
       </c>
       <c r="AO27" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AP27" t="s">
         <v>69</v>
@@ -5473,7 +5432,7 @@
         <v>128</v>
       </c>
       <c r="C28" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D28" t="s">
         <v>46</v>
@@ -5503,13 +5462,13 @@
         <v>52</v>
       </c>
       <c r="M28" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N28" t="s">
         <v>54</v>
       </c>
       <c r="O28" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P28" t="s">
         <v>54</v>
@@ -5527,7 +5486,7 @@
         <v>58</v>
       </c>
       <c r="U28" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V28" t="s">
         <v>59</v>
@@ -5536,13 +5495,13 @@
         <v>60</v>
       </c>
       <c r="AC28" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AD28" t="s">
         <v>61</v>
       </c>
       <c r="AE28" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AF28" t="s">
         <v>69</v>
@@ -5566,7 +5525,7 @@
         <v>67</v>
       </c>
       <c r="AO28" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AP28" t="s">
         <v>69</v>
@@ -5583,7 +5542,7 @@
         <v>130</v>
       </c>
       <c r="C29" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D29" t="s">
         <v>46</v>
@@ -5613,13 +5572,13 @@
         <v>52</v>
       </c>
       <c r="M29" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N29" t="s">
         <v>54</v>
       </c>
       <c r="O29" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P29" t="s">
         <v>54</v>
@@ -5637,7 +5596,7 @@
         <v>58</v>
       </c>
       <c r="U29" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V29" t="s">
         <v>59</v>
@@ -5646,13 +5605,13 @@
         <v>60</v>
       </c>
       <c r="AC29" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AD29" t="s">
         <v>61</v>
       </c>
       <c r="AE29" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AF29" t="s">
         <v>69</v>
@@ -5676,7 +5635,7 @@
         <v>67</v>
       </c>
       <c r="AO29" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AP29" t="s">
         <v>69</v>
@@ -5693,7 +5652,7 @@
         <v>132</v>
       </c>
       <c r="C30" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D30" t="s">
         <v>46</v>
@@ -5723,13 +5682,13 @@
         <v>52</v>
       </c>
       <c r="M30" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N30" t="s">
         <v>54</v>
       </c>
       <c r="O30" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P30" t="s">
         <v>54</v>
@@ -5747,7 +5706,7 @@
         <v>58</v>
       </c>
       <c r="U30" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V30" t="s">
         <v>59</v>
@@ -5756,13 +5715,13 @@
         <v>60</v>
       </c>
       <c r="AC30" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AD30" t="s">
         <v>61</v>
       </c>
       <c r="AE30" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AF30" t="s">
         <v>69</v>
@@ -5797,7 +5756,7 @@
         <v>134</v>
       </c>
       <c r="C31" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D31" t="s">
         <v>46</v>
@@ -5827,13 +5786,13 @@
         <v>52</v>
       </c>
       <c r="M31" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N31" t="s">
         <v>54</v>
       </c>
       <c r="O31" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P31" t="s">
         <v>54</v>
@@ -5851,7 +5810,7 @@
         <v>58</v>
       </c>
       <c r="U31" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V31" t="s">
         <v>59</v>
@@ -5860,13 +5819,13 @@
         <v>60</v>
       </c>
       <c r="AC31" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AD31" t="s">
         <v>61</v>
       </c>
       <c r="AE31" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AF31" t="s">
         <v>69</v>
@@ -5890,7 +5849,7 @@
         <v>67</v>
       </c>
       <c r="AO31" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AP31" t="s">
         <v>69</v>
@@ -5907,7 +5866,7 @@
         <v>136</v>
       </c>
       <c r="C32" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D32" t="s">
         <v>46</v>
@@ -5937,13 +5896,13 @@
         <v>52</v>
       </c>
       <c r="M32" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N32" t="s">
         <v>54</v>
       </c>
       <c r="O32" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P32" t="s">
         <v>54</v>
@@ -5961,7 +5920,7 @@
         <v>58</v>
       </c>
       <c r="U32" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V32" t="s">
         <v>59</v>
@@ -5970,13 +5929,13 @@
         <v>60</v>
       </c>
       <c r="AC32" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AD32" t="s">
         <v>61</v>
       </c>
       <c r="AE32" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AF32" t="s">
         <v>69</v>
@@ -6000,7 +5959,7 @@
         <v>67</v>
       </c>
       <c r="AO32" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AP32" t="s">
         <v>69</v>
@@ -6017,7 +5976,7 @@
         <v>138</v>
       </c>
       <c r="C33" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D33" t="s">
         <v>46</v>
@@ -6047,13 +6006,13 @@
         <v>52</v>
       </c>
       <c r="M33" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N33" t="s">
         <v>54</v>
       </c>
       <c r="O33" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P33" t="s">
         <v>54</v>
@@ -6071,7 +6030,7 @@
         <v>58</v>
       </c>
       <c r="U33" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V33" t="s">
         <v>59</v>
@@ -6080,13 +6039,13 @@
         <v>60</v>
       </c>
       <c r="AC33" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AD33" t="s">
         <v>61</v>
       </c>
       <c r="AE33" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AF33" t="s">
         <v>69</v>
@@ -6121,7 +6080,7 @@
         <v>140</v>
       </c>
       <c r="C34" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D34" t="s">
         <v>46</v>
@@ -6151,13 +6110,13 @@
         <v>52</v>
       </c>
       <c r="M34" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N34" t="s">
         <v>54</v>
       </c>
       <c r="O34" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P34" t="s">
         <v>54</v>
@@ -6175,7 +6134,7 @@
         <v>58</v>
       </c>
       <c r="U34" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V34" t="s">
         <v>59</v>
@@ -6184,13 +6143,13 @@
         <v>60</v>
       </c>
       <c r="AC34" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AD34" t="s">
         <v>61</v>
       </c>
       <c r="AE34" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AF34" t="s">
         <v>69</v>
@@ -6225,7 +6184,7 @@
         <v>142</v>
       </c>
       <c r="C35" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D35" t="s">
         <v>46</v>
@@ -6255,13 +6214,13 @@
         <v>52</v>
       </c>
       <c r="M35" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N35" t="s">
         <v>54</v>
       </c>
       <c r="O35" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P35" t="s">
         <v>54</v>
@@ -6279,7 +6238,7 @@
         <v>58</v>
       </c>
       <c r="U35" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V35" t="s">
         <v>59</v>
@@ -6288,13 +6247,13 @@
         <v>60</v>
       </c>
       <c r="AC35" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AD35" t="s">
         <v>61</v>
       </c>
       <c r="AE35" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AF35" t="s">
         <v>69</v>
@@ -6329,7 +6288,7 @@
         <v>144</v>
       </c>
       <c r="C36" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D36" t="s">
         <v>46</v>
@@ -6359,13 +6318,13 @@
         <v>52</v>
       </c>
       <c r="M36" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N36" t="s">
         <v>54</v>
       </c>
       <c r="O36" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P36" t="s">
         <v>54</v>
@@ -6383,7 +6342,7 @@
         <v>58</v>
       </c>
       <c r="U36" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V36" t="s">
         <v>59</v>
@@ -6392,13 +6351,13 @@
         <v>60</v>
       </c>
       <c r="AC36" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AD36" t="s">
         <v>61</v>
       </c>
       <c r="AE36" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AF36" t="s">
         <v>69</v>
@@ -6422,7 +6381,7 @@
         <v>67</v>
       </c>
       <c r="AO36" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AP36" t="s">
         <v>69</v>
@@ -6439,7 +6398,7 @@
         <v>146</v>
       </c>
       <c r="C37" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D37" t="s">
         <v>46</v>
@@ -6469,13 +6428,13 @@
         <v>52</v>
       </c>
       <c r="M37" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N37" t="s">
         <v>54</v>
       </c>
       <c r="O37" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P37" t="s">
         <v>54</v>
@@ -6493,7 +6452,7 @@
         <v>58</v>
       </c>
       <c r="U37" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V37" t="s">
         <v>59</v>
@@ -6502,13 +6461,13 @@
         <v>60</v>
       </c>
       <c r="AC37" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AD37" t="s">
         <v>61</v>
       </c>
       <c r="AE37" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AF37" t="s">
         <v>69</v>
@@ -6532,7 +6491,7 @@
         <v>67</v>
       </c>
       <c r="AO37" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AP37" t="s">
         <v>69</v>
@@ -6549,7 +6508,7 @@
         <v>148</v>
       </c>
       <c r="C38" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D38" t="s">
         <v>46</v>
@@ -6579,13 +6538,13 @@
         <v>52</v>
       </c>
       <c r="M38" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N38" t="s">
         <v>54</v>
       </c>
       <c r="O38" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P38" t="s">
         <v>54</v>
@@ -6603,7 +6562,7 @@
         <v>58</v>
       </c>
       <c r="U38" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V38" t="s">
         <v>59</v>
@@ -6612,13 +6571,13 @@
         <v>60</v>
       </c>
       <c r="AC38" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AD38" t="s">
         <v>61</v>
       </c>
       <c r="AE38" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AF38" t="s">
         <v>69</v>
@@ -6653,7 +6612,7 @@
         <v>150</v>
       </c>
       <c r="C39" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D39" t="s">
         <v>46</v>
@@ -6683,13 +6642,13 @@
         <v>52</v>
       </c>
       <c r="M39" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N39" t="s">
         <v>54</v>
       </c>
       <c r="O39" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P39" t="s">
         <v>54</v>
@@ -6707,7 +6666,7 @@
         <v>58</v>
       </c>
       <c r="U39" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V39" t="s">
         <v>59</v>
@@ -6716,13 +6675,13 @@
         <v>60</v>
       </c>
       <c r="AC39" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AD39" t="s">
         <v>61</v>
       </c>
       <c r="AE39" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AF39" t="s">
         <v>69</v>
@@ -6746,7 +6705,7 @@
         <v>67</v>
       </c>
       <c r="AO39" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AP39" t="s">
         <v>69</v>
@@ -6763,7 +6722,7 @@
         <v>152</v>
       </c>
       <c r="C40" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D40" t="s">
         <v>46</v>
@@ -6793,13 +6752,13 @@
         <v>52</v>
       </c>
       <c r="M40" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N40" t="s">
         <v>54</v>
       </c>
       <c r="O40" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P40" t="s">
         <v>54</v>
@@ -6817,7 +6776,7 @@
         <v>58</v>
       </c>
       <c r="U40" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V40" t="s">
         <v>59</v>
@@ -6826,13 +6785,13 @@
         <v>60</v>
       </c>
       <c r="AC40" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AD40" t="s">
         <v>61</v>
       </c>
       <c r="AE40" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AF40" t="s">
         <v>69</v>
@@ -6856,7 +6815,7 @@
         <v>67</v>
       </c>
       <c r="AO40" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AP40" t="s">
         <v>69</v>
@@ -6873,7 +6832,7 @@
         <v>154</v>
       </c>
       <c r="C41" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D41" t="s">
         <v>46</v>
@@ -6903,13 +6862,13 @@
         <v>52</v>
       </c>
       <c r="M41" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N41" t="s">
         <v>54</v>
       </c>
       <c r="O41" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P41" t="s">
         <v>54</v>
@@ -6927,7 +6886,7 @@
         <v>58</v>
       </c>
       <c r="U41" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V41" t="s">
         <v>59</v>
@@ -6936,13 +6895,13 @@
         <v>60</v>
       </c>
       <c r="AC41" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AD41" t="s">
         <v>61</v>
       </c>
       <c r="AE41" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AF41" t="s">
         <v>69</v>
@@ -6966,7 +6925,7 @@
         <v>67</v>
       </c>
       <c r="AO41" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AP41" t="s">
         <v>69</v>
@@ -6983,7 +6942,7 @@
         <v>156</v>
       </c>
       <c r="C42" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D42" t="s">
         <v>46</v>
@@ -7013,13 +6972,13 @@
         <v>52</v>
       </c>
       <c r="M42" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N42" t="s">
         <v>54</v>
       </c>
       <c r="O42" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P42" t="s">
         <v>54</v>
@@ -7037,7 +6996,7 @@
         <v>58</v>
       </c>
       <c r="U42" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V42" t="s">
         <v>59</v>
@@ -7046,13 +7005,13 @@
         <v>60</v>
       </c>
       <c r="AC42" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AD42" t="s">
         <v>61</v>
       </c>
       <c r="AE42" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AF42" t="s">
         <v>69</v>
@@ -7076,7 +7035,7 @@
         <v>67</v>
       </c>
       <c r="AO42" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AP42" t="s">
         <v>69</v>
@@ -7093,7 +7052,7 @@
         <v>158</v>
       </c>
       <c r="C43" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D43" t="s">
         <v>46</v>
@@ -7123,13 +7082,13 @@
         <v>52</v>
       </c>
       <c r="M43" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N43" t="s">
         <v>54</v>
       </c>
       <c r="O43" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P43" t="s">
         <v>54</v>
@@ -7147,7 +7106,7 @@
         <v>58</v>
       </c>
       <c r="U43" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V43" t="s">
         <v>59</v>
@@ -7156,13 +7115,13 @@
         <v>60</v>
       </c>
       <c r="AC43" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AD43" t="s">
         <v>61</v>
       </c>
       <c r="AE43" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AF43" t="s">
         <v>69</v>
@@ -7186,7 +7145,7 @@
         <v>67</v>
       </c>
       <c r="AO43" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AP43" t="s">
         <v>69</v>
@@ -7203,7 +7162,7 @@
         <v>160</v>
       </c>
       <c r="C44" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D44" t="s">
         <v>46</v>
@@ -7233,13 +7192,13 @@
         <v>52</v>
       </c>
       <c r="M44" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N44" t="s">
         <v>54</v>
       </c>
       <c r="O44" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P44" t="s">
         <v>54</v>
@@ -7257,7 +7216,7 @@
         <v>58</v>
       </c>
       <c r="U44" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V44" t="s">
         <v>59</v>
@@ -7266,13 +7225,13 @@
         <v>60</v>
       </c>
       <c r="AC44" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AD44" t="s">
         <v>61</v>
       </c>
       <c r="AE44" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AF44" t="s">
         <v>69</v>
@@ -7296,7 +7255,7 @@
         <v>67</v>
       </c>
       <c r="AO44" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AP44" t="s">
         <v>69</v>
@@ -7313,7 +7272,7 @@
         <v>162</v>
       </c>
       <c r="C45" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D45" t="s">
         <v>46</v>
@@ -7343,13 +7302,13 @@
         <v>52</v>
       </c>
       <c r="M45" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N45" t="s">
         <v>54</v>
       </c>
       <c r="O45" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P45" t="s">
         <v>54</v>
@@ -7367,7 +7326,7 @@
         <v>58</v>
       </c>
       <c r="U45" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V45" t="s">
         <v>59</v>
@@ -7376,13 +7335,13 @@
         <v>60</v>
       </c>
       <c r="AC45" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AD45" t="s">
         <v>61</v>
       </c>
       <c r="AE45" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AF45" t="s">
         <v>69</v>
@@ -7406,7 +7365,7 @@
         <v>67</v>
       </c>
       <c r="AO45" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AP45" t="s">
         <v>69</v>
@@ -7423,7 +7382,7 @@
         <v>164</v>
       </c>
       <c r="C46" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D46" t="s">
         <v>46</v>
@@ -7453,13 +7412,13 @@
         <v>52</v>
       </c>
       <c r="M46" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N46" t="s">
         <v>54</v>
       </c>
       <c r="O46" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P46" t="s">
         <v>54</v>
@@ -7477,7 +7436,7 @@
         <v>58</v>
       </c>
       <c r="U46" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V46" t="s">
         <v>59</v>
@@ -7486,13 +7445,13 @@
         <v>60</v>
       </c>
       <c r="AC46" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AD46" t="s">
         <v>61</v>
       </c>
       <c r="AE46" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AF46" t="s">
         <v>69</v>
@@ -7516,7 +7475,7 @@
         <v>67</v>
       </c>
       <c r="AO46" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AP46" t="s">
         <v>69</v>
@@ -7533,7 +7492,7 @@
         <v>166</v>
       </c>
       <c r="C47" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D47" t="s">
         <v>46</v>
@@ -7563,13 +7522,13 @@
         <v>52</v>
       </c>
       <c r="M47" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N47" t="s">
         <v>54</v>
       </c>
       <c r="O47" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P47" t="s">
         <v>54</v>
@@ -7587,7 +7546,7 @@
         <v>58</v>
       </c>
       <c r="U47" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V47" t="s">
         <v>59</v>
@@ -7596,13 +7555,13 @@
         <v>60</v>
       </c>
       <c r="AC47" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AD47" t="s">
         <v>61</v>
       </c>
       <c r="AE47" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AF47" t="s">
         <v>69</v>
@@ -7626,7 +7585,7 @@
         <v>67</v>
       </c>
       <c r="AO47" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AP47" t="s">
         <v>69</v>
@@ -7643,7 +7602,7 @@
         <v>168</v>
       </c>
       <c r="C48" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D48" t="s">
         <v>46</v>
@@ -7673,13 +7632,13 @@
         <v>52</v>
       </c>
       <c r="M48" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N48" t="s">
         <v>54</v>
       </c>
       <c r="O48" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P48" t="s">
         <v>54</v>
@@ -7697,7 +7656,7 @@
         <v>58</v>
       </c>
       <c r="U48" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V48" t="s">
         <v>59</v>
@@ -7706,13 +7665,13 @@
         <v>60</v>
       </c>
       <c r="AC48" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AD48" t="s">
         <v>61</v>
       </c>
       <c r="AE48" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AF48" t="s">
         <v>69</v>
@@ -7736,7 +7695,7 @@
         <v>67</v>
       </c>
       <c r="AO48" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AP48" t="s">
         <v>69</v>
@@ -7753,7 +7712,7 @@
         <v>170</v>
       </c>
       <c r="C49" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D49" t="s">
         <v>46</v>
@@ -7783,13 +7742,13 @@
         <v>52</v>
       </c>
       <c r="M49" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N49" t="s">
         <v>54</v>
       </c>
       <c r="O49" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P49" t="s">
         <v>54</v>
@@ -7807,7 +7766,7 @@
         <v>58</v>
       </c>
       <c r="U49" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V49" t="s">
         <v>59</v>
@@ -7816,13 +7775,13 @@
         <v>60</v>
       </c>
       <c r="AC49" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AD49" t="s">
         <v>61</v>
       </c>
       <c r="AE49" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AF49" t="s">
         <v>69</v>
@@ -7846,7 +7805,7 @@
         <v>67</v>
       </c>
       <c r="AO49" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AP49" t="s">
         <v>69</v>
@@ -7863,7 +7822,7 @@
         <v>172</v>
       </c>
       <c r="C50" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D50" t="s">
         <v>46</v>
@@ -7893,13 +7852,13 @@
         <v>52</v>
       </c>
       <c r="M50" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N50" t="s">
         <v>54</v>
       </c>
       <c r="O50" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P50" t="s">
         <v>54</v>
@@ -7917,7 +7876,7 @@
         <v>58</v>
       </c>
       <c r="U50" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V50" t="s">
         <v>59</v>
@@ -7926,13 +7885,13 @@
         <v>60</v>
       </c>
       <c r="AC50" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AD50" t="s">
         <v>61</v>
       </c>
       <c r="AE50" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AF50" t="s">
         <v>69</v>
@@ -7956,7 +7915,7 @@
         <v>67</v>
       </c>
       <c r="AO50" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AP50" t="s">
         <v>69</v>
@@ -7973,7 +7932,7 @@
         <v>174</v>
       </c>
       <c r="C51" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D51" t="s">
         <v>46</v>
@@ -8003,13 +7962,13 @@
         <v>52</v>
       </c>
       <c r="M51" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N51" t="s">
         <v>54</v>
       </c>
       <c r="O51" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P51" t="s">
         <v>54</v>
@@ -8027,7 +7986,7 @@
         <v>58</v>
       </c>
       <c r="U51" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V51" t="s">
         <v>59</v>
@@ -8036,13 +7995,13 @@
         <v>60</v>
       </c>
       <c r="AC51" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AD51" t="s">
         <v>61</v>
       </c>
       <c r="AE51" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AF51" t="s">
         <v>69</v>
@@ -8066,7 +8025,7 @@
         <v>67</v>
       </c>
       <c r="AO51" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AP51" t="s">
         <v>177</v>
@@ -8083,7 +8042,7 @@
         <v>178</v>
       </c>
       <c r="C52" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D52" t="s">
         <v>46</v>
@@ -8113,13 +8072,13 @@
         <v>52</v>
       </c>
       <c r="M52" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N52" t="s">
         <v>54</v>
       </c>
       <c r="O52" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P52" t="s">
         <v>54</v>
@@ -8137,7 +8096,7 @@
         <v>58</v>
       </c>
       <c r="U52" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V52" t="s">
         <v>59</v>
@@ -8146,13 +8105,13 @@
         <v>60</v>
       </c>
       <c r="AC52" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AD52" t="s">
         <v>61</v>
       </c>
       <c r="AE52" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AF52" t="s">
         <v>69</v>
@@ -8176,7 +8135,7 @@
         <v>67</v>
       </c>
       <c r="AO52" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AP52" t="s">
         <v>177</v>
@@ -8193,7 +8152,7 @@
         <v>180</v>
       </c>
       <c r="C53" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D53" t="s">
         <v>46</v>
@@ -8223,13 +8182,13 @@
         <v>52</v>
       </c>
       <c r="M53" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N53" t="s">
         <v>54</v>
       </c>
       <c r="O53" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P53" t="s">
         <v>54</v>
@@ -8247,7 +8206,7 @@
         <v>58</v>
       </c>
       <c r="U53" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V53" t="s">
         <v>59</v>
@@ -8256,13 +8215,13 @@
         <v>60</v>
       </c>
       <c r="AC53" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AD53" t="s">
         <v>61</v>
       </c>
       <c r="AE53" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AF53" t="s">
         <v>69</v>
@@ -8280,7 +8239,7 @@
         <v>67</v>
       </c>
       <c r="AO53" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AP53" t="s">
         <v>69</v>
@@ -8297,7 +8256,7 @@
         <v>182</v>
       </c>
       <c r="C54" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D54" t="s">
         <v>46</v>
@@ -8327,13 +8286,13 @@
         <v>52</v>
       </c>
       <c r="M54" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N54" t="s">
         <v>54</v>
       </c>
       <c r="O54" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P54" t="s">
         <v>54</v>
@@ -8351,7 +8310,7 @@
         <v>58</v>
       </c>
       <c r="U54" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V54" t="s">
         <v>59</v>
@@ -8360,13 +8319,13 @@
         <v>60</v>
       </c>
       <c r="AC54" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AD54" t="s">
         <v>61</v>
       </c>
       <c r="AE54" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AF54" t="s">
         <v>69</v>
@@ -8390,7 +8349,7 @@
         <v>67</v>
       </c>
       <c r="AO54" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AP54" t="s">
         <v>177</v>
@@ -8407,7 +8366,7 @@
         <v>184</v>
       </c>
       <c r="C55" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D55" t="s">
         <v>46</v>
@@ -8437,13 +8396,13 @@
         <v>52</v>
       </c>
       <c r="M55" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N55" t="s">
         <v>54</v>
       </c>
       <c r="O55" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P55" t="s">
         <v>54</v>
@@ -8461,7 +8420,7 @@
         <v>58</v>
       </c>
       <c r="U55" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V55" t="s">
         <v>59</v>
@@ -8470,13 +8429,13 @@
         <v>60</v>
       </c>
       <c r="AC55" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AD55" t="s">
         <v>61</v>
       </c>
       <c r="AE55" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AF55" t="s">
         <v>69</v>
@@ -8494,7 +8453,7 @@
         <v>67</v>
       </c>
       <c r="AO55" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AP55" t="s">
         <v>177</v>
@@ -8511,7 +8470,7 @@
         <v>185</v>
       </c>
       <c r="C56" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D56" t="s">
         <v>46</v>
@@ -8541,13 +8500,13 @@
         <v>52</v>
       </c>
       <c r="M56" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N56" t="s">
         <v>54</v>
       </c>
       <c r="O56" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P56" t="s">
         <v>54</v>
@@ -8565,7 +8524,7 @@
         <v>58</v>
       </c>
       <c r="U56" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V56" t="s">
         <v>59</v>
@@ -8574,13 +8533,13 @@
         <v>60</v>
       </c>
       <c r="AC56" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AD56" t="s">
         <v>61</v>
       </c>
       <c r="AE56" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AF56" t="s">
         <v>69</v>
@@ -8601,7 +8560,7 @@
         <v>67</v>
       </c>
       <c r="AO56" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AP56" t="s">
         <v>177</v>
@@ -8618,7 +8577,7 @@
         <v>186</v>
       </c>
       <c r="C57" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D57" t="s">
         <v>46</v>
@@ -8648,13 +8607,13 @@
         <v>52</v>
       </c>
       <c r="M57" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N57" t="s">
         <v>54</v>
       </c>
       <c r="O57" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P57" t="s">
         <v>54</v>
@@ -8672,7 +8631,7 @@
         <v>58</v>
       </c>
       <c r="U57" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V57" t="s">
         <v>59</v>
@@ -8681,13 +8640,13 @@
         <v>60</v>
       </c>
       <c r="AC57" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AD57" t="s">
         <v>61</v>
       </c>
       <c r="AE57" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AF57" t="s">
         <v>69</v>
@@ -8705,7 +8664,7 @@
         <v>67</v>
       </c>
       <c r="AO57" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AP57" t="s">
         <v>69</v>
@@ -8722,7 +8681,7 @@
         <v>188</v>
       </c>
       <c r="C58" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D58" t="s">
         <v>46</v>
@@ -8752,13 +8711,13 @@
         <v>52</v>
       </c>
       <c r="M58" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N58" t="s">
         <v>54</v>
       </c>
       <c r="O58" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P58" t="s">
         <v>54</v>
@@ -8776,7 +8735,7 @@
         <v>58</v>
       </c>
       <c r="U58" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V58" t="s">
         <v>59</v>
@@ -8785,13 +8744,13 @@
         <v>60</v>
       </c>
       <c r="AC58" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AD58" t="s">
         <v>61</v>
       </c>
       <c r="AE58" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AF58" t="s">
         <v>69</v>
@@ -8809,7 +8768,7 @@
         <v>67</v>
       </c>
       <c r="AO58" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AP58" t="s">
         <v>69</v>
@@ -8826,7 +8785,7 @@
         <v>190</v>
       </c>
       <c r="C59" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D59" t="s">
         <v>46</v>
@@ -8856,13 +8815,13 @@
         <v>52</v>
       </c>
       <c r="M59" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N59" t="s">
         <v>54</v>
       </c>
       <c r="O59" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P59" t="s">
         <v>54</v>
@@ -8880,7 +8839,7 @@
         <v>58</v>
       </c>
       <c r="U59" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V59" t="s">
         <v>59</v>
@@ -8889,13 +8848,13 @@
         <v>60</v>
       </c>
       <c r="AC59" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AD59" t="s">
         <v>61</v>
       </c>
       <c r="AE59" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AF59" t="s">
         <v>69</v>
@@ -8919,7 +8878,7 @@
         <v>67</v>
       </c>
       <c r="AO59" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AP59" t="s">
         <v>69</v>
@@ -8936,7 +8895,7 @@
         <v>192</v>
       </c>
       <c r="C60" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D60" t="s">
         <v>46</v>
@@ -8966,13 +8925,13 @@
         <v>52</v>
       </c>
       <c r="M60" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N60" t="s">
         <v>54</v>
       </c>
       <c r="O60" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P60" t="s">
         <v>54</v>
@@ -8990,7 +8949,7 @@
         <v>58</v>
       </c>
       <c r="U60" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V60" t="s">
         <v>59</v>
@@ -8999,13 +8958,13 @@
         <v>60</v>
       </c>
       <c r="AC60" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AD60" t="s">
         <v>61</v>
       </c>
       <c r="AE60" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AF60" t="s">
         <v>69</v>
@@ -9029,7 +8988,7 @@
         <v>67</v>
       </c>
       <c r="AO60" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AP60" t="s">
         <v>177</v>
@@ -9046,7 +9005,7 @@
         <v>194</v>
       </c>
       <c r="C61" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D61" t="s">
         <v>46</v>
@@ -9076,13 +9035,13 @@
         <v>52</v>
       </c>
       <c r="M61" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N61" t="s">
         <v>54</v>
       </c>
       <c r="O61" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P61" t="s">
         <v>54</v>
@@ -9100,7 +9059,7 @@
         <v>58</v>
       </c>
       <c r="U61" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V61" t="s">
         <v>59</v>
@@ -9109,13 +9068,13 @@
         <v>60</v>
       </c>
       <c r="AC61" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AD61" t="s">
         <v>61</v>
       </c>
       <c r="AE61" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AF61" t="s">
         <v>69</v>
@@ -9139,7 +9098,7 @@
         <v>67</v>
       </c>
       <c r="AO61" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AP61" t="s">
         <v>69</v>
@@ -9156,7 +9115,7 @@
         <v>195</v>
       </c>
       <c r="C62" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D62" t="s">
         <v>46</v>
@@ -9186,13 +9145,13 @@
         <v>52</v>
       </c>
       <c r="M62" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N62" t="s">
         <v>54</v>
       </c>
       <c r="O62" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P62" t="s">
         <v>54</v>
@@ -9210,7 +9169,7 @@
         <v>58</v>
       </c>
       <c r="U62" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V62" t="s">
         <v>59</v>
@@ -9219,13 +9178,13 @@
         <v>60</v>
       </c>
       <c r="AC62" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AD62" t="s">
         <v>61</v>
       </c>
       <c r="AE62" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AF62" t="s">
         <v>69</v>
@@ -9249,7 +9208,7 @@
         <v>67</v>
       </c>
       <c r="AO62" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AP62" t="s">
         <v>69</v>
@@ -9266,7 +9225,7 @@
         <v>197</v>
       </c>
       <c r="C63" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D63" t="s">
         <v>46</v>
@@ -9296,13 +9255,13 @@
         <v>52</v>
       </c>
       <c r="M63" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N63" t="s">
         <v>54</v>
       </c>
       <c r="O63" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P63" t="s">
         <v>54</v>
@@ -9320,7 +9279,7 @@
         <v>58</v>
       </c>
       <c r="U63" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V63" t="s">
         <v>59</v>
@@ -9329,13 +9288,13 @@
         <v>60</v>
       </c>
       <c r="AC63" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AD63" t="s">
         <v>61</v>
       </c>
       <c r="AE63" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AF63" t="s">
         <v>69</v>
@@ -9359,7 +9318,7 @@
         <v>67</v>
       </c>
       <c r="AO63" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AP63" t="s">
         <v>177</v>
@@ -9376,7 +9335,7 @@
         <v>199</v>
       </c>
       <c r="C64" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D64" t="s">
         <v>46</v>
@@ -9406,13 +9365,13 @@
         <v>52</v>
       </c>
       <c r="M64" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N64" t="s">
         <v>54</v>
       </c>
       <c r="O64" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P64" t="s">
         <v>54</v>
@@ -9430,7 +9389,7 @@
         <v>58</v>
       </c>
       <c r="U64" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V64" t="s">
         <v>59</v>
@@ -9439,13 +9398,13 @@
         <v>60</v>
       </c>
       <c r="AC64" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AD64" t="s">
         <v>61</v>
       </c>
       <c r="AE64" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AF64" t="s">
         <v>69</v>
@@ -9463,7 +9422,7 @@
         <v>67</v>
       </c>
       <c r="AO64" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AP64" t="s">
         <v>69</v>
@@ -9480,7 +9439,7 @@
         <v>201</v>
       </c>
       <c r="C65" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D65" t="s">
         <v>46</v>
@@ -9510,13 +9469,13 @@
         <v>52</v>
       </c>
       <c r="M65" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N65" t="s">
         <v>54</v>
       </c>
       <c r="O65" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P65" t="s">
         <v>54</v>
@@ -9534,7 +9493,7 @@
         <v>58</v>
       </c>
       <c r="U65" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V65" t="s">
         <v>59</v>
@@ -9543,13 +9502,13 @@
         <v>60</v>
       </c>
       <c r="AC65" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AD65" t="s">
         <v>61</v>
       </c>
       <c r="AE65" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AF65" t="s">
         <v>69</v>
@@ -9567,7 +9526,7 @@
         <v>67</v>
       </c>
       <c r="AO65" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AP65" t="s">
         <v>69</v>
@@ -9584,7 +9543,7 @@
         <v>203</v>
       </c>
       <c r="C66" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D66" t="s">
         <v>46</v>
@@ -9614,13 +9573,13 @@
         <v>52</v>
       </c>
       <c r="M66" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N66" t="s">
         <v>54</v>
       </c>
       <c r="O66" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P66" t="s">
         <v>54</v>
@@ -9638,7 +9597,7 @@
         <v>58</v>
       </c>
       <c r="U66" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V66" t="s">
         <v>59</v>
@@ -9647,13 +9606,13 @@
         <v>60</v>
       </c>
       <c r="AC66" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AD66" t="s">
         <v>61</v>
       </c>
       <c r="AE66" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AF66" t="s">
         <v>69</v>
@@ -9671,7 +9630,7 @@
         <v>67</v>
       </c>
       <c r="AO66" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AP66" t="s">
         <v>69</v>
@@ -9933,7 +9892,7 @@
         <v>214</v>
       </c>
       <c r="U2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V2" t="s">
         <v>59</v>
@@ -10019,7 +9978,7 @@
         <v>214</v>
       </c>
       <c r="U3" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V3" t="s">
         <v>59</v>
@@ -10105,7 +10064,7 @@
         <v>214</v>
       </c>
       <c r="U4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V4" t="s">
         <v>59</v>
@@ -10191,7 +10150,7 @@
         <v>214</v>
       </c>
       <c r="U5" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V5" t="s">
         <v>59</v>
@@ -10277,7 +10236,7 @@
         <v>214</v>
       </c>
       <c r="U6" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V6" t="s">
         <v>59</v>
@@ -10363,7 +10322,7 @@
         <v>214</v>
       </c>
       <c r="U7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V7" t="s">
         <v>59</v>
@@ -10449,7 +10408,7 @@
         <v>214</v>
       </c>
       <c r="U8" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V8" t="s">
         <v>59</v>
@@ -10535,7 +10494,7 @@
         <v>214</v>
       </c>
       <c r="U9" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V9" t="s">
         <v>59</v>
@@ -10621,7 +10580,7 @@
         <v>214</v>
       </c>
       <c r="U10" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V10" t="s">
         <v>59</v>
@@ -10707,7 +10666,7 @@
         <v>214</v>
       </c>
       <c r="U11" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V11" t="s">
         <v>59</v>
@@ -10793,7 +10752,7 @@
         <v>214</v>
       </c>
       <c r="U12" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V12" t="s">
         <v>59</v>
@@ -10879,7 +10838,7 @@
         <v>214</v>
       </c>
       <c r="U13" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V13" t="s">
         <v>59</v>
@@ -10965,7 +10924,7 @@
         <v>214</v>
       </c>
       <c r="U14" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V14" t="s">
         <v>59</v>
@@ -11051,7 +11010,7 @@
         <v>214</v>
       </c>
       <c r="U15" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V15" t="s">
         <v>59</v>
@@ -11137,7 +11096,7 @@
         <v>214</v>
       </c>
       <c r="U16" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V16" t="s">
         <v>59</v>
@@ -11223,7 +11182,7 @@
         <v>214</v>
       </c>
       <c r="U17" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V17" t="s">
         <v>59</v>
@@ -11309,7 +11268,7 @@
         <v>214</v>
       </c>
       <c r="U18" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V18" t="s">
         <v>59</v>
@@ -11395,7 +11354,7 @@
         <v>214</v>
       </c>
       <c r="U19" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V19" t="s">
         <v>59</v>
@@ -11481,7 +11440,7 @@
         <v>214</v>
       </c>
       <c r="U20" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V20" t="s">
         <v>59</v>
@@ -11567,7 +11526,7 @@
         <v>214</v>
       </c>
       <c r="U21" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V21" t="s">
         <v>59</v>
@@ -11653,7 +11612,7 @@
         <v>214</v>
       </c>
       <c r="U22" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V22" t="s">
         <v>59</v>
@@ -11671,7 +11630,7 @@
         <v>63</v>
       </c>
       <c r="AM22" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AO22" t="s">
         <v>68</v>
@@ -11739,7 +11698,7 @@
         <v>214</v>
       </c>
       <c r="U23" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V23" t="s">
         <v>59</v>
@@ -11825,7 +11784,7 @@
         <v>214</v>
       </c>
       <c r="U24" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V24" t="s">
         <v>59</v>
@@ -11911,7 +11870,7 @@
         <v>214</v>
       </c>
       <c r="U25" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V25" t="s">
         <v>59</v>
@@ -11997,7 +11956,7 @@
         <v>214</v>
       </c>
       <c r="U26" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V26" t="s">
         <v>59</v>
@@ -12083,7 +12042,7 @@
         <v>214</v>
       </c>
       <c r="U27" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V27" t="s">
         <v>59</v>
@@ -12169,7 +12128,7 @@
         <v>214</v>
       </c>
       <c r="U28" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V28" t="s">
         <v>59</v>
@@ -12187,7 +12146,7 @@
         <v>63</v>
       </c>
       <c r="AM28" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AO28" t="s">
         <v>68</v>
@@ -12255,7 +12214,7 @@
         <v>214</v>
       </c>
       <c r="U29" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V29" t="s">
         <v>59</v>
@@ -12341,7 +12300,7 @@
         <v>214</v>
       </c>
       <c r="U30" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V30" t="s">
         <v>59</v>
@@ -12427,7 +12386,7 @@
         <v>214</v>
       </c>
       <c r="U31" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V31" t="s">
         <v>59</v>
@@ -12513,7 +12472,7 @@
         <v>214</v>
       </c>
       <c r="U32" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V32" t="s">
         <v>59</v>
@@ -12599,7 +12558,7 @@
         <v>214</v>
       </c>
       <c r="U33" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V33" t="s">
         <v>59</v>
@@ -12682,7 +12641,7 @@
         <v>214</v>
       </c>
       <c r="U34" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V34" t="s">
         <v>59</v>
@@ -12768,7 +12727,7 @@
         <v>214</v>
       </c>
       <c r="U35" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V35" t="s">
         <v>59</v>
@@ -12854,7 +12813,7 @@
         <v>214</v>
       </c>
       <c r="U36" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V36" t="s">
         <v>59</v>
@@ -12872,7 +12831,7 @@
         <v>63</v>
       </c>
       <c r="AM36" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AO36" t="s">
         <v>68</v>
@@ -12940,7 +12899,7 @@
         <v>214</v>
       </c>
       <c r="U37" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V37" t="s">
         <v>59</v>
@@ -12958,7 +12917,7 @@
         <v>63</v>
       </c>
       <c r="AM37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AO37" t="s">
         <v>68</v>
@@ -13026,7 +12985,7 @@
         <v>214</v>
       </c>
       <c r="U38" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V38" t="s">
         <v>59</v>
@@ -13112,7 +13071,7 @@
         <v>214</v>
       </c>
       <c r="U39" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V39" t="s">
         <v>59</v>
@@ -13198,7 +13157,7 @@
         <v>214</v>
       </c>
       <c r="U40" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V40" t="s">
         <v>59</v>
@@ -13284,7 +13243,7 @@
         <v>214</v>
       </c>
       <c r="U41" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V41" t="s">
         <v>59</v>
@@ -13370,7 +13329,7 @@
         <v>214</v>
       </c>
       <c r="U42" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V42" t="s">
         <v>59</v>
@@ -13456,7 +13415,7 @@
         <v>214</v>
       </c>
       <c r="U43" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V43" t="s">
         <v>59</v>
@@ -13542,7 +13501,7 @@
         <v>214</v>
       </c>
       <c r="U44" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V44" t="s">
         <v>59</v>
@@ -13628,7 +13587,7 @@
         <v>214</v>
       </c>
       <c r="U45" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V45" t="s">
         <v>59</v>
@@ -13714,7 +13673,7 @@
         <v>214</v>
       </c>
       <c r="U46" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V46" t="s">
         <v>59</v>
@@ -13800,7 +13759,7 @@
         <v>214</v>
       </c>
       <c r="U47" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V47" t="s">
         <v>59</v>
@@ -13886,7 +13845,7 @@
         <v>214</v>
       </c>
       <c r="U48" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V48" t="s">
         <v>59</v>
@@ -13972,7 +13931,7 @@
         <v>214</v>
       </c>
       <c r="U49" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V49" t="s">
         <v>59</v>
@@ -14058,7 +14017,7 @@
         <v>214</v>
       </c>
       <c r="U50" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V50" t="s">
         <v>59</v>
@@ -14144,7 +14103,7 @@
         <v>214</v>
       </c>
       <c r="U51" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V51" t="s">
         <v>59</v>
@@ -14230,7 +14189,7 @@
         <v>214</v>
       </c>
       <c r="U52" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V52" t="s">
         <v>59</v>
@@ -14316,7 +14275,7 @@
         <v>214</v>
       </c>
       <c r="U53" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V53" t="s">
         <v>59</v>
@@ -14402,7 +14361,7 @@
         <v>214</v>
       </c>
       <c r="U54" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V54" t="s">
         <v>59</v>
@@ -14488,7 +14447,7 @@
         <v>214</v>
       </c>
       <c r="U55" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V55" t="s">
         <v>59</v>
@@ -14574,7 +14533,7 @@
         <v>214</v>
       </c>
       <c r="U56" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V56" t="s">
         <v>59</v>
@@ -14660,7 +14619,7 @@
         <v>214</v>
       </c>
       <c r="U57" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V57" t="s">
         <v>59</v>
@@ -14746,7 +14705,7 @@
         <v>214</v>
       </c>
       <c r="U58" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V58" t="s">
         <v>59</v>
@@ -14832,7 +14791,7 @@
         <v>214</v>
       </c>
       <c r="U59" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V59" t="s">
         <v>59</v>
@@ -14918,7 +14877,7 @@
         <v>214</v>
       </c>
       <c r="U60" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V60" t="s">
         <v>59</v>
@@ -15004,7 +14963,7 @@
         <v>214</v>
       </c>
       <c r="U61" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V61" t="s">
         <v>59</v>
@@ -15090,7 +15049,7 @@
         <v>214</v>
       </c>
       <c r="U62" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V62" t="s">
         <v>59</v>
@@ -15176,7 +15135,7 @@
         <v>214</v>
       </c>
       <c r="U63" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V63" t="s">
         <v>59</v>
@@ -15262,7 +15221,7 @@
         <v>214</v>
       </c>
       <c r="U64" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V64" t="s">
         <v>59</v>
@@ -15348,7 +15307,7 @@
         <v>214</v>
       </c>
       <c r="U65" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V65" t="s">
         <v>59</v>
@@ -15434,7 +15393,7 @@
         <v>214</v>
       </c>
       <c r="U66" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V66" t="s">
         <v>59</v>
@@ -15520,7 +15479,7 @@
         <v>214</v>
       </c>
       <c r="U67" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V67" t="s">
         <v>59</v>
@@ -15606,7 +15565,7 @@
         <v>214</v>
       </c>
       <c r="U68" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V68" t="s">
         <v>59</v>
@@ -15692,7 +15651,7 @@
         <v>214</v>
       </c>
       <c r="U69" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V69" t="s">
         <v>59</v>
@@ -15778,7 +15737,7 @@
         <v>214</v>
       </c>
       <c r="U70" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V70" t="s">
         <v>59</v>
@@ -15864,7 +15823,7 @@
         <v>214</v>
       </c>
       <c r="U71" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V71" t="s">
         <v>59</v>
@@ -15950,7 +15909,7 @@
         <v>214</v>
       </c>
       <c r="U72" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V72" t="s">
         <v>59</v>
@@ -16036,7 +15995,7 @@
         <v>214</v>
       </c>
       <c r="U73" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V73" t="s">
         <v>59</v>
@@ -16122,7 +16081,7 @@
         <v>214</v>
       </c>
       <c r="U74" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V74" t="s">
         <v>59</v>
@@ -16208,7 +16167,7 @@
         <v>214</v>
       </c>
       <c r="U75" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V75" t="s">
         <v>59</v>
@@ -16294,7 +16253,7 @@
         <v>214</v>
       </c>
       <c r="U76" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V76" t="s">
         <v>59</v>
@@ -16380,7 +16339,7 @@
         <v>214</v>
       </c>
       <c r="U77" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V77" t="s">
         <v>59</v>
@@ -16466,7 +16425,7 @@
         <v>214</v>
       </c>
       <c r="U78" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V78" t="s">
         <v>59</v>
@@ -16552,7 +16511,7 @@
         <v>214</v>
       </c>
       <c r="U79" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V79" t="s">
         <v>59</v>
@@ -16638,7 +16597,7 @@
         <v>214</v>
       </c>
       <c r="U80" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V80" t="s">
         <v>59</v>
@@ -16724,7 +16683,7 @@
         <v>214</v>
       </c>
       <c r="U81" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V81" t="s">
         <v>59</v>
@@ -16810,7 +16769,7 @@
         <v>214</v>
       </c>
       <c r="U82" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V82" t="s">
         <v>59</v>
@@ -16896,7 +16855,7 @@
         <v>214</v>
       </c>
       <c r="U83" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V83" t="s">
         <v>59</v>
@@ -16982,7 +16941,7 @@
         <v>214</v>
       </c>
       <c r="U84" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V84" t="s">
         <v>59</v>
@@ -17068,7 +17027,7 @@
         <v>214</v>
       </c>
       <c r="U85" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V85" t="s">
         <v>59</v>
@@ -17154,7 +17113,7 @@
         <v>214</v>
       </c>
       <c r="U86" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V86" t="s">
         <v>59</v>
@@ -17240,7 +17199,7 @@
         <v>214</v>
       </c>
       <c r="U87" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V87" t="s">
         <v>59</v>
@@ -17326,7 +17285,7 @@
         <v>214</v>
       </c>
       <c r="U88" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V88" t="s">
         <v>59</v>
@@ -17412,7 +17371,7 @@
         <v>214</v>
       </c>
       <c r="U89" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V89" t="s">
         <v>59</v>
@@ -17498,7 +17457,7 @@
         <v>214</v>
       </c>
       <c r="U90" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V90" t="s">
         <v>59</v>
@@ -17584,7 +17543,7 @@
         <v>214</v>
       </c>
       <c r="U91" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V91" t="s">
         <v>59</v>
@@ -17670,7 +17629,7 @@
         <v>214</v>
       </c>
       <c r="U92" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V92" t="s">
         <v>59</v>
@@ -17756,7 +17715,7 @@
         <v>214</v>
       </c>
       <c r="U93" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V93" t="s">
         <v>59</v>
@@ -17842,7 +17801,7 @@
         <v>214</v>
       </c>
       <c r="U94" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V94" t="s">
         <v>59</v>
@@ -17928,7 +17887,7 @@
         <v>214</v>
       </c>
       <c r="U95" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V95" t="s">
         <v>59</v>
@@ -18014,7 +17973,7 @@
         <v>214</v>
       </c>
       <c r="U96" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V96" t="s">
         <v>59</v>
@@ -18100,7 +18059,7 @@
         <v>214</v>
       </c>
       <c r="U97" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V97" t="s">
         <v>59</v>
@@ -18186,7 +18145,7 @@
         <v>214</v>
       </c>
       <c r="U98" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V98" t="s">
         <v>59</v>
@@ -18272,7 +18231,7 @@
         <v>214</v>
       </c>
       <c r="U99" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V99" t="s">
         <v>59</v>
@@ -18358,7 +18317,7 @@
         <v>214</v>
       </c>
       <c r="U100" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V100" t="s">
         <v>59</v>
@@ -18444,7 +18403,7 @@
         <v>214</v>
       </c>
       <c r="U101" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V101" t="s">
         <v>59</v>
@@ -18530,7 +18489,7 @@
         <v>214</v>
       </c>
       <c r="U102" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V102" t="s">
         <v>59</v>
@@ -18616,7 +18575,7 @@
         <v>214</v>
       </c>
       <c r="U103" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V103" t="s">
         <v>59</v>
@@ -18702,7 +18661,7 @@
         <v>214</v>
       </c>
       <c r="U104" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V104" t="s">
         <v>59</v>
@@ -18788,7 +18747,7 @@
         <v>214</v>
       </c>
       <c r="U105" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V105" t="s">
         <v>59</v>
@@ -18874,7 +18833,7 @@
         <v>214</v>
       </c>
       <c r="U106" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V106" t="s">
         <v>59</v>
@@ -18960,7 +18919,7 @@
         <v>214</v>
       </c>
       <c r="U107" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V107" t="s">
         <v>59</v>
@@ -19046,7 +19005,7 @@
         <v>214</v>
       </c>
       <c r="U108" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V108" t="s">
         <v>59</v>
@@ -19132,7 +19091,7 @@
         <v>214</v>
       </c>
       <c r="U109" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V109" t="s">
         <v>59</v>
@@ -19218,7 +19177,7 @@
         <v>214</v>
       </c>
       <c r="U110" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V110" t="s">
         <v>59</v>
@@ -19304,7 +19263,7 @@
         <v>214</v>
       </c>
       <c r="U111" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V111" t="s">
         <v>59</v>
@@ -19390,7 +19349,7 @@
         <v>214</v>
       </c>
       <c r="U112" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V112" t="s">
         <v>59</v>
@@ -19476,7 +19435,7 @@
         <v>214</v>
       </c>
       <c r="U113" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V113" t="s">
         <v>59</v>
@@ -19562,7 +19521,7 @@
         <v>214</v>
       </c>
       <c r="U114" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V114" t="s">
         <v>59</v>
@@ -19648,7 +19607,7 @@
         <v>214</v>
       </c>
       <c r="U115" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V115" t="s">
         <v>59</v>
@@ -19734,7 +19693,7 @@
         <v>214</v>
       </c>
       <c r="U116" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V116" t="s">
         <v>59</v>
@@ -19820,7 +19779,7 @@
         <v>214</v>
       </c>
       <c r="U117" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V117" t="s">
         <v>59</v>
@@ -19903,7 +19862,7 @@
         <v>214</v>
       </c>
       <c r="U118" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V118" t="s">
         <v>59</v>
@@ -19986,7 +19945,7 @@
         <v>214</v>
       </c>
       <c r="U119" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V119" t="s">
         <v>59</v>
@@ -20072,7 +20031,7 @@
         <v>214</v>
       </c>
       <c r="U120" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V120" t="s">
         <v>59</v>
@@ -20158,7 +20117,7 @@
         <v>214</v>
       </c>
       <c r="U121" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V121" t="s">
         <v>59</v>
@@ -20244,7 +20203,7 @@
         <v>214</v>
       </c>
       <c r="U122" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V122" t="s">
         <v>59</v>
@@ -20330,7 +20289,7 @@
         <v>214</v>
       </c>
       <c r="U123" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V123" t="s">
         <v>59</v>
@@ -20416,7 +20375,7 @@
         <v>214</v>
       </c>
       <c r="U124" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V124" t="s">
         <v>59</v>
@@ -20499,7 +20458,7 @@
         <v>214</v>
       </c>
       <c r="U125" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V125" t="s">
         <v>59</v>
@@ -20582,7 +20541,7 @@
         <v>214</v>
       </c>
       <c r="U126" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V126" t="s">
         <v>59</v>
@@ -20668,7 +20627,7 @@
         <v>214</v>
       </c>
       <c r="U127" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V127" t="s">
         <v>59</v>
@@ -20754,7 +20713,7 @@
         <v>214</v>
       </c>
       <c r="U128" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V128" t="s">
         <v>59</v>
@@ -20840,7 +20799,7 @@
         <v>214</v>
       </c>
       <c r="U129" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V129" t="s">
         <v>59</v>
@@ -20926,7 +20885,7 @@
         <v>214</v>
       </c>
       <c r="U130" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V130" t="s">
         <v>59</v>
@@ -21012,7 +20971,7 @@
         <v>214</v>
       </c>
       <c r="U131" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V131" t="s">
         <v>59</v>
@@ -21098,7 +21057,7 @@
         <v>214</v>
       </c>
       <c r="U132" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V132" t="s">
         <v>59</v>
@@ -21184,7 +21143,7 @@
         <v>214</v>
       </c>
       <c r="U133" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V133" t="s">
         <v>59</v>
@@ -21270,7 +21229,7 @@
         <v>214</v>
       </c>
       <c r="U134" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V134" t="s">
         <v>59</v>
@@ -21356,7 +21315,7 @@
         <v>214</v>
       </c>
       <c r="U135" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V135" t="s">
         <v>59</v>
@@ -21442,7 +21401,7 @@
         <v>214</v>
       </c>
       <c r="U136" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V136" t="s">
         <v>59</v>
@@ -21528,7 +21487,7 @@
         <v>214</v>
       </c>
       <c r="U137" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V137" t="s">
         <v>59</v>
@@ -21611,7 +21570,7 @@
         <v>214</v>
       </c>
       <c r="U138" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V138" t="s">
         <v>59</v>
@@ -21694,7 +21653,7 @@
         <v>214</v>
       </c>
       <c r="U139" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V139" t="s">
         <v>59</v>
@@ -21780,7 +21739,7 @@
         <v>214</v>
       </c>
       <c r="U140" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V140" t="s">
         <v>59</v>
@@ -21866,7 +21825,7 @@
         <v>214</v>
       </c>
       <c r="U141" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V141" t="s">
         <v>59</v>
@@ -21952,7 +21911,7 @@
         <v>214</v>
       </c>
       <c r="U142" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V142" t="s">
         <v>59</v>
@@ -22038,7 +21997,7 @@
         <v>214</v>
       </c>
       <c r="U143" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V143" t="s">
         <v>59</v>
@@ -22124,7 +22083,7 @@
         <v>214</v>
       </c>
       <c r="U144" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V144" t="s">
         <v>59</v>
@@ -22210,7 +22169,7 @@
         <v>214</v>
       </c>
       <c r="U145" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V145" t="s">
         <v>59</v>
@@ -22296,7 +22255,7 @@
         <v>214</v>
       </c>
       <c r="U146" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V146" t="s">
         <v>59</v>
@@ -22382,7 +22341,7 @@
         <v>214</v>
       </c>
       <c r="U147" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V147" t="s">
         <v>59</v>
@@ -22468,7 +22427,7 @@
         <v>214</v>
       </c>
       <c r="U148" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V148" t="s">
         <v>59</v>
@@ -22554,7 +22513,7 @@
         <v>214</v>
       </c>
       <c r="U149" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V149" t="s">
         <v>59</v>
@@ -22640,7 +22599,7 @@
         <v>214</v>
       </c>
       <c r="U150" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V150" t="s">
         <v>59</v>
@@ -22726,7 +22685,7 @@
         <v>214</v>
       </c>
       <c r="U151" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V151" t="s">
         <v>59</v>
@@ -22812,7 +22771,7 @@
         <v>214</v>
       </c>
       <c r="U152" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V152" t="s">
         <v>59</v>
@@ -22895,7 +22854,7 @@
         <v>214</v>
       </c>
       <c r="U153" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V153" t="s">
         <v>59</v>
@@ -22981,7 +22940,7 @@
         <v>214</v>
       </c>
       <c r="U154" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V154" t="s">
         <v>59</v>
@@ -23067,7 +23026,7 @@
         <v>214</v>
       </c>
       <c r="U155" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V155" t="s">
         <v>59</v>
@@ -23153,7 +23112,7 @@
         <v>214</v>
       </c>
       <c r="U156" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V156" t="s">
         <v>59</v>
@@ -23239,7 +23198,7 @@
         <v>214</v>
       </c>
       <c r="U157" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V157" t="s">
         <v>59</v>
@@ -23325,7 +23284,7 @@
         <v>214</v>
       </c>
       <c r="U158" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V158" t="s">
         <v>59</v>
@@ -23411,7 +23370,7 @@
         <v>214</v>
       </c>
       <c r="U159" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V159" t="s">
         <v>59</v>
@@ -23497,7 +23456,7 @@
         <v>214</v>
       </c>
       <c r="U160" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V160" t="s">
         <v>59</v>
@@ -23583,7 +23542,7 @@
         <v>214</v>
       </c>
       <c r="U161" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V161" t="s">
         <v>59</v>
@@ -23666,7 +23625,7 @@
         <v>214</v>
       </c>
       <c r="U162" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V162" t="s">
         <v>59</v>
@@ -23752,7 +23711,7 @@
         <v>214</v>
       </c>
       <c r="U163" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V163" t="s">
         <v>59</v>
@@ -23838,7 +23797,7 @@
         <v>214</v>
       </c>
       <c r="U164" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V164" t="s">
         <v>59</v>
@@ -23924,7 +23883,7 @@
         <v>214</v>
       </c>
       <c r="U165" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V165" t="s">
         <v>59</v>
@@ -24010,7 +23969,7 @@
         <v>214</v>
       </c>
       <c r="U166" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V166" t="s">
         <v>59</v>
@@ -24096,7 +24055,7 @@
         <v>214</v>
       </c>
       <c r="U167" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V167" t="s">
         <v>59</v>
@@ -24182,7 +24141,7 @@
         <v>214</v>
       </c>
       <c r="U168" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V168" t="s">
         <v>59</v>
@@ -24268,7 +24227,7 @@
         <v>214</v>
       </c>
       <c r="U169" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V169" t="s">
         <v>59</v>
@@ -24354,7 +24313,7 @@
         <v>214</v>
       </c>
       <c r="U170" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V170" t="s">
         <v>59</v>
@@ -24440,7 +24399,7 @@
         <v>214</v>
       </c>
       <c r="U171" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V171" t="s">
         <v>59</v>
@@ -24526,7 +24485,7 @@
         <v>214</v>
       </c>
       <c r="U172" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V172" t="s">
         <v>59</v>
@@ -24612,7 +24571,7 @@
         <v>214</v>
       </c>
       <c r="U173" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V173" t="s">
         <v>59</v>
@@ -24698,7 +24657,7 @@
         <v>214</v>
       </c>
       <c r="U174" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V174" t="s">
         <v>59</v>
@@ -24784,7 +24743,7 @@
         <v>214</v>
       </c>
       <c r="U175" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V175" t="s">
         <v>59</v>
@@ -24870,7 +24829,7 @@
         <v>214</v>
       </c>
       <c r="U176" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V176" t="s">
         <v>59</v>
@@ -24956,7 +24915,7 @@
         <v>214</v>
       </c>
       <c r="U177" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V177" t="s">
         <v>59</v>
@@ -25039,7 +24998,7 @@
         <v>214</v>
       </c>
       <c r="U178" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V178" t="s">
         <v>59</v>
@@ -25125,7 +25084,7 @@
         <v>214</v>
       </c>
       <c r="U179" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V179" t="s">
         <v>59</v>
@@ -25211,7 +25170,7 @@
         <v>214</v>
       </c>
       <c r="U180" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V180" t="s">
         <v>59</v>
@@ -25297,7 +25256,7 @@
         <v>214</v>
       </c>
       <c r="U181" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V181" t="s">
         <v>59</v>
@@ -25383,7 +25342,7 @@
         <v>214</v>
       </c>
       <c r="U182" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V182" t="s">
         <v>59</v>
@@ -25469,7 +25428,7 @@
         <v>214</v>
       </c>
       <c r="U183" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V183" t="s">
         <v>59</v>
@@ -25555,7 +25514,7 @@
         <v>214</v>
       </c>
       <c r="U184" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V184" t="s">
         <v>59</v>
@@ -25641,7 +25600,7 @@
         <v>214</v>
       </c>
       <c r="U185" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V185" t="s">
         <v>59</v>
@@ -25727,7 +25686,7 @@
         <v>214</v>
       </c>
       <c r="U186" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V186" t="s">
         <v>59</v>
@@ -25813,7 +25772,7 @@
         <v>214</v>
       </c>
       <c r="U187" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V187" t="s">
         <v>59</v>
@@ -25899,7 +25858,7 @@
         <v>214</v>
       </c>
       <c r="U188" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V188" t="s">
         <v>59</v>
@@ -25985,7 +25944,7 @@
         <v>214</v>
       </c>
       <c r="U189" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V189" t="s">
         <v>59</v>
@@ -26068,7 +26027,7 @@
         <v>214</v>
       </c>
       <c r="U190" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V190" t="s">
         <v>59</v>
@@ -26154,7 +26113,7 @@
         <v>214</v>
       </c>
       <c r="U191" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V191" t="s">
         <v>59</v>
@@ -26237,7 +26196,7 @@
         <v>214</v>
       </c>
       <c r="U192" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V192" t="s">
         <v>59</v>
@@ -26320,7 +26279,7 @@
         <v>214</v>
       </c>
       <c r="U193" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V193" t="s">
         <v>59</v>
@@ -26406,7 +26365,7 @@
         <v>214</v>
       </c>
       <c r="U194" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V194" t="s">
         <v>59</v>
@@ -26492,7 +26451,7 @@
         <v>214</v>
       </c>
       <c r="U195" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V195" t="s">
         <v>59</v>
@@ -26575,7 +26534,7 @@
         <v>214</v>
       </c>
       <c r="U196" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V196" t="s">
         <v>59</v>
@@ -26658,7 +26617,7 @@
         <v>214</v>
       </c>
       <c r="U197" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V197" t="s">
         <v>59</v>
@@ -26744,7 +26703,7 @@
         <v>214</v>
       </c>
       <c r="U198" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V198" t="s">
         <v>59</v>
@@ -26830,7 +26789,7 @@
         <v>214</v>
       </c>
       <c r="U199" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V199" t="s">
         <v>59</v>
@@ -26913,7 +26872,7 @@
         <v>214</v>
       </c>
       <c r="U200" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V200" t="s">
         <v>59</v>
@@ -26999,7 +26958,7 @@
         <v>214</v>
       </c>
       <c r="U201" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V201" t="s">
         <v>59</v>
@@ -27082,7 +27041,7 @@
         <v>214</v>
       </c>
       <c r="U202" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V202" t="s">
         <v>59</v>
@@ -27168,7 +27127,7 @@
         <v>214</v>
       </c>
       <c r="U203" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V203" t="s">
         <v>59</v>
@@ -27251,7 +27210,7 @@
         <v>214</v>
       </c>
       <c r="U204" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V204" t="s">
         <v>59</v>
@@ -27334,7 +27293,7 @@
         <v>214</v>
       </c>
       <c r="U205" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V205" t="s">
         <v>59</v>
@@ -27417,7 +27376,7 @@
         <v>214</v>
       </c>
       <c r="U206" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V206" t="s">
         <v>59</v>
@@ -27500,7 +27459,7 @@
         <v>214</v>
       </c>
       <c r="U207" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V207" t="s">
         <v>59</v>
@@ -27583,7 +27542,7 @@
         <v>214</v>
       </c>
       <c r="U208" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V208" t="s">
         <v>59</v>
@@ -27666,7 +27625,7 @@
         <v>214</v>
       </c>
       <c r="U209" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V209" t="s">
         <v>59</v>
@@ -27749,7 +27708,7 @@
         <v>214</v>
       </c>
       <c r="U210" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V210" t="s">
         <v>59</v>
@@ -27832,7 +27791,7 @@
         <v>214</v>
       </c>
       <c r="U211" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V211" t="s">
         <v>59</v>
@@ -27915,7 +27874,7 @@
         <v>214</v>
       </c>
       <c r="U212" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V212" t="s">
         <v>59</v>
@@ -28001,7 +27960,7 @@
         <v>214</v>
       </c>
       <c r="U213" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V213" t="s">
         <v>59</v>
@@ -28087,7 +28046,7 @@
         <v>214</v>
       </c>
       <c r="U214" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V214" t="s">
         <v>59</v>
@@ -28173,7 +28132,7 @@
         <v>214</v>
       </c>
       <c r="U215" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V215" t="s">
         <v>59</v>
@@ -28256,7 +28215,7 @@
         <v>214</v>
       </c>
       <c r="U216" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V216" t="s">
         <v>59</v>
@@ -28342,7 +28301,7 @@
         <v>214</v>
       </c>
       <c r="U217" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V217" t="s">
         <v>59</v>
@@ -28425,7 +28384,7 @@
         <v>214</v>
       </c>
       <c r="U218" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V218" t="s">
         <v>59</v>
@@ -28508,7 +28467,7 @@
         <v>214</v>
       </c>
       <c r="U219" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V219" t="s">
         <v>59</v>
@@ -28591,7 +28550,7 @@
         <v>214</v>
       </c>
       <c r="U220" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V220" t="s">
         <v>59</v>
@@ -28674,7 +28633,7 @@
         <v>214</v>
       </c>
       <c r="U221" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V221" t="s">
         <v>59</v>
@@ -28757,7 +28716,7 @@
         <v>214</v>
       </c>
       <c r="U222" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V222" t="s">
         <v>59</v>
@@ -28840,7 +28799,7 @@
         <v>214</v>
       </c>
       <c r="U223" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V223" t="s">
         <v>59</v>
@@ -28923,7 +28882,7 @@
         <v>214</v>
       </c>
       <c r="U224" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V224" t="s">
         <v>59</v>
@@ -29006,7 +28965,7 @@
         <v>214</v>
       </c>
       <c r="U225" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V225" t="s">
         <v>59</v>
@@ -29089,7 +29048,7 @@
         <v>214</v>
       </c>
       <c r="U226" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V226" t="s">
         <v>59</v>
@@ -29175,7 +29134,7 @@
         <v>214</v>
       </c>
       <c r="U227" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V227" t="s">
         <v>59</v>
@@ -29261,7 +29220,7 @@
         <v>214</v>
       </c>
       <c r="U228" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V228" t="s">
         <v>59</v>
@@ -29347,7 +29306,7 @@
         <v>214</v>
       </c>
       <c r="U229" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V229" t="s">
         <v>59</v>
@@ -29430,7 +29389,7 @@
         <v>214</v>
       </c>
       <c r="U230" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V230" t="s">
         <v>59</v>
@@ -29513,7 +29472,7 @@
         <v>214</v>
       </c>
       <c r="U231" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V231" t="s">
         <v>59</v>
@@ -29596,7 +29555,7 @@
         <v>214</v>
       </c>
       <c r="U232" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V232" t="s">
         <v>59</v>
@@ -29679,7 +29638,7 @@
         <v>214</v>
       </c>
       <c r="U233" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V233" t="s">
         <v>59</v>
@@ -29765,7 +29724,7 @@
         <v>214</v>
       </c>
       <c r="U234" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V234" t="s">
         <v>59</v>
@@ -29848,7 +29807,7 @@
         <v>214</v>
       </c>
       <c r="U235" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V235" t="s">
         <v>59</v>
@@ -29934,7 +29893,7 @@
         <v>214</v>
       </c>
       <c r="U236" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V236" t="s">
         <v>59</v>
@@ -30020,7 +29979,7 @@
         <v>214</v>
       </c>
       <c r="U237" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V237" t="s">
         <v>59</v>
@@ -30106,7 +30065,7 @@
         <v>214</v>
       </c>
       <c r="U238" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V238" t="s">
         <v>59</v>
@@ -30192,7 +30151,7 @@
         <v>214</v>
       </c>
       <c r="U239" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V239" t="s">
         <v>59</v>
@@ -30278,7 +30237,7 @@
         <v>214</v>
       </c>
       <c r="U240" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V240" t="s">
         <v>59</v>
@@ -30364,7 +30323,7 @@
         <v>214</v>
       </c>
       <c r="U241" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V241" t="s">
         <v>59</v>
@@ -30450,7 +30409,7 @@
         <v>214</v>
       </c>
       <c r="U242" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V242" t="s">
         <v>59</v>
@@ -30536,7 +30495,7 @@
         <v>214</v>
       </c>
       <c r="U243" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V243" t="s">
         <v>59</v>
@@ -30622,7 +30581,7 @@
         <v>214</v>
       </c>
       <c r="U244" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V244" t="s">
         <v>59</v>

--- a/raw/project_UVP_standardizer.xlsx
+++ b/raw/project_UVP_standardizer.xlsx
@@ -19,7 +19,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -54,6 +54,12 @@
       <sz val="11"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
       <b val="1"/>
     </font>
   </fonts>
@@ -65,12 +71,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -129,7 +150,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -142,6 +163,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -555,227 +579,227 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>Project_ID</t>
         </is>
       </c>
-      <c r="B1" s="5" t="inlineStr">
+      <c r="B1" s="6" t="inlineStr">
         <is>
           <t>Project_source</t>
         </is>
       </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>Project_localpath</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
+      <c r="D1" s="6" t="inlineStr">
         <is>
           <t>Instrument</t>
         </is>
       </c>
-      <c r="E1" s="5" t="inlineStr">
+      <c r="E1" s="6" t="inlineStr">
         <is>
           <t>Cruise_field</t>
         </is>
       </c>
-      <c r="F1" s="5" t="inlineStr">
+      <c r="F1" s="6" t="inlineStr">
         <is>
           <t>Station_field</t>
         </is>
       </c>
-      <c r="G1" s="5" t="inlineStr">
+      <c r="G1" s="6" t="inlineStr">
         <is>
           <t>Profile_field</t>
         </is>
       </c>
-      <c r="H1" s="5" t="inlineStr">
+      <c r="H1" s="6" t="inlineStr">
         <is>
           <t>Sample_field</t>
         </is>
       </c>
-      <c r="I1" s="5" t="inlineStr">
+      <c r="I1" s="6" t="inlineStr">
         <is>
           <t>Latitude_field</t>
         </is>
       </c>
-      <c r="J1" s="5" t="inlineStr">
+      <c r="J1" s="6" t="inlineStr">
         <is>
           <t>Latitude_unit</t>
         </is>
       </c>
-      <c r="K1" s="5" t="inlineStr">
+      <c r="K1" s="6" t="inlineStr">
         <is>
           <t>Longitude_field</t>
         </is>
       </c>
-      <c r="L1" s="5" t="inlineStr">
+      <c r="L1" s="6" t="inlineStr">
         <is>
           <t>Longitude_unit</t>
         </is>
       </c>
-      <c r="M1" s="5" t="inlineStr">
+      <c r="M1" s="6" t="inlineStr">
         <is>
           <t>Depth_min_field</t>
         </is>
       </c>
-      <c r="N1" s="5" t="inlineStr">
+      <c r="N1" s="6" t="inlineStr">
         <is>
           <t>Depth_min_unit</t>
         </is>
       </c>
-      <c r="O1" s="5" t="inlineStr">
+      <c r="O1" s="6" t="inlineStr">
         <is>
           <t>Depth_max_field</t>
         </is>
       </c>
-      <c r="P1" s="5" t="inlineStr">
+      <c r="P1" s="6" t="inlineStr">
         <is>
           <t>Depth_max_unit</t>
         </is>
       </c>
-      <c r="Q1" s="5" t="inlineStr">
+      <c r="Q1" s="6" t="inlineStr">
         <is>
           <t>Sampling_date_field</t>
         </is>
       </c>
-      <c r="R1" s="5" t="inlineStr">
+      <c r="R1" s="6" t="inlineStr">
         <is>
           <t>Sampling_date_format</t>
         </is>
       </c>
-      <c r="S1" s="5" t="inlineStr">
+      <c r="S1" s="6" t="inlineStr">
         <is>
           <t>Sampling_time_field</t>
         </is>
       </c>
-      <c r="T1" s="5" t="inlineStr">
+      <c r="T1" s="6" t="inlineStr">
         <is>
           <t>Sampling_time_format</t>
         </is>
       </c>
-      <c r="U1" s="5" t="inlineStr">
+      <c r="U1" s="6" t="inlineStr">
         <is>
           <t>Volume_analyzed_field</t>
         </is>
       </c>
-      <c r="V1" s="5" t="inlineStr">
+      <c r="V1" s="6" t="inlineStr">
         <is>
           <t>Volume_analyzed_unit</t>
         </is>
       </c>
-      <c r="W1" s="5" t="inlineStr">
+      <c r="W1" s="6" t="inlineStr">
         <is>
           <t>Dilution_field</t>
         </is>
       </c>
-      <c r="X1" s="5" t="inlineStr">
+      <c r="X1" s="6" t="inlineStr">
         <is>
           <t>ROI_field</t>
         </is>
       </c>
-      <c r="Y1" s="5" t="inlineStr">
+      <c r="Y1" s="6" t="inlineStr">
         <is>
           <t>ESD_field</t>
         </is>
       </c>
-      <c r="Z1" s="5" t="inlineStr">
+      <c r="Z1" s="6" t="inlineStr">
         <is>
           <t>ESD_unit</t>
         </is>
       </c>
-      <c r="AA1" s="5" t="inlineStr">
+      <c r="AA1" s="6" t="inlineStr">
         <is>
           <t>Biovolume_field</t>
         </is>
       </c>
-      <c r="AB1" s="5" t="inlineStr">
+      <c r="AB1" s="6" t="inlineStr">
         <is>
           <t>Biovolume_unit</t>
         </is>
       </c>
-      <c r="AC1" s="5" t="inlineStr">
+      <c r="AC1" s="6" t="inlineStr">
         <is>
           <t>Area_field</t>
         </is>
       </c>
-      <c r="AD1" s="5" t="inlineStr">
+      <c r="AD1" s="6" t="inlineStr">
         <is>
           <t>Area_unit</t>
         </is>
       </c>
-      <c r="AE1" s="5" t="inlineStr">
+      <c r="AE1" s="6" t="inlineStr">
         <is>
           <t>Minor_axis_field</t>
         </is>
       </c>
-      <c r="AF1" s="5" t="inlineStr">
+      <c r="AF1" s="6" t="inlineStr">
         <is>
           <t>Minor_axis_unit</t>
         </is>
       </c>
-      <c r="AG1" s="5" t="inlineStr">
+      <c r="AG1" s="6" t="inlineStr">
         <is>
           <t>Pixel_field</t>
         </is>
       </c>
-      <c r="AH1" s="5" t="inlineStr">
+      <c r="AH1" s="6" t="inlineStr">
         <is>
           <t>Pixel_unit</t>
         </is>
       </c>
-      <c r="AI1" s="5" t="inlineStr">
+      <c r="AI1" s="6" t="inlineStr">
         <is>
           <t>Category_field</t>
         </is>
       </c>
-      <c r="AJ1" s="5" t="inlineStr">
+      <c r="AJ1" s="6" t="inlineStr">
         <is>
           <t>Annotation_field</t>
         </is>
       </c>
-      <c r="AK1" s="5" t="inlineStr">
+      <c r="AK1" s="6" t="inlineStr">
         <is>
           <t>Flag_path</t>
         </is>
       </c>
-      <c r="AL1" s="5" t="inlineStr">
+      <c r="AL1" s="6" t="inlineStr">
         <is>
           <t>NA_value</t>
         </is>
       </c>
-      <c r="AM1" s="5" t="inlineStr">
+      <c r="AM1" s="6" t="inlineStr">
         <is>
           <t>External_project</t>
         </is>
       </c>
-      <c r="AN1" s="5" t="inlineStr">
+      <c r="AN1" s="6" t="inlineStr">
         <is>
           <t>Sampling_type_field</t>
         </is>
       </c>
-      <c r="AO1" s="5" t="inlineStr">
+      <c r="AO1" s="6" t="inlineStr">
         <is>
           <t>Sampling_lower_size_field</t>
         </is>
       </c>
-      <c r="AP1" s="5" t="inlineStr">
+      <c r="AP1" s="6" t="inlineStr">
         <is>
           <t>Sampling_lower_size_unit</t>
         </is>
       </c>
-      <c r="AQ1" s="5" t="inlineStr">
+      <c r="AQ1" s="6" t="inlineStr">
         <is>
           <t>Sampling_upper_size_field</t>
         </is>
       </c>
-      <c r="AR1" s="5" t="inlineStr">
+      <c r="AR1" s="6" t="inlineStr">
         <is>
           <t>Sampling_upper_size_unit</t>
         </is>
       </c>
-      <c r="AS1" s="5" t="inlineStr">
+      <c r="AS1" s="6" t="inlineStr">
         <is>
           <t>Sampling_description</t>
         </is>
@@ -54781,236 +54805,236 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS68"/>
+  <dimension ref="A1:AS69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>Project_ID</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="6" t="inlineStr">
         <is>
           <t>Project_source</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>Project_localpath</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" s="6" t="inlineStr">
         <is>
           <t>Instrument</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="E1" s="6" t="inlineStr">
         <is>
           <t>Cruise_field</t>
         </is>
       </c>
-      <c r="F1" s="4" t="inlineStr">
+      <c r="F1" s="6" t="inlineStr">
         <is>
           <t>Station_field</t>
         </is>
       </c>
-      <c r="G1" s="4" t="inlineStr">
+      <c r="G1" s="6" t="inlineStr">
         <is>
           <t>Profile_field</t>
         </is>
       </c>
-      <c r="H1" s="4" t="inlineStr">
+      <c r="H1" s="6" t="inlineStr">
         <is>
           <t>Sample_field</t>
         </is>
       </c>
-      <c r="I1" s="4" t="inlineStr">
+      <c r="I1" s="6" t="inlineStr">
         <is>
           <t>Latitude_field</t>
         </is>
       </c>
-      <c r="J1" s="4" t="inlineStr">
+      <c r="J1" s="6" t="inlineStr">
         <is>
           <t>Latitude_unit</t>
         </is>
       </c>
-      <c r="K1" s="4" t="inlineStr">
+      <c r="K1" s="6" t="inlineStr">
         <is>
           <t>Longitude_field</t>
         </is>
       </c>
-      <c r="L1" s="4" t="inlineStr">
+      <c r="L1" s="6" t="inlineStr">
         <is>
           <t>Longitude_unit</t>
         </is>
       </c>
-      <c r="M1" s="4" t="inlineStr">
+      <c r="M1" s="6" t="inlineStr">
         <is>
           <t>Depth_min_field</t>
         </is>
       </c>
-      <c r="N1" s="4" t="inlineStr">
+      <c r="N1" s="6" t="inlineStr">
         <is>
           <t>Depth_min_unit</t>
         </is>
       </c>
-      <c r="O1" s="4" t="inlineStr">
+      <c r="O1" s="6" t="inlineStr">
         <is>
           <t>Depth_max_field</t>
         </is>
       </c>
-      <c r="P1" s="4" t="inlineStr">
+      <c r="P1" s="6" t="inlineStr">
         <is>
           <t>Depth_max_unit</t>
         </is>
       </c>
-      <c r="Q1" s="4" t="inlineStr">
+      <c r="Q1" s="6" t="inlineStr">
         <is>
           <t>Sampling_date_field</t>
         </is>
       </c>
-      <c r="R1" s="4" t="inlineStr">
+      <c r="R1" s="6" t="inlineStr">
         <is>
           <t>Sampling_date_format</t>
         </is>
       </c>
-      <c r="S1" s="4" t="inlineStr">
+      <c r="S1" s="6" t="inlineStr">
         <is>
           <t>Sampling_time_field</t>
         </is>
       </c>
-      <c r="T1" s="4" t="inlineStr">
+      <c r="T1" s="6" t="inlineStr">
         <is>
           <t>Sampling_time_format</t>
         </is>
       </c>
-      <c r="U1" s="4" t="inlineStr">
+      <c r="U1" s="6" t="inlineStr">
         <is>
           <t>Volume_analyzed_field</t>
         </is>
       </c>
-      <c r="V1" s="4" t="inlineStr">
+      <c r="V1" s="6" t="inlineStr">
         <is>
           <t>Volume_analyzed_unit</t>
         </is>
       </c>
-      <c r="W1" s="4" t="inlineStr">
+      <c r="W1" s="6" t="inlineStr">
         <is>
           <t>Dilution_field</t>
         </is>
       </c>
-      <c r="X1" s="4" t="inlineStr">
+      <c r="X1" s="6" t="inlineStr">
         <is>
           <t>ROI_field</t>
         </is>
       </c>
-      <c r="Y1" s="4" t="inlineStr">
+      <c r="Y1" s="6" t="inlineStr">
         <is>
           <t>ESD_field</t>
         </is>
       </c>
-      <c r="Z1" s="4" t="inlineStr">
+      <c r="Z1" s="6" t="inlineStr">
         <is>
           <t>ESD_unit</t>
         </is>
       </c>
-      <c r="AA1" s="4" t="inlineStr">
+      <c r="AA1" s="6" t="inlineStr">
         <is>
           <t>Biovolume_field</t>
         </is>
       </c>
-      <c r="AB1" s="4" t="inlineStr">
+      <c r="AB1" s="6" t="inlineStr">
         <is>
           <t>Biovolume_unit</t>
         </is>
       </c>
-      <c r="AC1" s="4" t="inlineStr">
+      <c r="AC1" s="6" t="inlineStr">
         <is>
           <t>Area_field</t>
         </is>
       </c>
-      <c r="AD1" s="4" t="inlineStr">
+      <c r="AD1" s="6" t="inlineStr">
         <is>
           <t>Area_unit</t>
         </is>
       </c>
-      <c r="AE1" s="4" t="inlineStr">
+      <c r="AE1" s="6" t="inlineStr">
         <is>
           <t>Minor_axis_field</t>
         </is>
       </c>
-      <c r="AF1" s="4" t="inlineStr">
+      <c r="AF1" s="6" t="inlineStr">
         <is>
           <t>Minor_axis_unit</t>
         </is>
       </c>
-      <c r="AG1" s="4" t="inlineStr">
+      <c r="AG1" s="6" t="inlineStr">
         <is>
           <t>Pixel_field</t>
         </is>
       </c>
-      <c r="AH1" s="4" t="inlineStr">
+      <c r="AH1" s="6" t="inlineStr">
         <is>
           <t>Pixel_unit</t>
         </is>
       </c>
-      <c r="AI1" s="4" t="inlineStr">
+      <c r="AI1" s="6" t="inlineStr">
         <is>
           <t>Category_field</t>
         </is>
       </c>
-      <c r="AJ1" s="4" t="inlineStr">
+      <c r="AJ1" s="6" t="inlineStr">
         <is>
           <t>Annotation_field</t>
         </is>
       </c>
-      <c r="AK1" s="4" t="inlineStr">
+      <c r="AK1" s="6" t="inlineStr">
         <is>
           <t>Flag_path</t>
         </is>
       </c>
-      <c r="AL1" s="4" t="inlineStr">
+      <c r="AL1" s="6" t="inlineStr">
         <is>
           <t>NA_value</t>
         </is>
       </c>
-      <c r="AM1" s="4" t="inlineStr">
+      <c r="AM1" s="6" t="inlineStr">
         <is>
           <t>External_project</t>
         </is>
       </c>
-      <c r="AN1" s="4" t="inlineStr">
+      <c r="AN1" s="6" t="inlineStr">
         <is>
           <t>Sampling_type_field</t>
         </is>
       </c>
-      <c r="AO1" s="4" t="inlineStr">
+      <c r="AO1" s="6" t="inlineStr">
         <is>
           <t>Sampling_lower_size_field</t>
         </is>
       </c>
-      <c r="AP1" s="4" t="inlineStr">
+      <c r="AP1" s="6" t="inlineStr">
         <is>
           <t>Sampling_lower_size_unit</t>
         </is>
       </c>
-      <c r="AQ1" s="4" t="inlineStr">
+      <c r="AQ1" s="6" t="inlineStr">
         <is>
           <t>Sampling_upper_size_field</t>
         </is>
       </c>
-      <c r="AR1" s="4" t="inlineStr">
+      <c r="AR1" s="6" t="inlineStr">
         <is>
           <t>Sampling_upper_size_unit</t>
         </is>
       </c>
-      <c r="AS1" s="4" t="inlineStr">
+      <c r="AS1" s="6" t="inlineStr">
         <is>
           <t>Sampling_description</t>
         </is>
@@ -66987,6 +67011,171 @@
         </is>
       </c>
       <c r="AS68" t="inlineStr">
+        <is>
+          <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>545</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>https://ecotaxa.obs-vlfr.fr/prj/545</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>~/GIT/PSSdb/raw/ecotaxa_ecopart_consolidation</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>UVP</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>sample_cruise</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>sample_stationid</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>sample_profileid</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>sample_id</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>object_lat</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>degree</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>object_lon</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>degree</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>object_corrected_min_depth_bin</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>meter</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>object_corrected_max_depth_bin</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>meter</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>object_time</t>
+        </is>
+      </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>%Y-%m-%d %H:%M:%S</t>
+        </is>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>object_volume_bin</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>cubic_decimeter</t>
+        </is>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>object_id</t>
+        </is>
+      </c>
+      <c r="AC69" t="inlineStr">
+        <is>
+          <t>object_bru_area</t>
+        </is>
+      </c>
+      <c r="AD69" t="inlineStr">
+        <is>
+          <t>square_pixel</t>
+        </is>
+      </c>
+      <c r="AG69" t="inlineStr">
+        <is>
+          <t>process_pixel</t>
+        </is>
+      </c>
+      <c r="AH69" t="inlineStr">
+        <is>
+          <t>millimeter_per_pixel</t>
+        </is>
+      </c>
+      <c r="AI69" t="inlineStr">
+        <is>
+          <t>object_annotation_category</t>
+        </is>
+      </c>
+      <c r="AJ69" t="inlineStr">
+        <is>
+          <t>object_annotation_status</t>
+        </is>
+      </c>
+      <c r="AK69" t="inlineStr">
+        <is>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa_ecopart_consolidation/project_545_flags.csv</t>
+        </is>
+      </c>
+      <c r="AM69" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="AN69" t="inlineStr">
+        <is>
+          <t>acq_instrument</t>
+        </is>
+      </c>
+      <c r="AO69" t="inlineStr">
+        <is>
+          <t>acq_smbase</t>
+        </is>
+      </c>
+      <c r="AP69" t="inlineStr">
+        <is>
+          <t>pixel</t>
+        </is>
+      </c>
+      <c r="AS69" t="inlineStr">
         <is>
           <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
         </is>

--- a/raw/project_UVP_standardizer.xlsx
+++ b/raw/project_UVP_standardizer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicaluo/GIT/PSSdb/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7125E6F3-0FDB-E644-9D1A-827406F3036C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A5D013-913F-F44F-996D-400C7DD4DF15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11720" yWindow="0" windowWidth="26680" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ecotaxa" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13211" uniqueCount="800">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13237" uniqueCount="800">
   <si>
     <t>Project_ID</t>
   </si>
@@ -2859,8 +2859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS79"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87"/>
+    <sheetView topLeftCell="A59" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10840,11 +10840,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AS337"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A260" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B271" sqref="B271"/>
+    <sheetView tabSelected="1" topLeftCell="Y257" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="AH271" sqref="AH271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
@@ -36440,8 +36443,86 @@
       <c r="D271" t="s">
         <v>47</v>
       </c>
+      <c r="E271" t="s">
+        <v>309</v>
+      </c>
+      <c r="F271" t="s">
+        <v>310</v>
+      </c>
+      <c r="G271" t="s">
+        <v>311</v>
+      </c>
+      <c r="H271" t="s">
+        <v>311</v>
+      </c>
+      <c r="I271" t="s">
+        <v>312</v>
+      </c>
+      <c r="J271" t="s">
+        <v>53</v>
+      </c>
+      <c r="K271" t="s">
+        <v>313</v>
+      </c>
+      <c r="L271" t="s">
+        <v>53</v>
+      </c>
+      <c r="M271" t="s">
+        <v>314</v>
+      </c>
+      <c r="N271" t="s">
+        <v>56</v>
+      </c>
+      <c r="O271" t="s">
+        <v>314</v>
+      </c>
+      <c r="P271" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q271" t="s">
+        <v>315</v>
+      </c>
+      <c r="R271" t="s">
+        <v>59</v>
+      </c>
+      <c r="S271" t="s">
+        <v>315</v>
+      </c>
+      <c r="T271" t="s">
+        <v>59</v>
+      </c>
+      <c r="U271" t="s">
+        <v>244</v>
+      </c>
+      <c r="V271" t="s">
+        <v>61</v>
+      </c>
+      <c r="W271" t="s">
+        <v>316</v>
+      </c>
+      <c r="AC271" t="s">
+        <v>317</v>
+      </c>
+      <c r="AD271" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG271" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH271" t="s">
+        <v>66</v>
+      </c>
       <c r="AM271" t="s">
         <v>612</v>
+      </c>
+      <c r="AO271" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP271" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS271" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="272" spans="1:45" x14ac:dyDescent="0.2">

--- a/raw/project_UVP_standardizer.xlsx
+++ b/raw/project_UVP_standardizer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dugennem/GIT/PSSdb/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DCCA119-9DE2-DD4B-84D9-6A0153C7BD6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE4A03A-63A0-934E-A139-823B7508F31C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29300" windowHeight="12880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13669" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13823" uniqueCount="690">
   <si>
     <t>Project_ID</t>
   </si>
@@ -2552,8 +2552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="AI82" sqref="AI82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2765,6 +2765,12 @@
       <c r="AD2" t="s">
         <v>64</v>
       </c>
+      <c r="AE2" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>73</v>
+      </c>
       <c r="AG2" t="s">
         <v>65</v>
       </c>
@@ -2866,6 +2872,12 @@
       <c r="AD3" t="s">
         <v>64</v>
       </c>
+      <c r="AE3" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>73</v>
+      </c>
       <c r="AG3" t="s">
         <v>76</v>
       </c>
@@ -2967,6 +2979,12 @@
       <c r="AD4" t="s">
         <v>64</v>
       </c>
+      <c r="AE4" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>73</v>
+      </c>
       <c r="AG4" t="s">
         <v>65</v>
       </c>
@@ -3068,6 +3086,12 @@
       <c r="AD5" t="s">
         <v>64</v>
       </c>
+      <c r="AE5" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>73</v>
+      </c>
       <c r="AG5" t="s">
         <v>65</v>
       </c>
@@ -3169,6 +3193,12 @@
       <c r="AD6" t="s">
         <v>64</v>
       </c>
+      <c r="AE6" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>73</v>
+      </c>
       <c r="AG6" t="s">
         <v>65</v>
       </c>
@@ -3270,6 +3300,12 @@
       <c r="AD7" t="s">
         <v>64</v>
       </c>
+      <c r="AE7" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>73</v>
+      </c>
       <c r="AG7" t="s">
         <v>65</v>
       </c>
@@ -3371,6 +3407,12 @@
       <c r="AD8" t="s">
         <v>64</v>
       </c>
+      <c r="AE8" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>73</v>
+      </c>
       <c r="AG8" t="s">
         <v>65</v>
       </c>
@@ -3472,6 +3514,12 @@
       <c r="AD9" t="s">
         <v>64</v>
       </c>
+      <c r="AE9" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>73</v>
+      </c>
       <c r="AG9" t="s">
         <v>65</v>
       </c>
@@ -3573,6 +3621,12 @@
       <c r="AD10" t="s">
         <v>64</v>
       </c>
+      <c r="AE10" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>73</v>
+      </c>
       <c r="AG10" t="s">
         <v>65</v>
       </c>
@@ -3674,6 +3728,12 @@
       <c r="AD11" t="s">
         <v>64</v>
       </c>
+      <c r="AE11" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>73</v>
+      </c>
       <c r="AG11" t="s">
         <v>65</v>
       </c>
@@ -3775,6 +3835,12 @@
       <c r="AD12" t="s">
         <v>64</v>
       </c>
+      <c r="AE12" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>73</v>
+      </c>
       <c r="AG12" t="s">
         <v>65</v>
       </c>
@@ -3876,6 +3942,12 @@
       <c r="AD13" t="s">
         <v>64</v>
       </c>
+      <c r="AE13" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>73</v>
+      </c>
       <c r="AG13" t="s">
         <v>65</v>
       </c>
@@ -3977,6 +4049,12 @@
       <c r="AD14" t="s">
         <v>64</v>
       </c>
+      <c r="AE14" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>73</v>
+      </c>
       <c r="AG14" t="s">
         <v>65</v>
       </c>
@@ -4078,6 +4156,12 @@
       <c r="AD15" t="s">
         <v>64</v>
       </c>
+      <c r="AE15" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>73</v>
+      </c>
       <c r="AG15" t="s">
         <v>65</v>
       </c>
@@ -4179,6 +4263,12 @@
       <c r="AD16" t="s">
         <v>64</v>
       </c>
+      <c r="AE16" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>73</v>
+      </c>
       <c r="AG16" t="s">
         <v>65</v>
       </c>
@@ -4280,6 +4370,12 @@
       <c r="AD17" t="s">
         <v>64</v>
       </c>
+      <c r="AE17" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>73</v>
+      </c>
       <c r="AG17" t="s">
         <v>65</v>
       </c>
@@ -4381,6 +4477,12 @@
       <c r="AD18" t="s">
         <v>64</v>
       </c>
+      <c r="AE18" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>73</v>
+      </c>
       <c r="AG18" t="s">
         <v>65</v>
       </c>
@@ -4482,6 +4584,12 @@
       <c r="AD19" t="s">
         <v>64</v>
       </c>
+      <c r="AE19" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>73</v>
+      </c>
       <c r="AG19" t="s">
         <v>65</v>
       </c>
@@ -4583,6 +4691,12 @@
       <c r="AD20" t="s">
         <v>64</v>
       </c>
+      <c r="AE20" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>73</v>
+      </c>
       <c r="AG20" t="s">
         <v>65</v>
       </c>
@@ -4684,6 +4798,12 @@
       <c r="AD21" t="s">
         <v>64</v>
       </c>
+      <c r="AE21" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>73</v>
+      </c>
       <c r="AG21" t="s">
         <v>65</v>
       </c>
@@ -4785,6 +4905,12 @@
       <c r="AD22" t="s">
         <v>64</v>
       </c>
+      <c r="AE22" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>73</v>
+      </c>
       <c r="AG22" t="s">
         <v>65</v>
       </c>
@@ -4886,6 +5012,12 @@
       <c r="AD23" t="s">
         <v>64</v>
       </c>
+      <c r="AE23" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>73</v>
+      </c>
       <c r="AG23" t="s">
         <v>65</v>
       </c>
@@ -4987,6 +5119,12 @@
       <c r="AD24" t="s">
         <v>64</v>
       </c>
+      <c r="AE24" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>73</v>
+      </c>
       <c r="AG24" t="s">
         <v>65</v>
       </c>
@@ -5088,6 +5226,12 @@
       <c r="AD25" t="s">
         <v>64</v>
       </c>
+      <c r="AE25" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>73</v>
+      </c>
       <c r="AG25" t="s">
         <v>65</v>
       </c>
@@ -5189,6 +5333,12 @@
       <c r="AD26" t="s">
         <v>64</v>
       </c>
+      <c r="AE26" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>73</v>
+      </c>
       <c r="AG26" t="s">
         <v>65</v>
       </c>
@@ -5290,6 +5440,12 @@
       <c r="AD27" t="s">
         <v>64</v>
       </c>
+      <c r="AE27" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>73</v>
+      </c>
       <c r="AG27" t="s">
         <v>65</v>
       </c>
@@ -5391,6 +5547,12 @@
       <c r="AD28" t="s">
         <v>64</v>
       </c>
+      <c r="AE28" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>73</v>
+      </c>
       <c r="AG28" t="s">
         <v>65</v>
       </c>
@@ -5492,6 +5654,12 @@
       <c r="AD29" t="s">
         <v>64</v>
       </c>
+      <c r="AE29" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>73</v>
+      </c>
       <c r="AG29" t="s">
         <v>65</v>
       </c>
@@ -5593,6 +5761,12 @@
       <c r="AD30" t="s">
         <v>64</v>
       </c>
+      <c r="AE30" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>73</v>
+      </c>
       <c r="AG30" t="s">
         <v>65</v>
       </c>
@@ -5694,6 +5868,12 @@
       <c r="AD31" t="s">
         <v>64</v>
       </c>
+      <c r="AE31" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>73</v>
+      </c>
       <c r="AG31" t="s">
         <v>65</v>
       </c>
@@ -5795,6 +5975,12 @@
       <c r="AD32" t="s">
         <v>64</v>
       </c>
+      <c r="AE32" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>73</v>
+      </c>
       <c r="AG32" t="s">
         <v>65</v>
       </c>
@@ -5896,6 +6082,12 @@
       <c r="AD33" t="s">
         <v>64</v>
       </c>
+      <c r="AE33" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>73</v>
+      </c>
       <c r="AG33" t="s">
         <v>65</v>
       </c>
@@ -5997,6 +6189,12 @@
       <c r="AD34" t="s">
         <v>64</v>
       </c>
+      <c r="AE34" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>73</v>
+      </c>
       <c r="AG34" t="s">
         <v>65</v>
       </c>
@@ -6098,6 +6296,12 @@
       <c r="AD35" t="s">
         <v>64</v>
       </c>
+      <c r="AE35" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>73</v>
+      </c>
       <c r="AG35" t="s">
         <v>65</v>
       </c>
@@ -6199,6 +6403,12 @@
       <c r="AD36" t="s">
         <v>64</v>
       </c>
+      <c r="AE36" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>73</v>
+      </c>
       <c r="AG36" t="s">
         <v>65</v>
       </c>
@@ -6300,6 +6510,12 @@
       <c r="AD37" t="s">
         <v>64</v>
       </c>
+      <c r="AE37" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>73</v>
+      </c>
       <c r="AG37" t="s">
         <v>65</v>
       </c>
@@ -6401,6 +6617,12 @@
       <c r="AD38" t="s">
         <v>64</v>
       </c>
+      <c r="AE38" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>73</v>
+      </c>
       <c r="AG38" t="s">
         <v>65</v>
       </c>
@@ -6502,6 +6724,12 @@
       <c r="AD39" t="s">
         <v>64</v>
       </c>
+      <c r="AE39" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>73</v>
+      </c>
       <c r="AG39" t="s">
         <v>65</v>
       </c>
@@ -6603,6 +6831,12 @@
       <c r="AD40" t="s">
         <v>64</v>
       </c>
+      <c r="AE40" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>73</v>
+      </c>
       <c r="AG40" t="s">
         <v>65</v>
       </c>
@@ -6704,6 +6938,12 @@
       <c r="AD41" t="s">
         <v>64</v>
       </c>
+      <c r="AE41" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>73</v>
+      </c>
       <c r="AG41" t="s">
         <v>65</v>
       </c>
@@ -6805,6 +7045,12 @@
       <c r="AD42" t="s">
         <v>64</v>
       </c>
+      <c r="AE42" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>73</v>
+      </c>
       <c r="AG42" t="s">
         <v>65</v>
       </c>
@@ -6906,6 +7152,12 @@
       <c r="AD43" t="s">
         <v>64</v>
       </c>
+      <c r="AE43" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>73</v>
+      </c>
       <c r="AG43" t="s">
         <v>65</v>
       </c>
@@ -7007,6 +7259,12 @@
       <c r="AD44" t="s">
         <v>64</v>
       </c>
+      <c r="AE44" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>73</v>
+      </c>
       <c r="AG44" t="s">
         <v>65</v>
       </c>
@@ -7108,6 +7366,12 @@
       <c r="AD45" t="s">
         <v>64</v>
       </c>
+      <c r="AE45" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>73</v>
+      </c>
       <c r="AG45" t="s">
         <v>65</v>
       </c>
@@ -7209,6 +7473,12 @@
       <c r="AD46" t="s">
         <v>64</v>
       </c>
+      <c r="AE46" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>73</v>
+      </c>
       <c r="AG46" t="s">
         <v>65</v>
       </c>
@@ -7310,6 +7580,12 @@
       <c r="AD47" t="s">
         <v>64</v>
       </c>
+      <c r="AE47" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>73</v>
+      </c>
       <c r="AG47" t="s">
         <v>65</v>
       </c>
@@ -7411,6 +7687,12 @@
       <c r="AD48" t="s">
         <v>64</v>
       </c>
+      <c r="AE48" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>73</v>
+      </c>
       <c r="AG48" t="s">
         <v>65</v>
       </c>
@@ -7512,6 +7794,12 @@
       <c r="AD49" t="s">
         <v>64</v>
       </c>
+      <c r="AE49" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>73</v>
+      </c>
       <c r="AG49" t="s">
         <v>65</v>
       </c>
@@ -7613,6 +7901,12 @@
       <c r="AD50" t="s">
         <v>64</v>
       </c>
+      <c r="AE50" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF50" t="s">
+        <v>73</v>
+      </c>
       <c r="AG50" t="s">
         <v>65</v>
       </c>
@@ -7714,6 +8008,12 @@
       <c r="AD51" t="s">
         <v>64</v>
       </c>
+      <c r="AE51" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF51" t="s">
+        <v>73</v>
+      </c>
       <c r="AG51" t="s">
         <v>76</v>
       </c>
@@ -7815,6 +8115,12 @@
       <c r="AD52" t="s">
         <v>64</v>
       </c>
+      <c r="AE52" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>73</v>
+      </c>
       <c r="AG52" t="s">
         <v>76</v>
       </c>
@@ -7916,6 +8222,12 @@
       <c r="AD53" t="s">
         <v>64</v>
       </c>
+      <c r="AE53" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF53" t="s">
+        <v>73</v>
+      </c>
       <c r="AG53" t="s">
         <v>65</v>
       </c>
@@ -8011,6 +8323,12 @@
       <c r="AD54" t="s">
         <v>64</v>
       </c>
+      <c r="AE54" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF54" t="s">
+        <v>73</v>
+      </c>
       <c r="AG54" t="s">
         <v>76</v>
       </c>
@@ -8112,6 +8430,12 @@
       <c r="AD55" t="s">
         <v>64</v>
       </c>
+      <c r="AE55" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF55" t="s">
+        <v>73</v>
+      </c>
       <c r="AG55" t="s">
         <v>76</v>
       </c>
@@ -8317,6 +8641,12 @@
       <c r="AD57" t="s">
         <v>64</v>
       </c>
+      <c r="AE57" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF57" t="s">
+        <v>73</v>
+      </c>
       <c r="AG57" t="s">
         <v>76</v>
       </c>
@@ -8418,6 +8748,12 @@
       <c r="AD58" t="s">
         <v>64</v>
       </c>
+      <c r="AE58" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF58" t="s">
+        <v>73</v>
+      </c>
       <c r="AG58" t="s">
         <v>65</v>
       </c>
@@ -8513,6 +8849,12 @@
       <c r="AD59" t="s">
         <v>64</v>
       </c>
+      <c r="AE59" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF59" t="s">
+        <v>73</v>
+      </c>
       <c r="AG59" t="s">
         <v>65</v>
       </c>
@@ -8608,6 +8950,12 @@
       <c r="AD60" t="s">
         <v>64</v>
       </c>
+      <c r="AE60" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF60" t="s">
+        <v>73</v>
+      </c>
       <c r="AG60" t="s">
         <v>65</v>
       </c>
@@ -8709,6 +9057,12 @@
       <c r="AD61" t="s">
         <v>64</v>
       </c>
+      <c r="AE61" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF61" t="s">
+        <v>73</v>
+      </c>
       <c r="AG61" t="s">
         <v>76</v>
       </c>
@@ -8810,6 +9164,12 @@
       <c r="AD62" t="s">
         <v>64</v>
       </c>
+      <c r="AE62" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF62" t="s">
+        <v>73</v>
+      </c>
       <c r="AG62" t="s">
         <v>65</v>
       </c>
@@ -8911,6 +9271,12 @@
       <c r="AD63" t="s">
         <v>64</v>
       </c>
+      <c r="AE63" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF63" t="s">
+        <v>73</v>
+      </c>
       <c r="AG63" t="s">
         <v>65</v>
       </c>
@@ -9012,6 +9378,12 @@
       <c r="AD64" t="s">
         <v>64</v>
       </c>
+      <c r="AE64" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF64" t="s">
+        <v>73</v>
+      </c>
       <c r="AG64" t="s">
         <v>76</v>
       </c>
@@ -9113,6 +9485,12 @@
       <c r="AD65" t="s">
         <v>64</v>
       </c>
+      <c r="AE65" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF65" t="s">
+        <v>73</v>
+      </c>
       <c r="AG65" t="s">
         <v>65</v>
       </c>
@@ -9208,6 +9586,12 @@
       <c r="AD66" t="s">
         <v>64</v>
       </c>
+      <c r="AE66" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF66" t="s">
+        <v>73</v>
+      </c>
       <c r="AG66" t="s">
         <v>65</v>
       </c>
@@ -9303,6 +9687,12 @@
       <c r="AD67" t="s">
         <v>64</v>
       </c>
+      <c r="AE67" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF67" t="s">
+        <v>73</v>
+      </c>
       <c r="AG67" t="s">
         <v>65</v>
       </c>
@@ -9398,6 +9788,12 @@
       <c r="AD68" t="s">
         <v>64</v>
       </c>
+      <c r="AE68" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF68" t="s">
+        <v>73</v>
+      </c>
       <c r="AG68" t="s">
         <v>76</v>
       </c>
@@ -9499,6 +9895,12 @@
       <c r="AD69" t="s">
         <v>64</v>
       </c>
+      <c r="AE69" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF69" t="s">
+        <v>73</v>
+      </c>
       <c r="AG69" t="s">
         <v>76</v>
       </c>
@@ -9600,6 +10002,12 @@
       <c r="AD70" t="s">
         <v>64</v>
       </c>
+      <c r="AE70" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF70" t="s">
+        <v>73</v>
+      </c>
       <c r="AG70" t="s">
         <v>76</v>
       </c>
@@ -9701,6 +10109,12 @@
       <c r="AD71" t="s">
         <v>64</v>
       </c>
+      <c r="AE71" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF71" t="s">
+        <v>73</v>
+      </c>
       <c r="AG71" t="s">
         <v>76</v>
       </c>
@@ -9802,6 +10216,12 @@
       <c r="AD72" t="s">
         <v>64</v>
       </c>
+      <c r="AE72" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF72" t="s">
+        <v>73</v>
+      </c>
       <c r="AG72" t="s">
         <v>76</v>
       </c>
@@ -9903,6 +10323,12 @@
       <c r="AD73" t="s">
         <v>64</v>
       </c>
+      <c r="AE73" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF73" t="s">
+        <v>73</v>
+      </c>
       <c r="AG73" t="s">
         <v>76</v>
       </c>
@@ -10004,6 +10430,12 @@
       <c r="AD74" t="s">
         <v>64</v>
       </c>
+      <c r="AE74" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF74" t="s">
+        <v>73</v>
+      </c>
       <c r="AG74" t="s">
         <v>76</v>
       </c>
@@ -10105,6 +10537,12 @@
       <c r="AD75" t="s">
         <v>64</v>
       </c>
+      <c r="AE75" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF75" t="s">
+        <v>73</v>
+      </c>
       <c r="AG75" t="s">
         <v>76</v>
       </c>
@@ -10206,6 +10644,12 @@
       <c r="AD76" t="s">
         <v>64</v>
       </c>
+      <c r="AE76" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF76" t="s">
+        <v>73</v>
+      </c>
       <c r="AG76" t="s">
         <v>76</v>
       </c>
@@ -10307,6 +10751,12 @@
       <c r="AD77" t="s">
         <v>64</v>
       </c>
+      <c r="AE77" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF77" t="s">
+        <v>73</v>
+      </c>
       <c r="AG77" t="s">
         <v>76</v>
       </c>
@@ -10408,6 +10858,12 @@
       <c r="AD78" t="s">
         <v>64</v>
       </c>
+      <c r="AE78" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF78" t="s">
+        <v>73</v>
+      </c>
       <c r="AG78" t="s">
         <v>76</v>
       </c>
@@ -10508,6 +10964,12 @@
       </c>
       <c r="AD79" t="s">
         <v>64</v>
+      </c>
+      <c r="AE79" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF79" t="s">
+        <v>73</v>
       </c>
       <c r="AG79" t="s">
         <v>76</v>
@@ -37730,7 +38192,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AS80"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="P57" workbookViewId="0">
+      <selection activeCell="AE70" sqref="AE70:AF70"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>

--- a/raw/project_UVP_standardizer.xlsx
+++ b/raw/project_UVP_standardizer.xlsx
@@ -19,7 +19,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -54,6 +54,11 @@
       <sz val="11"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
       <b val="1"/>
     </font>
   </fonts>
@@ -65,12 +70,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -129,7 +149,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -142,6 +162,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -555,227 +578,227 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>Project_ID</t>
         </is>
       </c>
-      <c r="B1" s="5" t="inlineStr">
+      <c r="B1" s="6" t="inlineStr">
         <is>
           <t>Project_source</t>
         </is>
       </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>Project_localpath</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
+      <c r="D1" s="6" t="inlineStr">
         <is>
           <t>Instrument</t>
         </is>
       </c>
-      <c r="E1" s="5" t="inlineStr">
+      <c r="E1" s="6" t="inlineStr">
         <is>
           <t>Cruise_field</t>
         </is>
       </c>
-      <c r="F1" s="5" t="inlineStr">
+      <c r="F1" s="6" t="inlineStr">
         <is>
           <t>Station_field</t>
         </is>
       </c>
-      <c r="G1" s="5" t="inlineStr">
+      <c r="G1" s="6" t="inlineStr">
         <is>
           <t>Profile_field</t>
         </is>
       </c>
-      <c r="H1" s="5" t="inlineStr">
+      <c r="H1" s="6" t="inlineStr">
         <is>
           <t>Sample_field</t>
         </is>
       </c>
-      <c r="I1" s="5" t="inlineStr">
+      <c r="I1" s="6" t="inlineStr">
         <is>
           <t>Latitude_field</t>
         </is>
       </c>
-      <c r="J1" s="5" t="inlineStr">
+      <c r="J1" s="6" t="inlineStr">
         <is>
           <t>Latitude_unit</t>
         </is>
       </c>
-      <c r="K1" s="5" t="inlineStr">
+      <c r="K1" s="6" t="inlineStr">
         <is>
           <t>Longitude_field</t>
         </is>
       </c>
-      <c r="L1" s="5" t="inlineStr">
+      <c r="L1" s="6" t="inlineStr">
         <is>
           <t>Longitude_unit</t>
         </is>
       </c>
-      <c r="M1" s="5" t="inlineStr">
+      <c r="M1" s="6" t="inlineStr">
         <is>
           <t>Depth_min_field</t>
         </is>
       </c>
-      <c r="N1" s="5" t="inlineStr">
+      <c r="N1" s="6" t="inlineStr">
         <is>
           <t>Depth_min_unit</t>
         </is>
       </c>
-      <c r="O1" s="5" t="inlineStr">
+      <c r="O1" s="6" t="inlineStr">
         <is>
           <t>Depth_max_field</t>
         </is>
       </c>
-      <c r="P1" s="5" t="inlineStr">
+      <c r="P1" s="6" t="inlineStr">
         <is>
           <t>Depth_max_unit</t>
         </is>
       </c>
-      <c r="Q1" s="5" t="inlineStr">
+      <c r="Q1" s="6" t="inlineStr">
         <is>
           <t>Sampling_date_field</t>
         </is>
       </c>
-      <c r="R1" s="5" t="inlineStr">
+      <c r="R1" s="6" t="inlineStr">
         <is>
           <t>Sampling_date_format</t>
         </is>
       </c>
-      <c r="S1" s="5" t="inlineStr">
+      <c r="S1" s="6" t="inlineStr">
         <is>
           <t>Sampling_time_field</t>
         </is>
       </c>
-      <c r="T1" s="5" t="inlineStr">
+      <c r="T1" s="6" t="inlineStr">
         <is>
           <t>Sampling_time_format</t>
         </is>
       </c>
-      <c r="U1" s="5" t="inlineStr">
+      <c r="U1" s="6" t="inlineStr">
         <is>
           <t>Volume_analyzed_field</t>
         </is>
       </c>
-      <c r="V1" s="5" t="inlineStr">
+      <c r="V1" s="6" t="inlineStr">
         <is>
           <t>Volume_analyzed_unit</t>
         </is>
       </c>
-      <c r="W1" s="5" t="inlineStr">
+      <c r="W1" s="6" t="inlineStr">
         <is>
           <t>Dilution_field</t>
         </is>
       </c>
-      <c r="X1" s="5" t="inlineStr">
+      <c r="X1" s="6" t="inlineStr">
         <is>
           <t>ROI_field</t>
         </is>
       </c>
-      <c r="Y1" s="5" t="inlineStr">
+      <c r="Y1" s="6" t="inlineStr">
         <is>
           <t>ESD_field</t>
         </is>
       </c>
-      <c r="Z1" s="5" t="inlineStr">
+      <c r="Z1" s="6" t="inlineStr">
         <is>
           <t>ESD_unit</t>
         </is>
       </c>
-      <c r="AA1" s="5" t="inlineStr">
+      <c r="AA1" s="6" t="inlineStr">
         <is>
           <t>Biovolume_field</t>
         </is>
       </c>
-      <c r="AB1" s="5" t="inlineStr">
+      <c r="AB1" s="6" t="inlineStr">
         <is>
           <t>Biovolume_unit</t>
         </is>
       </c>
-      <c r="AC1" s="5" t="inlineStr">
+      <c r="AC1" s="6" t="inlineStr">
         <is>
           <t>Area_field</t>
         </is>
       </c>
-      <c r="AD1" s="5" t="inlineStr">
+      <c r="AD1" s="6" t="inlineStr">
         <is>
           <t>Area_unit</t>
         </is>
       </c>
-      <c r="AE1" s="5" t="inlineStr">
+      <c r="AE1" s="6" t="inlineStr">
         <is>
           <t>Minor_axis_field</t>
         </is>
       </c>
-      <c r="AF1" s="5" t="inlineStr">
+      <c r="AF1" s="6" t="inlineStr">
         <is>
           <t>Minor_axis_unit</t>
         </is>
       </c>
-      <c r="AG1" s="5" t="inlineStr">
+      <c r="AG1" s="6" t="inlineStr">
         <is>
           <t>Pixel_field</t>
         </is>
       </c>
-      <c r="AH1" s="5" t="inlineStr">
+      <c r="AH1" s="6" t="inlineStr">
         <is>
           <t>Pixel_unit</t>
         </is>
       </c>
-      <c r="AI1" s="5" t="inlineStr">
+      <c r="AI1" s="6" t="inlineStr">
         <is>
           <t>Category_field</t>
         </is>
       </c>
-      <c r="AJ1" s="5" t="inlineStr">
+      <c r="AJ1" s="6" t="inlineStr">
         <is>
           <t>Annotation_field</t>
         </is>
       </c>
-      <c r="AK1" s="5" t="inlineStr">
+      <c r="AK1" s="6" t="inlineStr">
         <is>
           <t>Flag_path</t>
         </is>
       </c>
-      <c r="AL1" s="5" t="inlineStr">
+      <c r="AL1" s="6" t="inlineStr">
         <is>
           <t>NA_value</t>
         </is>
       </c>
-      <c r="AM1" s="5" t="inlineStr">
+      <c r="AM1" s="6" t="inlineStr">
         <is>
           <t>External_project</t>
         </is>
       </c>
-      <c r="AN1" s="5" t="inlineStr">
+      <c r="AN1" s="6" t="inlineStr">
         <is>
           <t>Sampling_type_field</t>
         </is>
       </c>
-      <c r="AO1" s="5" t="inlineStr">
+      <c r="AO1" s="6" t="inlineStr">
         <is>
           <t>Sampling_lower_size_field</t>
         </is>
       </c>
-      <c r="AP1" s="5" t="inlineStr">
+      <c r="AP1" s="6" t="inlineStr">
         <is>
           <t>Sampling_lower_size_unit</t>
         </is>
       </c>
-      <c r="AQ1" s="5" t="inlineStr">
+      <c r="AQ1" s="6" t="inlineStr">
         <is>
           <t>Sampling_upper_size_field</t>
         </is>
       </c>
-      <c r="AR1" s="5" t="inlineStr">
+      <c r="AR1" s="6" t="inlineStr">
         <is>
           <t>Sampling_upper_size_unit</t>
         </is>
       </c>
-      <c r="AS1" s="5" t="inlineStr">
+      <c r="AS1" s="6" t="inlineStr">
         <is>
           <t>Sampling_description</t>
         </is>
@@ -10757,16 +10780,16 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>4591</v>
+        <v>4028</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://ecotaxa.obs-vlfr.fr/prj/4591</t>
+          <t>https://ecotaxa.obs-vlfr.fr/prj/4028</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>~/GIT/PSSdb/raw/ecotaxa</t>
+          <t>~/GIT/PSSdb/raw/ecotaxa_ecopart_consolidation</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -10816,7 +10839,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>object_depth_min</t>
+          <t>object_corrected_min_depth_bin</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -10826,7 +10849,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>object_depth_max</t>
+          <t>object_corrected_max_depth_bin</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
@@ -10834,16 +10857,8 @@
           <t>meter</t>
         </is>
       </c>
-      <c r="Q56" t="inlineStr">
-        <is>
-          <t>object_date</t>
-        </is>
-      </c>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>%Y%m%d</t>
-        </is>
-      </c>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
       <c r="S56" t="inlineStr">
         <is>
           <t>object_time</t>
@@ -10851,12 +10866,12 @@
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>%H%M%S</t>
+          <t>%Y-%m-%d %H:%M:%S</t>
         </is>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>acq_volimage</t>
+          <t>object_volume_bin</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
@@ -10876,7 +10891,7 @@
       <c r="AB56" t="inlineStr"/>
       <c r="AC56" t="inlineStr">
         <is>
-          <t>object_area</t>
+          <t>object_bru_area</t>
         </is>
       </c>
       <c r="AD56" t="inlineStr">
@@ -10916,11 +10931,15 @@
       </c>
       <c r="AK56" t="inlineStr">
         <is>
-          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_4591_flags.csv</t>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa_ecopart_consolidation/project_4028_flags.csv</t>
         </is>
       </c>
       <c r="AL56" t="inlineStr"/>
-      <c r="AM56" t="inlineStr"/>
+      <c r="AM56" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
       <c r="AN56" t="inlineStr">
         <is>
           <t>acq_instrument</t>
@@ -10928,29 +10947,29 @@
       </c>
       <c r="AO56" t="inlineStr">
         <is>
-          <t>acq_smzoo</t>
+          <t>acq_smbase</t>
         </is>
       </c>
       <c r="AP56" t="inlineStr">
         <is>
-          <t>micrometer</t>
+          <t>pixel</t>
         </is>
       </c>
       <c r="AQ56" t="inlineStr"/>
       <c r="AR56" t="inlineStr"/>
       <c r="AS56" t="inlineStr">
         <is>
-          <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};depth_offset:{field:process_depth_offset};first_image:{field:process_first_image};last_image:{field:process_last_image};profiling_mode:{field:organizedbydepth}</t>
+          <t>platform:glider;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};depth_offset:{field:process_depth_offset};first_image:{field:process_first_image};last_image:{field:process_last_image};profiling_mode:{field:organizedbydepth}</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>4661</v>
+        <v>4041</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://ecotaxa.obs-vlfr.fr/prj/4661</t>
+          <t>https://ecotaxa.obs-vlfr.fr/prj/4041</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -11097,13 +11116,13 @@
       </c>
       <c r="AK57" t="inlineStr">
         <is>
-          <t>~/GIT/PSSdb/raw/flags/ecotaxa_ecopart_consolidation/project_4661_flags.csv</t>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa_ecopart_consolidation/project_4041_flags.csv</t>
         </is>
       </c>
       <c r="AL57" t="inlineStr"/>
       <c r="AM57" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>303</t>
         </is>
       </c>
       <c r="AN57" t="inlineStr">
@@ -11125,17 +11144,17 @@
       <c r="AR57" t="inlineStr"/>
       <c r="AS57" t="inlineStr">
         <is>
-          <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};depth_offset:{field:process_depth_offset};first_image:{field:process_first_image};last_image:{field:process_last_image};profiling_mode:{field:organizedbydepth}</t>
+          <t>platform:glider;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};depth_offset:{field:process_depth_offset};first_image:{field:process_first_image};last_image:{field:process_last_image};profiling_mode:{field:organizedbydepth}</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>5197</v>
+        <v>4065</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://ecotaxa.obs-vlfr.fr/prj/5197</t>
+          <t>https://ecotaxa.obs-vlfr.fr/prj/4065</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -11262,7 +11281,7 @@
       </c>
       <c r="AG58" t="inlineStr">
         <is>
-          <t>process_pixel</t>
+          <t>acq_pixel</t>
         </is>
       </c>
       <c r="AH58" t="inlineStr">
@@ -11270,17 +11289,25 @@
           <t>millimeter_per_pixel</t>
         </is>
       </c>
-      <c r="AI58" t="inlineStr"/>
-      <c r="AJ58" t="inlineStr"/>
+      <c r="AI58" t="inlineStr">
+        <is>
+          <t>object_annotation_category</t>
+        </is>
+      </c>
+      <c r="AJ58" t="inlineStr">
+        <is>
+          <t>object_annotation_status</t>
+        </is>
+      </c>
       <c r="AK58" t="inlineStr">
         <is>
-          <t>~/GIT/PSSdb/raw/flags/ecotaxa_ecopart_consolidation/project_5197_flags.csv</t>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa_ecopart_consolidation/project_4065_flags.csv</t>
         </is>
       </c>
       <c r="AL58" t="inlineStr"/>
       <c r="AM58" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>308</t>
         </is>
       </c>
       <c r="AN58" t="inlineStr">
@@ -11302,17 +11329,17 @@
       <c r="AR58" t="inlineStr"/>
       <c r="AS58" t="inlineStr">
         <is>
-          <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};depth_offset:{field:process_depth_offset};first_image:{field:process_first_image};last_image:{field:process_last_image};profiling_mode:{field:organizedbydepth}</t>
+          <t>platform:glider;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};depth_offset:{field:process_depth_offset};first_image:{field:process_first_image};last_image:{field:process_last_image};profiling_mode:{field:organizedbydepth}</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>5208</v>
+        <v>4171</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://ecotaxa.obs-vlfr.fr/prj/5208</t>
+          <t>https://ecotaxa.obs-vlfr.fr/prj/4171</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -11439,7 +11466,7 @@
       </c>
       <c r="AG59" t="inlineStr">
         <is>
-          <t>process_pixel</t>
+          <t>acq_pixel</t>
         </is>
       </c>
       <c r="AH59" t="inlineStr">
@@ -11447,17 +11474,25 @@
           <t>millimeter_per_pixel</t>
         </is>
       </c>
-      <c r="AI59" t="inlineStr"/>
-      <c r="AJ59" t="inlineStr"/>
+      <c r="AI59" t="inlineStr">
+        <is>
+          <t>object_annotation_category</t>
+        </is>
+      </c>
+      <c r="AJ59" t="inlineStr">
+        <is>
+          <t>object_annotation_status</t>
+        </is>
+      </c>
       <c r="AK59" t="inlineStr">
         <is>
-          <t>~/GIT/PSSdb/raw/flags/ecotaxa_ecopart_consolidation/project_5208_flags.csv</t>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa_ecopart_consolidation/project_4171_flags.csv</t>
         </is>
       </c>
       <c r="AL59" t="inlineStr"/>
       <c r="AM59" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>311</t>
         </is>
       </c>
       <c r="AN59" t="inlineStr">
@@ -11479,17 +11514,17 @@
       <c r="AR59" t="inlineStr"/>
       <c r="AS59" t="inlineStr">
         <is>
-          <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};depth_offset:{field:process_depth_offset};first_image:{field:process_first_image};last_image:{field:process_last_image};profiling_mode:{field:organizedbydepth}</t>
+          <t>platform:glider;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};depth_offset:{field:process_depth_offset};first_image:{field:process_first_image};last_image:{field:process_last_image};profiling_mode:{field:organizedbydepth}</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>5254</v>
+        <v>4211</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://ecotaxa.obs-vlfr.fr/prj/5254</t>
+          <t>https://ecotaxa.obs-vlfr.fr/prj/4211</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -11616,7 +11651,7 @@
       </c>
       <c r="AG60" t="inlineStr">
         <is>
-          <t>process_pixel</t>
+          <t>acq_pixel</t>
         </is>
       </c>
       <c r="AH60" t="inlineStr">
@@ -11636,13 +11671,13 @@
       </c>
       <c r="AK60" t="inlineStr">
         <is>
-          <t>~/GIT/PSSdb/raw/flags/ecotaxa_ecopart_consolidation/project_5254_flags.csv</t>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa_ecopart_consolidation/project_4211_flags.csv</t>
         </is>
       </c>
       <c r="AL60" t="inlineStr"/>
       <c r="AM60" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>328</t>
         </is>
       </c>
       <c r="AN60" t="inlineStr">
@@ -11664,17 +11699,17 @@
       <c r="AR60" t="inlineStr"/>
       <c r="AS60" t="inlineStr">
         <is>
-          <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};depth_offset:{field:process_depth_offset};first_image:{field:process_first_image};last_image:{field:process_last_image};profiling_mode:{field:organizedbydepth}</t>
+          <t>platform:glider;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};depth_offset:{field:process_depth_offset};first_image:{field:process_first_image};last_image:{field:process_last_image};profiling_mode:{field:organizedbydepth}</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>5680</v>
+        <v>4282</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>https://ecotaxa.obs-vlfr.fr/prj/5680</t>
+          <t>https://ecotaxa.obs-vlfr.fr/prj/4282</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -11806,7 +11841,7 @@
       </c>
       <c r="AH61" t="inlineStr">
         <is>
-          <t>micron_per_pixel</t>
+          <t>millimeter_per_pixel</t>
         </is>
       </c>
       <c r="AI61" t="inlineStr">
@@ -11821,13 +11856,13 @@
       </c>
       <c r="AK61" t="inlineStr">
         <is>
-          <t>~/GIT/PSSdb/raw/flags/ecotaxa_ecopart_consolidation/project_5680_flags.csv</t>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa_ecopart_consolidation/project_4282_flags.csv</t>
         </is>
       </c>
       <c r="AL61" t="inlineStr"/>
       <c r="AM61" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>332</t>
         </is>
       </c>
       <c r="AN61" t="inlineStr">
@@ -11849,17 +11884,17 @@
       <c r="AR61" t="inlineStr"/>
       <c r="AS61" t="inlineStr">
         <is>
-          <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};depth_offset:{field:process_depth_offset};first_image:{field:process_first_image};last_image:{field:process_last_image};profiling_mode:{field:organizedbydepth}</t>
+          <t>platform:glider;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};depth_offset:{field:process_depth_offset};first_image:{field:process_first_image};last_image:{field:process_last_image};profiling_mode:{field:organizedbydepth}</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>5690</v>
+        <v>4360</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://ecotaxa.obs-vlfr.fr/prj/5690</t>
+          <t>https://ecotaxa.obs-vlfr.fr/prj/4360</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -11986,7 +12021,7 @@
       </c>
       <c r="AG62" t="inlineStr">
         <is>
-          <t>process_pixel</t>
+          <t>acq_pixel</t>
         </is>
       </c>
       <c r="AH62" t="inlineStr">
@@ -12006,13 +12041,13 @@
       </c>
       <c r="AK62" t="inlineStr">
         <is>
-          <t>~/GIT/PSSdb/raw/flags/ecotaxa_ecopart_consolidation/project_5690_flags.csv</t>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa_ecopart_consolidation/project_4360_flags.csv</t>
         </is>
       </c>
       <c r="AL62" t="inlineStr"/>
       <c r="AM62" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>343</t>
         </is>
       </c>
       <c r="AN62" t="inlineStr">
@@ -12034,17 +12069,17 @@
       <c r="AR62" t="inlineStr"/>
       <c r="AS62" t="inlineStr">
         <is>
-          <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};depth_offset:{field:process_depth_offset};first_image:{field:process_first_image};last_image:{field:process_last_image};profiling_mode:{field:organizedbydepth}</t>
+          <t>platform:glider;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};depth_offset:{field:process_depth_offset};first_image:{field:process_first_image};last_image:{field:process_last_image};profiling_mode:{field:organizedbydepth}</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>5693</v>
+        <v>4448</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://ecotaxa.obs-vlfr.fr/prj/5693</t>
+          <t>https://ecotaxa.obs-vlfr.fr/prj/4448</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -12171,7 +12206,7 @@
       </c>
       <c r="AG63" t="inlineStr">
         <is>
-          <t>process_pixel</t>
+          <t>acq_pixel</t>
         </is>
       </c>
       <c r="AH63" t="inlineStr">
@@ -12191,13 +12226,13 @@
       </c>
       <c r="AK63" t="inlineStr">
         <is>
-          <t>~/GIT/PSSdb/raw/flags/ecotaxa_ecopart_consolidation/project_5693_flags.csv</t>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa_ecopart_consolidation/project_4448_flags.csv</t>
         </is>
       </c>
       <c r="AL63" t="inlineStr"/>
       <c r="AM63" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>347</t>
         </is>
       </c>
       <c r="AN63" t="inlineStr">
@@ -12219,17 +12254,17 @@
       <c r="AR63" t="inlineStr"/>
       <c r="AS63" t="inlineStr">
         <is>
-          <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};depth_offset:{field:process_depth_offset};first_image:{field:process_first_image};last_image:{field:process_last_image};profiling_mode:{field:organizedbydepth}</t>
+          <t>platform:glider;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};depth_offset:{field:process_depth_offset};first_image:{field:process_first_image};last_image:{field:process_last_image};profiling_mode:{field:organizedbydepth}</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>6047</v>
+        <v>4545</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://ecotaxa.obs-vlfr.fr/prj/6047</t>
+          <t>https://ecotaxa.obs-vlfr.fr/prj/4545</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -12361,7 +12396,7 @@
       </c>
       <c r="AH64" t="inlineStr">
         <is>
-          <t>micron_per_pixel</t>
+          <t>millimeter_per_pixel</t>
         </is>
       </c>
       <c r="AI64" t="inlineStr">
@@ -12376,13 +12411,13 @@
       </c>
       <c r="AK64" t="inlineStr">
         <is>
-          <t>~/GIT/PSSdb/raw/flags/ecotaxa_ecopart_consolidation/project_6047_flags.csv</t>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa_ecopart_consolidation/project_4545_flags.csv</t>
         </is>
       </c>
       <c r="AL64" t="inlineStr"/>
       <c r="AM64" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>366</t>
         </is>
       </c>
       <c r="AN64" t="inlineStr">
@@ -12404,17 +12439,17 @@
       <c r="AR64" t="inlineStr"/>
       <c r="AS64" t="inlineStr">
         <is>
-          <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};depth_offset:{field:process_depth_offset};first_image:{field:process_first_image};last_image:{field:process_last_image};profiling_mode:{field:organizedbydepth}</t>
+          <t>platform:glider;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};depth_offset:{field:process_depth_offset};first_image:{field:process_first_image};last_image:{field:process_last_image};profiling_mode:{field:organizedbydepth}</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>6702</v>
+        <v>4551</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://ecotaxa.obs-vlfr.fr/prj/6702</t>
+          <t>https://ecotaxa.obs-vlfr.fr/prj/4551</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -12541,7 +12576,7 @@
       </c>
       <c r="AG65" t="inlineStr">
         <is>
-          <t>process_pixel</t>
+          <t>acq_pixel</t>
         </is>
       </c>
       <c r="AH65" t="inlineStr">
@@ -12549,17 +12584,25 @@
           <t>millimeter_per_pixel</t>
         </is>
       </c>
-      <c r="AI65" t="inlineStr"/>
-      <c r="AJ65" t="inlineStr"/>
+      <c r="AI65" t="inlineStr">
+        <is>
+          <t>object_annotation_category</t>
+        </is>
+      </c>
+      <c r="AJ65" t="inlineStr">
+        <is>
+          <t>object_annotation_status</t>
+        </is>
+      </c>
       <c r="AK65" t="inlineStr">
         <is>
-          <t>~/GIT/PSSdb/raw/flags/ecotaxa_ecopart_consolidation/project_6702_flags.csv</t>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa_ecopart_consolidation/project_4551_flags.csv</t>
         </is>
       </c>
       <c r="AL65" t="inlineStr"/>
       <c r="AM65" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>367</t>
         </is>
       </c>
       <c r="AN65" t="inlineStr">
@@ -12581,22 +12624,22 @@
       <c r="AR65" t="inlineStr"/>
       <c r="AS65" t="inlineStr">
         <is>
-          <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};depth_offset:{field:process_depth_offset};first_image:{field:process_first_image};last_image:{field:process_last_image};profiling_mode:{field:organizedbydepth}</t>
+          <t>platform:glider;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};depth_offset:{field:process_depth_offset};first_image:{field:process_first_image};last_image:{field:process_last_image};profiling_mode:{field:organizedbydepth}</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>6703</v>
+        <v>4591</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://ecotaxa.obs-vlfr.fr/prj/6703</t>
+          <t>https://ecotaxa.obs-vlfr.fr/prj/4591</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>~/GIT/PSSdb/raw/ecotaxa_ecopart_consolidation</t>
+          <t>~/GIT/PSSdb/raw/ecotaxa</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -12646,7 +12689,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>object_corrected_min_depth_bin</t>
+          <t>object_depth_min</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -12656,7 +12699,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>object_corrected_max_depth_bin</t>
+          <t>object_depth_max</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
@@ -12664,8 +12707,16 @@
           <t>meter</t>
         </is>
       </c>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>object_date</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>%Y%m%d</t>
+        </is>
+      </c>
       <c r="S66" t="inlineStr">
         <is>
           <t>object_time</t>
@@ -12673,12 +12724,12 @@
       </c>
       <c r="T66" t="inlineStr">
         <is>
-          <t>%Y-%m-%d %H:%M:%S</t>
+          <t>%H%M%S</t>
         </is>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>object_volume_bin</t>
+          <t>acq_volimage</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
@@ -12698,7 +12749,7 @@
       <c r="AB66" t="inlineStr"/>
       <c r="AC66" t="inlineStr">
         <is>
-          <t>object_bru_area</t>
+          <t>object_area</t>
         </is>
       </c>
       <c r="AD66" t="inlineStr">
@@ -12718,7 +12769,7 @@
       </c>
       <c r="AG66" t="inlineStr">
         <is>
-          <t>process_pixel</t>
+          <t>acq_pixel</t>
         </is>
       </c>
       <c r="AH66" t="inlineStr">
@@ -12726,17 +12777,25 @@
           <t>millimeter_per_pixel</t>
         </is>
       </c>
-      <c r="AI66" t="inlineStr"/>
-      <c r="AJ66" t="inlineStr"/>
+      <c r="AI66" t="inlineStr">
+        <is>
+          <t>object_annotation_category</t>
+        </is>
+      </c>
+      <c r="AJ66" t="inlineStr">
+        <is>
+          <t>object_annotation_status</t>
+        </is>
+      </c>
       <c r="AK66" t="inlineStr">
         <is>
-          <t>~/GIT/PSSdb/raw/flags/ecotaxa_ecopart_consolidation/project_6703_flags.csv</t>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_4591_flags.csv</t>
         </is>
       </c>
       <c r="AL66" t="inlineStr"/>
       <c r="AM66" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="AN66" t="inlineStr">
@@ -12746,12 +12805,12 @@
       </c>
       <c r="AO66" t="inlineStr">
         <is>
-          <t>acq_smbase</t>
+          <t>acq_smzoo</t>
         </is>
       </c>
       <c r="AP66" t="inlineStr">
         <is>
-          <t>pixel</t>
+          <t>micrometer</t>
         </is>
       </c>
       <c r="AQ66" t="inlineStr"/>
@@ -12764,11 +12823,11 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>6704</v>
+        <v>4661</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://ecotaxa.obs-vlfr.fr/prj/6704</t>
+          <t>https://ecotaxa.obs-vlfr.fr/prj/4661</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -12895,7 +12954,7 @@
       </c>
       <c r="AG67" t="inlineStr">
         <is>
-          <t>process_pixel</t>
+          <t>acq_pixel</t>
         </is>
       </c>
       <c r="AH67" t="inlineStr">
@@ -12903,17 +12962,25 @@
           <t>millimeter_per_pixel</t>
         </is>
       </c>
-      <c r="AI67" t="inlineStr"/>
-      <c r="AJ67" t="inlineStr"/>
+      <c r="AI67" t="inlineStr">
+        <is>
+          <t>object_annotation_category</t>
+        </is>
+      </c>
+      <c r="AJ67" t="inlineStr">
+        <is>
+          <t>object_annotation_status</t>
+        </is>
+      </c>
       <c r="AK67" t="inlineStr">
         <is>
-          <t>~/GIT/PSSdb/raw/flags/ecotaxa_ecopart_consolidation/project_6704_flags.csv</t>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa_ecopart_consolidation/project_4661_flags.csv</t>
         </is>
       </c>
       <c r="AL67" t="inlineStr"/>
       <c r="AM67" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>371</t>
         </is>
       </c>
       <c r="AN67" t="inlineStr">
@@ -12941,11 +13008,11 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>7546</v>
+        <v>5197</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://ecotaxa.obs-vlfr.fr/prj/7546</t>
+          <t>https://ecotaxa.obs-vlfr.fr/prj/5197</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -13072,7 +13139,7 @@
       </c>
       <c r="AG68" t="inlineStr">
         <is>
-          <t>acq_pixel</t>
+          <t>process_pixel</t>
         </is>
       </c>
       <c r="AH68" t="inlineStr">
@@ -13080,25 +13147,17 @@
           <t>millimeter_per_pixel</t>
         </is>
       </c>
-      <c r="AI68" t="inlineStr">
-        <is>
-          <t>object_annotation_category</t>
-        </is>
-      </c>
-      <c r="AJ68" t="inlineStr">
-        <is>
-          <t>object_annotation_status</t>
-        </is>
-      </c>
+      <c r="AI68" t="inlineStr"/>
+      <c r="AJ68" t="inlineStr"/>
       <c r="AK68" t="inlineStr">
         <is>
-          <t>~/GIT/PSSdb/raw/flags/ecotaxa_ecopart_consolidation/project_7546_flags.csv</t>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa_ecopart_consolidation/project_5197_flags.csv</t>
         </is>
       </c>
       <c r="AL68" t="inlineStr"/>
       <c r="AM68" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>428</t>
         </is>
       </c>
       <c r="AN68" t="inlineStr">
@@ -13126,11 +13185,11 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>4028</v>
+        <v>5208</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://ecotaxa.obs-vlfr.fr/prj/4028</t>
+          <t>https://ecotaxa.obs-vlfr.fr/prj/5208</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -13257,7 +13316,7 @@
       </c>
       <c r="AG69" t="inlineStr">
         <is>
-          <t>acq_pixel</t>
+          <t>process_pixel</t>
         </is>
       </c>
       <c r="AH69" t="inlineStr">
@@ -13265,25 +13324,17 @@
           <t>millimeter_per_pixel</t>
         </is>
       </c>
-      <c r="AI69" t="inlineStr">
-        <is>
-          <t>object_annotation_category</t>
-        </is>
-      </c>
-      <c r="AJ69" t="inlineStr">
-        <is>
-          <t>object_annotation_status</t>
-        </is>
-      </c>
+      <c r="AI69" t="inlineStr"/>
+      <c r="AJ69" t="inlineStr"/>
       <c r="AK69" t="inlineStr">
         <is>
-          <t>~/GIT/PSSdb/raw/flags/ecotaxa_ecopart_consolidation/project_4028_flags.csv</t>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa_ecopart_consolidation/project_5208_flags.csv</t>
         </is>
       </c>
       <c r="AL69" t="inlineStr"/>
       <c r="AM69" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>430</t>
         </is>
       </c>
       <c r="AN69" t="inlineStr">
@@ -13305,17 +13356,17 @@
       <c r="AR69" t="inlineStr"/>
       <c r="AS69" t="inlineStr">
         <is>
-          <t>platform:glider;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};depth_offset:{field:process_depth_offset};first_image:{field:process_first_image};last_image:{field:process_last_image};profiling_mode:{field:organizedbydepth}</t>
+          <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};depth_offset:{field:process_depth_offset};first_image:{field:process_first_image};last_image:{field:process_last_image};profiling_mode:{field:organizedbydepth}</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>4041</v>
+        <v>5254</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://ecotaxa.obs-vlfr.fr/prj/4041</t>
+          <t>https://ecotaxa.obs-vlfr.fr/prj/5254</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -13442,7 +13493,7 @@
       </c>
       <c r="AG70" t="inlineStr">
         <is>
-          <t>acq_pixel</t>
+          <t>process_pixel</t>
         </is>
       </c>
       <c r="AH70" t="inlineStr">
@@ -13462,13 +13513,13 @@
       </c>
       <c r="AK70" t="inlineStr">
         <is>
-          <t>~/GIT/PSSdb/raw/flags/ecotaxa_ecopart_consolidation/project_4041_flags.csv</t>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa_ecopart_consolidation/project_5254_flags.csv</t>
         </is>
       </c>
       <c r="AL70" t="inlineStr"/>
       <c r="AM70" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>433</t>
         </is>
       </c>
       <c r="AN70" t="inlineStr">
@@ -13490,17 +13541,17 @@
       <c r="AR70" t="inlineStr"/>
       <c r="AS70" t="inlineStr">
         <is>
-          <t>platform:glider;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};depth_offset:{field:process_depth_offset};first_image:{field:process_first_image};last_image:{field:process_last_image};profiling_mode:{field:organizedbydepth}</t>
+          <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};depth_offset:{field:process_depth_offset};first_image:{field:process_first_image};last_image:{field:process_last_image};profiling_mode:{field:organizedbydepth}</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>4065</v>
+        <v>5680</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://ecotaxa.obs-vlfr.fr/prj/4065</t>
+          <t>https://ecotaxa.obs-vlfr.fr/prj/5680</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -13632,7 +13683,7 @@
       </c>
       <c r="AH71" t="inlineStr">
         <is>
-          <t>millimeter_per_pixel</t>
+          <t>micron_per_pixel</t>
         </is>
       </c>
       <c r="AI71" t="inlineStr">
@@ -13647,13 +13698,13 @@
       </c>
       <c r="AK71" t="inlineStr">
         <is>
-          <t>~/GIT/PSSdb/raw/flags/ecotaxa_ecopart_consolidation/project_4065_flags.csv</t>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa_ecopart_consolidation/project_5680_flags.csv</t>
         </is>
       </c>
       <c r="AL71" t="inlineStr"/>
       <c r="AM71" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>438</t>
         </is>
       </c>
       <c r="AN71" t="inlineStr">
@@ -13675,17 +13726,17 @@
       <c r="AR71" t="inlineStr"/>
       <c r="AS71" t="inlineStr">
         <is>
-          <t>platform:glider;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};depth_offset:{field:process_depth_offset};first_image:{field:process_first_image};last_image:{field:process_last_image};profiling_mode:{field:organizedbydepth}</t>
+          <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};depth_offset:{field:process_depth_offset};first_image:{field:process_first_image};last_image:{field:process_last_image};profiling_mode:{field:organizedbydepth}</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>4171</v>
+        <v>5690</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://ecotaxa.obs-vlfr.fr/prj/4171</t>
+          <t>https://ecotaxa.obs-vlfr.fr/prj/5690</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -13812,7 +13863,7 @@
       </c>
       <c r="AG72" t="inlineStr">
         <is>
-          <t>acq_pixel</t>
+          <t>process_pixel</t>
         </is>
       </c>
       <c r="AH72" t="inlineStr">
@@ -13832,13 +13883,13 @@
       </c>
       <c r="AK72" t="inlineStr">
         <is>
-          <t>~/GIT/PSSdb/raw/flags/ecotaxa_ecopart_consolidation/project_4171_flags.csv</t>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa_ecopart_consolidation/project_5690_flags.csv</t>
         </is>
       </c>
       <c r="AL72" t="inlineStr"/>
       <c r="AM72" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>270</t>
         </is>
       </c>
       <c r="AN72" t="inlineStr">
@@ -13860,17 +13911,17 @@
       <c r="AR72" t="inlineStr"/>
       <c r="AS72" t="inlineStr">
         <is>
-          <t>platform:glider;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};depth_offset:{field:process_depth_offset};first_image:{field:process_first_image};last_image:{field:process_last_image};profiling_mode:{field:organizedbydepth}</t>
+          <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};depth_offset:{field:process_depth_offset};first_image:{field:process_first_image};last_image:{field:process_last_image};profiling_mode:{field:organizedbydepth}</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>4211</v>
+        <v>5693</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://ecotaxa.obs-vlfr.fr/prj/4211</t>
+          <t>https://ecotaxa.obs-vlfr.fr/prj/5693</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -13997,7 +14048,7 @@
       </c>
       <c r="AG73" t="inlineStr">
         <is>
-          <t>acq_pixel</t>
+          <t>process_pixel</t>
         </is>
       </c>
       <c r="AH73" t="inlineStr">
@@ -14017,13 +14068,13 @@
       </c>
       <c r="AK73" t="inlineStr">
         <is>
-          <t>~/GIT/PSSdb/raw/flags/ecotaxa_ecopart_consolidation/project_4211_flags.csv</t>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa_ecopart_consolidation/project_5693_flags.csv</t>
         </is>
       </c>
       <c r="AL73" t="inlineStr"/>
       <c r="AM73" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>255</t>
         </is>
       </c>
       <c r="AN73" t="inlineStr">
@@ -14045,17 +14096,17 @@
       <c r="AR73" t="inlineStr"/>
       <c r="AS73" t="inlineStr">
         <is>
-          <t>platform:glider;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};depth_offset:{field:process_depth_offset};first_image:{field:process_first_image};last_image:{field:process_last_image};profiling_mode:{field:organizedbydepth}</t>
+          <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};depth_offset:{field:process_depth_offset};first_image:{field:process_first_image};last_image:{field:process_last_image};profiling_mode:{field:organizedbydepth}</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>4282</v>
+        <v>6047</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://ecotaxa.obs-vlfr.fr/prj/4282</t>
+          <t>https://ecotaxa.obs-vlfr.fr/prj/6047</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -14187,7 +14238,7 @@
       </c>
       <c r="AH74" t="inlineStr">
         <is>
-          <t>millimeter_per_pixel</t>
+          <t>micron_per_pixel</t>
         </is>
       </c>
       <c r="AI74" t="inlineStr">
@@ -14202,13 +14253,13 @@
       </c>
       <c r="AK74" t="inlineStr">
         <is>
-          <t>~/GIT/PSSdb/raw/flags/ecotaxa_ecopart_consolidation/project_4282_flags.csv</t>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa_ecopart_consolidation/project_6047_flags.csv</t>
         </is>
       </c>
       <c r="AL74" t="inlineStr"/>
       <c r="AM74" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>494</t>
         </is>
       </c>
       <c r="AN74" t="inlineStr">
@@ -14230,17 +14281,17 @@
       <c r="AR74" t="inlineStr"/>
       <c r="AS74" t="inlineStr">
         <is>
-          <t>platform:glider;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};depth_offset:{field:process_depth_offset};first_image:{field:process_first_image};last_image:{field:process_last_image};profiling_mode:{field:organizedbydepth}</t>
+          <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};depth_offset:{field:process_depth_offset};first_image:{field:process_first_image};last_image:{field:process_last_image};profiling_mode:{field:organizedbydepth}</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>4360</v>
+        <v>6702</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>https://ecotaxa.obs-vlfr.fr/prj/4360</t>
+          <t>https://ecotaxa.obs-vlfr.fr/prj/6702</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -14367,7 +14418,7 @@
       </c>
       <c r="AG75" t="inlineStr">
         <is>
-          <t>acq_pixel</t>
+          <t>process_pixel</t>
         </is>
       </c>
       <c r="AH75" t="inlineStr">
@@ -14375,25 +14426,17 @@
           <t>millimeter_per_pixel</t>
         </is>
       </c>
-      <c r="AI75" t="inlineStr">
-        <is>
-          <t>object_annotation_category</t>
-        </is>
-      </c>
-      <c r="AJ75" t="inlineStr">
-        <is>
-          <t>object_annotation_status</t>
-        </is>
-      </c>
+      <c r="AI75" t="inlineStr"/>
+      <c r="AJ75" t="inlineStr"/>
       <c r="AK75" t="inlineStr">
         <is>
-          <t>~/GIT/PSSdb/raw/flags/ecotaxa_ecopart_consolidation/project_4360_flags.csv</t>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa_ecopart_consolidation/project_6702_flags.csv</t>
         </is>
       </c>
       <c r="AL75" t="inlineStr"/>
       <c r="AM75" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>558</t>
         </is>
       </c>
       <c r="AN75" t="inlineStr">
@@ -14415,17 +14458,17 @@
       <c r="AR75" t="inlineStr"/>
       <c r="AS75" t="inlineStr">
         <is>
-          <t>platform:glider;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};depth_offset:{field:process_depth_offset};first_image:{field:process_first_image};last_image:{field:process_last_image};profiling_mode:{field:organizedbydepth}</t>
+          <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};depth_offset:{field:process_depth_offset};first_image:{field:process_first_image};last_image:{field:process_last_image};profiling_mode:{field:organizedbydepth}</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>4448</v>
+        <v>6703</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>https://ecotaxa.obs-vlfr.fr/prj/4448</t>
+          <t>https://ecotaxa.obs-vlfr.fr/prj/6703</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -14552,7 +14595,7 @@
       </c>
       <c r="AG76" t="inlineStr">
         <is>
-          <t>acq_pixel</t>
+          <t>process_pixel</t>
         </is>
       </c>
       <c r="AH76" t="inlineStr">
@@ -14560,25 +14603,17 @@
           <t>millimeter_per_pixel</t>
         </is>
       </c>
-      <c r="AI76" t="inlineStr">
-        <is>
-          <t>object_annotation_category</t>
-        </is>
-      </c>
-      <c r="AJ76" t="inlineStr">
-        <is>
-          <t>object_annotation_status</t>
-        </is>
-      </c>
+      <c r="AI76" t="inlineStr"/>
+      <c r="AJ76" t="inlineStr"/>
       <c r="AK76" t="inlineStr">
         <is>
-          <t>~/GIT/PSSdb/raw/flags/ecotaxa_ecopart_consolidation/project_4448_flags.csv</t>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa_ecopart_consolidation/project_6703_flags.csv</t>
         </is>
       </c>
       <c r="AL76" t="inlineStr"/>
       <c r="AM76" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>559</t>
         </is>
       </c>
       <c r="AN76" t="inlineStr">
@@ -14600,17 +14635,17 @@
       <c r="AR76" t="inlineStr"/>
       <c r="AS76" t="inlineStr">
         <is>
-          <t>platform:glider;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};depth_offset:{field:process_depth_offset};first_image:{field:process_first_image};last_image:{field:process_last_image};profiling_mode:{field:organizedbydepth}</t>
+          <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};depth_offset:{field:process_depth_offset};first_image:{field:process_first_image};last_image:{field:process_last_image};profiling_mode:{field:organizedbydepth}</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>4545</v>
+        <v>6704</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>https://ecotaxa.obs-vlfr.fr/prj/4545</t>
+          <t>https://ecotaxa.obs-vlfr.fr/prj/6704</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -14737,7 +14772,7 @@
       </c>
       <c r="AG77" t="inlineStr">
         <is>
-          <t>acq_pixel</t>
+          <t>process_pixel</t>
         </is>
       </c>
       <c r="AH77" t="inlineStr">
@@ -14745,25 +14780,17 @@
           <t>millimeter_per_pixel</t>
         </is>
       </c>
-      <c r="AI77" t="inlineStr">
-        <is>
-          <t>object_annotation_category</t>
-        </is>
-      </c>
-      <c r="AJ77" t="inlineStr">
-        <is>
-          <t>object_annotation_status</t>
-        </is>
-      </c>
+      <c r="AI77" t="inlineStr"/>
+      <c r="AJ77" t="inlineStr"/>
       <c r="AK77" t="inlineStr">
         <is>
-          <t>~/GIT/PSSdb/raw/flags/ecotaxa_ecopart_consolidation/project_4545_flags.csv</t>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa_ecopart_consolidation/project_6704_flags.csv</t>
         </is>
       </c>
       <c r="AL77" t="inlineStr"/>
       <c r="AM77" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>560</t>
         </is>
       </c>
       <c r="AN77" t="inlineStr">
@@ -14785,17 +14812,17 @@
       <c r="AR77" t="inlineStr"/>
       <c r="AS77" t="inlineStr">
         <is>
-          <t>platform:glider;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};depth_offset:{field:process_depth_offset};first_image:{field:process_first_image};last_image:{field:process_last_image};profiling_mode:{field:organizedbydepth}</t>
+          <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};depth_offset:{field:process_depth_offset};first_image:{field:process_first_image};last_image:{field:process_last_image};profiling_mode:{field:organizedbydepth}</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>4551</v>
+        <v>7060</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>https://ecotaxa.obs-vlfr.fr/prj/4551</t>
+          <t>https://ecotaxa.obs-vlfr.fr/prj/7060</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -14927,7 +14954,7 @@
       </c>
       <c r="AH78" t="inlineStr">
         <is>
-          <t>millimeter_per_pixel</t>
+          <t>micrometer_per_pixel</t>
         </is>
       </c>
       <c r="AI78" t="inlineStr">
@@ -14942,13 +14969,13 @@
       </c>
       <c r="AK78" t="inlineStr">
         <is>
-          <t>~/GIT/PSSdb/raw/flags/ecotaxa_ecopart_consolidation/project_4551_flags.csv</t>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa_ecopart_consolidation/project_7060_flags.csv</t>
         </is>
       </c>
       <c r="AL78" t="inlineStr"/>
       <c r="AM78" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>603</t>
         </is>
       </c>
       <c r="AN78" t="inlineStr">
@@ -14970,17 +14997,17 @@
       <c r="AR78" t="inlineStr"/>
       <c r="AS78" t="inlineStr">
         <is>
-          <t>platform:glider;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};depth_offset:{field:process_depth_offset};first_image:{field:process_first_image};last_image:{field:process_last_image};profiling_mode:{field:organizedbydepth}</t>
+          <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};depth_offset:{field:process_depth_offset};first_image:{field:process_first_image};last_image:{field:process_last_image};profiling_mode:{field:organizedbydepth}</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>7060</v>
+        <v>7546</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>https://ecotaxa.obs-vlfr.fr/prj/7060</t>
+          <t>https://ecotaxa.obs-vlfr.fr/prj/7546</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -15112,7 +15139,7 @@
       </c>
       <c r="AH79" t="inlineStr">
         <is>
-          <t>micrometer_per_pixel</t>
+          <t>millimeter_per_pixel</t>
         </is>
       </c>
       <c r="AI79" t="inlineStr">
@@ -15125,15 +15152,11 @@
           <t>object_annotation_status</t>
         </is>
       </c>
-      <c r="AK79" t="inlineStr">
-        <is>
-          <t>~/GIT/PSSdb/raw/flags/ecotaxa_ecopart_consolidation/project_7060_flags.csv</t>
-        </is>
-      </c>
+      <c r="AK79" t="inlineStr"/>
       <c r="AL79" t="inlineStr"/>
       <c r="AM79" t="inlineStr">
         <is>
-          <t>603</t>
+          <t>371</t>
         </is>
       </c>
       <c r="AN79" t="inlineStr">
@@ -15155,7 +15178,7 @@
       <c r="AR79" t="inlineStr"/>
       <c r="AS79" t="inlineStr">
         <is>
-          <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};depth_offset:{field:process_depth_offset};first_image:{field:process_first_image};last_image:{field:process_last_image};profiling_mode:{field:organizedbydepth}</t>
+          <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
         </is>
       </c>
     </row>
@@ -15176,7 +15199,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="T188" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B255" sqref="B255"/>
+      <selection pane="bottomRight" activeCell="A207" sqref="A207:XFD207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -46980,8 +47003,10 @@
           <t>millimeter_per_pixel</t>
         </is>
       </c>
-      <c r="AM207" t="n">
-        <v>4661</v>
+      <c r="AM207" t="inlineStr">
+        <is>
+          <t>4661;7546</t>
+        </is>
       </c>
       <c r="AO207" t="inlineStr">
         <is>
@@ -58306,236 +58331,236 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS80"/>
+  <dimension ref="A1:AS81"/>
   <sheetViews>
-    <sheetView topLeftCell="P57" workbookViewId="0">
-      <selection activeCell="AE70" sqref="AE70:AF70"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>Project_ID</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="6" t="inlineStr">
         <is>
           <t>Project_source</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>Project_localpath</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" s="6" t="inlineStr">
         <is>
           <t>Instrument</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="E1" s="6" t="inlineStr">
         <is>
           <t>Cruise_field</t>
         </is>
       </c>
-      <c r="F1" s="4" t="inlineStr">
+      <c r="F1" s="6" t="inlineStr">
         <is>
           <t>Station_field</t>
         </is>
       </c>
-      <c r="G1" s="4" t="inlineStr">
+      <c r="G1" s="6" t="inlineStr">
         <is>
           <t>Profile_field</t>
         </is>
       </c>
-      <c r="H1" s="4" t="inlineStr">
+      <c r="H1" s="6" t="inlineStr">
         <is>
           <t>Sample_field</t>
         </is>
       </c>
-      <c r="I1" s="4" t="inlineStr">
+      <c r="I1" s="6" t="inlineStr">
         <is>
           <t>Latitude_field</t>
         </is>
       </c>
-      <c r="J1" s="4" t="inlineStr">
+      <c r="J1" s="6" t="inlineStr">
         <is>
           <t>Latitude_unit</t>
         </is>
       </c>
-      <c r="K1" s="4" t="inlineStr">
+      <c r="K1" s="6" t="inlineStr">
         <is>
           <t>Longitude_field</t>
         </is>
       </c>
-      <c r="L1" s="4" t="inlineStr">
+      <c r="L1" s="6" t="inlineStr">
         <is>
           <t>Longitude_unit</t>
         </is>
       </c>
-      <c r="M1" s="4" t="inlineStr">
+      <c r="M1" s="6" t="inlineStr">
         <is>
           <t>Depth_min_field</t>
         </is>
       </c>
-      <c r="N1" s="4" t="inlineStr">
+      <c r="N1" s="6" t="inlineStr">
         <is>
           <t>Depth_min_unit</t>
         </is>
       </c>
-      <c r="O1" s="4" t="inlineStr">
+      <c r="O1" s="6" t="inlineStr">
         <is>
           <t>Depth_max_field</t>
         </is>
       </c>
-      <c r="P1" s="4" t="inlineStr">
+      <c r="P1" s="6" t="inlineStr">
         <is>
           <t>Depth_max_unit</t>
         </is>
       </c>
-      <c r="Q1" s="4" t="inlineStr">
+      <c r="Q1" s="6" t="inlineStr">
         <is>
           <t>Sampling_date_field</t>
         </is>
       </c>
-      <c r="R1" s="4" t="inlineStr">
+      <c r="R1" s="6" t="inlineStr">
         <is>
           <t>Sampling_date_format</t>
         </is>
       </c>
-      <c r="S1" s="4" t="inlineStr">
+      <c r="S1" s="6" t="inlineStr">
         <is>
           <t>Sampling_time_field</t>
         </is>
       </c>
-      <c r="T1" s="4" t="inlineStr">
+      <c r="T1" s="6" t="inlineStr">
         <is>
           <t>Sampling_time_format</t>
         </is>
       </c>
-      <c r="U1" s="4" t="inlineStr">
+      <c r="U1" s="6" t="inlineStr">
         <is>
           <t>Volume_analyzed_field</t>
         </is>
       </c>
-      <c r="V1" s="4" t="inlineStr">
+      <c r="V1" s="6" t="inlineStr">
         <is>
           <t>Volume_analyzed_unit</t>
         </is>
       </c>
-      <c r="W1" s="4" t="inlineStr">
+      <c r="W1" s="6" t="inlineStr">
         <is>
           <t>Dilution_field</t>
         </is>
       </c>
-      <c r="X1" s="4" t="inlineStr">
+      <c r="X1" s="6" t="inlineStr">
         <is>
           <t>ROI_field</t>
         </is>
       </c>
-      <c r="Y1" s="4" t="inlineStr">
+      <c r="Y1" s="6" t="inlineStr">
         <is>
           <t>ESD_field</t>
         </is>
       </c>
-      <c r="Z1" s="4" t="inlineStr">
+      <c r="Z1" s="6" t="inlineStr">
         <is>
           <t>ESD_unit</t>
         </is>
       </c>
-      <c r="AA1" s="4" t="inlineStr">
+      <c r="AA1" s="6" t="inlineStr">
         <is>
           <t>Biovolume_field</t>
         </is>
       </c>
-      <c r="AB1" s="4" t="inlineStr">
+      <c r="AB1" s="6" t="inlineStr">
         <is>
           <t>Biovolume_unit</t>
         </is>
       </c>
-      <c r="AC1" s="4" t="inlineStr">
+      <c r="AC1" s="6" t="inlineStr">
         <is>
           <t>Area_field</t>
         </is>
       </c>
-      <c r="AD1" s="4" t="inlineStr">
+      <c r="AD1" s="6" t="inlineStr">
         <is>
           <t>Area_unit</t>
         </is>
       </c>
-      <c r="AE1" s="4" t="inlineStr">
+      <c r="AE1" s="6" t="inlineStr">
         <is>
           <t>Minor_axis_field</t>
         </is>
       </c>
-      <c r="AF1" s="4" t="inlineStr">
+      <c r="AF1" s="6" t="inlineStr">
         <is>
           <t>Minor_axis_unit</t>
         </is>
       </c>
-      <c r="AG1" s="4" t="inlineStr">
+      <c r="AG1" s="6" t="inlineStr">
         <is>
           <t>Pixel_field</t>
         </is>
       </c>
-      <c r="AH1" s="4" t="inlineStr">
+      <c r="AH1" s="6" t="inlineStr">
         <is>
           <t>Pixel_unit</t>
         </is>
       </c>
-      <c r="AI1" s="4" t="inlineStr">
+      <c r="AI1" s="6" t="inlineStr">
         <is>
           <t>Category_field</t>
         </is>
       </c>
-      <c r="AJ1" s="4" t="inlineStr">
+      <c r="AJ1" s="6" t="inlineStr">
         <is>
           <t>Annotation_field</t>
         </is>
       </c>
-      <c r="AK1" s="4" t="inlineStr">
+      <c r="AK1" s="6" t="inlineStr">
         <is>
           <t>Flag_path</t>
         </is>
       </c>
-      <c r="AL1" s="4" t="inlineStr">
+      <c r="AL1" s="6" t="inlineStr">
         <is>
           <t>NA_value</t>
         </is>
       </c>
-      <c r="AM1" s="4" t="inlineStr">
+      <c r="AM1" s="6" t="inlineStr">
         <is>
           <t>External_project</t>
         </is>
       </c>
-      <c r="AN1" s="4" t="inlineStr">
+      <c r="AN1" s="6" t="inlineStr">
         <is>
           <t>Sampling_type_field</t>
         </is>
       </c>
-      <c r="AO1" s="4" t="inlineStr">
+      <c r="AO1" s="6" t="inlineStr">
         <is>
           <t>Sampling_lower_size_field</t>
         </is>
       </c>
-      <c r="AP1" s="4" t="inlineStr">
+      <c r="AP1" s="6" t="inlineStr">
         <is>
           <t>Sampling_lower_size_unit</t>
         </is>
       </c>
-      <c r="AQ1" s="4" t="inlineStr">
+      <c r="AQ1" s="6" t="inlineStr">
         <is>
           <t>Sampling_upper_size_field</t>
         </is>
       </c>
-      <c r="AR1" s="4" t="inlineStr">
+      <c r="AR1" s="6" t="inlineStr">
         <is>
           <t>Sampling_upper_size_unit</t>
         </is>
       </c>
-      <c r="AS1" s="4" t="inlineStr">
+      <c r="AS1" s="6" t="inlineStr">
         <is>
           <t>Sampling_description</t>
         </is>
@@ -58650,11 +58675,16 @@
           <t>cubic_decimeter</t>
         </is>
       </c>
+      <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr">
         <is>
           <t>object_id</t>
         </is>
       </c>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr">
         <is>
           <t>object_area</t>
@@ -58695,6 +58725,8 @@
           <t>object_annotation_status</t>
         </is>
       </c>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr"/>
       <c r="AM2" t="n">
         <v>53</v>
       </c>
@@ -58713,6 +58745,8 @@
           <t>pixel</t>
         </is>
       </c>
+      <c r="AQ2" t="inlineStr"/>
+      <c r="AR2" t="inlineStr"/>
       <c r="AS2" t="inlineStr">
         <is>
           <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
@@ -58828,11 +58862,16 @@
           <t>cubic_decimeter</t>
         </is>
       </c>
+      <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr">
         <is>
           <t>object_id</t>
         </is>
       </c>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr">
         <is>
           <t>object_area</t>
@@ -58873,6 +58912,8 @@
           <t>object_annotation_status</t>
         </is>
       </c>
+      <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr"/>
       <c r="AM3" t="n">
         <v>44</v>
       </c>
@@ -58891,6 +58932,8 @@
           <t>pixel</t>
         </is>
       </c>
+      <c r="AQ3" t="inlineStr"/>
+      <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="inlineStr">
         <is>
           <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
@@ -59006,11 +59049,16 @@
           <t>cubic_decimeter</t>
         </is>
       </c>
+      <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr">
         <is>
           <t>object_id</t>
         </is>
       </c>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr">
         <is>
           <t>object_area</t>
@@ -59051,6 +59099,8 @@
           <t>object_annotation_status</t>
         </is>
       </c>
+      <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="inlineStr"/>
       <c r="AM4" t="inlineStr">
         <is>
           <t>48;47</t>
@@ -59071,6 +59121,8 @@
           <t>pixel</t>
         </is>
       </c>
+      <c r="AQ4" t="inlineStr"/>
+      <c r="AR4" t="inlineStr"/>
       <c r="AS4" t="inlineStr">
         <is>
           <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
@@ -59186,11 +59238,16 @@
           <t>cubic_decimeter</t>
         </is>
       </c>
+      <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr">
         <is>
           <t>object_id</t>
         </is>
       </c>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="inlineStr">
         <is>
           <t>object_area</t>
@@ -59231,6 +59288,8 @@
           <t>object_annotation_status</t>
         </is>
       </c>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr"/>
       <c r="AM5" t="inlineStr">
         <is>
           <t>16</t>
@@ -59246,6 +59305,9 @@
           <t>acq_smzoo</t>
         </is>
       </c>
+      <c r="AP5" t="inlineStr"/>
+      <c r="AQ5" t="inlineStr"/>
+      <c r="AR5" t="inlineStr"/>
       <c r="AS5" t="inlineStr">
         <is>
           <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
@@ -59361,11 +59423,16 @@
           <t>cubic_decimeter</t>
         </is>
       </c>
+      <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr">
         <is>
           <t>object_id</t>
         </is>
       </c>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="inlineStr">
         <is>
           <t>object_area</t>
@@ -59406,6 +59473,8 @@
           <t>object_annotation_status</t>
         </is>
       </c>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr"/>
       <c r="AM6" t="inlineStr">
         <is>
           <t>32</t>
@@ -59426,6 +59495,8 @@
           <t>pixel</t>
         </is>
       </c>
+      <c r="AQ6" t="inlineStr"/>
+      <c r="AR6" t="inlineStr"/>
       <c r="AS6" t="inlineStr">
         <is>
           <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
@@ -59541,11 +59612,16 @@
           <t>cubic_decimeter</t>
         </is>
       </c>
+      <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr">
         <is>
           <t>object_id</t>
         </is>
       </c>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr">
         <is>
           <t>object_area</t>
@@ -59586,6 +59662,8 @@
           <t>object_annotation_status</t>
         </is>
       </c>
+      <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="inlineStr"/>
       <c r="AM7" t="inlineStr">
         <is>
           <t>46</t>
@@ -59606,6 +59684,8 @@
           <t>pixel</t>
         </is>
       </c>
+      <c r="AQ7" t="inlineStr"/>
+      <c r="AR7" t="inlineStr"/>
       <c r="AS7" t="inlineStr">
         <is>
           <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
@@ -59721,11 +59801,16 @@
           <t>cubic_decimeter</t>
         </is>
       </c>
+      <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr">
         <is>
           <t>object_id</t>
         </is>
       </c>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr">
         <is>
           <t>object_area</t>
@@ -59766,6 +59851,8 @@
           <t>object_annotation_status</t>
         </is>
       </c>
+      <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr"/>
       <c r="AM8" t="inlineStr">
         <is>
           <t>41</t>
@@ -59786,6 +59873,8 @@
           <t>pixel</t>
         </is>
       </c>
+      <c r="AQ8" t="inlineStr"/>
+      <c r="AR8" t="inlineStr"/>
       <c r="AS8" t="inlineStr">
         <is>
           <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
@@ -59901,11 +59990,16 @@
           <t>cubic_decimeter</t>
         </is>
       </c>
+      <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr">
         <is>
           <t>object_id</t>
         </is>
       </c>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="inlineStr">
         <is>
           <t>object_area</t>
@@ -59946,6 +60040,8 @@
           <t>object_annotation_status</t>
         </is>
       </c>
+      <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="inlineStr"/>
       <c r="AM9" t="inlineStr">
         <is>
           <t>45</t>
@@ -59966,6 +60062,8 @@
           <t>pixel</t>
         </is>
       </c>
+      <c r="AQ9" t="inlineStr"/>
+      <c r="AR9" t="inlineStr"/>
       <c r="AS9" t="inlineStr">
         <is>
           <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
@@ -60081,11 +60179,16 @@
           <t>cubic_decimeter</t>
         </is>
       </c>
+      <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr">
         <is>
           <t>object_id</t>
         </is>
       </c>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="inlineStr">
         <is>
           <t>object_area</t>
@@ -60126,6 +60229,8 @@
           <t>object_annotation_status</t>
         </is>
       </c>
+      <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="inlineStr"/>
       <c r="AM10" t="inlineStr">
         <is>
           <t>64;65</t>
@@ -60146,6 +60251,8 @@
           <t>pixel</t>
         </is>
       </c>
+      <c r="AQ10" t="inlineStr"/>
+      <c r="AR10" t="inlineStr"/>
       <c r="AS10" t="inlineStr">
         <is>
           <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
@@ -60261,11 +60368,16 @@
           <t>cubic_decimeter</t>
         </is>
       </c>
+      <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr">
         <is>
           <t>object_id</t>
         </is>
       </c>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr">
         <is>
           <t>object_area</t>
@@ -60306,6 +60418,8 @@
           <t>object_annotation_status</t>
         </is>
       </c>
+      <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="inlineStr"/>
       <c r="AM11" t="inlineStr">
         <is>
           <t>20</t>
@@ -60326,6 +60440,8 @@
           <t>pixel</t>
         </is>
       </c>
+      <c r="AQ11" t="inlineStr"/>
+      <c r="AR11" t="inlineStr"/>
       <c r="AS11" t="inlineStr">
         <is>
           <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
@@ -60441,11 +60557,16 @@
           <t>cubic_decimeter</t>
         </is>
       </c>
+      <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr">
         <is>
           <t>object_id</t>
         </is>
       </c>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="inlineStr">
         <is>
           <t>object_area</t>
@@ -60486,6 +60607,8 @@
           <t>object_annotation_status</t>
         </is>
       </c>
+      <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="inlineStr"/>
       <c r="AM12" t="inlineStr">
         <is>
           <t>77</t>
@@ -60506,6 +60629,8 @@
           <t>pixel</t>
         </is>
       </c>
+      <c r="AQ12" t="inlineStr"/>
+      <c r="AR12" t="inlineStr"/>
       <c r="AS12" t="inlineStr">
         <is>
           <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
@@ -60621,11 +60746,16 @@
           <t>cubic_decimeter</t>
         </is>
       </c>
+      <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr">
         <is>
           <t>object_id</t>
         </is>
       </c>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="inlineStr">
         <is>
           <t>object_area</t>
@@ -60666,6 +60796,8 @@
           <t>object_annotation_status</t>
         </is>
       </c>
+      <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="inlineStr"/>
       <c r="AM13" t="inlineStr">
         <is>
           <t>110</t>
@@ -60686,6 +60818,8 @@
           <t>pixel</t>
         </is>
       </c>
+      <c r="AQ13" t="inlineStr"/>
+      <c r="AR13" t="inlineStr"/>
       <c r="AS13" t="inlineStr">
         <is>
           <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
@@ -60801,11 +60935,16 @@
           <t>cubic_decimeter</t>
         </is>
       </c>
+      <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr">
         <is>
           <t>object_id</t>
         </is>
       </c>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr"/>
       <c r="AC14" t="inlineStr">
         <is>
           <t>object_area</t>
@@ -60846,6 +60985,8 @@
           <t>object_annotation_status</t>
         </is>
       </c>
+      <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="inlineStr"/>
       <c r="AM14" t="inlineStr">
         <is>
           <t>223</t>
@@ -60866,6 +61007,8 @@
           <t>pixel</t>
         </is>
       </c>
+      <c r="AQ14" t="inlineStr"/>
+      <c r="AR14" t="inlineStr"/>
       <c r="AS14" t="inlineStr">
         <is>
           <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
@@ -60981,11 +61124,16 @@
           <t>cubic_decimeter</t>
         </is>
       </c>
+      <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr">
         <is>
           <t>object_id</t>
         </is>
       </c>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="inlineStr">
         <is>
           <t>object_area</t>
@@ -61026,6 +61174,8 @@
           <t>object_annotation_status</t>
         </is>
       </c>
+      <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="inlineStr"/>
       <c r="AM15" t="inlineStr">
         <is>
           <t>95</t>
@@ -61046,6 +61196,8 @@
           <t>pixel</t>
         </is>
       </c>
+      <c r="AQ15" t="inlineStr"/>
+      <c r="AR15" t="inlineStr"/>
       <c r="AS15" t="inlineStr">
         <is>
           <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
@@ -61161,11 +61313,16 @@
           <t>cubic_decimeter</t>
         </is>
       </c>
+      <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr">
         <is>
           <t>object_id</t>
         </is>
       </c>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr"/>
+      <c r="AB16" t="inlineStr"/>
       <c r="AC16" t="inlineStr">
         <is>
           <t>object_area</t>
@@ -61206,6 +61363,8 @@
           <t>object_annotation_status</t>
         </is>
       </c>
+      <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="inlineStr"/>
       <c r="AM16" t="inlineStr">
         <is>
           <t>24</t>
@@ -61221,6 +61380,9 @@
           <t>acq_smzoo</t>
         </is>
       </c>
+      <c r="AP16" t="inlineStr"/>
+      <c r="AQ16" t="inlineStr"/>
+      <c r="AR16" t="inlineStr"/>
       <c r="AS16" t="inlineStr">
         <is>
           <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
@@ -61336,11 +61498,16 @@
           <t>cubic_decimeter</t>
         </is>
       </c>
+      <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr">
         <is>
           <t>object_id</t>
         </is>
       </c>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr"/>
+      <c r="AB17" t="inlineStr"/>
       <c r="AC17" t="inlineStr">
         <is>
           <t>object_area</t>
@@ -61381,6 +61548,8 @@
           <t>object_annotation_status</t>
         </is>
       </c>
+      <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="inlineStr"/>
       <c r="AM17" t="inlineStr">
         <is>
           <t>72</t>
@@ -61396,6 +61565,9 @@
           <t>acq_smzoo</t>
         </is>
       </c>
+      <c r="AP17" t="inlineStr"/>
+      <c r="AQ17" t="inlineStr"/>
+      <c r="AR17" t="inlineStr"/>
       <c r="AS17" t="inlineStr">
         <is>
           <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
@@ -61511,11 +61683,16 @@
           <t>cubic_decimeter</t>
         </is>
       </c>
+      <c r="W18" t="inlineStr"/>
       <c r="X18" t="inlineStr">
         <is>
           <t>object_id</t>
         </is>
       </c>
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr"/>
+      <c r="AB18" t="inlineStr"/>
       <c r="AC18" t="inlineStr">
         <is>
           <t>object_area</t>
@@ -61556,6 +61733,8 @@
           <t>object_annotation_status</t>
         </is>
       </c>
+      <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="inlineStr"/>
       <c r="AM18" t="inlineStr">
         <is>
           <t>70</t>
@@ -61576,6 +61755,8 @@
           <t>pixel</t>
         </is>
       </c>
+      <c r="AQ18" t="inlineStr"/>
+      <c r="AR18" t="inlineStr"/>
       <c r="AS18" t="inlineStr">
         <is>
           <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
@@ -61691,11 +61872,16 @@
           <t>cubic_decimeter</t>
         </is>
       </c>
+      <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr">
         <is>
           <t>object_id</t>
         </is>
       </c>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr"/>
+      <c r="AB19" t="inlineStr"/>
       <c r="AC19" t="inlineStr">
         <is>
           <t>object_area</t>
@@ -61736,6 +61922,8 @@
           <t>object_annotation_status</t>
         </is>
       </c>
+      <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="inlineStr"/>
       <c r="AM19" t="inlineStr">
         <is>
           <t>76</t>
@@ -61756,6 +61944,8 @@
           <t>pixel</t>
         </is>
       </c>
+      <c r="AQ19" t="inlineStr"/>
+      <c r="AR19" t="inlineStr"/>
       <c r="AS19" t="inlineStr">
         <is>
           <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
@@ -61871,11 +62061,16 @@
           <t>cubic_decimeter</t>
         </is>
       </c>
+      <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr">
         <is>
           <t>object_id</t>
         </is>
       </c>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr"/>
+      <c r="AB20" t="inlineStr"/>
       <c r="AC20" t="inlineStr">
         <is>
           <t>object_area</t>
@@ -61916,6 +62111,8 @@
           <t>object_annotation_status</t>
         </is>
       </c>
+      <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="inlineStr"/>
       <c r="AM20" t="inlineStr">
         <is>
           <t>25</t>
@@ -61936,6 +62133,8 @@
           <t>pixel</t>
         </is>
       </c>
+      <c r="AQ20" t="inlineStr"/>
+      <c r="AR20" t="inlineStr"/>
       <c r="AS20" t="inlineStr">
         <is>
           <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
@@ -62051,11 +62250,16 @@
           <t>cubic_decimeter</t>
         </is>
       </c>
+      <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr">
         <is>
           <t>object_id</t>
         </is>
       </c>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr"/>
+      <c r="AB21" t="inlineStr"/>
       <c r="AC21" t="inlineStr">
         <is>
           <t>object_area</t>
@@ -62096,6 +62300,8 @@
           <t>object_annotation_status</t>
         </is>
       </c>
+      <c r="AK21" t="inlineStr"/>
+      <c r="AL21" t="inlineStr"/>
       <c r="AM21" t="inlineStr">
         <is>
           <t>1</t>
@@ -62116,6 +62322,8 @@
           <t>pixel</t>
         </is>
       </c>
+      <c r="AQ21" t="inlineStr"/>
+      <c r="AR21" t="inlineStr"/>
       <c r="AS21" t="inlineStr">
         <is>
           <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
@@ -62231,11 +62439,16 @@
           <t>cubic_decimeter</t>
         </is>
       </c>
+      <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr">
         <is>
           <t>object_id</t>
         </is>
       </c>
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="inlineStr"/>
+      <c r="AB22" t="inlineStr"/>
       <c r="AC22" t="inlineStr">
         <is>
           <t>object_area</t>
@@ -62276,6 +62489,8 @@
           <t>object_annotation_status</t>
         </is>
       </c>
+      <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="inlineStr"/>
       <c r="AM22" t="inlineStr">
         <is>
           <t>99;51;49;9;7;6</t>
@@ -62296,6 +62511,8 @@
           <t>pixel</t>
         </is>
       </c>
+      <c r="AQ22" t="inlineStr"/>
+      <c r="AR22" t="inlineStr"/>
       <c r="AS22" t="inlineStr">
         <is>
           <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
@@ -62411,11 +62628,16 @@
           <t>cubic_decimeter</t>
         </is>
       </c>
+      <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr">
         <is>
           <t>object_id</t>
         </is>
       </c>
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr"/>
+      <c r="AB23" t="inlineStr"/>
       <c r="AC23" t="inlineStr">
         <is>
           <t>object_area</t>
@@ -62456,6 +62678,8 @@
           <t>object_annotation_status</t>
         </is>
       </c>
+      <c r="AK23" t="inlineStr"/>
+      <c r="AL23" t="inlineStr"/>
       <c r="AM23" t="inlineStr">
         <is>
           <t>23</t>
@@ -62476,6 +62700,8 @@
           <t>pixel</t>
         </is>
       </c>
+      <c r="AQ23" t="inlineStr"/>
+      <c r="AR23" t="inlineStr"/>
       <c r="AS23" t="inlineStr">
         <is>
           <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
@@ -62591,11 +62817,16 @@
           <t>cubic_decimeter</t>
         </is>
       </c>
+      <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr">
         <is>
           <t>object_id</t>
         </is>
       </c>
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="inlineStr"/>
+      <c r="AB24" t="inlineStr"/>
       <c r="AC24" t="inlineStr">
         <is>
           <t>object_area</t>
@@ -62636,6 +62867,8 @@
           <t>object_annotation_status</t>
         </is>
       </c>
+      <c r="AK24" t="inlineStr"/>
+      <c r="AL24" t="inlineStr"/>
       <c r="AM24" t="inlineStr">
         <is>
           <t>26</t>
@@ -62651,6 +62884,9 @@
           <t>acq_smzoo</t>
         </is>
       </c>
+      <c r="AP24" t="inlineStr"/>
+      <c r="AQ24" t="inlineStr"/>
+      <c r="AR24" t="inlineStr"/>
       <c r="AS24" t="inlineStr">
         <is>
           <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
@@ -62766,11 +63002,16 @@
           <t>cubic_decimeter</t>
         </is>
       </c>
+      <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr">
         <is>
           <t>object_id</t>
         </is>
       </c>
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr"/>
+      <c r="AB25" t="inlineStr"/>
       <c r="AC25" t="inlineStr">
         <is>
           <t>object_area</t>
@@ -62811,6 +63052,8 @@
           <t>object_annotation_status</t>
         </is>
       </c>
+      <c r="AK25" t="inlineStr"/>
+      <c r="AL25" t="inlineStr"/>
       <c r="AM25" t="inlineStr">
         <is>
           <t>71</t>
@@ -62831,6 +63074,8 @@
           <t>pixel</t>
         </is>
       </c>
+      <c r="AQ25" t="inlineStr"/>
+      <c r="AR25" t="inlineStr"/>
       <c r="AS25" t="inlineStr">
         <is>
           <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
@@ -62946,11 +63191,16 @@
           <t>cubic_decimeter</t>
         </is>
       </c>
+      <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr">
         <is>
           <t>object_id</t>
         </is>
       </c>
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr"/>
+      <c r="AA26" t="inlineStr"/>
+      <c r="AB26" t="inlineStr"/>
       <c r="AC26" t="inlineStr">
         <is>
           <t>object_area</t>
@@ -62991,6 +63241,8 @@
           <t>object_annotation_status</t>
         </is>
       </c>
+      <c r="AK26" t="inlineStr"/>
+      <c r="AL26" t="inlineStr"/>
       <c r="AM26" t="inlineStr">
         <is>
           <t>29</t>
@@ -63006,6 +63258,9 @@
           <t>acq_smzoo</t>
         </is>
       </c>
+      <c r="AP26" t="inlineStr"/>
+      <c r="AQ26" t="inlineStr"/>
+      <c r="AR26" t="inlineStr"/>
       <c r="AS26" t="inlineStr">
         <is>
           <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
@@ -63121,11 +63376,16 @@
           <t>cubic_decimeter</t>
         </is>
       </c>
+      <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr">
         <is>
           <t>object_id</t>
         </is>
       </c>
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr"/>
+      <c r="AA27" t="inlineStr"/>
+      <c r="AB27" t="inlineStr"/>
       <c r="AC27" t="inlineStr">
         <is>
           <t>object_area</t>
@@ -63166,6 +63426,8 @@
           <t>object_annotation_status</t>
         </is>
       </c>
+      <c r="AK27" t="inlineStr"/>
+      <c r="AL27" t="inlineStr"/>
       <c r="AM27" t="inlineStr">
         <is>
           <t>19</t>
@@ -63186,6 +63448,8 @@
           <t>pixel</t>
         </is>
       </c>
+      <c r="AQ27" t="inlineStr"/>
+      <c r="AR27" t="inlineStr"/>
       <c r="AS27" t="inlineStr">
         <is>
           <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
@@ -63301,11 +63565,16 @@
           <t>cubic_decimeter</t>
         </is>
       </c>
+      <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr">
         <is>
           <t>object_id</t>
         </is>
       </c>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="inlineStr"/>
       <c r="AC28" t="inlineStr">
         <is>
           <t>object_area</t>
@@ -63346,6 +63615,8 @@
           <t>object_annotation_status</t>
         </is>
       </c>
+      <c r="AK28" t="inlineStr"/>
+      <c r="AL28" t="inlineStr"/>
       <c r="AM28" t="inlineStr">
         <is>
           <t>73</t>
@@ -63366,6 +63637,8 @@
           <t>pixel</t>
         </is>
       </c>
+      <c r="AQ28" t="inlineStr"/>
+      <c r="AR28" t="inlineStr"/>
       <c r="AS28" t="inlineStr">
         <is>
           <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
@@ -63481,11 +63754,16 @@
           <t>cubic_decimeter</t>
         </is>
       </c>
+      <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr">
         <is>
           <t>object_id</t>
         </is>
       </c>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr"/>
+      <c r="AB29" t="inlineStr"/>
       <c r="AC29" t="inlineStr">
         <is>
           <t>object_area</t>
@@ -63526,6 +63804,8 @@
           <t>object_annotation_status</t>
         </is>
       </c>
+      <c r="AK29" t="inlineStr"/>
+      <c r="AL29" t="inlineStr"/>
       <c r="AM29" t="inlineStr">
         <is>
           <t>74</t>
@@ -63546,6 +63826,8 @@
           <t>pixel</t>
         </is>
       </c>
+      <c r="AQ29" t="inlineStr"/>
+      <c r="AR29" t="inlineStr"/>
       <c r="AS29" t="inlineStr">
         <is>
           <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
@@ -63661,11 +63943,16 @@
           <t>cubic_decimeter</t>
         </is>
       </c>
+      <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr">
         <is>
           <t>object_id</t>
         </is>
       </c>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr"/>
+      <c r="AB30" t="inlineStr"/>
       <c r="AC30" t="inlineStr">
         <is>
           <t>object_area</t>
@@ -63706,6 +63993,8 @@
           <t>object_annotation_status</t>
         </is>
       </c>
+      <c r="AK30" t="inlineStr"/>
+      <c r="AL30" t="inlineStr"/>
       <c r="AM30" t="inlineStr">
         <is>
           <t>22</t>
@@ -63721,6 +64010,9 @@
           <t>acq_smzoo</t>
         </is>
       </c>
+      <c r="AP30" t="inlineStr"/>
+      <c r="AQ30" t="inlineStr"/>
+      <c r="AR30" t="inlineStr"/>
       <c r="AS30" t="inlineStr">
         <is>
           <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
@@ -63836,11 +64128,16 @@
           <t>cubic_decimeter</t>
         </is>
       </c>
+      <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr">
         <is>
           <t>object_id</t>
         </is>
       </c>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr"/>
+      <c r="AB31" t="inlineStr"/>
       <c r="AC31" t="inlineStr">
         <is>
           <t>object_area</t>
@@ -63881,6 +64178,8 @@
           <t>object_annotation_status</t>
         </is>
       </c>
+      <c r="AK31" t="inlineStr"/>
+      <c r="AL31" t="inlineStr"/>
       <c r="AM31" t="inlineStr">
         <is>
           <t>75</t>
@@ -63901,6 +64200,8 @@
           <t>pixel</t>
         </is>
       </c>
+      <c r="AQ31" t="inlineStr"/>
+      <c r="AR31" t="inlineStr"/>
       <c r="AS31" t="inlineStr">
         <is>
           <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
@@ -64016,11 +64317,16 @@
           <t>cubic_decimeter</t>
         </is>
       </c>
+      <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr">
         <is>
           <t>object_id</t>
         </is>
       </c>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="inlineStr"/>
+      <c r="AB32" t="inlineStr"/>
       <c r="AC32" t="inlineStr">
         <is>
           <t>object_area</t>
@@ -64061,6 +64367,8 @@
           <t>object_annotation_status</t>
         </is>
       </c>
+      <c r="AK32" t="inlineStr"/>
+      <c r="AL32" t="inlineStr"/>
       <c r="AM32" t="inlineStr">
         <is>
           <t>69</t>
@@ -64081,6 +64389,8 @@
           <t>pixel</t>
         </is>
       </c>
+      <c r="AQ32" t="inlineStr"/>
+      <c r="AR32" t="inlineStr"/>
       <c r="AS32" t="inlineStr">
         <is>
           <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
@@ -64196,11 +64506,16 @@
           <t>cubic_decimeter</t>
         </is>
       </c>
+      <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr">
         <is>
           <t>object_id</t>
         </is>
       </c>
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr"/>
+      <c r="AA33" t="inlineStr"/>
+      <c r="AB33" t="inlineStr"/>
       <c r="AC33" t="inlineStr">
         <is>
           <t>object_area</t>
@@ -64241,6 +64556,8 @@
           <t>object_annotation_status</t>
         </is>
       </c>
+      <c r="AK33" t="inlineStr"/>
+      <c r="AL33" t="inlineStr"/>
       <c r="AM33" t="inlineStr">
         <is>
           <t>68</t>
@@ -64256,6 +64573,9 @@
           <t>acq_smzoo</t>
         </is>
       </c>
+      <c r="AP33" t="inlineStr"/>
+      <c r="AQ33" t="inlineStr"/>
+      <c r="AR33" t="inlineStr"/>
       <c r="AS33" t="inlineStr">
         <is>
           <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
@@ -64371,11 +64691,16 @@
           <t>cubic_decimeter</t>
         </is>
       </c>
+      <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr">
         <is>
           <t>object_id</t>
         </is>
       </c>
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="inlineStr"/>
+      <c r="AA34" t="inlineStr"/>
+      <c r="AB34" t="inlineStr"/>
       <c r="AC34" t="inlineStr">
         <is>
           <t>object_area</t>
@@ -64416,6 +64741,8 @@
           <t>object_annotation_status</t>
         </is>
       </c>
+      <c r="AK34" t="inlineStr"/>
+      <c r="AL34" t="inlineStr"/>
       <c r="AM34" t="inlineStr">
         <is>
           <t>27</t>
@@ -64431,6 +64758,9 @@
           <t>acq_smzoo</t>
         </is>
       </c>
+      <c r="AP34" t="inlineStr"/>
+      <c r="AQ34" t="inlineStr"/>
+      <c r="AR34" t="inlineStr"/>
       <c r="AS34" t="inlineStr">
         <is>
           <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
@@ -64546,11 +64876,16 @@
           <t>cubic_decimeter</t>
         </is>
       </c>
+      <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr">
         <is>
           <t>object_id</t>
         </is>
       </c>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr"/>
+      <c r="AB35" t="inlineStr"/>
       <c r="AC35" t="inlineStr">
         <is>
           <t>object_area</t>
@@ -64591,6 +64926,8 @@
           <t>object_annotation_status</t>
         </is>
       </c>
+      <c r="AK35" t="inlineStr"/>
+      <c r="AL35" t="inlineStr"/>
       <c r="AM35" t="inlineStr">
         <is>
           <t>28</t>
@@ -64606,6 +64943,9 @@
           <t>acq_smzoo</t>
         </is>
       </c>
+      <c r="AP35" t="inlineStr"/>
+      <c r="AQ35" t="inlineStr"/>
+      <c r="AR35" t="inlineStr"/>
       <c r="AS35" t="inlineStr">
         <is>
           <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
@@ -64721,11 +65061,16 @@
           <t>cubic_decimeter</t>
         </is>
       </c>
+      <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr">
         <is>
           <t>object_id</t>
         </is>
       </c>
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr"/>
+      <c r="AB36" t="inlineStr"/>
       <c r="AC36" t="inlineStr">
         <is>
           <t>object_area</t>
@@ -64766,6 +65111,8 @@
           <t>object_annotation_status</t>
         </is>
       </c>
+      <c r="AK36" t="inlineStr"/>
+      <c r="AL36" t="inlineStr"/>
       <c r="AM36" t="inlineStr">
         <is>
           <t>96</t>
@@ -64786,6 +65133,8 @@
           <t>pixel</t>
         </is>
       </c>
+      <c r="AQ36" t="inlineStr"/>
+      <c r="AR36" t="inlineStr"/>
       <c r="AS36" t="inlineStr">
         <is>
           <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
@@ -64901,11 +65250,16 @@
           <t>cubic_decimeter</t>
         </is>
       </c>
+      <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr">
         <is>
           <t>object_id</t>
         </is>
       </c>
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr"/>
+      <c r="AA37" t="inlineStr"/>
+      <c r="AB37" t="inlineStr"/>
       <c r="AC37" t="inlineStr">
         <is>
           <t>object_area</t>
@@ -64946,6 +65300,8 @@
           <t>object_annotation_status</t>
         </is>
       </c>
+      <c r="AK37" t="inlineStr"/>
+      <c r="AL37" t="inlineStr"/>
       <c r="AM37" t="inlineStr">
         <is>
           <t>97</t>
@@ -64966,6 +65322,8 @@
           <t>pixel</t>
         </is>
       </c>
+      <c r="AQ37" t="inlineStr"/>
+      <c r="AR37" t="inlineStr"/>
       <c r="AS37" t="inlineStr">
         <is>
           <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
@@ -65081,11 +65439,16 @@
           <t>cubic_decimeter</t>
         </is>
       </c>
+      <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr">
         <is>
           <t>object_id</t>
         </is>
       </c>
+      <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="inlineStr"/>
+      <c r="AA38" t="inlineStr"/>
+      <c r="AB38" t="inlineStr"/>
       <c r="AC38" t="inlineStr">
         <is>
           <t>object_area</t>
@@ -65131,6 +65494,7 @@
           <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_622_flags.csv</t>
         </is>
       </c>
+      <c r="AL38" t="inlineStr"/>
       <c r="AM38" t="inlineStr">
         <is>
           <t>98</t>
@@ -65146,6 +65510,9 @@
           <t>acq_smzoo</t>
         </is>
       </c>
+      <c r="AP38" t="inlineStr"/>
+      <c r="AQ38" t="inlineStr"/>
+      <c r="AR38" t="inlineStr"/>
       <c r="AS38" t="inlineStr">
         <is>
           <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
@@ -65261,11 +65628,16 @@
           <t>cubic_decimeter</t>
         </is>
       </c>
+      <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr">
         <is>
           <t>object_id</t>
         </is>
       </c>
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="inlineStr"/>
+      <c r="AA39" t="inlineStr"/>
+      <c r="AB39" t="inlineStr"/>
       <c r="AC39" t="inlineStr">
         <is>
           <t>object_area</t>
@@ -65311,6 +65683,7 @@
           <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_622_flags.csv</t>
         </is>
       </c>
+      <c r="AL39" t="inlineStr"/>
       <c r="AM39" t="inlineStr">
         <is>
           <t>98</t>
@@ -65326,6 +65699,9 @@
           <t>acq_smzoo</t>
         </is>
       </c>
+      <c r="AP39" t="inlineStr"/>
+      <c r="AQ39" t="inlineStr"/>
+      <c r="AR39" t="inlineStr"/>
       <c r="AS39" t="inlineStr">
         <is>
           <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
@@ -65441,11 +65817,16 @@
           <t>cubic_decimeter</t>
         </is>
       </c>
+      <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr">
         <is>
           <t>object_id</t>
         </is>
       </c>
+      <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="inlineStr"/>
+      <c r="AA40" t="inlineStr"/>
+      <c r="AB40" t="inlineStr"/>
       <c r="AC40" t="inlineStr">
         <is>
           <t>object_area</t>
@@ -65486,6 +65867,8 @@
           <t>object_annotation_status</t>
         </is>
       </c>
+      <c r="AK40" t="inlineStr"/>
+      <c r="AL40" t="inlineStr"/>
       <c r="AM40" t="inlineStr">
         <is>
           <t>90</t>
@@ -65506,6 +65889,8 @@
           <t>pixel</t>
         </is>
       </c>
+      <c r="AQ40" t="inlineStr"/>
+      <c r="AR40" t="inlineStr"/>
       <c r="AS40" t="inlineStr">
         <is>
           <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
@@ -65621,11 +66006,16 @@
           <t>cubic_decimeter</t>
         </is>
       </c>
+      <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr">
         <is>
           <t>object_id</t>
         </is>
       </c>
+      <c r="Y41" t="inlineStr"/>
+      <c r="Z41" t="inlineStr"/>
+      <c r="AA41" t="inlineStr"/>
+      <c r="AB41" t="inlineStr"/>
       <c r="AC41" t="inlineStr">
         <is>
           <t>object_area</t>
@@ -65666,6 +66056,8 @@
           <t>object_annotation_status</t>
         </is>
       </c>
+      <c r="AK41" t="inlineStr"/>
+      <c r="AL41" t="inlineStr"/>
       <c r="AM41" t="inlineStr">
         <is>
           <t>111</t>
@@ -65686,6 +66078,8 @@
           <t>pixel</t>
         </is>
       </c>
+      <c r="AQ41" t="inlineStr"/>
+      <c r="AR41" t="inlineStr"/>
       <c r="AS41" t="inlineStr">
         <is>
           <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
@@ -65801,11 +66195,16 @@
           <t>cubic_decimeter</t>
         </is>
       </c>
+      <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr">
         <is>
           <t>object_id</t>
         </is>
       </c>
+      <c r="Y42" t="inlineStr"/>
+      <c r="Z42" t="inlineStr"/>
+      <c r="AA42" t="inlineStr"/>
+      <c r="AB42" t="inlineStr"/>
       <c r="AC42" t="inlineStr">
         <is>
           <t>object_area</t>
@@ -65846,6 +66245,8 @@
           <t>object_annotation_status</t>
         </is>
       </c>
+      <c r="AK42" t="inlineStr"/>
+      <c r="AL42" t="inlineStr"/>
       <c r="AM42" t="inlineStr">
         <is>
           <t>109</t>
@@ -65866,6 +66267,8 @@
           <t>pixel</t>
         </is>
       </c>
+      <c r="AQ42" t="inlineStr"/>
+      <c r="AR42" t="inlineStr"/>
       <c r="AS42" t="inlineStr">
         <is>
           <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
@@ -65981,11 +66384,16 @@
           <t>cubic_decimeter</t>
         </is>
       </c>
+      <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr">
         <is>
           <t>object_id</t>
         </is>
       </c>
+      <c r="Y43" t="inlineStr"/>
+      <c r="Z43" t="inlineStr"/>
+      <c r="AA43" t="inlineStr"/>
+      <c r="AB43" t="inlineStr"/>
       <c r="AC43" t="inlineStr">
         <is>
           <t>object_area</t>
@@ -66026,6 +66434,8 @@
           <t>object_annotation_status</t>
         </is>
       </c>
+      <c r="AK43" t="inlineStr"/>
+      <c r="AL43" t="inlineStr"/>
       <c r="AM43" t="inlineStr">
         <is>
           <t>121</t>
@@ -66046,6 +66456,8 @@
           <t>pixel</t>
         </is>
       </c>
+      <c r="AQ43" t="inlineStr"/>
+      <c r="AR43" t="inlineStr"/>
       <c r="AS43" t="inlineStr">
         <is>
           <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
@@ -66161,11 +66573,16 @@
           <t>cubic_decimeter</t>
         </is>
       </c>
+      <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr">
         <is>
           <t>object_id</t>
         </is>
       </c>
+      <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="inlineStr"/>
+      <c r="AA44" t="inlineStr"/>
+      <c r="AB44" t="inlineStr"/>
       <c r="AC44" t="inlineStr">
         <is>
           <t>object_area</t>
@@ -66206,6 +66623,8 @@
           <t>object_annotation_status</t>
         </is>
       </c>
+      <c r="AK44" t="inlineStr"/>
+      <c r="AL44" t="inlineStr"/>
       <c r="AM44" t="inlineStr">
         <is>
           <t>230</t>
@@ -66226,6 +66645,8 @@
           <t>pixel</t>
         </is>
       </c>
+      <c r="AQ44" t="inlineStr"/>
+      <c r="AR44" t="inlineStr"/>
       <c r="AS44" t="inlineStr">
         <is>
           <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
@@ -66341,11 +66762,16 @@
           <t>cubic_decimeter</t>
         </is>
       </c>
+      <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr">
         <is>
           <t>object_id</t>
         </is>
       </c>
+      <c r="Y45" t="inlineStr"/>
+      <c r="Z45" t="inlineStr"/>
+      <c r="AA45" t="inlineStr"/>
+      <c r="AB45" t="inlineStr"/>
       <c r="AC45" t="inlineStr">
         <is>
           <t>object_area</t>
@@ -66386,6 +66812,8 @@
           <t>object_annotation_status</t>
         </is>
       </c>
+      <c r="AK45" t="inlineStr"/>
+      <c r="AL45" t="inlineStr"/>
       <c r="AM45" t="inlineStr">
         <is>
           <t>151</t>
@@ -66406,6 +66834,8 @@
           <t>pixel</t>
         </is>
       </c>
+      <c r="AQ45" t="inlineStr"/>
+      <c r="AR45" t="inlineStr"/>
       <c r="AS45" t="inlineStr">
         <is>
           <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
@@ -66521,11 +66951,16 @@
           <t>cubic_decimeter</t>
         </is>
       </c>
+      <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr">
         <is>
           <t>object_id</t>
         </is>
       </c>
+      <c r="Y46" t="inlineStr"/>
+      <c r="Z46" t="inlineStr"/>
+      <c r="AA46" t="inlineStr"/>
+      <c r="AB46" t="inlineStr"/>
       <c r="AC46" t="inlineStr">
         <is>
           <t>object_area</t>
@@ -66566,6 +67001,8 @@
           <t>object_annotation_status</t>
         </is>
       </c>
+      <c r="AK46" t="inlineStr"/>
+      <c r="AL46" t="inlineStr"/>
       <c r="AM46" t="inlineStr">
         <is>
           <t>310</t>
@@ -66586,6 +67023,8 @@
           <t>pixel</t>
         </is>
       </c>
+      <c r="AQ46" t="inlineStr"/>
+      <c r="AR46" t="inlineStr"/>
       <c r="AS46" t="inlineStr">
         <is>
           <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
@@ -66701,11 +67140,16 @@
           <t>cubic_decimeter</t>
         </is>
       </c>
+      <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr">
         <is>
           <t>object_id</t>
         </is>
       </c>
+      <c r="Y47" t="inlineStr"/>
+      <c r="Z47" t="inlineStr"/>
+      <c r="AA47" t="inlineStr"/>
+      <c r="AB47" t="inlineStr"/>
       <c r="AC47" t="inlineStr">
         <is>
           <t>object_area</t>
@@ -66746,6 +67190,8 @@
           <t>object_annotation_status</t>
         </is>
       </c>
+      <c r="AK47" t="inlineStr"/>
+      <c r="AL47" t="inlineStr"/>
       <c r="AM47" t="inlineStr">
         <is>
           <t>153</t>
@@ -66766,6 +67212,8 @@
           <t>pixel</t>
         </is>
       </c>
+      <c r="AQ47" t="inlineStr"/>
+      <c r="AR47" t="inlineStr"/>
       <c r="AS47" t="inlineStr">
         <is>
           <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
@@ -66881,11 +67329,16 @@
           <t>cubic_decimeter</t>
         </is>
       </c>
+      <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr">
         <is>
           <t>object_id</t>
         </is>
       </c>
+      <c r="Y48" t="inlineStr"/>
+      <c r="Z48" t="inlineStr"/>
+      <c r="AA48" t="inlineStr"/>
+      <c r="AB48" t="inlineStr"/>
       <c r="AC48" t="inlineStr">
         <is>
           <t>object_area</t>
@@ -66926,6 +67379,8 @@
           <t>object_annotation_status</t>
         </is>
       </c>
+      <c r="AK48" t="inlineStr"/>
+      <c r="AL48" t="inlineStr"/>
       <c r="AM48" t="inlineStr">
         <is>
           <t>171</t>
@@ -66946,6 +67401,8 @@
           <t>pixel</t>
         </is>
       </c>
+      <c r="AQ48" t="inlineStr"/>
+      <c r="AR48" t="inlineStr"/>
       <c r="AS48" t="inlineStr">
         <is>
           <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
@@ -67061,11 +67518,16 @@
           <t>cubic_decimeter</t>
         </is>
       </c>
+      <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr">
         <is>
           <t>object_id</t>
         </is>
       </c>
+      <c r="Y49" t="inlineStr"/>
+      <c r="Z49" t="inlineStr"/>
+      <c r="AA49" t="inlineStr"/>
+      <c r="AB49" t="inlineStr"/>
       <c r="AC49" t="inlineStr">
         <is>
           <t>object_area</t>
@@ -67106,6 +67568,8 @@
           <t>object_annotation_status</t>
         </is>
       </c>
+      <c r="AK49" t="inlineStr"/>
+      <c r="AL49" t="inlineStr"/>
       <c r="AM49" t="inlineStr">
         <is>
           <t>172</t>
@@ -67126,6 +67590,8 @@
           <t>pixel</t>
         </is>
       </c>
+      <c r="AQ49" t="inlineStr"/>
+      <c r="AR49" t="inlineStr"/>
       <c r="AS49" t="inlineStr">
         <is>
           <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
@@ -67241,11 +67707,16 @@
           <t>cubic_decimeter</t>
         </is>
       </c>
+      <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr">
         <is>
           <t>object_id</t>
         </is>
       </c>
+      <c r="Y50" t="inlineStr"/>
+      <c r="Z50" t="inlineStr"/>
+      <c r="AA50" t="inlineStr"/>
+      <c r="AB50" t="inlineStr"/>
       <c r="AC50" t="inlineStr">
         <is>
           <t>object_area</t>
@@ -67286,6 +67757,8 @@
           <t>object_annotation_status</t>
         </is>
       </c>
+      <c r="AK50" t="inlineStr"/>
+      <c r="AL50" t="inlineStr"/>
       <c r="AM50" t="inlineStr">
         <is>
           <t>173</t>
@@ -67306,6 +67779,8 @@
           <t>pixel</t>
         </is>
       </c>
+      <c r="AQ50" t="inlineStr"/>
+      <c r="AR50" t="inlineStr"/>
       <c r="AS50" t="inlineStr">
         <is>
           <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
@@ -67421,11 +67896,16 @@
           <t>cubic_decimeter</t>
         </is>
       </c>
+      <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr">
         <is>
           <t>object_id</t>
         </is>
       </c>
+      <c r="Y51" t="inlineStr"/>
+      <c r="Z51" t="inlineStr"/>
+      <c r="AA51" t="inlineStr"/>
+      <c r="AB51" t="inlineStr"/>
       <c r="AC51" t="inlineStr">
         <is>
           <t>object_area</t>
@@ -67466,6 +67946,8 @@
           <t>object_annotation_status</t>
         </is>
       </c>
+      <c r="AK51" t="inlineStr"/>
+      <c r="AL51" t="inlineStr"/>
       <c r="AM51" t="inlineStr">
         <is>
           <t>226</t>
@@ -67486,6 +67968,8 @@
           <t>pixel</t>
         </is>
       </c>
+      <c r="AQ51" t="inlineStr"/>
+      <c r="AR51" t="inlineStr"/>
       <c r="AS51" t="inlineStr">
         <is>
           <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
@@ -67601,11 +68085,16 @@
           <t>cubic_decimeter</t>
         </is>
       </c>
+      <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr">
         <is>
           <t>object_id</t>
         </is>
       </c>
+      <c r="Y52" t="inlineStr"/>
+      <c r="Z52" t="inlineStr"/>
+      <c r="AA52" t="inlineStr"/>
+      <c r="AB52" t="inlineStr"/>
       <c r="AC52" t="inlineStr">
         <is>
           <t>object_area</t>
@@ -67651,6 +68140,7 @@
           <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_3278_flags.csv</t>
         </is>
       </c>
+      <c r="AL52" t="inlineStr"/>
       <c r="AM52" t="inlineStr">
         <is>
           <t>249</t>
@@ -67671,6 +68161,8 @@
           <t>pixel</t>
         </is>
       </c>
+      <c r="AQ52" t="inlineStr"/>
+      <c r="AR52" t="inlineStr"/>
       <c r="AS52" t="inlineStr">
         <is>
           <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
@@ -67786,11 +68278,16 @@
           <t>cubic_decimeter</t>
         </is>
       </c>
+      <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr">
         <is>
           <t>object_id</t>
         </is>
       </c>
+      <c r="Y53" t="inlineStr"/>
+      <c r="Z53" t="inlineStr"/>
+      <c r="AA53" t="inlineStr"/>
+      <c r="AB53" t="inlineStr"/>
       <c r="AC53" t="inlineStr">
         <is>
           <t>object_area</t>
@@ -67831,6 +68328,8 @@
           <t>object_annotation_status</t>
         </is>
       </c>
+      <c r="AK53" t="inlineStr"/>
+      <c r="AL53" t="inlineStr"/>
       <c r="AM53" t="inlineStr">
         <is>
           <t>250</t>
@@ -67851,6 +68350,8 @@
           <t>pixel</t>
         </is>
       </c>
+      <c r="AQ53" t="inlineStr"/>
+      <c r="AR53" t="inlineStr"/>
       <c r="AS53" t="inlineStr">
         <is>
           <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
@@ -67966,11 +68467,16 @@
           <t>cubic_decimeter</t>
         </is>
       </c>
+      <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr">
         <is>
           <t>object_id</t>
         </is>
       </c>
+      <c r="Y54" t="inlineStr"/>
+      <c r="Z54" t="inlineStr"/>
+      <c r="AA54" t="inlineStr"/>
+      <c r="AB54" t="inlineStr"/>
       <c r="AC54" t="inlineStr">
         <is>
           <t>object_area</t>
@@ -68001,6 +68507,10 @@
           <t>millimeter_per_pixel</t>
         </is>
       </c>
+      <c r="AI54" t="inlineStr"/>
+      <c r="AJ54" t="inlineStr"/>
+      <c r="AK54" t="inlineStr"/>
+      <c r="AL54" t="inlineStr"/>
       <c r="AM54" t="inlineStr">
         <is>
           <t>254</t>
@@ -68021,6 +68531,8 @@
           <t>pixel</t>
         </is>
       </c>
+      <c r="AQ54" t="inlineStr"/>
+      <c r="AR54" t="inlineStr"/>
       <c r="AS54" t="inlineStr">
         <is>
           <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
@@ -68136,11 +68648,16 @@
           <t>cubic_decimeter</t>
         </is>
       </c>
+      <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr">
         <is>
           <t>object_id</t>
         </is>
       </c>
+      <c r="Y55" t="inlineStr"/>
+      <c r="Z55" t="inlineStr"/>
+      <c r="AA55" t="inlineStr"/>
+      <c r="AB55" t="inlineStr"/>
       <c r="AC55" t="inlineStr">
         <is>
           <t>object_area</t>
@@ -68181,6 +68698,8 @@
           <t>object_annotation_status</t>
         </is>
       </c>
+      <c r="AK55" t="inlineStr"/>
+      <c r="AL55" t="inlineStr"/>
       <c r="AM55" t="inlineStr">
         <is>
           <t>276</t>
@@ -68201,6 +68720,8 @@
           <t>pixel</t>
         </is>
       </c>
+      <c r="AQ55" t="inlineStr"/>
+      <c r="AR55" t="inlineStr"/>
       <c r="AS55" t="inlineStr">
         <is>
           <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
@@ -68316,11 +68837,16 @@
           <t>cubic_decimeter</t>
         </is>
       </c>
+      <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr">
         <is>
           <t>object_id</t>
         </is>
       </c>
+      <c r="Y56" t="inlineStr"/>
+      <c r="Z56" t="inlineStr"/>
+      <c r="AA56" t="inlineStr"/>
+      <c r="AB56" t="inlineStr"/>
       <c r="AC56" t="inlineStr">
         <is>
           <t>object_area</t>
@@ -68351,6 +68877,10 @@
           <t>micron_per_pixel</t>
         </is>
       </c>
+      <c r="AI56" t="inlineStr"/>
+      <c r="AJ56" t="inlineStr"/>
+      <c r="AK56" t="inlineStr"/>
+      <c r="AL56" t="inlineStr"/>
       <c r="AM56" t="inlineStr">
         <is>
           <t>284</t>
@@ -68371,6 +68901,8 @@
           <t>pixel</t>
         </is>
       </c>
+      <c r="AQ56" t="inlineStr"/>
+      <c r="AR56" t="inlineStr"/>
       <c r="AS56" t="inlineStr">
         <is>
           <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
@@ -68486,11 +69018,16 @@
           <t>cubic_decimeter</t>
         </is>
       </c>
+      <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr">
         <is>
           <t>object_id</t>
         </is>
       </c>
+      <c r="Y57" t="inlineStr"/>
+      <c r="Z57" t="inlineStr"/>
+      <c r="AA57" t="inlineStr"/>
+      <c r="AB57" t="inlineStr"/>
       <c r="AC57" t="inlineStr">
         <is>
           <t>object_area</t>
@@ -68536,6 +69073,7 @@
           <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_4661_flags.csv</t>
         </is>
       </c>
+      <c r="AL57" t="inlineStr"/>
       <c r="AM57" t="inlineStr">
         <is>
           <t>371</t>
@@ -68556,6 +69094,8 @@
           <t>pixel</t>
         </is>
       </c>
+      <c r="AQ57" t="inlineStr"/>
+      <c r="AR57" t="inlineStr"/>
       <c r="AS57" t="inlineStr">
         <is>
           <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
@@ -68671,11 +69211,16 @@
           <t>cubic_decimeter</t>
         </is>
       </c>
+      <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr">
         <is>
           <t>object_id</t>
         </is>
       </c>
+      <c r="Y58" t="inlineStr"/>
+      <c r="Z58" t="inlineStr"/>
+      <c r="AA58" t="inlineStr"/>
+      <c r="AB58" t="inlineStr"/>
       <c r="AC58" t="inlineStr">
         <is>
           <t>object_area</t>
@@ -68706,6 +69251,10 @@
           <t>millimeter_per_pixel</t>
         </is>
       </c>
+      <c r="AI58" t="inlineStr"/>
+      <c r="AJ58" t="inlineStr"/>
+      <c r="AK58" t="inlineStr"/>
+      <c r="AL58" t="inlineStr"/>
       <c r="AM58" t="inlineStr">
         <is>
           <t>428</t>
@@ -68726,6 +69275,8 @@
           <t>pixel</t>
         </is>
       </c>
+      <c r="AQ58" t="inlineStr"/>
+      <c r="AR58" t="inlineStr"/>
       <c r="AS58" t="inlineStr">
         <is>
           <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
@@ -68841,11 +69392,16 @@
           <t>cubic_decimeter</t>
         </is>
       </c>
+      <c r="W59" t="inlineStr"/>
       <c r="X59" t="inlineStr">
         <is>
           <t>object_id</t>
         </is>
       </c>
+      <c r="Y59" t="inlineStr"/>
+      <c r="Z59" t="inlineStr"/>
+      <c r="AA59" t="inlineStr"/>
+      <c r="AB59" t="inlineStr"/>
       <c r="AC59" t="inlineStr">
         <is>
           <t>object_area</t>
@@ -68876,11 +69432,14 @@
           <t>millimeter_per_pixel</t>
         </is>
       </c>
+      <c r="AI59" t="inlineStr"/>
+      <c r="AJ59" t="inlineStr"/>
       <c r="AK59" t="inlineStr">
         <is>
           <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_5208_flags.csv</t>
         </is>
       </c>
+      <c r="AL59" t="inlineStr"/>
       <c r="AM59" t="inlineStr">
         <is>
           <t>430</t>
@@ -68901,6 +69460,8 @@
           <t>pixel</t>
         </is>
       </c>
+      <c r="AQ59" t="inlineStr"/>
+      <c r="AR59" t="inlineStr"/>
       <c r="AS59" t="inlineStr">
         <is>
           <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
@@ -69016,11 +69577,16 @@
           <t>cubic_decimeter</t>
         </is>
       </c>
+      <c r="W60" t="inlineStr"/>
       <c r="X60" t="inlineStr">
         <is>
           <t>object_id</t>
         </is>
       </c>
+      <c r="Y60" t="inlineStr"/>
+      <c r="Z60" t="inlineStr"/>
+      <c r="AA60" t="inlineStr"/>
+      <c r="AB60" t="inlineStr"/>
       <c r="AC60" t="inlineStr">
         <is>
           <t>object_area</t>
@@ -69061,6 +69627,8 @@
           <t>object_annotation_status</t>
         </is>
       </c>
+      <c r="AK60" t="inlineStr"/>
+      <c r="AL60" t="inlineStr"/>
       <c r="AM60" t="inlineStr">
         <is>
           <t>433</t>
@@ -69081,6 +69649,8 @@
           <t>pixel</t>
         </is>
       </c>
+      <c r="AQ60" t="inlineStr"/>
+      <c r="AR60" t="inlineStr"/>
       <c r="AS60" t="inlineStr">
         <is>
           <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
@@ -69196,11 +69766,16 @@
           <t>cubic_decimeter</t>
         </is>
       </c>
+      <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr">
         <is>
           <t>object_id</t>
         </is>
       </c>
+      <c r="Y61" t="inlineStr"/>
+      <c r="Z61" t="inlineStr"/>
+      <c r="AA61" t="inlineStr"/>
+      <c r="AB61" t="inlineStr"/>
       <c r="AC61" t="inlineStr">
         <is>
           <t>object_area</t>
@@ -69241,6 +69816,8 @@
           <t>object_annotation_status</t>
         </is>
       </c>
+      <c r="AK61" t="inlineStr"/>
+      <c r="AL61" t="inlineStr"/>
       <c r="AM61" t="inlineStr">
         <is>
           <t>438</t>
@@ -69261,6 +69838,8 @@
           <t>micrometer</t>
         </is>
       </c>
+      <c r="AQ61" t="inlineStr"/>
+      <c r="AR61" t="inlineStr"/>
       <c r="AS61" t="inlineStr">
         <is>
           <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
@@ -69376,11 +69955,16 @@
           <t>cubic_decimeter</t>
         </is>
       </c>
+      <c r="W62" t="inlineStr"/>
       <c r="X62" t="inlineStr">
         <is>
           <t>object_id</t>
         </is>
       </c>
+      <c r="Y62" t="inlineStr"/>
+      <c r="Z62" t="inlineStr"/>
+      <c r="AA62" t="inlineStr"/>
+      <c r="AB62" t="inlineStr"/>
       <c r="AC62" t="inlineStr">
         <is>
           <t>object_area</t>
@@ -69421,6 +70005,8 @@
           <t>object_annotation_status</t>
         </is>
       </c>
+      <c r="AK62" t="inlineStr"/>
+      <c r="AL62" t="inlineStr"/>
       <c r="AM62" t="inlineStr">
         <is>
           <t>270</t>
@@ -69441,6 +70027,8 @@
           <t>pixel</t>
         </is>
       </c>
+      <c r="AQ62" t="inlineStr"/>
+      <c r="AR62" t="inlineStr"/>
       <c r="AS62" t="inlineStr">
         <is>
           <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
@@ -69556,11 +70144,16 @@
           <t>cubic_decimeter</t>
         </is>
       </c>
+      <c r="W63" t="inlineStr"/>
       <c r="X63" t="inlineStr">
         <is>
           <t>object_id</t>
         </is>
       </c>
+      <c r="Y63" t="inlineStr"/>
+      <c r="Z63" t="inlineStr"/>
+      <c r="AA63" t="inlineStr"/>
+      <c r="AB63" t="inlineStr"/>
       <c r="AC63" t="inlineStr">
         <is>
           <t>object_area</t>
@@ -69601,6 +70194,8 @@
           <t>object_annotation_status</t>
         </is>
       </c>
+      <c r="AK63" t="inlineStr"/>
+      <c r="AL63" t="inlineStr"/>
       <c r="AM63" t="inlineStr">
         <is>
           <t>255</t>
@@ -69621,6 +70216,8 @@
           <t>pixel</t>
         </is>
       </c>
+      <c r="AQ63" t="inlineStr"/>
+      <c r="AR63" t="inlineStr"/>
       <c r="AS63" t="inlineStr">
         <is>
           <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
@@ -69736,11 +70333,16 @@
           <t>cubic_decimeter</t>
         </is>
       </c>
+      <c r="W64" t="inlineStr"/>
       <c r="X64" t="inlineStr">
         <is>
           <t>object_id</t>
         </is>
       </c>
+      <c r="Y64" t="inlineStr"/>
+      <c r="Z64" t="inlineStr"/>
+      <c r="AA64" t="inlineStr"/>
+      <c r="AB64" t="inlineStr"/>
       <c r="AC64" t="inlineStr">
         <is>
           <t>object_area</t>
@@ -69781,6 +70383,8 @@
           <t>object_annotation_status</t>
         </is>
       </c>
+      <c r="AK64" t="inlineStr"/>
+      <c r="AL64" t="inlineStr"/>
       <c r="AM64" t="inlineStr">
         <is>
           <t>494</t>
@@ -69801,6 +70405,8 @@
           <t>micrometer</t>
         </is>
       </c>
+      <c r="AQ64" t="inlineStr"/>
+      <c r="AR64" t="inlineStr"/>
       <c r="AS64" t="inlineStr">
         <is>
           <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
@@ -69916,11 +70522,16 @@
           <t>cubic_decimeter</t>
         </is>
       </c>
+      <c r="W65" t="inlineStr"/>
       <c r="X65" t="inlineStr">
         <is>
           <t>object_id</t>
         </is>
       </c>
+      <c r="Y65" t="inlineStr"/>
+      <c r="Z65" t="inlineStr"/>
+      <c r="AA65" t="inlineStr"/>
+      <c r="AB65" t="inlineStr"/>
       <c r="AC65" t="inlineStr">
         <is>
           <t>object_area</t>
@@ -69966,6 +70577,7 @@
           <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_7546_flags.csv</t>
         </is>
       </c>
+      <c r="AL65" t="inlineStr"/>
       <c r="AM65" t="inlineStr">
         <is>
           <t>371</t>
@@ -69986,6 +70598,8 @@
           <t>pixel</t>
         </is>
       </c>
+      <c r="AQ65" t="inlineStr"/>
+      <c r="AR65" t="inlineStr"/>
       <c r="AS65" t="inlineStr">
         <is>
           <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
@@ -70101,11 +70715,16 @@
           <t>cubic_decimeter</t>
         </is>
       </c>
+      <c r="W66" t="inlineStr"/>
       <c r="X66" t="inlineStr">
         <is>
           <t>object_id</t>
         </is>
       </c>
+      <c r="Y66" t="inlineStr"/>
+      <c r="Z66" t="inlineStr"/>
+      <c r="AA66" t="inlineStr"/>
+      <c r="AB66" t="inlineStr"/>
       <c r="AC66" t="inlineStr">
         <is>
           <t>object_area</t>
@@ -70136,11 +70755,14 @@
           <t>millimeter_per_pixel</t>
         </is>
       </c>
+      <c r="AI66" t="inlineStr"/>
+      <c r="AJ66" t="inlineStr"/>
       <c r="AK66" t="inlineStr">
         <is>
           <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_6702_flags.csv</t>
         </is>
       </c>
+      <c r="AL66" t="inlineStr"/>
       <c r="AM66" t="inlineStr">
         <is>
           <t>558</t>
@@ -70161,6 +70783,8 @@
           <t>pixel</t>
         </is>
       </c>
+      <c r="AQ66" t="inlineStr"/>
+      <c r="AR66" t="inlineStr"/>
       <c r="AS66" t="inlineStr">
         <is>
           <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
@@ -70276,11 +70900,16 @@
           <t>cubic_decimeter</t>
         </is>
       </c>
+      <c r="W67" t="inlineStr"/>
       <c r="X67" t="inlineStr">
         <is>
           <t>object_id</t>
         </is>
       </c>
+      <c r="Y67" t="inlineStr"/>
+      <c r="Z67" t="inlineStr"/>
+      <c r="AA67" t="inlineStr"/>
+      <c r="AB67" t="inlineStr"/>
       <c r="AC67" t="inlineStr">
         <is>
           <t>object_area</t>
@@ -70311,11 +70940,14 @@
           <t>millimeter_per_pixel</t>
         </is>
       </c>
+      <c r="AI67" t="inlineStr"/>
+      <c r="AJ67" t="inlineStr"/>
       <c r="AK67" t="inlineStr">
         <is>
           <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_6703_flags.csv</t>
         </is>
       </c>
+      <c r="AL67" t="inlineStr"/>
       <c r="AM67" t="inlineStr">
         <is>
           <t>559</t>
@@ -70336,6 +70968,8 @@
           <t>pixel</t>
         </is>
       </c>
+      <c r="AQ67" t="inlineStr"/>
+      <c r="AR67" t="inlineStr"/>
       <c r="AS67" t="inlineStr">
         <is>
           <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
@@ -70451,11 +71085,16 @@
           <t>cubic_decimeter</t>
         </is>
       </c>
+      <c r="W68" t="inlineStr"/>
       <c r="X68" t="inlineStr">
         <is>
           <t>object_id</t>
         </is>
       </c>
+      <c r="Y68" t="inlineStr"/>
+      <c r="Z68" t="inlineStr"/>
+      <c r="AA68" t="inlineStr"/>
+      <c r="AB68" t="inlineStr"/>
       <c r="AC68" t="inlineStr">
         <is>
           <t>object_area</t>
@@ -70486,11 +71125,14 @@
           <t>millimeter_per_pixel</t>
         </is>
       </c>
+      <c r="AI68" t="inlineStr"/>
+      <c r="AJ68" t="inlineStr"/>
       <c r="AK68" t="inlineStr">
         <is>
           <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_6704_flags.csv</t>
         </is>
       </c>
+      <c r="AL68" t="inlineStr"/>
       <c r="AM68" t="inlineStr">
         <is>
           <t>560</t>
@@ -70511,6 +71153,8 @@
           <t>pixel</t>
         </is>
       </c>
+      <c r="AQ68" t="inlineStr"/>
+      <c r="AR68" t="inlineStr"/>
       <c r="AS68" t="inlineStr">
         <is>
           <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
@@ -70596,6 +71240,8 @@
           <t>meter</t>
         </is>
       </c>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
       <c r="S69" t="inlineStr">
         <is>
           <t>object_time</t>
@@ -70616,11 +71262,16 @@
           <t>cubic_decimeter</t>
         </is>
       </c>
+      <c r="W69" t="inlineStr"/>
       <c r="X69" t="inlineStr">
         <is>
           <t>object_id</t>
         </is>
       </c>
+      <c r="Y69" t="inlineStr"/>
+      <c r="Z69" t="inlineStr"/>
+      <c r="AA69" t="inlineStr"/>
+      <c r="AB69" t="inlineStr"/>
       <c r="AC69" t="inlineStr">
         <is>
           <t>object_bru_area</t>
@@ -70631,6 +71282,8 @@
           <t>square_pixel</t>
         </is>
       </c>
+      <c r="AE69" t="inlineStr"/>
+      <c r="AF69" t="inlineStr"/>
       <c r="AG69" t="inlineStr">
         <is>
           <t>process_pixel</t>
@@ -70656,6 +71309,7 @@
           <t>~/GIT/PSSdb/raw/flags/ecotaxa_ecopart_consolidation/project_545_flags.csv</t>
         </is>
       </c>
+      <c r="AL69" t="inlineStr"/>
       <c r="AM69" t="inlineStr">
         <is>
           <t>223</t>
@@ -70676,6 +71330,8 @@
           <t>pixel</t>
         </is>
       </c>
+      <c r="AQ69" t="inlineStr"/>
+      <c r="AR69" t="inlineStr"/>
       <c r="AS69" t="inlineStr">
         <is>
           <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
@@ -70791,11 +71447,16 @@
           <t>cubic_decimeter</t>
         </is>
       </c>
+      <c r="W70" t="inlineStr"/>
       <c r="X70" t="inlineStr">
         <is>
           <t>object_id</t>
         </is>
       </c>
+      <c r="Y70" t="inlineStr"/>
+      <c r="Z70" t="inlineStr"/>
+      <c r="AA70" t="inlineStr"/>
+      <c r="AB70" t="inlineStr"/>
       <c r="AC70" t="inlineStr">
         <is>
           <t>object_area</t>
@@ -70836,6 +71497,8 @@
           <t>object_annotation_status</t>
         </is>
       </c>
+      <c r="AK70" t="inlineStr"/>
+      <c r="AL70" t="inlineStr"/>
       <c r="AM70" t="inlineStr">
         <is>
           <t>301</t>
@@ -70856,6 +71519,8 @@
           <t>pixel</t>
         </is>
       </c>
+      <c r="AQ70" t="inlineStr"/>
+      <c r="AR70" t="inlineStr"/>
       <c r="AS70" t="inlineStr">
         <is>
           <t>platform:glider;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};depth_offset:{field:process_depth_offset};first_image:{field:process_first_image};last_image:{field:process_last_image};profiling_mode:{field:organizedbydepth}</t>
@@ -70971,11 +71636,16 @@
           <t>cubic_decimeter</t>
         </is>
       </c>
+      <c r="W71" t="inlineStr"/>
       <c r="X71" t="inlineStr">
         <is>
           <t>object_id</t>
         </is>
       </c>
+      <c r="Y71" t="inlineStr"/>
+      <c r="Z71" t="inlineStr"/>
+      <c r="AA71" t="inlineStr"/>
+      <c r="AB71" t="inlineStr"/>
       <c r="AC71" t="inlineStr">
         <is>
           <t>object_area</t>
@@ -71016,6 +71686,8 @@
           <t>object_annotation_status</t>
         </is>
       </c>
+      <c r="AK71" t="inlineStr"/>
+      <c r="AL71" t="inlineStr"/>
       <c r="AM71" t="inlineStr">
         <is>
           <t>303</t>
@@ -71036,6 +71708,8 @@
           <t>pixel</t>
         </is>
       </c>
+      <c r="AQ71" t="inlineStr"/>
+      <c r="AR71" t="inlineStr"/>
       <c r="AS71" t="inlineStr">
         <is>
           <t>platform:glider;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};depth_offset:{field:process_depth_offset};first_image:{field:process_first_image};last_image:{field:process_last_image};profiling_mode:{field:organizedbydepth}</t>
@@ -71151,11 +71825,16 @@
           <t>cubic_decimeter</t>
         </is>
       </c>
+      <c r="W72" t="inlineStr"/>
       <c r="X72" t="inlineStr">
         <is>
           <t>object_id</t>
         </is>
       </c>
+      <c r="Y72" t="inlineStr"/>
+      <c r="Z72" t="inlineStr"/>
+      <c r="AA72" t="inlineStr"/>
+      <c r="AB72" t="inlineStr"/>
       <c r="AC72" t="inlineStr">
         <is>
           <t>object_area</t>
@@ -71196,6 +71875,8 @@
           <t>object_annotation_status</t>
         </is>
       </c>
+      <c r="AK72" t="inlineStr"/>
+      <c r="AL72" t="inlineStr"/>
       <c r="AM72" t="inlineStr">
         <is>
           <t>308</t>
@@ -71216,6 +71897,8 @@
           <t>pixel</t>
         </is>
       </c>
+      <c r="AQ72" t="inlineStr"/>
+      <c r="AR72" t="inlineStr"/>
       <c r="AS72" t="inlineStr">
         <is>
           <t>platform:glider;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};depth_offset:{field:process_depth_offset};first_image:{field:process_first_image};last_image:{field:process_last_image};profiling_mode:{field:organizedbydepth}</t>
@@ -71331,11 +72014,16 @@
           <t>cubic_decimeter</t>
         </is>
       </c>
+      <c r="W73" t="inlineStr"/>
       <c r="X73" t="inlineStr">
         <is>
           <t>object_id</t>
         </is>
       </c>
+      <c r="Y73" t="inlineStr"/>
+      <c r="Z73" t="inlineStr"/>
+      <c r="AA73" t="inlineStr"/>
+      <c r="AB73" t="inlineStr"/>
       <c r="AC73" t="inlineStr">
         <is>
           <t>object_area</t>
@@ -71376,6 +72064,8 @@
           <t>object_annotation_status</t>
         </is>
       </c>
+      <c r="AK73" t="inlineStr"/>
+      <c r="AL73" t="inlineStr"/>
       <c r="AM73" t="inlineStr">
         <is>
           <t>311</t>
@@ -71396,6 +72086,8 @@
           <t>pixel</t>
         </is>
       </c>
+      <c r="AQ73" t="inlineStr"/>
+      <c r="AR73" t="inlineStr"/>
       <c r="AS73" t="inlineStr">
         <is>
           <t>platform:glider;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};depth_offset:{field:process_depth_offset};first_image:{field:process_first_image};last_image:{field:process_last_image};profiling_mode:{field:organizedbydepth}</t>
@@ -71511,11 +72203,16 @@
           <t>cubic_decimeter</t>
         </is>
       </c>
+      <c r="W74" t="inlineStr"/>
       <c r="X74" t="inlineStr">
         <is>
           <t>object_id</t>
         </is>
       </c>
+      <c r="Y74" t="inlineStr"/>
+      <c r="Z74" t="inlineStr"/>
+      <c r="AA74" t="inlineStr"/>
+      <c r="AB74" t="inlineStr"/>
       <c r="AC74" t="inlineStr">
         <is>
           <t>object_area</t>
@@ -71556,6 +72253,8 @@
           <t>object_annotation_status</t>
         </is>
       </c>
+      <c r="AK74" t="inlineStr"/>
+      <c r="AL74" t="inlineStr"/>
       <c r="AM74" t="inlineStr">
         <is>
           <t>328</t>
@@ -71576,6 +72275,8 @@
           <t>pixel</t>
         </is>
       </c>
+      <c r="AQ74" t="inlineStr"/>
+      <c r="AR74" t="inlineStr"/>
       <c r="AS74" t="inlineStr">
         <is>
           <t>platform:glider;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};depth_offset:{field:process_depth_offset};first_image:{field:process_first_image};last_image:{field:process_last_image};profiling_mode:{field:organizedbydepth}</t>
@@ -71691,11 +72392,16 @@
           <t>cubic_decimeter</t>
         </is>
       </c>
+      <c r="W75" t="inlineStr"/>
       <c r="X75" t="inlineStr">
         <is>
           <t>object_id</t>
         </is>
       </c>
+      <c r="Y75" t="inlineStr"/>
+      <c r="Z75" t="inlineStr"/>
+      <c r="AA75" t="inlineStr"/>
+      <c r="AB75" t="inlineStr"/>
       <c r="AC75" t="inlineStr">
         <is>
           <t>object_area</t>
@@ -71736,6 +72442,8 @@
           <t>object_annotation_status</t>
         </is>
       </c>
+      <c r="AK75" t="inlineStr"/>
+      <c r="AL75" t="inlineStr"/>
       <c r="AM75" t="inlineStr">
         <is>
           <t>332</t>
@@ -71756,6 +72464,8 @@
           <t>pixel</t>
         </is>
       </c>
+      <c r="AQ75" t="inlineStr"/>
+      <c r="AR75" t="inlineStr"/>
       <c r="AS75" t="inlineStr">
         <is>
           <t>platform:glider;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};depth_offset:{field:process_depth_offset};first_image:{field:process_first_image};last_image:{field:process_last_image};profiling_mode:{field:organizedbydepth}</t>
@@ -71871,11 +72581,16 @@
           <t>cubic_decimeter</t>
         </is>
       </c>
+      <c r="W76" t="inlineStr"/>
       <c r="X76" t="inlineStr">
         <is>
           <t>object_id</t>
         </is>
       </c>
+      <c r="Y76" t="inlineStr"/>
+      <c r="Z76" t="inlineStr"/>
+      <c r="AA76" t="inlineStr"/>
+      <c r="AB76" t="inlineStr"/>
       <c r="AC76" t="inlineStr">
         <is>
           <t>object_area</t>
@@ -71916,6 +72631,8 @@
           <t>object_annotation_status</t>
         </is>
       </c>
+      <c r="AK76" t="inlineStr"/>
+      <c r="AL76" t="inlineStr"/>
       <c r="AM76" t="inlineStr">
         <is>
           <t>343</t>
@@ -71936,6 +72653,8 @@
           <t>pixel</t>
         </is>
       </c>
+      <c r="AQ76" t="inlineStr"/>
+      <c r="AR76" t="inlineStr"/>
       <c r="AS76" t="inlineStr">
         <is>
           <t>platform:glider;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};depth_offset:{field:process_depth_offset};first_image:{field:process_first_image};last_image:{field:process_last_image};profiling_mode:{field:organizedbydepth}</t>
@@ -72051,11 +72770,16 @@
           <t>cubic_decimeter</t>
         </is>
       </c>
+      <c r="W77" t="inlineStr"/>
       <c r="X77" t="inlineStr">
         <is>
           <t>object_id</t>
         </is>
       </c>
+      <c r="Y77" t="inlineStr"/>
+      <c r="Z77" t="inlineStr"/>
+      <c r="AA77" t="inlineStr"/>
+      <c r="AB77" t="inlineStr"/>
       <c r="AC77" t="inlineStr">
         <is>
           <t>object_area</t>
@@ -72096,6 +72820,8 @@
           <t>object_annotation_status</t>
         </is>
       </c>
+      <c r="AK77" t="inlineStr"/>
+      <c r="AL77" t="inlineStr"/>
       <c r="AM77" t="inlineStr">
         <is>
           <t>347</t>
@@ -72116,6 +72842,8 @@
           <t>pixel</t>
         </is>
       </c>
+      <c r="AQ77" t="inlineStr"/>
+      <c r="AR77" t="inlineStr"/>
       <c r="AS77" t="inlineStr">
         <is>
           <t>platform:glider;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};depth_offset:{field:process_depth_offset};first_image:{field:process_first_image};last_image:{field:process_last_image};profiling_mode:{field:organizedbydepth}</t>
@@ -72231,11 +72959,16 @@
           <t>cubic_decimeter</t>
         </is>
       </c>
+      <c r="W78" t="inlineStr"/>
       <c r="X78" t="inlineStr">
         <is>
           <t>object_id</t>
         </is>
       </c>
+      <c r="Y78" t="inlineStr"/>
+      <c r="Z78" t="inlineStr"/>
+      <c r="AA78" t="inlineStr"/>
+      <c r="AB78" t="inlineStr"/>
       <c r="AC78" t="inlineStr">
         <is>
           <t>object_area</t>
@@ -72276,6 +73009,8 @@
           <t>object_annotation_status</t>
         </is>
       </c>
+      <c r="AK78" t="inlineStr"/>
+      <c r="AL78" t="inlineStr"/>
       <c r="AM78" t="inlineStr">
         <is>
           <t>366</t>
@@ -72296,6 +73031,8 @@
           <t>pixel</t>
         </is>
       </c>
+      <c r="AQ78" t="inlineStr"/>
+      <c r="AR78" t="inlineStr"/>
       <c r="AS78" t="inlineStr">
         <is>
           <t>platform:glider;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};depth_offset:{field:process_depth_offset};first_image:{field:process_first_image};last_image:{field:process_last_image};profiling_mode:{field:organizedbydepth}</t>
@@ -72411,11 +73148,16 @@
           <t>cubic_decimeter</t>
         </is>
       </c>
+      <c r="W79" t="inlineStr"/>
       <c r="X79" t="inlineStr">
         <is>
           <t>object_id</t>
         </is>
       </c>
+      <c r="Y79" t="inlineStr"/>
+      <c r="Z79" t="inlineStr"/>
+      <c r="AA79" t="inlineStr"/>
+      <c r="AB79" t="inlineStr"/>
       <c r="AC79" t="inlineStr">
         <is>
           <t>object_area</t>
@@ -72456,6 +73198,8 @@
           <t>object_annotation_status</t>
         </is>
       </c>
+      <c r="AK79" t="inlineStr"/>
+      <c r="AL79" t="inlineStr"/>
       <c r="AM79" t="inlineStr">
         <is>
           <t>367</t>
@@ -72476,6 +73220,8 @@
           <t>pixel</t>
         </is>
       </c>
+      <c r="AQ79" t="inlineStr"/>
+      <c r="AR79" t="inlineStr"/>
       <c r="AS79" t="inlineStr">
         <is>
           <t>platform:glider;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};depth_offset:{field:process_depth_offset};first_image:{field:process_first_image};last_image:{field:process_last_image};profiling_mode:{field:organizedbydepth}</t>
@@ -72591,11 +73337,16 @@
           <t>cubic_decimeter</t>
         </is>
       </c>
+      <c r="W80" t="inlineStr"/>
       <c r="X80" t="inlineStr">
         <is>
           <t>object_id</t>
         </is>
       </c>
+      <c r="Y80" t="inlineStr"/>
+      <c r="Z80" t="inlineStr"/>
+      <c r="AA80" t="inlineStr"/>
+      <c r="AB80" t="inlineStr"/>
       <c r="AC80" t="inlineStr">
         <is>
           <t>object_area</t>
@@ -72636,6 +73387,8 @@
           <t>object_annotation_status</t>
         </is>
       </c>
+      <c r="AK80" t="inlineStr"/>
+      <c r="AL80" t="inlineStr"/>
       <c r="AM80" t="inlineStr">
         <is>
           <t>603</t>
@@ -72656,9 +73409,204 @@
           <t>pixel</t>
         </is>
       </c>
+      <c r="AQ80" t="inlineStr"/>
+      <c r="AR80" t="inlineStr"/>
       <c r="AS80" t="inlineStr">
         <is>
           <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};depth_offset:{field:process_depth_offset};first_image:{field:process_first_image};last_image:{field:process_last_image};profiling_mode:{field:organizedbydepth}</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>7546</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>https://ecotaxa.obs-vlfr.fr/prj/7546</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>~/GIT/PSSdb/raw/ecotaxa</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>UVP</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>sample_cruise</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>sample_stationid</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>sample_profileid</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>sample_id</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>object_lat</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>degree</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>object_lon</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>degree</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>object_depth_min</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>meter</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>object_depth_max</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>meter</t>
+        </is>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>object_date</t>
+        </is>
+      </c>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>%Y%m%d</t>
+        </is>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>object_time</t>
+        </is>
+      </c>
+      <c r="T81" t="inlineStr">
+        <is>
+          <t>%H%M%S</t>
+        </is>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>acq_volimage</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>cubic_decimeter</t>
+        </is>
+      </c>
+      <c r="W81" t="inlineStr"/>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>object_id</t>
+        </is>
+      </c>
+      <c r="Y81" t="inlineStr"/>
+      <c r="Z81" t="inlineStr"/>
+      <c r="AA81" t="inlineStr"/>
+      <c r="AB81" t="inlineStr"/>
+      <c r="AC81" t="inlineStr">
+        <is>
+          <t>object_area</t>
+        </is>
+      </c>
+      <c r="AD81" t="inlineStr">
+        <is>
+          <t>square_pixel</t>
+        </is>
+      </c>
+      <c r="AE81" t="inlineStr">
+        <is>
+          <t>object_minor</t>
+        </is>
+      </c>
+      <c r="AF81" t="inlineStr">
+        <is>
+          <t>pixel</t>
+        </is>
+      </c>
+      <c r="AG81" t="inlineStr">
+        <is>
+          <t>acq_pixel</t>
+        </is>
+      </c>
+      <c r="AH81" t="inlineStr">
+        <is>
+          <t>millimeter_per_pixel</t>
+        </is>
+      </c>
+      <c r="AI81" t="inlineStr">
+        <is>
+          <t>object_annotation_category</t>
+        </is>
+      </c>
+      <c r="AJ81" t="inlineStr">
+        <is>
+          <t>object_annotation_status</t>
+        </is>
+      </c>
+      <c r="AK81" t="inlineStr">
+        <is>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_7546_flags.csv</t>
+        </is>
+      </c>
+      <c r="AL81" t="inlineStr"/>
+      <c r="AM81" t="inlineStr">
+        <is>
+          <t>371</t>
+        </is>
+      </c>
+      <c r="AN81" t="inlineStr">
+        <is>
+          <t>acq_instrument</t>
+        </is>
+      </c>
+      <c r="AO81" t="inlineStr">
+        <is>
+          <t>acq_smzoo</t>
+        </is>
+      </c>
+      <c r="AP81" t="inlineStr">
+        <is>
+          <t>pixel</t>
+        </is>
+      </c>
+      <c r="AQ81" t="inlineStr"/>
+      <c r="AR81" t="inlineStr"/>
+      <c r="AS81" t="inlineStr">
+        <is>
+          <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
         </is>
       </c>
     </row>

--- a/raw/project_UVP_standardizer.xlsx
+++ b/raw/project_UVP_standardizer.xlsx
@@ -13023,7 +13023,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>~/GIT/PSSdb/raw/ecotaxa</t>
+          <t>~/GIT/PSSdb/raw/ecotaxa_ecopart_consolidation</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -13073,7 +13073,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>object_depth_min</t>
+          <t>object_corrected_min_depth_bin</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -13083,7 +13083,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>object_depth_max</t>
+          <t>object_corrected_max_depth_bin</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
@@ -13091,16 +13091,8 @@
           <t>meter</t>
         </is>
       </c>
-      <c r="Q66" t="inlineStr">
-        <is>
-          <t>object_date</t>
-        </is>
-      </c>
-      <c r="R66" t="inlineStr">
-        <is>
-          <t>%Y%m%d</t>
-        </is>
-      </c>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
       <c r="S66" t="inlineStr">
         <is>
           <t>object_time</t>
@@ -13108,12 +13100,12 @@
       </c>
       <c r="T66" t="inlineStr">
         <is>
-          <t>%H%M%S</t>
+          <t>%Y-%m-%d %H:%M:%S</t>
         </is>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>acq_volimage</t>
+          <t>object_volume_bin</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
@@ -13133,7 +13125,7 @@
       <c r="AB66" t="inlineStr"/>
       <c r="AC66" t="inlineStr">
         <is>
-          <t>object_area</t>
+          <t>object_bru_area</t>
         </is>
       </c>
       <c r="AD66" t="inlineStr">
@@ -13181,11 +13173,7 @@
           <t>object_annotation_status</t>
         </is>
       </c>
-      <c r="AM66" t="inlineStr">
-        <is>
-          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_4661_flags.csv</t>
-        </is>
-      </c>
+      <c r="AM66" t="inlineStr"/>
       <c r="AN66" t="inlineStr"/>
       <c r="AO66" t="inlineStr">
         <is>
@@ -13199,7 +13187,7 @@
       </c>
       <c r="AQ66" t="inlineStr">
         <is>
-          <t>acq_smzoo</t>
+          <t>acq_smbase</t>
         </is>
       </c>
       <c r="AR66" t="inlineStr">
@@ -13226,7 +13214,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>~/GIT/PSSdb/raw/ecotaxa</t>
+          <t>~/GIT/PSSdb/raw/ecotaxa_ecopart_consolidation</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -13276,7 +13264,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>object_depth_min</t>
+          <t>object_corrected_min_depth_bin</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -13286,7 +13274,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>object_depth_max</t>
+          <t>object_corrected_max_depth_bin</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
@@ -13294,16 +13282,8 @@
           <t>meter</t>
         </is>
       </c>
-      <c r="Q67" t="inlineStr">
-        <is>
-          <t>object_date</t>
-        </is>
-      </c>
-      <c r="R67" t="inlineStr">
-        <is>
-          <t>%Y%m%d</t>
-        </is>
-      </c>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
       <c r="S67" t="inlineStr">
         <is>
           <t>object_time</t>
@@ -13311,12 +13291,12 @@
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>%H%M%S</t>
+          <t>%Y-%m-%d %H:%M:%S</t>
         </is>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>acq_volimage</t>
+          <t>object_volume_bin</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
@@ -13336,7 +13316,7 @@
       <c r="AB67" t="inlineStr"/>
       <c r="AC67" t="inlineStr">
         <is>
-          <t>object_area</t>
+          <t>object_bru_area</t>
         </is>
       </c>
       <c r="AD67" t="inlineStr">
@@ -13390,7 +13370,7 @@
       </c>
       <c r="AQ67" t="inlineStr">
         <is>
-          <t>acq_smzoo</t>
+          <t>acq_smbase</t>
         </is>
       </c>
       <c r="AR67" t="inlineStr">
@@ -13417,7 +13397,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>~/GIT/PSSdb/raw/ecotaxa</t>
+          <t>~/GIT/PSSdb/raw/ecotaxa_ecopart_consolidation</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -13467,7 +13447,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>object_depth_min</t>
+          <t>object_corrected_min_depth_bin</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -13477,7 +13457,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>object_depth_max</t>
+          <t>object_corrected_max_depth_bin</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
@@ -13485,16 +13465,8 @@
           <t>meter</t>
         </is>
       </c>
-      <c r="Q68" t="inlineStr">
-        <is>
-          <t>object_date</t>
-        </is>
-      </c>
-      <c r="R68" t="inlineStr">
-        <is>
-          <t>%Y%m%d</t>
-        </is>
-      </c>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
       <c r="S68" t="inlineStr">
         <is>
           <t>object_time</t>
@@ -13502,12 +13474,12 @@
       </c>
       <c r="T68" t="inlineStr">
         <is>
-          <t>%H%M%S</t>
+          <t>%Y-%m-%d %H:%M:%S</t>
         </is>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>acq_volimage</t>
+          <t>object_volume_bin</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
@@ -13527,7 +13499,7 @@
       <c r="AB68" t="inlineStr"/>
       <c r="AC68" t="inlineStr">
         <is>
-          <t>object_area</t>
+          <t>object_bru_area</t>
         </is>
       </c>
       <c r="AD68" t="inlineStr">
@@ -13567,11 +13539,7 @@
       </c>
       <c r="AK68" t="inlineStr"/>
       <c r="AL68" t="inlineStr"/>
-      <c r="AM68" t="inlineStr">
-        <is>
-          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_5208_flags.csv</t>
-        </is>
-      </c>
+      <c r="AM68" t="inlineStr"/>
       <c r="AN68" t="inlineStr"/>
       <c r="AO68" t="inlineStr">
         <is>
@@ -13585,7 +13553,7 @@
       </c>
       <c r="AQ68" t="inlineStr">
         <is>
-          <t>acq_smzoo</t>
+          <t>acq_smbase</t>
         </is>
       </c>
       <c r="AR68" t="inlineStr">
@@ -13612,7 +13580,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>~/GIT/PSSdb/raw/ecotaxa</t>
+          <t>~/GIT/PSSdb/raw/ecotaxa_ecopart_consolidation</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -13662,7 +13630,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>object_depth_min</t>
+          <t>object_corrected_min_depth_bin</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -13672,7 +13640,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>object_depth_max</t>
+          <t>object_corrected_max_depth_bin</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
@@ -13680,16 +13648,8 @@
           <t>meter</t>
         </is>
       </c>
-      <c r="Q69" t="inlineStr">
-        <is>
-          <t>object_date</t>
-        </is>
-      </c>
-      <c r="R69" t="inlineStr">
-        <is>
-          <t>%Y%m%d</t>
-        </is>
-      </c>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
       <c r="S69" t="inlineStr">
         <is>
           <t>object_time</t>
@@ -13697,12 +13657,12 @@
       </c>
       <c r="T69" t="inlineStr">
         <is>
-          <t>%H%M%S</t>
+          <t>%Y-%m-%d %H:%M:%S</t>
         </is>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>acq_volimage</t>
+          <t>object_volume_bin</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
@@ -13722,7 +13682,7 @@
       <c r="AB69" t="inlineStr"/>
       <c r="AC69" t="inlineStr">
         <is>
-          <t>object_area</t>
+          <t>object_bru_area</t>
         </is>
       </c>
       <c r="AD69" t="inlineStr">
@@ -13784,7 +13744,7 @@
       </c>
       <c r="AQ69" t="inlineStr">
         <is>
-          <t>acq_smzoo</t>
+          <t>acq_smbase</t>
         </is>
       </c>
       <c r="AR69" t="inlineStr">
@@ -13811,7 +13771,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>~/GIT/PSSdb/raw/ecotaxa</t>
+          <t>~/GIT/PSSdb/raw/ecotaxa_ecopart_consolidation</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -13861,7 +13821,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>object_depth_min</t>
+          <t>object_corrected_min_depth_bin</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -13871,7 +13831,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>object_depth_max</t>
+          <t>object_corrected_max_depth_bin</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
@@ -13879,16 +13839,8 @@
           <t>meter</t>
         </is>
       </c>
-      <c r="Q70" t="inlineStr">
-        <is>
-          <t>object_date</t>
-        </is>
-      </c>
-      <c r="R70" t="inlineStr">
-        <is>
-          <t>%Y%m%d</t>
-        </is>
-      </c>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
       <c r="S70" t="inlineStr">
         <is>
           <t>object_time</t>
@@ -13896,12 +13848,12 @@
       </c>
       <c r="T70" t="inlineStr">
         <is>
-          <t>%H%M%S</t>
+          <t>%Y-%m-%d %H:%M:%S</t>
         </is>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>acq_volimage</t>
+          <t>object_volume_bin</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
@@ -13921,7 +13873,7 @@
       <c r="AB70" t="inlineStr"/>
       <c r="AC70" t="inlineStr">
         <is>
-          <t>object_area</t>
+          <t>object_bru_area</t>
         </is>
       </c>
       <c r="AD70" t="inlineStr">
@@ -13983,12 +13935,12 @@
       </c>
       <c r="AQ70" t="inlineStr">
         <is>
-          <t>acq_smzoo</t>
+          <t>acq_smbase</t>
         </is>
       </c>
       <c r="AR70" t="inlineStr">
         <is>
-          <t>micrometer</t>
+          <t>pixel</t>
         </is>
       </c>
       <c r="AS70" t="inlineStr"/>
@@ -14010,7 +13962,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>~/GIT/PSSdb/raw/ecotaxa</t>
+          <t>~/GIT/PSSdb/raw/ecotaxa_ecopart_consolidation</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -14060,7 +14012,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>object_depth_min</t>
+          <t>object_corrected_min_depth_bin</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -14070,7 +14022,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>object_depth_max</t>
+          <t>object_corrected_max_depth_bin</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
@@ -14078,16 +14030,8 @@
           <t>meter</t>
         </is>
       </c>
-      <c r="Q71" t="inlineStr">
-        <is>
-          <t>object_date</t>
-        </is>
-      </c>
-      <c r="R71" t="inlineStr">
-        <is>
-          <t>%Y%m%d</t>
-        </is>
-      </c>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
       <c r="S71" t="inlineStr">
         <is>
           <t>object_time</t>
@@ -14095,12 +14039,12 @@
       </c>
       <c r="T71" t="inlineStr">
         <is>
-          <t>%H%M%S</t>
+          <t>%Y-%m-%d %H:%M:%S</t>
         </is>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>acq_volimage</t>
+          <t>object_volume_bin</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
@@ -14120,7 +14064,7 @@
       <c r="AB71" t="inlineStr"/>
       <c r="AC71" t="inlineStr">
         <is>
-          <t>object_area</t>
+          <t>object_bru_area</t>
         </is>
       </c>
       <c r="AD71" t="inlineStr">
@@ -14182,7 +14126,7 @@
       </c>
       <c r="AQ71" t="inlineStr">
         <is>
-          <t>acq_smzoo</t>
+          <t>acq_smbase</t>
         </is>
       </c>
       <c r="AR71" t="inlineStr">
@@ -14209,7 +14153,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>~/GIT/PSSdb/raw/ecotaxa</t>
+          <t>~/GIT/PSSdb/raw/ecotaxa_ecopart_consolidation</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -14259,7 +14203,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>object_depth_min</t>
+          <t>object_corrected_min_depth_bin</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -14269,7 +14213,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>object_depth_max</t>
+          <t>object_corrected_max_depth_bin</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
@@ -14277,16 +14221,8 @@
           <t>meter</t>
         </is>
       </c>
-      <c r="Q72" t="inlineStr">
-        <is>
-          <t>object_date</t>
-        </is>
-      </c>
-      <c r="R72" t="inlineStr">
-        <is>
-          <t>%Y%m%d</t>
-        </is>
-      </c>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
       <c r="S72" t="inlineStr">
         <is>
           <t>object_time</t>
@@ -14294,12 +14230,12 @@
       </c>
       <c r="T72" t="inlineStr">
         <is>
-          <t>%H%M%S</t>
+          <t>%Y-%m-%d %H:%M:%S</t>
         </is>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>acq_volimage</t>
+          <t>object_volume_bin</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
@@ -14319,7 +14255,7 @@
       <c r="AB72" t="inlineStr"/>
       <c r="AC72" t="inlineStr">
         <is>
-          <t>object_area</t>
+          <t>object_bru_area</t>
         </is>
       </c>
       <c r="AD72" t="inlineStr">
@@ -14381,7 +14317,7 @@
       </c>
       <c r="AQ72" t="inlineStr">
         <is>
-          <t>acq_smzoo</t>
+          <t>acq_smbase</t>
         </is>
       </c>
       <c r="AR72" t="inlineStr">
@@ -14408,7 +14344,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>~/GIT/PSSdb/raw/ecotaxa</t>
+          <t>~/GIT/PSSdb/raw/ecotaxa_ecopart_consolidation</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -14458,7 +14394,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>object_depth_min</t>
+          <t>object_corrected_min_depth_bin</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -14468,7 +14404,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>object_depth_max</t>
+          <t>object_corrected_max_depth_bin</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
@@ -14476,16 +14412,8 @@
           <t>meter</t>
         </is>
       </c>
-      <c r="Q73" t="inlineStr">
-        <is>
-          <t>object_date</t>
-        </is>
-      </c>
-      <c r="R73" t="inlineStr">
-        <is>
-          <t>%Y%m%d</t>
-        </is>
-      </c>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
       <c r="S73" t="inlineStr">
         <is>
           <t>object_time</t>
@@ -14493,12 +14421,12 @@
       </c>
       <c r="T73" t="inlineStr">
         <is>
-          <t>%H%M%S</t>
+          <t>%Y-%m-%d %H:%M:%S</t>
         </is>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>acq_volimage</t>
+          <t>object_volume_bin</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
@@ -14518,7 +14446,7 @@
       <c r="AB73" t="inlineStr"/>
       <c r="AC73" t="inlineStr">
         <is>
-          <t>object_area</t>
+          <t>object_bru_area</t>
         </is>
       </c>
       <c r="AD73" t="inlineStr">
@@ -14580,12 +14508,12 @@
       </c>
       <c r="AQ73" t="inlineStr">
         <is>
-          <t>acq_smzoo</t>
+          <t>acq_smbase</t>
         </is>
       </c>
       <c r="AR73" t="inlineStr">
         <is>
-          <t>micrometer</t>
+          <t>pixel</t>
         </is>
       </c>
       <c r="AS73" t="inlineStr"/>
@@ -14607,7 +14535,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>~/GIT/PSSdb/raw/ecotaxa</t>
+          <t>~/GIT/PSSdb/raw/ecotaxa_ecopart_consolidation</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -14657,7 +14585,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>object_depth_min</t>
+          <t>object_corrected_min_depth_bin</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -14667,7 +14595,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>object_depth_max</t>
+          <t>object_corrected_max_depth_bin</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
@@ -14675,16 +14603,8 @@
           <t>meter</t>
         </is>
       </c>
-      <c r="Q74" t="inlineStr">
-        <is>
-          <t>object_date</t>
-        </is>
-      </c>
-      <c r="R74" t="inlineStr">
-        <is>
-          <t>%Y%m%d</t>
-        </is>
-      </c>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
       <c r="S74" t="inlineStr">
         <is>
           <t>object_time</t>
@@ -14692,12 +14612,12 @@
       </c>
       <c r="T74" t="inlineStr">
         <is>
-          <t>%H%M%S</t>
+          <t>%Y-%m-%d %H:%M:%S</t>
         </is>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>acq_volimage</t>
+          <t>object_volume_bin</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
@@ -14717,7 +14637,7 @@
       <c r="AB74" t="inlineStr"/>
       <c r="AC74" t="inlineStr">
         <is>
-          <t>object_area</t>
+          <t>object_bru_area</t>
         </is>
       </c>
       <c r="AD74" t="inlineStr">
@@ -14757,11 +14677,7 @@
       </c>
       <c r="AK74" t="inlineStr"/>
       <c r="AL74" t="inlineStr"/>
-      <c r="AM74" t="inlineStr">
-        <is>
-          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_6702_flags.csv</t>
-        </is>
-      </c>
+      <c r="AM74" t="inlineStr"/>
       <c r="AN74" t="inlineStr"/>
       <c r="AO74" t="inlineStr">
         <is>
@@ -14775,7 +14691,7 @@
       </c>
       <c r="AQ74" t="inlineStr">
         <is>
-          <t>acq_smzoo</t>
+          <t>acq_smbase</t>
         </is>
       </c>
       <c r="AR74" t="inlineStr">
@@ -14802,7 +14718,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>~/GIT/PSSdb/raw/ecotaxa</t>
+          <t>~/GIT/PSSdb/raw/ecotaxa_ecopart_consolidation</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -14852,7 +14768,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>object_depth_min</t>
+          <t>object_corrected_min_depth_bin</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -14862,7 +14778,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>object_depth_max</t>
+          <t>object_corrected_max_depth_bin</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
@@ -14870,16 +14786,8 @@
           <t>meter</t>
         </is>
       </c>
-      <c r="Q75" t="inlineStr">
-        <is>
-          <t>object_date</t>
-        </is>
-      </c>
-      <c r="R75" t="inlineStr">
-        <is>
-          <t>%Y%m%d</t>
-        </is>
-      </c>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
       <c r="S75" t="inlineStr">
         <is>
           <t>object_time</t>
@@ -14887,12 +14795,12 @@
       </c>
       <c r="T75" t="inlineStr">
         <is>
-          <t>%H%M%S</t>
+          <t>%Y-%m-%d %H:%M:%S</t>
         </is>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>acq_volimage</t>
+          <t>object_volume_bin</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
@@ -14912,7 +14820,7 @@
       <c r="AB75" t="inlineStr"/>
       <c r="AC75" t="inlineStr">
         <is>
-          <t>object_area</t>
+          <t>object_bru_area</t>
         </is>
       </c>
       <c r="AD75" t="inlineStr">
@@ -14952,11 +14860,7 @@
       </c>
       <c r="AK75" t="inlineStr"/>
       <c r="AL75" t="inlineStr"/>
-      <c r="AM75" t="inlineStr">
-        <is>
-          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_6703_flags.csv</t>
-        </is>
-      </c>
+      <c r="AM75" t="inlineStr"/>
       <c r="AN75" t="inlineStr"/>
       <c r="AO75" t="inlineStr">
         <is>
@@ -14970,7 +14874,7 @@
       </c>
       <c r="AQ75" t="inlineStr">
         <is>
-          <t>acq_smzoo</t>
+          <t>acq_smbase</t>
         </is>
       </c>
       <c r="AR75" t="inlineStr">
@@ -14997,7 +14901,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>~/GIT/PSSdb/raw/ecotaxa</t>
+          <t>~/GIT/PSSdb/raw/ecotaxa_ecopart_consolidation</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -15047,7 +14951,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>object_depth_min</t>
+          <t>object_corrected_min_depth_bin</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -15057,7 +14961,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>object_depth_max</t>
+          <t>object_corrected_max_depth_bin</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
@@ -15065,16 +14969,8 @@
           <t>meter</t>
         </is>
       </c>
-      <c r="Q76" t="inlineStr">
-        <is>
-          <t>object_date</t>
-        </is>
-      </c>
-      <c r="R76" t="inlineStr">
-        <is>
-          <t>%Y%m%d</t>
-        </is>
-      </c>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
       <c r="S76" t="inlineStr">
         <is>
           <t>object_time</t>
@@ -15082,12 +14978,12 @@
       </c>
       <c r="T76" t="inlineStr">
         <is>
-          <t>%H%M%S</t>
+          <t>%Y-%m-%d %H:%M:%S</t>
         </is>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>acq_volimage</t>
+          <t>object_volume_bin</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
@@ -15107,7 +15003,7 @@
       <c r="AB76" t="inlineStr"/>
       <c r="AC76" t="inlineStr">
         <is>
-          <t>object_area</t>
+          <t>object_bru_area</t>
         </is>
       </c>
       <c r="AD76" t="inlineStr">
@@ -15147,11 +15043,7 @@
       </c>
       <c r="AK76" t="inlineStr"/>
       <c r="AL76" t="inlineStr"/>
-      <c r="AM76" t="inlineStr">
-        <is>
-          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_6704_flags.csv</t>
-        </is>
-      </c>
+      <c r="AM76" t="inlineStr"/>
       <c r="AN76" t="inlineStr"/>
       <c r="AO76" t="inlineStr">
         <is>
@@ -15165,7 +15057,7 @@
       </c>
       <c r="AQ76" t="inlineStr">
         <is>
-          <t>acq_smzoo</t>
+          <t>acq_smbase</t>
         </is>
       </c>
       <c r="AR76" t="inlineStr">
@@ -15192,7 +15084,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>~/GIT/PSSdb/raw/ecotaxa</t>
+          <t>~/GIT/PSSdb/raw/ecotaxa_ecopart_consolidation</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -15242,7 +15134,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>object_depth_min</t>
+          <t>object_corrected_min_depth_bin</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -15252,7 +15144,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>object_depth_max</t>
+          <t>object_corrected_max_depth_bin</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
@@ -15260,16 +15152,8 @@
           <t>meter</t>
         </is>
       </c>
-      <c r="Q77" t="inlineStr">
-        <is>
-          <t>object_date</t>
-        </is>
-      </c>
-      <c r="R77" t="inlineStr">
-        <is>
-          <t>%Y%m%d</t>
-        </is>
-      </c>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
       <c r="S77" t="inlineStr">
         <is>
           <t>object_time</t>
@@ -15277,12 +15161,12 @@
       </c>
       <c r="T77" t="inlineStr">
         <is>
-          <t>%H%M%S</t>
+          <t>%Y-%m-%d %H:%M:%S</t>
         </is>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>acq_volimage</t>
+          <t>object_volume_bin</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
@@ -15302,7 +15186,7 @@
       <c r="AB77" t="inlineStr"/>
       <c r="AC77" t="inlineStr">
         <is>
-          <t>object_area</t>
+          <t>object_bru_area</t>
         </is>
       </c>
       <c r="AD77" t="inlineStr">
@@ -15391,7 +15275,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>~/GIT/PSSdb/raw/ecotaxa</t>
+          <t>~/GIT/PSSdb/raw/ecotaxa_ecopart_consolidation</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -15441,7 +15325,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>object_depth_min</t>
+          <t>object_corrected_min_depth_bin</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -15451,7 +15335,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>object_depth_max</t>
+          <t>object_corrected_max_depth_bin</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
@@ -15459,16 +15343,8 @@
           <t>meter</t>
         </is>
       </c>
-      <c r="Q78" t="inlineStr">
-        <is>
-          <t>object_date</t>
-        </is>
-      </c>
-      <c r="R78" t="inlineStr">
-        <is>
-          <t>%Y%m%d</t>
-        </is>
-      </c>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
       <c r="S78" t="inlineStr">
         <is>
           <t>object_time</t>
@@ -15476,12 +15352,12 @@
       </c>
       <c r="T78" t="inlineStr">
         <is>
-          <t>%H%M%S</t>
+          <t>%Y-%m-%d %H:%M:%S</t>
         </is>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>acq_volimage</t>
+          <t>object_volume_bin</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
@@ -15501,7 +15377,7 @@
       <c r="AB78" t="inlineStr"/>
       <c r="AC78" t="inlineStr">
         <is>
-          <t>object_area</t>
+          <t>object_bru_area</t>
         </is>
       </c>
       <c r="AD78" t="inlineStr">
@@ -15549,11 +15425,7 @@
           <t>object_annotation_status</t>
         </is>
       </c>
-      <c r="AM78" t="inlineStr">
-        <is>
-          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_7546_flags.csv</t>
-        </is>
-      </c>
+      <c r="AM78" t="inlineStr"/>
       <c r="AN78" t="inlineStr"/>
       <c r="AO78" t="inlineStr">
         <is>
@@ -15567,7 +15439,7 @@
       </c>
       <c r="AQ78" t="inlineStr">
         <is>
-          <t>acq_smzoo</t>
+          <t>acq_smbase</t>
         </is>
       </c>
       <c r="AR78" t="inlineStr">
@@ -58779,7 +58651,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU142"/>
+  <dimension ref="A1:AU155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86943,6 +86815,2577 @@
         </is>
       </c>
     </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>4661</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>https://ecotaxa.obs-vlfr.fr/prj/4661</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>~/GIT/PSSdb/raw/ecotaxa</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>UVP</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>sample_cruise</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>sample_stationid</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>sample_profileid</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>sample_id</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>object_lat</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>degree</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>object_lon</t>
+        </is>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>degree</t>
+        </is>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>object_depth_min</t>
+        </is>
+      </c>
+      <c r="N143" t="inlineStr">
+        <is>
+          <t>meter</t>
+        </is>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>object_depth_max</t>
+        </is>
+      </c>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>meter</t>
+        </is>
+      </c>
+      <c r="Q143" t="inlineStr">
+        <is>
+          <t>object_date</t>
+        </is>
+      </c>
+      <c r="R143" t="inlineStr">
+        <is>
+          <t>%Y%m%d</t>
+        </is>
+      </c>
+      <c r="S143" t="inlineStr">
+        <is>
+          <t>object_time</t>
+        </is>
+      </c>
+      <c r="T143" t="inlineStr">
+        <is>
+          <t>%H%M%S</t>
+        </is>
+      </c>
+      <c r="U143" t="inlineStr">
+        <is>
+          <t>acq_volimage</t>
+        </is>
+      </c>
+      <c r="V143" t="inlineStr">
+        <is>
+          <t>cubic_decimeter</t>
+        </is>
+      </c>
+      <c r="W143" t="inlineStr"/>
+      <c r="X143" t="inlineStr">
+        <is>
+          <t>object_id</t>
+        </is>
+      </c>
+      <c r="Y143" t="inlineStr"/>
+      <c r="Z143" t="inlineStr"/>
+      <c r="AA143" t="inlineStr"/>
+      <c r="AB143" t="inlineStr"/>
+      <c r="AC143" t="inlineStr">
+        <is>
+          <t>object_area</t>
+        </is>
+      </c>
+      <c r="AD143" t="inlineStr">
+        <is>
+          <t>square_pixel</t>
+        </is>
+      </c>
+      <c r="AE143" t="inlineStr">
+        <is>
+          <t>object_minor</t>
+        </is>
+      </c>
+      <c r="AF143" t="inlineStr">
+        <is>
+          <t>pixel</t>
+        </is>
+      </c>
+      <c r="AG143" t="inlineStr">
+        <is>
+          <t>object_major</t>
+        </is>
+      </c>
+      <c r="AH143" t="inlineStr">
+        <is>
+          <t>pixel</t>
+        </is>
+      </c>
+      <c r="AI143" t="inlineStr">
+        <is>
+          <t>acq_pixel</t>
+        </is>
+      </c>
+      <c r="AJ143" t="inlineStr">
+        <is>
+          <t>millimeter_per_pixel</t>
+        </is>
+      </c>
+      <c r="AK143" t="inlineStr">
+        <is>
+          <t>object_annotation_category</t>
+        </is>
+      </c>
+      <c r="AL143" t="inlineStr">
+        <is>
+          <t>object_annotation_status</t>
+        </is>
+      </c>
+      <c r="AM143" t="inlineStr">
+        <is>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_4661_flags.csv</t>
+        </is>
+      </c>
+      <c r="AN143" t="inlineStr"/>
+      <c r="AO143" t="inlineStr">
+        <is>
+          <t>371</t>
+        </is>
+      </c>
+      <c r="AP143" t="inlineStr">
+        <is>
+          <t>acq_instrument</t>
+        </is>
+      </c>
+      <c r="AQ143" t="inlineStr">
+        <is>
+          <t>acq_smzoo</t>
+        </is>
+      </c>
+      <c r="AR143" t="inlineStr">
+        <is>
+          <t>pixel</t>
+        </is>
+      </c>
+      <c r="AS143" t="inlineStr"/>
+      <c r="AT143" t="inlineStr"/>
+      <c r="AU143" t="inlineStr">
+        <is>
+          <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>5197</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>https://ecotaxa.obs-vlfr.fr/prj/5197</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>~/GIT/PSSdb/raw/ecotaxa</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>UVP</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>sample_cruise</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>sample_stationid</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>sample_profileid</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>sample_id</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>object_lat</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>degree</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>object_lon</t>
+        </is>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>degree</t>
+        </is>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>object_depth_min</t>
+        </is>
+      </c>
+      <c r="N144" t="inlineStr">
+        <is>
+          <t>meter</t>
+        </is>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>object_depth_max</t>
+        </is>
+      </c>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>meter</t>
+        </is>
+      </c>
+      <c r="Q144" t="inlineStr">
+        <is>
+          <t>object_date</t>
+        </is>
+      </c>
+      <c r="R144" t="inlineStr">
+        <is>
+          <t>%Y%m%d</t>
+        </is>
+      </c>
+      <c r="S144" t="inlineStr">
+        <is>
+          <t>object_time</t>
+        </is>
+      </c>
+      <c r="T144" t="inlineStr">
+        <is>
+          <t>%H%M%S</t>
+        </is>
+      </c>
+      <c r="U144" t="inlineStr">
+        <is>
+          <t>acq_volimage</t>
+        </is>
+      </c>
+      <c r="V144" t="inlineStr">
+        <is>
+          <t>cubic_decimeter</t>
+        </is>
+      </c>
+      <c r="W144" t="inlineStr"/>
+      <c r="X144" t="inlineStr">
+        <is>
+          <t>object_id</t>
+        </is>
+      </c>
+      <c r="Y144" t="inlineStr"/>
+      <c r="Z144" t="inlineStr"/>
+      <c r="AA144" t="inlineStr"/>
+      <c r="AB144" t="inlineStr"/>
+      <c r="AC144" t="inlineStr">
+        <is>
+          <t>object_area</t>
+        </is>
+      </c>
+      <c r="AD144" t="inlineStr">
+        <is>
+          <t>square_pixel</t>
+        </is>
+      </c>
+      <c r="AE144" t="inlineStr">
+        <is>
+          <t>object_minor</t>
+        </is>
+      </c>
+      <c r="AF144" t="inlineStr">
+        <is>
+          <t>pixel</t>
+        </is>
+      </c>
+      <c r="AG144" t="inlineStr">
+        <is>
+          <t>object_major</t>
+        </is>
+      </c>
+      <c r="AH144" t="inlineStr">
+        <is>
+          <t>pixel</t>
+        </is>
+      </c>
+      <c r="AI144" t="inlineStr">
+        <is>
+          <t>process_pixel</t>
+        </is>
+      </c>
+      <c r="AJ144" t="inlineStr">
+        <is>
+          <t>millimeter_per_pixel</t>
+        </is>
+      </c>
+      <c r="AK144" t="inlineStr"/>
+      <c r="AL144" t="inlineStr"/>
+      <c r="AM144" t="inlineStr"/>
+      <c r="AN144" t="inlineStr"/>
+      <c r="AO144" t="inlineStr">
+        <is>
+          <t>428</t>
+        </is>
+      </c>
+      <c r="AP144" t="inlineStr">
+        <is>
+          <t>acq_instrument</t>
+        </is>
+      </c>
+      <c r="AQ144" t="inlineStr">
+        <is>
+          <t>acq_smzoo</t>
+        </is>
+      </c>
+      <c r="AR144" t="inlineStr">
+        <is>
+          <t>pixel</t>
+        </is>
+      </c>
+      <c r="AS144" t="inlineStr"/>
+      <c r="AT144" t="inlineStr"/>
+      <c r="AU144" t="inlineStr">
+        <is>
+          <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>https://ecotaxa.obs-vlfr.fr/prj/5208</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>~/GIT/PSSdb/raw/ecotaxa</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>UVP</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>sample_cruise</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>sample_stationid</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>sample_profileid</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>sample_id</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>object_lat</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>degree</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>object_lon</t>
+        </is>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>degree</t>
+        </is>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>object_depth_min</t>
+        </is>
+      </c>
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>meter</t>
+        </is>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>object_depth_max</t>
+        </is>
+      </c>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>meter</t>
+        </is>
+      </c>
+      <c r="Q145" t="inlineStr">
+        <is>
+          <t>object_date</t>
+        </is>
+      </c>
+      <c r="R145" t="inlineStr">
+        <is>
+          <t>%Y%m%d</t>
+        </is>
+      </c>
+      <c r="S145" t="inlineStr">
+        <is>
+          <t>object_time</t>
+        </is>
+      </c>
+      <c r="T145" t="inlineStr">
+        <is>
+          <t>%H%M%S</t>
+        </is>
+      </c>
+      <c r="U145" t="inlineStr">
+        <is>
+          <t>acq_volimage</t>
+        </is>
+      </c>
+      <c r="V145" t="inlineStr">
+        <is>
+          <t>cubic_decimeter</t>
+        </is>
+      </c>
+      <c r="W145" t="inlineStr"/>
+      <c r="X145" t="inlineStr">
+        <is>
+          <t>object_id</t>
+        </is>
+      </c>
+      <c r="Y145" t="inlineStr"/>
+      <c r="Z145" t="inlineStr"/>
+      <c r="AA145" t="inlineStr"/>
+      <c r="AB145" t="inlineStr"/>
+      <c r="AC145" t="inlineStr">
+        <is>
+          <t>object_area</t>
+        </is>
+      </c>
+      <c r="AD145" t="inlineStr">
+        <is>
+          <t>square_pixel</t>
+        </is>
+      </c>
+      <c r="AE145" t="inlineStr">
+        <is>
+          <t>object_minor</t>
+        </is>
+      </c>
+      <c r="AF145" t="inlineStr">
+        <is>
+          <t>pixel</t>
+        </is>
+      </c>
+      <c r="AG145" t="inlineStr">
+        <is>
+          <t>object_major</t>
+        </is>
+      </c>
+      <c r="AH145" t="inlineStr">
+        <is>
+          <t>pixel</t>
+        </is>
+      </c>
+      <c r="AI145" t="inlineStr">
+        <is>
+          <t>process_pixel</t>
+        </is>
+      </c>
+      <c r="AJ145" t="inlineStr">
+        <is>
+          <t>millimeter_per_pixel</t>
+        </is>
+      </c>
+      <c r="AK145" t="inlineStr"/>
+      <c r="AL145" t="inlineStr"/>
+      <c r="AM145" t="inlineStr">
+        <is>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_5208_flags.csv</t>
+        </is>
+      </c>
+      <c r="AN145" t="inlineStr"/>
+      <c r="AO145" t="inlineStr">
+        <is>
+          <t>430</t>
+        </is>
+      </c>
+      <c r="AP145" t="inlineStr">
+        <is>
+          <t>acq_instrument</t>
+        </is>
+      </c>
+      <c r="AQ145" t="inlineStr">
+        <is>
+          <t>acq_smzoo</t>
+        </is>
+      </c>
+      <c r="AR145" t="inlineStr">
+        <is>
+          <t>pixel</t>
+        </is>
+      </c>
+      <c r="AS145" t="inlineStr"/>
+      <c r="AT145" t="inlineStr"/>
+      <c r="AU145" t="inlineStr">
+        <is>
+          <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>5254</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>https://ecotaxa.obs-vlfr.fr/prj/5254</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>~/GIT/PSSdb/raw/ecotaxa</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>UVP</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>sample_cruise</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>sample_stationid</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>sample_profileid</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>sample_id</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>object_lat</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>degree</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>object_lon</t>
+        </is>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>degree</t>
+        </is>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>object_depth_min</t>
+        </is>
+      </c>
+      <c r="N146" t="inlineStr">
+        <is>
+          <t>meter</t>
+        </is>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>object_depth_max</t>
+        </is>
+      </c>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>meter</t>
+        </is>
+      </c>
+      <c r="Q146" t="inlineStr">
+        <is>
+          <t>object_date</t>
+        </is>
+      </c>
+      <c r="R146" t="inlineStr">
+        <is>
+          <t>%Y%m%d</t>
+        </is>
+      </c>
+      <c r="S146" t="inlineStr">
+        <is>
+          <t>object_time</t>
+        </is>
+      </c>
+      <c r="T146" t="inlineStr">
+        <is>
+          <t>%H%M%S</t>
+        </is>
+      </c>
+      <c r="U146" t="inlineStr">
+        <is>
+          <t>acq_volimage</t>
+        </is>
+      </c>
+      <c r="V146" t="inlineStr">
+        <is>
+          <t>cubic_decimeter</t>
+        </is>
+      </c>
+      <c r="W146" t="inlineStr"/>
+      <c r="X146" t="inlineStr">
+        <is>
+          <t>object_id</t>
+        </is>
+      </c>
+      <c r="Y146" t="inlineStr"/>
+      <c r="Z146" t="inlineStr"/>
+      <c r="AA146" t="inlineStr"/>
+      <c r="AB146" t="inlineStr"/>
+      <c r="AC146" t="inlineStr">
+        <is>
+          <t>object_area</t>
+        </is>
+      </c>
+      <c r="AD146" t="inlineStr">
+        <is>
+          <t>square_pixel</t>
+        </is>
+      </c>
+      <c r="AE146" t="inlineStr">
+        <is>
+          <t>object_minor</t>
+        </is>
+      </c>
+      <c r="AF146" t="inlineStr">
+        <is>
+          <t>pixel</t>
+        </is>
+      </c>
+      <c r="AG146" t="inlineStr">
+        <is>
+          <t>object_major</t>
+        </is>
+      </c>
+      <c r="AH146" t="inlineStr">
+        <is>
+          <t>pixel</t>
+        </is>
+      </c>
+      <c r="AI146" t="inlineStr">
+        <is>
+          <t>process_pixel</t>
+        </is>
+      </c>
+      <c r="AJ146" t="inlineStr">
+        <is>
+          <t>millimeter_per_pixel</t>
+        </is>
+      </c>
+      <c r="AK146" t="inlineStr">
+        <is>
+          <t>object_annotation_category</t>
+        </is>
+      </c>
+      <c r="AL146" t="inlineStr">
+        <is>
+          <t>object_annotation_status</t>
+        </is>
+      </c>
+      <c r="AM146" t="inlineStr"/>
+      <c r="AN146" t="inlineStr"/>
+      <c r="AO146" t="inlineStr">
+        <is>
+          <t>433</t>
+        </is>
+      </c>
+      <c r="AP146" t="inlineStr">
+        <is>
+          <t>acq_instrument</t>
+        </is>
+      </c>
+      <c r="AQ146" t="inlineStr">
+        <is>
+          <t>acq_smzoo</t>
+        </is>
+      </c>
+      <c r="AR146" t="inlineStr">
+        <is>
+          <t>pixel</t>
+        </is>
+      </c>
+      <c r="AS146" t="inlineStr"/>
+      <c r="AT146" t="inlineStr"/>
+      <c r="AU146" t="inlineStr">
+        <is>
+          <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>5680</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>https://ecotaxa.obs-vlfr.fr/prj/5680</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>~/GIT/PSSdb/raw/ecotaxa</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>UVP</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>sample_cruise</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>sample_stationid</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>sample_profileid</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>sample_id</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>object_lat</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>degree</t>
+        </is>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>object_lon</t>
+        </is>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>degree</t>
+        </is>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>object_depth_min</t>
+        </is>
+      </c>
+      <c r="N147" t="inlineStr">
+        <is>
+          <t>meter</t>
+        </is>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>object_depth_max</t>
+        </is>
+      </c>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>meter</t>
+        </is>
+      </c>
+      <c r="Q147" t="inlineStr">
+        <is>
+          <t>object_date</t>
+        </is>
+      </c>
+      <c r="R147" t="inlineStr">
+        <is>
+          <t>%Y%m%d</t>
+        </is>
+      </c>
+      <c r="S147" t="inlineStr">
+        <is>
+          <t>object_time</t>
+        </is>
+      </c>
+      <c r="T147" t="inlineStr">
+        <is>
+          <t>%H%M%S</t>
+        </is>
+      </c>
+      <c r="U147" t="inlineStr">
+        <is>
+          <t>acq_volimage</t>
+        </is>
+      </c>
+      <c r="V147" t="inlineStr">
+        <is>
+          <t>cubic_decimeter</t>
+        </is>
+      </c>
+      <c r="W147" t="inlineStr"/>
+      <c r="X147" t="inlineStr">
+        <is>
+          <t>object_id</t>
+        </is>
+      </c>
+      <c r="Y147" t="inlineStr"/>
+      <c r="Z147" t="inlineStr"/>
+      <c r="AA147" t="inlineStr"/>
+      <c r="AB147" t="inlineStr"/>
+      <c r="AC147" t="inlineStr">
+        <is>
+          <t>object_area</t>
+        </is>
+      </c>
+      <c r="AD147" t="inlineStr">
+        <is>
+          <t>square_pixel</t>
+        </is>
+      </c>
+      <c r="AE147" t="inlineStr">
+        <is>
+          <t>object_minor</t>
+        </is>
+      </c>
+      <c r="AF147" t="inlineStr">
+        <is>
+          <t>pixel</t>
+        </is>
+      </c>
+      <c r="AG147" t="inlineStr">
+        <is>
+          <t>object_major</t>
+        </is>
+      </c>
+      <c r="AH147" t="inlineStr">
+        <is>
+          <t>pixel</t>
+        </is>
+      </c>
+      <c r="AI147" t="inlineStr">
+        <is>
+          <t>acq_pixel</t>
+        </is>
+      </c>
+      <c r="AJ147" t="inlineStr">
+        <is>
+          <t>micron_per_pixel</t>
+        </is>
+      </c>
+      <c r="AK147" t="inlineStr">
+        <is>
+          <t>object_annotation_category</t>
+        </is>
+      </c>
+      <c r="AL147" t="inlineStr">
+        <is>
+          <t>object_annotation_status</t>
+        </is>
+      </c>
+      <c r="AM147" t="inlineStr"/>
+      <c r="AN147" t="inlineStr"/>
+      <c r="AO147" t="inlineStr">
+        <is>
+          <t>438</t>
+        </is>
+      </c>
+      <c r="AP147" t="inlineStr">
+        <is>
+          <t>acq_instrument</t>
+        </is>
+      </c>
+      <c r="AQ147" t="inlineStr">
+        <is>
+          <t>acq_smzoo</t>
+        </is>
+      </c>
+      <c r="AR147" t="inlineStr">
+        <is>
+          <t>micrometer</t>
+        </is>
+      </c>
+      <c r="AS147" t="inlineStr"/>
+      <c r="AT147" t="inlineStr"/>
+      <c r="AU147" t="inlineStr">
+        <is>
+          <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>5690</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>https://ecotaxa.obs-vlfr.fr/prj/5690</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>~/GIT/PSSdb/raw/ecotaxa</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>UVP</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>sample_cruise</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>sample_stationid</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>sample_profileid</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>sample_id</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>object_lat</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>degree</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>object_lon</t>
+        </is>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>degree</t>
+        </is>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>object_depth_min</t>
+        </is>
+      </c>
+      <c r="N148" t="inlineStr">
+        <is>
+          <t>meter</t>
+        </is>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>object_depth_max</t>
+        </is>
+      </c>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>meter</t>
+        </is>
+      </c>
+      <c r="Q148" t="inlineStr">
+        <is>
+          <t>object_date</t>
+        </is>
+      </c>
+      <c r="R148" t="inlineStr">
+        <is>
+          <t>%Y%m%d</t>
+        </is>
+      </c>
+      <c r="S148" t="inlineStr">
+        <is>
+          <t>object_time</t>
+        </is>
+      </c>
+      <c r="T148" t="inlineStr">
+        <is>
+          <t>%H%M%S</t>
+        </is>
+      </c>
+      <c r="U148" t="inlineStr">
+        <is>
+          <t>acq_volimage</t>
+        </is>
+      </c>
+      <c r="V148" t="inlineStr">
+        <is>
+          <t>cubic_decimeter</t>
+        </is>
+      </c>
+      <c r="W148" t="inlineStr"/>
+      <c r="X148" t="inlineStr">
+        <is>
+          <t>object_id</t>
+        </is>
+      </c>
+      <c r="Y148" t="inlineStr"/>
+      <c r="Z148" t="inlineStr"/>
+      <c r="AA148" t="inlineStr"/>
+      <c r="AB148" t="inlineStr"/>
+      <c r="AC148" t="inlineStr">
+        <is>
+          <t>object_area</t>
+        </is>
+      </c>
+      <c r="AD148" t="inlineStr">
+        <is>
+          <t>square_pixel</t>
+        </is>
+      </c>
+      <c r="AE148" t="inlineStr">
+        <is>
+          <t>object_minor</t>
+        </is>
+      </c>
+      <c r="AF148" t="inlineStr">
+        <is>
+          <t>pixel</t>
+        </is>
+      </c>
+      <c r="AG148" t="inlineStr">
+        <is>
+          <t>object_major</t>
+        </is>
+      </c>
+      <c r="AH148" t="inlineStr">
+        <is>
+          <t>pixel</t>
+        </is>
+      </c>
+      <c r="AI148" t="inlineStr">
+        <is>
+          <t>process_pixel</t>
+        </is>
+      </c>
+      <c r="AJ148" t="inlineStr">
+        <is>
+          <t>millimeter_per_pixel</t>
+        </is>
+      </c>
+      <c r="AK148" t="inlineStr">
+        <is>
+          <t>object_annotation_category</t>
+        </is>
+      </c>
+      <c r="AL148" t="inlineStr">
+        <is>
+          <t>object_annotation_status</t>
+        </is>
+      </c>
+      <c r="AM148" t="inlineStr"/>
+      <c r="AN148" t="inlineStr"/>
+      <c r="AO148" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="AP148" t="inlineStr">
+        <is>
+          <t>acq_instrument</t>
+        </is>
+      </c>
+      <c r="AQ148" t="inlineStr">
+        <is>
+          <t>acq_smzoo</t>
+        </is>
+      </c>
+      <c r="AR148" t="inlineStr">
+        <is>
+          <t>pixel</t>
+        </is>
+      </c>
+      <c r="AS148" t="inlineStr"/>
+      <c r="AT148" t="inlineStr"/>
+      <c r="AU148" t="inlineStr">
+        <is>
+          <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>5693</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>https://ecotaxa.obs-vlfr.fr/prj/5693</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>~/GIT/PSSdb/raw/ecotaxa</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>UVP</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>sample_cruise</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>sample_stationid</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>sample_profileid</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>sample_id</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>object_lat</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>degree</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>object_lon</t>
+        </is>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>degree</t>
+        </is>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>object_depth_min</t>
+        </is>
+      </c>
+      <c r="N149" t="inlineStr">
+        <is>
+          <t>meter</t>
+        </is>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>object_depth_max</t>
+        </is>
+      </c>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>meter</t>
+        </is>
+      </c>
+      <c r="Q149" t="inlineStr">
+        <is>
+          <t>object_date</t>
+        </is>
+      </c>
+      <c r="R149" t="inlineStr">
+        <is>
+          <t>%Y%m%d</t>
+        </is>
+      </c>
+      <c r="S149" t="inlineStr">
+        <is>
+          <t>object_time</t>
+        </is>
+      </c>
+      <c r="T149" t="inlineStr">
+        <is>
+          <t>%H%M%S</t>
+        </is>
+      </c>
+      <c r="U149" t="inlineStr">
+        <is>
+          <t>acq_volimage</t>
+        </is>
+      </c>
+      <c r="V149" t="inlineStr">
+        <is>
+          <t>cubic_decimeter</t>
+        </is>
+      </c>
+      <c r="W149" t="inlineStr"/>
+      <c r="X149" t="inlineStr">
+        <is>
+          <t>object_id</t>
+        </is>
+      </c>
+      <c r="Y149" t="inlineStr"/>
+      <c r="Z149" t="inlineStr"/>
+      <c r="AA149" t="inlineStr"/>
+      <c r="AB149" t="inlineStr"/>
+      <c r="AC149" t="inlineStr">
+        <is>
+          <t>object_area</t>
+        </is>
+      </c>
+      <c r="AD149" t="inlineStr">
+        <is>
+          <t>square_pixel</t>
+        </is>
+      </c>
+      <c r="AE149" t="inlineStr">
+        <is>
+          <t>object_minor</t>
+        </is>
+      </c>
+      <c r="AF149" t="inlineStr">
+        <is>
+          <t>pixel</t>
+        </is>
+      </c>
+      <c r="AG149" t="inlineStr">
+        <is>
+          <t>object_major</t>
+        </is>
+      </c>
+      <c r="AH149" t="inlineStr">
+        <is>
+          <t>pixel</t>
+        </is>
+      </c>
+      <c r="AI149" t="inlineStr">
+        <is>
+          <t>process_pixel</t>
+        </is>
+      </c>
+      <c r="AJ149" t="inlineStr">
+        <is>
+          <t>millimeter_per_pixel</t>
+        </is>
+      </c>
+      <c r="AK149" t="inlineStr">
+        <is>
+          <t>object_annotation_category</t>
+        </is>
+      </c>
+      <c r="AL149" t="inlineStr">
+        <is>
+          <t>object_annotation_status</t>
+        </is>
+      </c>
+      <c r="AM149" t="inlineStr"/>
+      <c r="AN149" t="inlineStr"/>
+      <c r="AO149" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="AP149" t="inlineStr">
+        <is>
+          <t>acq_instrument</t>
+        </is>
+      </c>
+      <c r="AQ149" t="inlineStr">
+        <is>
+          <t>acq_smzoo</t>
+        </is>
+      </c>
+      <c r="AR149" t="inlineStr">
+        <is>
+          <t>pixel</t>
+        </is>
+      </c>
+      <c r="AS149" t="inlineStr"/>
+      <c r="AT149" t="inlineStr"/>
+      <c r="AU149" t="inlineStr">
+        <is>
+          <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>6047</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>https://ecotaxa.obs-vlfr.fr/prj/6047</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>~/GIT/PSSdb/raw/ecotaxa</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>UVP</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>sample_cruise</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>sample_stationid</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>sample_profileid</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>sample_id</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>object_lat</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>degree</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>object_lon</t>
+        </is>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>degree</t>
+        </is>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>object_depth_min</t>
+        </is>
+      </c>
+      <c r="N150" t="inlineStr">
+        <is>
+          <t>meter</t>
+        </is>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>object_depth_max</t>
+        </is>
+      </c>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>meter</t>
+        </is>
+      </c>
+      <c r="Q150" t="inlineStr">
+        <is>
+          <t>object_date</t>
+        </is>
+      </c>
+      <c r="R150" t="inlineStr">
+        <is>
+          <t>%Y%m%d</t>
+        </is>
+      </c>
+      <c r="S150" t="inlineStr">
+        <is>
+          <t>object_time</t>
+        </is>
+      </c>
+      <c r="T150" t="inlineStr">
+        <is>
+          <t>%H%M%S</t>
+        </is>
+      </c>
+      <c r="U150" t="inlineStr">
+        <is>
+          <t>acq_volimage</t>
+        </is>
+      </c>
+      <c r="V150" t="inlineStr">
+        <is>
+          <t>cubic_decimeter</t>
+        </is>
+      </c>
+      <c r="W150" t="inlineStr"/>
+      <c r="X150" t="inlineStr">
+        <is>
+          <t>object_id</t>
+        </is>
+      </c>
+      <c r="Y150" t="inlineStr"/>
+      <c r="Z150" t="inlineStr"/>
+      <c r="AA150" t="inlineStr"/>
+      <c r="AB150" t="inlineStr"/>
+      <c r="AC150" t="inlineStr">
+        <is>
+          <t>object_area</t>
+        </is>
+      </c>
+      <c r="AD150" t="inlineStr">
+        <is>
+          <t>square_pixel</t>
+        </is>
+      </c>
+      <c r="AE150" t="inlineStr">
+        <is>
+          <t>object_minor</t>
+        </is>
+      </c>
+      <c r="AF150" t="inlineStr">
+        <is>
+          <t>pixel</t>
+        </is>
+      </c>
+      <c r="AG150" t="inlineStr">
+        <is>
+          <t>object_major</t>
+        </is>
+      </c>
+      <c r="AH150" t="inlineStr">
+        <is>
+          <t>pixel</t>
+        </is>
+      </c>
+      <c r="AI150" t="inlineStr">
+        <is>
+          <t>acq_pixel</t>
+        </is>
+      </c>
+      <c r="AJ150" t="inlineStr">
+        <is>
+          <t>micron_per_pixel</t>
+        </is>
+      </c>
+      <c r="AK150" t="inlineStr">
+        <is>
+          <t>object_annotation_category</t>
+        </is>
+      </c>
+      <c r="AL150" t="inlineStr">
+        <is>
+          <t>object_annotation_status</t>
+        </is>
+      </c>
+      <c r="AM150" t="inlineStr"/>
+      <c r="AN150" t="inlineStr"/>
+      <c r="AO150" t="inlineStr">
+        <is>
+          <t>494</t>
+        </is>
+      </c>
+      <c r="AP150" t="inlineStr">
+        <is>
+          <t>acq_instrument</t>
+        </is>
+      </c>
+      <c r="AQ150" t="inlineStr">
+        <is>
+          <t>acq_smzoo</t>
+        </is>
+      </c>
+      <c r="AR150" t="inlineStr">
+        <is>
+          <t>micrometer</t>
+        </is>
+      </c>
+      <c r="AS150" t="inlineStr"/>
+      <c r="AT150" t="inlineStr"/>
+      <c r="AU150" t="inlineStr">
+        <is>
+          <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>6702</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>https://ecotaxa.obs-vlfr.fr/prj/6702</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>~/GIT/PSSdb/raw/ecotaxa</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>UVP</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>sample_cruise</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>sample_stationid</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>sample_profileid</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>sample_id</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>object_lat</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>degree</t>
+        </is>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>object_lon</t>
+        </is>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>degree</t>
+        </is>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>object_depth_min</t>
+        </is>
+      </c>
+      <c r="N151" t="inlineStr">
+        <is>
+          <t>meter</t>
+        </is>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>object_depth_max</t>
+        </is>
+      </c>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>meter</t>
+        </is>
+      </c>
+      <c r="Q151" t="inlineStr">
+        <is>
+          <t>object_date</t>
+        </is>
+      </c>
+      <c r="R151" t="inlineStr">
+        <is>
+          <t>%Y%m%d</t>
+        </is>
+      </c>
+      <c r="S151" t="inlineStr">
+        <is>
+          <t>object_time</t>
+        </is>
+      </c>
+      <c r="T151" t="inlineStr">
+        <is>
+          <t>%H%M%S</t>
+        </is>
+      </c>
+      <c r="U151" t="inlineStr">
+        <is>
+          <t>acq_volimage</t>
+        </is>
+      </c>
+      <c r="V151" t="inlineStr">
+        <is>
+          <t>cubic_decimeter</t>
+        </is>
+      </c>
+      <c r="W151" t="inlineStr"/>
+      <c r="X151" t="inlineStr">
+        <is>
+          <t>object_id</t>
+        </is>
+      </c>
+      <c r="Y151" t="inlineStr"/>
+      <c r="Z151" t="inlineStr"/>
+      <c r="AA151" t="inlineStr"/>
+      <c r="AB151" t="inlineStr"/>
+      <c r="AC151" t="inlineStr">
+        <is>
+          <t>object_area</t>
+        </is>
+      </c>
+      <c r="AD151" t="inlineStr">
+        <is>
+          <t>square_pixel</t>
+        </is>
+      </c>
+      <c r="AE151" t="inlineStr">
+        <is>
+          <t>object_minor</t>
+        </is>
+      </c>
+      <c r="AF151" t="inlineStr">
+        <is>
+          <t>pixel</t>
+        </is>
+      </c>
+      <c r="AG151" t="inlineStr">
+        <is>
+          <t>object_major</t>
+        </is>
+      </c>
+      <c r="AH151" t="inlineStr">
+        <is>
+          <t>pixel</t>
+        </is>
+      </c>
+      <c r="AI151" t="inlineStr">
+        <is>
+          <t>process_pixel</t>
+        </is>
+      </c>
+      <c r="AJ151" t="inlineStr">
+        <is>
+          <t>millimeter_per_pixel</t>
+        </is>
+      </c>
+      <c r="AK151" t="inlineStr"/>
+      <c r="AL151" t="inlineStr"/>
+      <c r="AM151" t="inlineStr">
+        <is>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_6702_flags.csv</t>
+        </is>
+      </c>
+      <c r="AN151" t="inlineStr"/>
+      <c r="AO151" t="inlineStr">
+        <is>
+          <t>558</t>
+        </is>
+      </c>
+      <c r="AP151" t="inlineStr">
+        <is>
+          <t>acq_instrument</t>
+        </is>
+      </c>
+      <c r="AQ151" t="inlineStr">
+        <is>
+          <t>acq_smzoo</t>
+        </is>
+      </c>
+      <c r="AR151" t="inlineStr">
+        <is>
+          <t>pixel</t>
+        </is>
+      </c>
+      <c r="AS151" t="inlineStr"/>
+      <c r="AT151" t="inlineStr"/>
+      <c r="AU151" t="inlineStr">
+        <is>
+          <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>6703</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>https://ecotaxa.obs-vlfr.fr/prj/6703</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>~/GIT/PSSdb/raw/ecotaxa</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>UVP</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>sample_cruise</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>sample_stationid</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>sample_profileid</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>sample_id</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>object_lat</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>degree</t>
+        </is>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>object_lon</t>
+        </is>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>degree</t>
+        </is>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>object_depth_min</t>
+        </is>
+      </c>
+      <c r="N152" t="inlineStr">
+        <is>
+          <t>meter</t>
+        </is>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>object_depth_max</t>
+        </is>
+      </c>
+      <c r="P152" t="inlineStr">
+        <is>
+          <t>meter</t>
+        </is>
+      </c>
+      <c r="Q152" t="inlineStr">
+        <is>
+          <t>object_date</t>
+        </is>
+      </c>
+      <c r="R152" t="inlineStr">
+        <is>
+          <t>%Y%m%d</t>
+        </is>
+      </c>
+      <c r="S152" t="inlineStr">
+        <is>
+          <t>object_time</t>
+        </is>
+      </c>
+      <c r="T152" t="inlineStr">
+        <is>
+          <t>%H%M%S</t>
+        </is>
+      </c>
+      <c r="U152" t="inlineStr">
+        <is>
+          <t>acq_volimage</t>
+        </is>
+      </c>
+      <c r="V152" t="inlineStr">
+        <is>
+          <t>cubic_decimeter</t>
+        </is>
+      </c>
+      <c r="W152" t="inlineStr"/>
+      <c r="X152" t="inlineStr">
+        <is>
+          <t>object_id</t>
+        </is>
+      </c>
+      <c r="Y152" t="inlineStr"/>
+      <c r="Z152" t="inlineStr"/>
+      <c r="AA152" t="inlineStr"/>
+      <c r="AB152" t="inlineStr"/>
+      <c r="AC152" t="inlineStr">
+        <is>
+          <t>object_area</t>
+        </is>
+      </c>
+      <c r="AD152" t="inlineStr">
+        <is>
+          <t>square_pixel</t>
+        </is>
+      </c>
+      <c r="AE152" t="inlineStr">
+        <is>
+          <t>object_minor</t>
+        </is>
+      </c>
+      <c r="AF152" t="inlineStr">
+        <is>
+          <t>pixel</t>
+        </is>
+      </c>
+      <c r="AG152" t="inlineStr">
+        <is>
+          <t>object_major</t>
+        </is>
+      </c>
+      <c r="AH152" t="inlineStr">
+        <is>
+          <t>pixel</t>
+        </is>
+      </c>
+      <c r="AI152" t="inlineStr">
+        <is>
+          <t>process_pixel</t>
+        </is>
+      </c>
+      <c r="AJ152" t="inlineStr">
+        <is>
+          <t>millimeter_per_pixel</t>
+        </is>
+      </c>
+      <c r="AK152" t="inlineStr"/>
+      <c r="AL152" t="inlineStr"/>
+      <c r="AM152" t="inlineStr">
+        <is>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_6703_flags.csv</t>
+        </is>
+      </c>
+      <c r="AN152" t="inlineStr"/>
+      <c r="AO152" t="inlineStr">
+        <is>
+          <t>559</t>
+        </is>
+      </c>
+      <c r="AP152" t="inlineStr">
+        <is>
+          <t>acq_instrument</t>
+        </is>
+      </c>
+      <c r="AQ152" t="inlineStr">
+        <is>
+          <t>acq_smzoo</t>
+        </is>
+      </c>
+      <c r="AR152" t="inlineStr">
+        <is>
+          <t>pixel</t>
+        </is>
+      </c>
+      <c r="AS152" t="inlineStr"/>
+      <c r="AT152" t="inlineStr"/>
+      <c r="AU152" t="inlineStr">
+        <is>
+          <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>6704</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>https://ecotaxa.obs-vlfr.fr/prj/6704</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>~/GIT/PSSdb/raw/ecotaxa</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>UVP</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>sample_cruise</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>sample_stationid</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>sample_profileid</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>sample_id</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>object_lat</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>degree</t>
+        </is>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>object_lon</t>
+        </is>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>degree</t>
+        </is>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>object_depth_min</t>
+        </is>
+      </c>
+      <c r="N153" t="inlineStr">
+        <is>
+          <t>meter</t>
+        </is>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>object_depth_max</t>
+        </is>
+      </c>
+      <c r="P153" t="inlineStr">
+        <is>
+          <t>meter</t>
+        </is>
+      </c>
+      <c r="Q153" t="inlineStr">
+        <is>
+          <t>object_date</t>
+        </is>
+      </c>
+      <c r="R153" t="inlineStr">
+        <is>
+          <t>%Y%m%d</t>
+        </is>
+      </c>
+      <c r="S153" t="inlineStr">
+        <is>
+          <t>object_time</t>
+        </is>
+      </c>
+      <c r="T153" t="inlineStr">
+        <is>
+          <t>%H%M%S</t>
+        </is>
+      </c>
+      <c r="U153" t="inlineStr">
+        <is>
+          <t>acq_volimage</t>
+        </is>
+      </c>
+      <c r="V153" t="inlineStr">
+        <is>
+          <t>cubic_decimeter</t>
+        </is>
+      </c>
+      <c r="W153" t="inlineStr"/>
+      <c r="X153" t="inlineStr">
+        <is>
+          <t>object_id</t>
+        </is>
+      </c>
+      <c r="Y153" t="inlineStr"/>
+      <c r="Z153" t="inlineStr"/>
+      <c r="AA153" t="inlineStr"/>
+      <c r="AB153" t="inlineStr"/>
+      <c r="AC153" t="inlineStr">
+        <is>
+          <t>object_area</t>
+        </is>
+      </c>
+      <c r="AD153" t="inlineStr">
+        <is>
+          <t>square_pixel</t>
+        </is>
+      </c>
+      <c r="AE153" t="inlineStr">
+        <is>
+          <t>object_minor</t>
+        </is>
+      </c>
+      <c r="AF153" t="inlineStr">
+        <is>
+          <t>pixel</t>
+        </is>
+      </c>
+      <c r="AG153" t="inlineStr">
+        <is>
+          <t>object_major</t>
+        </is>
+      </c>
+      <c r="AH153" t="inlineStr">
+        <is>
+          <t>pixel</t>
+        </is>
+      </c>
+      <c r="AI153" t="inlineStr">
+        <is>
+          <t>process_pixel</t>
+        </is>
+      </c>
+      <c r="AJ153" t="inlineStr">
+        <is>
+          <t>millimeter_per_pixel</t>
+        </is>
+      </c>
+      <c r="AK153" t="inlineStr"/>
+      <c r="AL153" t="inlineStr"/>
+      <c r="AM153" t="inlineStr">
+        <is>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_6704_flags.csv</t>
+        </is>
+      </c>
+      <c r="AN153" t="inlineStr"/>
+      <c r="AO153" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="AP153" t="inlineStr">
+        <is>
+          <t>acq_instrument</t>
+        </is>
+      </c>
+      <c r="AQ153" t="inlineStr">
+        <is>
+          <t>acq_smzoo</t>
+        </is>
+      </c>
+      <c r="AR153" t="inlineStr">
+        <is>
+          <t>pixel</t>
+        </is>
+      </c>
+      <c r="AS153" t="inlineStr"/>
+      <c r="AT153" t="inlineStr"/>
+      <c r="AU153" t="inlineStr">
+        <is>
+          <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>7060</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>https://ecotaxa.obs-vlfr.fr/prj/7060</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>~/GIT/PSSdb/raw/ecotaxa</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>UVP</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>sample_cruise</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>sample_stationid</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>sample_profileid</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>sample_id</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>object_lat</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>degree</t>
+        </is>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>object_lon</t>
+        </is>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>degree</t>
+        </is>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>object_depth_min</t>
+        </is>
+      </c>
+      <c r="N154" t="inlineStr">
+        <is>
+          <t>meter</t>
+        </is>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>object_depth_max</t>
+        </is>
+      </c>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>meter</t>
+        </is>
+      </c>
+      <c r="Q154" t="inlineStr">
+        <is>
+          <t>object_date</t>
+        </is>
+      </c>
+      <c r="R154" t="inlineStr">
+        <is>
+          <t>%Y%m%d</t>
+        </is>
+      </c>
+      <c r="S154" t="inlineStr">
+        <is>
+          <t>object_time</t>
+        </is>
+      </c>
+      <c r="T154" t="inlineStr">
+        <is>
+          <t>%H%M%S</t>
+        </is>
+      </c>
+      <c r="U154" t="inlineStr">
+        <is>
+          <t>acq_volimage</t>
+        </is>
+      </c>
+      <c r="V154" t="inlineStr">
+        <is>
+          <t>cubic_decimeter</t>
+        </is>
+      </c>
+      <c r="W154" t="inlineStr"/>
+      <c r="X154" t="inlineStr">
+        <is>
+          <t>object_id</t>
+        </is>
+      </c>
+      <c r="Y154" t="inlineStr"/>
+      <c r="Z154" t="inlineStr"/>
+      <c r="AA154" t="inlineStr"/>
+      <c r="AB154" t="inlineStr"/>
+      <c r="AC154" t="inlineStr">
+        <is>
+          <t>object_area</t>
+        </is>
+      </c>
+      <c r="AD154" t="inlineStr">
+        <is>
+          <t>square_pixel</t>
+        </is>
+      </c>
+      <c r="AE154" t="inlineStr">
+        <is>
+          <t>object_minor</t>
+        </is>
+      </c>
+      <c r="AF154" t="inlineStr">
+        <is>
+          <t>pixel</t>
+        </is>
+      </c>
+      <c r="AG154" t="inlineStr">
+        <is>
+          <t>object_major</t>
+        </is>
+      </c>
+      <c r="AH154" t="inlineStr">
+        <is>
+          <t>pixel</t>
+        </is>
+      </c>
+      <c r="AI154" t="inlineStr">
+        <is>
+          <t>acq_pixel</t>
+        </is>
+      </c>
+      <c r="AJ154" t="inlineStr">
+        <is>
+          <t>micrometer_per_pixel</t>
+        </is>
+      </c>
+      <c r="AK154" t="inlineStr">
+        <is>
+          <t>object_annotation_category</t>
+        </is>
+      </c>
+      <c r="AL154" t="inlineStr">
+        <is>
+          <t>object_annotation_status</t>
+        </is>
+      </c>
+      <c r="AM154" t="inlineStr"/>
+      <c r="AN154" t="inlineStr"/>
+      <c r="AO154" t="inlineStr">
+        <is>
+          <t>603</t>
+        </is>
+      </c>
+      <c r="AP154" t="inlineStr">
+        <is>
+          <t>acq_instrument</t>
+        </is>
+      </c>
+      <c r="AQ154" t="inlineStr">
+        <is>
+          <t>acq_smbase</t>
+        </is>
+      </c>
+      <c r="AR154" t="inlineStr">
+        <is>
+          <t>pixel</t>
+        </is>
+      </c>
+      <c r="AS154" t="inlineStr"/>
+      <c r="AT154" t="inlineStr"/>
+      <c r="AU154" t="inlineStr">
+        <is>
+          <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};depth_offset:{field:process_depth_offset};first_image:{field:process_first_image};last_image:{field:process_last_image};profiling_mode:{field:organizedbydepth}</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>7546</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>https://ecotaxa.obs-vlfr.fr/prj/7546</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>~/GIT/PSSdb/raw/ecotaxa</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>UVP</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>sample_cruise</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>sample_stationid</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>sample_profileid</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>sample_id</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>object_lat</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>degree</t>
+        </is>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>object_lon</t>
+        </is>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>degree</t>
+        </is>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>object_depth_min</t>
+        </is>
+      </c>
+      <c r="N155" t="inlineStr">
+        <is>
+          <t>meter</t>
+        </is>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>object_depth_max</t>
+        </is>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>meter</t>
+        </is>
+      </c>
+      <c r="Q155" t="inlineStr">
+        <is>
+          <t>object_date</t>
+        </is>
+      </c>
+      <c r="R155" t="inlineStr">
+        <is>
+          <t>%Y%m%d</t>
+        </is>
+      </c>
+      <c r="S155" t="inlineStr">
+        <is>
+          <t>object_time</t>
+        </is>
+      </c>
+      <c r="T155" t="inlineStr">
+        <is>
+          <t>%H%M%S</t>
+        </is>
+      </c>
+      <c r="U155" t="inlineStr">
+        <is>
+          <t>acq_volimage</t>
+        </is>
+      </c>
+      <c r="V155" t="inlineStr">
+        <is>
+          <t>cubic_decimeter</t>
+        </is>
+      </c>
+      <c r="W155" t="inlineStr"/>
+      <c r="X155" t="inlineStr">
+        <is>
+          <t>object_id</t>
+        </is>
+      </c>
+      <c r="Y155" t="inlineStr"/>
+      <c r="Z155" t="inlineStr"/>
+      <c r="AA155" t="inlineStr"/>
+      <c r="AB155" t="inlineStr"/>
+      <c r="AC155" t="inlineStr">
+        <is>
+          <t>object_area</t>
+        </is>
+      </c>
+      <c r="AD155" t="inlineStr">
+        <is>
+          <t>square_pixel</t>
+        </is>
+      </c>
+      <c r="AE155" t="inlineStr">
+        <is>
+          <t>object_minor</t>
+        </is>
+      </c>
+      <c r="AF155" t="inlineStr">
+        <is>
+          <t>pixel</t>
+        </is>
+      </c>
+      <c r="AG155" t="inlineStr">
+        <is>
+          <t>object_major</t>
+        </is>
+      </c>
+      <c r="AH155" t="inlineStr">
+        <is>
+          <t>pixel</t>
+        </is>
+      </c>
+      <c r="AI155" t="inlineStr">
+        <is>
+          <t>acq_pixel</t>
+        </is>
+      </c>
+      <c r="AJ155" t="inlineStr">
+        <is>
+          <t>millimeter_per_pixel</t>
+        </is>
+      </c>
+      <c r="AK155" t="inlineStr">
+        <is>
+          <t>object_annotation_category</t>
+        </is>
+      </c>
+      <c r="AL155" t="inlineStr">
+        <is>
+          <t>object_annotation_status</t>
+        </is>
+      </c>
+      <c r="AM155" t="inlineStr">
+        <is>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_7546_flags.csv</t>
+        </is>
+      </c>
+      <c r="AN155" t="inlineStr"/>
+      <c r="AO155" t="inlineStr">
+        <is>
+          <t>371</t>
+        </is>
+      </c>
+      <c r="AP155" t="inlineStr">
+        <is>
+          <t>acq_instrument</t>
+        </is>
+      </c>
+      <c r="AQ155" t="inlineStr">
+        <is>
+          <t>acq_smzoo</t>
+        </is>
+      </c>
+      <c r="AR155" t="inlineStr">
+        <is>
+          <t>pixel</t>
+        </is>
+      </c>
+      <c r="AS155" t="inlineStr"/>
+      <c r="AT155" t="inlineStr"/>
+      <c r="AU155" t="inlineStr">
+        <is>
+          <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/raw/project_UVP_standardizer.xlsx
+++ b/raw/project_UVP_standardizer.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="760" windowWidth="29300" windowHeight="18880" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="760" windowWidth="29300" windowHeight="18880" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ecotaxa" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ecotaxa_before_consolidation" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -54,6 +54,11 @@
       <sz val="11"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
       <b val="1"/>
     </font>
   </fonts>
@@ -65,12 +70,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -129,7 +149,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -145,6 +165,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -558,237 +581,237 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="inlineStr">
+      <c r="A1" s="7" t="inlineStr">
         <is>
           <t>Project_ID</t>
         </is>
       </c>
-      <c r="B1" s="6" t="inlineStr">
+      <c r="B1" s="7" t="inlineStr">
         <is>
           <t>Project_source</t>
         </is>
       </c>
-      <c r="C1" s="6" t="inlineStr">
+      <c r="C1" s="7" t="inlineStr">
         <is>
           <t>Project_localpath</t>
         </is>
       </c>
-      <c r="D1" s="6" t="inlineStr">
+      <c r="D1" s="7" t="inlineStr">
         <is>
           <t>Instrument</t>
         </is>
       </c>
-      <c r="E1" s="6" t="inlineStr">
+      <c r="E1" s="7" t="inlineStr">
         <is>
           <t>Cruise_field</t>
         </is>
       </c>
-      <c r="F1" s="6" t="inlineStr">
+      <c r="F1" s="7" t="inlineStr">
         <is>
           <t>Station_field</t>
         </is>
       </c>
-      <c r="G1" s="6" t="inlineStr">
+      <c r="G1" s="7" t="inlineStr">
         <is>
           <t>Profile_field</t>
         </is>
       </c>
-      <c r="H1" s="6" t="inlineStr">
+      <c r="H1" s="7" t="inlineStr">
         <is>
           <t>Sample_field</t>
         </is>
       </c>
-      <c r="I1" s="6" t="inlineStr">
+      <c r="I1" s="7" t="inlineStr">
         <is>
           <t>Latitude_field</t>
         </is>
       </c>
-      <c r="J1" s="6" t="inlineStr">
+      <c r="J1" s="7" t="inlineStr">
         <is>
           <t>Latitude_unit</t>
         </is>
       </c>
-      <c r="K1" s="6" t="inlineStr">
+      <c r="K1" s="7" t="inlineStr">
         <is>
           <t>Longitude_field</t>
         </is>
       </c>
-      <c r="L1" s="6" t="inlineStr">
+      <c r="L1" s="7" t="inlineStr">
         <is>
           <t>Longitude_unit</t>
         </is>
       </c>
-      <c r="M1" s="6" t="inlineStr">
+      <c r="M1" s="7" t="inlineStr">
         <is>
           <t>Depth_min_field</t>
         </is>
       </c>
-      <c r="N1" s="6" t="inlineStr">
+      <c r="N1" s="7" t="inlineStr">
         <is>
           <t>Depth_min_unit</t>
         </is>
       </c>
-      <c r="O1" s="6" t="inlineStr">
+      <c r="O1" s="7" t="inlineStr">
         <is>
           <t>Depth_max_field</t>
         </is>
       </c>
-      <c r="P1" s="6" t="inlineStr">
+      <c r="P1" s="7" t="inlineStr">
         <is>
           <t>Depth_max_unit</t>
         </is>
       </c>
-      <c r="Q1" s="6" t="inlineStr">
+      <c r="Q1" s="7" t="inlineStr">
         <is>
           <t>Sampling_date_field</t>
         </is>
       </c>
-      <c r="R1" s="6" t="inlineStr">
+      <c r="R1" s="7" t="inlineStr">
         <is>
           <t>Sampling_date_format</t>
         </is>
       </c>
-      <c r="S1" s="6" t="inlineStr">
+      <c r="S1" s="7" t="inlineStr">
         <is>
           <t>Sampling_time_field</t>
         </is>
       </c>
-      <c r="T1" s="6" t="inlineStr">
+      <c r="T1" s="7" t="inlineStr">
         <is>
           <t>Sampling_time_format</t>
         </is>
       </c>
-      <c r="U1" s="6" t="inlineStr">
+      <c r="U1" s="7" t="inlineStr">
         <is>
           <t>Volume_analyzed_field</t>
         </is>
       </c>
-      <c r="V1" s="6" t="inlineStr">
+      <c r="V1" s="7" t="inlineStr">
         <is>
           <t>Volume_analyzed_unit</t>
         </is>
       </c>
-      <c r="W1" s="6" t="inlineStr">
+      <c r="W1" s="7" t="inlineStr">
         <is>
           <t>Dilution_field</t>
         </is>
       </c>
-      <c r="X1" s="6" t="inlineStr">
+      <c r="X1" s="7" t="inlineStr">
         <is>
           <t>ROI_field</t>
         </is>
       </c>
-      <c r="Y1" s="6" t="inlineStr">
+      <c r="Y1" s="7" t="inlineStr">
         <is>
           <t>ESD_field</t>
         </is>
       </c>
-      <c r="Z1" s="6" t="inlineStr">
+      <c r="Z1" s="7" t="inlineStr">
         <is>
           <t>ESD_unit</t>
         </is>
       </c>
-      <c r="AA1" s="6" t="inlineStr">
+      <c r="AA1" s="7" t="inlineStr">
         <is>
           <t>Biovolume_field</t>
         </is>
       </c>
-      <c r="AB1" s="6" t="inlineStr">
+      <c r="AB1" s="7" t="inlineStr">
         <is>
           <t>Biovolume_unit</t>
         </is>
       </c>
-      <c r="AC1" s="6" t="inlineStr">
+      <c r="AC1" s="7" t="inlineStr">
         <is>
           <t>Area_field</t>
         </is>
       </c>
-      <c r="AD1" s="6" t="inlineStr">
+      <c r="AD1" s="7" t="inlineStr">
         <is>
           <t>Area_unit</t>
         </is>
       </c>
-      <c r="AE1" s="6" t="inlineStr">
+      <c r="AE1" s="7" t="inlineStr">
         <is>
           <t>Minor_axis_field</t>
         </is>
       </c>
-      <c r="AF1" s="6" t="inlineStr">
+      <c r="AF1" s="7" t="inlineStr">
         <is>
           <t>Minor_axis_unit</t>
         </is>
       </c>
-      <c r="AG1" s="6" t="inlineStr">
+      <c r="AG1" s="7" t="inlineStr">
         <is>
           <t>Major_axis_field</t>
         </is>
       </c>
-      <c r="AH1" s="6" t="inlineStr">
+      <c r="AH1" s="7" t="inlineStr">
         <is>
           <t>Major_axis_unit</t>
         </is>
       </c>
-      <c r="AI1" s="6" t="inlineStr">
+      <c r="AI1" s="7" t="inlineStr">
         <is>
           <t>Pixel_field</t>
         </is>
       </c>
-      <c r="AJ1" s="6" t="inlineStr">
+      <c r="AJ1" s="7" t="inlineStr">
         <is>
           <t>Pixel_unit</t>
         </is>
       </c>
-      <c r="AK1" s="6" t="inlineStr">
+      <c r="AK1" s="7" t="inlineStr">
         <is>
           <t>Category_field</t>
         </is>
       </c>
-      <c r="AL1" s="6" t="inlineStr">
+      <c r="AL1" s="7" t="inlineStr">
         <is>
           <t>Annotation_field</t>
         </is>
       </c>
-      <c r="AM1" s="6" t="inlineStr">
+      <c r="AM1" s="7" t="inlineStr">
         <is>
           <t>Flag_path</t>
         </is>
       </c>
-      <c r="AN1" s="6" t="inlineStr">
+      <c r="AN1" s="7" t="inlineStr">
         <is>
           <t>NA_value</t>
         </is>
       </c>
-      <c r="AO1" s="6" t="inlineStr">
+      <c r="AO1" s="7" t="inlineStr">
         <is>
           <t>External_project</t>
         </is>
       </c>
-      <c r="AP1" s="6" t="inlineStr">
+      <c r="AP1" s="7" t="inlineStr">
         <is>
           <t>Sampling_type_field</t>
         </is>
       </c>
-      <c r="AQ1" s="6" t="inlineStr">
+      <c r="AQ1" s="7" t="inlineStr">
         <is>
           <t>Sampling_lower_size_field</t>
         </is>
       </c>
-      <c r="AR1" s="6" t="inlineStr">
+      <c r="AR1" s="7" t="inlineStr">
         <is>
           <t>Sampling_lower_size_unit</t>
         </is>
       </c>
-      <c r="AS1" s="6" t="inlineStr">
+      <c r="AS1" s="7" t="inlineStr">
         <is>
           <t>Sampling_upper_size_field</t>
         </is>
       </c>
-      <c r="AT1" s="6" t="inlineStr">
+      <c r="AT1" s="7" t="inlineStr">
         <is>
           <t>Sampling_upper_size_unit</t>
         </is>
       </c>
-      <c r="AU1" s="6" t="inlineStr">
+      <c r="AU1" s="7" t="inlineStr">
         <is>
           <t>Sampling_description</t>
         </is>
@@ -7825,7 +7848,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>~/GIT/PSSdb/raw/ecotaxa</t>
+          <t>~/GIT/PSSdb/raw/ecotaxa_ecopart_consolidation</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -7875,7 +7898,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>object_depth_min</t>
+          <t>object_corrected_min_depth_bin</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -7885,7 +7908,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>object_depth_max</t>
+          <t>object_corrected_max_depth_bin</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -7893,16 +7916,8 @@
           <t>meter</t>
         </is>
       </c>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>object_date</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>%Y%m%d</t>
-        </is>
-      </c>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr">
         <is>
           <t>object_time</t>
@@ -7910,12 +7925,12 @@
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>%H%M%S</t>
+          <t>%Y-%m-%d %H:%M:%S</t>
         </is>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>acq_volimage</t>
+          <t>object_volume_bin</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
@@ -7935,7 +7950,7 @@
       <c r="AB38" t="inlineStr"/>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>object_area</t>
+          <t>object_bru_area</t>
         </is>
       </c>
       <c r="AD38" t="inlineStr">
@@ -7985,7 +8000,7 @@
       </c>
       <c r="AM38" t="inlineStr">
         <is>
-          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_622_flags.csv</t>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa_ecopart_consolidation/project_622_flags.csv</t>
         </is>
       </c>
       <c r="AN38" t="inlineStr"/>
@@ -8001,10 +8016,14 @@
       </c>
       <c r="AQ38" t="inlineStr">
         <is>
-          <t>acq_smzoo</t>
-        </is>
-      </c>
-      <c r="AR38" t="inlineStr"/>
+          <t>acq_smbase</t>
+        </is>
+      </c>
+      <c r="AR38" t="inlineStr">
+        <is>
+          <t>pixel</t>
+        </is>
+      </c>
       <c r="AS38" t="inlineStr"/>
       <c r="AT38" t="inlineStr"/>
       <c r="AU38" t="inlineStr">
@@ -15770,15 +15789,17 @@
   </sheetPr>
   <dimension ref="A1:AU276"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="R54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AH2" sqref="AH2"/>
+      <selection pane="bottomRight" activeCell="W88" sqref="W88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
+    <col width="153" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="20.6640625" bestFit="1" customWidth="1" min="3" max="3"/>
     <col width="13.83203125" bestFit="1" customWidth="1" min="33" max="33"/>
   </cols>
   <sheetData>
@@ -16021,11 +16042,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=53&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=1&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -16154,7 +16175,7 @@
         </is>
       </c>
       <c r="AO2" t="n">
-        <v>3</v>
+        <v>578</v>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
@@ -16174,11 +16195,11 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=44&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=2&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -16307,7 +16328,7 @@
         </is>
       </c>
       <c r="AO3" t="n">
-        <v>4</v>
+        <v>122</v>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
@@ -16327,11 +16348,11 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=28&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=3&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -16461,7 +16482,7 @@
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>53</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
@@ -16482,11 +16503,11 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>110</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=110&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=4&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -16616,7 +16637,7 @@
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>44</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
@@ -16637,11 +16658,11 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=47&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=5&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -16770,7 +16791,7 @@
         </is>
       </c>
       <c r="AO6" t="n">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
@@ -16790,11 +16811,11 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=48&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=6&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -16923,7 +16944,7 @@
         </is>
       </c>
       <c r="AO7" t="n">
-        <v>22</v>
+        <v>579</v>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
@@ -16943,11 +16964,11 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>594</v>
+        <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=594&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=7&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -17075,10 +17096,8 @@
           <t>millimeter_per_pixel</t>
         </is>
       </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
+      <c r="AO8" t="n">
+        <v>579</v>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
@@ -17098,11 +17117,11 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>603</v>
+        <v>9</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=603&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=9&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -17227,13 +17246,11 @@
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>micron_per_pixel</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
+          <t>millimeter_per_pixel</t>
+        </is>
+      </c>
+      <c r="AO9" t="n">
+        <v>579</v>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
@@ -17247,17 +17264,17 @@
       </c>
       <c r="AU9" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:default_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=16&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=10&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -17386,7 +17403,7 @@
         </is>
       </c>
       <c r="AO10" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
@@ -17406,11 +17423,11 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=15&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=11&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -17539,7 +17556,7 @@
         </is>
       </c>
       <c r="AO11" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
@@ -17559,11 +17576,11 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=17&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=12&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -17692,7 +17709,7 @@
         </is>
       </c>
       <c r="AO12" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
@@ -17712,11 +17729,11 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=18&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=13&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -17845,7 +17862,7 @@
         </is>
       </c>
       <c r="AO13" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
@@ -17865,11 +17882,11 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=21&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=14&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -17998,7 +18015,7 @@
         </is>
       </c>
       <c r="AO14" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
@@ -18018,11 +18035,11 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=31&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=15&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -18171,11 +18188,11 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=55&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=16&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -18304,7 +18321,7 @@
         </is>
       </c>
       <c r="AO16" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AQ16" t="inlineStr">
         <is>
@@ -18324,11 +18341,11 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=36&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=17&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -18456,10 +18473,8 @@
           <t>millimeter_per_pixel</t>
         </is>
       </c>
-      <c r="AO17" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
+      <c r="AO17" t="n">
+        <v>30</v>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
@@ -18479,11 +18494,11 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=10&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=18&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -18612,7 +18627,7 @@
         </is>
       </c>
       <c r="AO18" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
@@ -18632,11 +18647,11 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=11&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=19&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -18765,7 +18780,7 @@
         </is>
       </c>
       <c r="AO19" t="n">
-        <v>35</v>
+        <v>588</v>
       </c>
       <c r="AQ19" t="inlineStr">
         <is>
@@ -18785,11 +18800,11 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=12&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=20&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -18918,7 +18933,7 @@
         </is>
       </c>
       <c r="AO20" t="n">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="AQ20" t="inlineStr">
         <is>
@@ -18938,11 +18953,11 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=13&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=21&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -19071,7 +19086,7 @@
         </is>
       </c>
       <c r="AO21" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AQ21" t="inlineStr">
         <is>
@@ -19091,11 +19106,11 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>14</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=14&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+        <v>22</v>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=22&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -19223,8 +19238,10 @@
           <t>millimeter_per_pixel</t>
         </is>
       </c>
-      <c r="AO22" t="n">
-        <v>35</v>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>48;47</t>
+        </is>
       </c>
       <c r="AQ22" t="inlineStr">
         <is>
@@ -19244,11 +19261,11 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>166</v>
+        <v>23</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=166&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=23&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -19377,7 +19394,7 @@
         </is>
       </c>
       <c r="AO23" t="n">
-        <v>35</v>
+        <v>584</v>
       </c>
       <c r="AQ23" t="inlineStr">
         <is>
@@ -19397,11 +19414,11 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=32&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=24&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -19530,7 +19547,7 @@
         </is>
       </c>
       <c r="AO24" t="n">
-        <v>36</v>
+        <v>556</v>
       </c>
       <c r="AQ24" t="inlineStr">
         <is>
@@ -19550,11 +19567,11 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=46&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=25&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -19683,7 +19700,7 @@
         </is>
       </c>
       <c r="AO25" t="n">
-        <v>37</v>
+        <v>563</v>
       </c>
       <c r="AQ25" t="inlineStr">
         <is>
@@ -19703,11 +19720,11 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=41&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=26&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -19836,7 +19853,7 @@
         </is>
       </c>
       <c r="AO26" t="n">
-        <v>38</v>
+        <v>585</v>
       </c>
       <c r="AQ26" t="inlineStr">
         <is>
@@ -19856,11 +19873,11 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=45&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=27&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -19989,7 +20006,7 @@
         </is>
       </c>
       <c r="AO27" t="n">
-        <v>39</v>
+        <v>603</v>
       </c>
       <c r="AQ27" t="inlineStr">
         <is>
@@ -20009,11 +20026,11 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=54&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=28&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -20141,8 +20158,10 @@
           <t>millimeter_per_pixel</t>
         </is>
       </c>
-      <c r="AO28" t="n">
-        <v>40</v>
+      <c r="AO28" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
       </c>
       <c r="AQ28" t="inlineStr">
         <is>
@@ -20162,11 +20181,11 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=38&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=29&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -20294,10 +20313,8 @@
           <t>millimeter_per_pixel</t>
         </is>
       </c>
-      <c r="AO29" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
+      <c r="AO29" t="n">
+        <v>587</v>
       </c>
       <c r="AQ29" t="inlineStr">
         <is>
@@ -20317,11 +20334,11 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=56&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=30&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -20450,7 +20467,7 @@
         </is>
       </c>
       <c r="AO30" t="n">
-        <v>41</v>
+        <v>6732</v>
       </c>
       <c r="AQ30" t="inlineStr">
         <is>
@@ -20470,11 +20487,11 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=57&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=31&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -20603,7 +20620,7 @@
         </is>
       </c>
       <c r="AO31" t="n">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="AQ31" t="inlineStr">
         <is>
@@ -20623,11 +20640,11 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=59&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=32&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -20756,7 +20773,7 @@
         </is>
       </c>
       <c r="AO32" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="AQ32" t="inlineStr">
         <is>
@@ -20776,11 +20793,11 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>60</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=60&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+        <v>33</v>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=33&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -20907,9 +20924,6 @@
         <is>
           <t>millimeter_per_pixel</t>
         </is>
-      </c>
-      <c r="AO33" t="n">
-        <v>42</v>
       </c>
       <c r="AQ33" t="inlineStr">
         <is>
@@ -20929,11 +20943,11 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=64&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=34&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -21062,7 +21076,7 @@
         </is>
       </c>
       <c r="AO34" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AQ34" t="inlineStr">
         <is>
@@ -21082,11 +21096,11 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=65&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=35&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -21214,10 +21228,8 @@
           <t>millimeter_per_pixel</t>
         </is>
       </c>
-      <c r="AO35" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
+      <c r="AO35" t="n">
+        <v>51</v>
       </c>
       <c r="AQ35" t="inlineStr">
         <is>
@@ -21237,11 +21249,11 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=4&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=36&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -21371,7 +21383,7 @@
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>32</t>
         </is>
       </c>
       <c r="AQ36" t="inlineStr">
@@ -21392,11 +21404,11 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=5&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=37&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -21524,8 +21536,10 @@
           <t>millimeter_per_pixel</t>
         </is>
       </c>
-      <c r="AO37" t="n">
-        <v>45</v>
+      <c r="AO37" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
       </c>
       <c r="AQ37" t="inlineStr">
         <is>
@@ -21545,11 +21559,11 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=39&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=38&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -21679,7 +21693,7 @@
       </c>
       <c r="AO38" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>41</t>
         </is>
       </c>
       <c r="AQ38" t="inlineStr">
@@ -21700,11 +21714,11 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=42&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=39&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -21832,8 +21846,10 @@
           <t>millimeter_per_pixel</t>
         </is>
       </c>
-      <c r="AO39" t="n">
-        <v>45</v>
+      <c r="AO39" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
       </c>
       <c r="AQ39" t="inlineStr">
         <is>
@@ -21853,11 +21869,11 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=37&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=40&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -21985,10 +22001,8 @@
           <t>millimeter_per_pixel</t>
         </is>
       </c>
-      <c r="AO40" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
+      <c r="AO40" t="n">
+        <v>124</v>
       </c>
       <c r="AQ40" t="inlineStr">
         <is>
@@ -22008,11 +22022,11 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=34&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=41&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -22141,7 +22155,7 @@
         </is>
       </c>
       <c r="AO41" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="AQ41" t="inlineStr">
         <is>
@@ -22161,11 +22175,11 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=35&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=42&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -22294,7 +22308,7 @@
         </is>
       </c>
       <c r="AO42" t="n">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="AQ42" t="inlineStr">
         <is>
@@ -22314,11 +22328,11 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=3&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=43&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -22446,10 +22460,8 @@
           <t>millimeter_per_pixel</t>
         </is>
       </c>
-      <c r="AO43" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
+      <c r="AO43" t="n">
+        <v>156</v>
       </c>
       <c r="AQ43" t="inlineStr">
         <is>
@@ -22469,11 +22481,11 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=50&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=44&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -22602,7 +22614,7 @@
         </is>
       </c>
       <c r="AO44" t="n">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="AQ44" t="inlineStr">
         <is>
@@ -22622,11 +22634,11 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=67&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=45&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -22755,7 +22767,7 @@
         </is>
       </c>
       <c r="AO45" t="n">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="AQ45" t="inlineStr">
         <is>
@@ -22775,11 +22787,11 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>595</v>
+        <v>46</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=595&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=46&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -22907,10 +22919,8 @@
           <t>millimeter_per_pixel</t>
         </is>
       </c>
-      <c r="AO46" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
+      <c r="AO46" t="n">
+        <v>37</v>
       </c>
       <c r="AQ46" t="inlineStr">
         <is>
@@ -22930,11 +22940,11 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>214</v>
+        <v>47</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=214&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=47&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -23059,13 +23069,11 @@
       </c>
       <c r="AJ47" t="inlineStr">
         <is>
-          <t>micron_per_pixel</t>
-        </is>
-      </c>
-      <c r="AO47" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
+          <t>millimeter_per_pixel</t>
+        </is>
+      </c>
+      <c r="AO47" t="n">
+        <v>22</v>
       </c>
       <c r="AQ47" t="inlineStr">
         <is>
@@ -23085,11 +23093,11 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=52&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=48&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -23218,7 +23226,7 @@
         </is>
       </c>
       <c r="AO48" t="n">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="AQ48" t="inlineStr">
         <is>
@@ -23238,11 +23246,11 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=62&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=49&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -23371,7 +23379,7 @@
         </is>
       </c>
       <c r="AO49" t="n">
-        <v>107</v>
+        <v>579</v>
       </c>
       <c r="AQ49" t="inlineStr">
         <is>
@@ -23391,11 +23399,11 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=20&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=50&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -23524,7 +23532,7 @@
         </is>
       </c>
       <c r="AO50" t="n">
-        <v>110</v>
+        <v>59</v>
       </c>
       <c r="AQ50" t="inlineStr">
         <is>
@@ -23544,11 +23552,11 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=2&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=51&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -23677,7 +23685,7 @@
         </is>
       </c>
       <c r="AO51" t="n">
-        <v>122</v>
+        <v>579</v>
       </c>
       <c r="AQ51" t="inlineStr">
         <is>
@@ -23697,11 +23705,11 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=40&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=52&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -23830,7 +23838,7 @@
         </is>
       </c>
       <c r="AO52" t="n">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="AQ52" t="inlineStr">
         <is>
@@ -23850,11 +23858,11 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=81&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=53&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -23983,7 +23991,7 @@
         </is>
       </c>
       <c r="AO53" t="n">
-        <v>146</v>
+        <v>3</v>
       </c>
       <c r="AQ53" t="inlineStr">
         <is>
@@ -24003,11 +24011,11 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=86&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=54&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -24136,7 +24144,7 @@
         </is>
       </c>
       <c r="AO54" t="n">
-        <v>149</v>
+        <v>40</v>
       </c>
       <c r="AQ54" t="inlineStr">
         <is>
@@ -24156,11 +24164,11 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=87&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=55&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -24289,7 +24297,7 @@
         </is>
       </c>
       <c r="AO55" t="n">
-        <v>149</v>
+        <v>30</v>
       </c>
       <c r="AQ55" t="inlineStr">
         <is>
@@ -24309,11 +24317,11 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=43&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=56&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -24442,7 +24450,7 @@
         </is>
       </c>
       <c r="AO56" t="n">
-        <v>156</v>
+        <v>41</v>
       </c>
       <c r="AQ56" t="inlineStr">
         <is>
@@ -24462,11 +24470,11 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=77&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=57&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -24595,7 +24603,7 @@
         </is>
       </c>
       <c r="AO57" t="n">
-        <v>214</v>
+        <v>41</v>
       </c>
       <c r="AQ57" t="inlineStr">
         <is>
@@ -24615,11 +24623,11 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>438</v>
+        <v>58</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=438&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=58&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -24744,13 +24752,11 @@
       </c>
       <c r="AJ58" t="inlineStr">
         <is>
-          <t>micron_per_pixel</t>
-        </is>
-      </c>
-      <c r="AO58" t="inlineStr">
-        <is>
-          <t>223</t>
-        </is>
+          <t>millimeter_per_pixel</t>
+        </is>
+      </c>
+      <c r="AO58" t="n">
+        <v>618</v>
       </c>
       <c r="AQ58" t="inlineStr">
         <is>
@@ -24764,17 +24770,17 @@
       </c>
       <c r="AU58" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:default_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>237</v>
+        <v>59</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=237&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=59&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -24903,7 +24909,7 @@
         </is>
       </c>
       <c r="AO59" t="n">
-        <v>256</v>
+        <v>41</v>
       </c>
       <c r="AQ59" t="inlineStr">
         <is>
@@ -24923,11 +24929,11 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=85&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=60&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -25056,7 +25062,7 @@
         </is>
       </c>
       <c r="AO60" t="n">
-        <v>257</v>
+        <v>42</v>
       </c>
       <c r="AQ60" t="inlineStr">
         <is>
@@ -25229,11 +25235,11 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>223</v>
+        <v>62</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=223&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=62&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -25362,7 +25368,7 @@
         </is>
       </c>
       <c r="AO62" t="n">
-        <v>545</v>
+        <v>107</v>
       </c>
       <c r="AQ62" t="inlineStr">
         <is>
@@ -25382,11 +25388,11 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=95&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=63&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -25515,7 +25521,7 @@
         </is>
       </c>
       <c r="AO63" t="n">
-        <v>548</v>
+        <v>1904</v>
       </c>
       <c r="AQ63" t="inlineStr">
         <is>
@@ -25535,11 +25541,11 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=24&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=64&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -25668,7 +25674,7 @@
         </is>
       </c>
       <c r="AO64" t="n">
-        <v>556</v>
+        <v>43</v>
       </c>
       <c r="AQ64" t="inlineStr">
         <is>
@@ -25688,11 +25694,11 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=72&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=65&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -25820,8 +25826,10 @@
           <t>millimeter_per_pixel</t>
         </is>
       </c>
-      <c r="AO65" t="n">
-        <v>558</v>
+      <c r="AO65" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
       </c>
       <c r="AQ65" t="inlineStr">
         <is>
@@ -25841,11 +25849,11 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=70&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=67&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -25974,7 +25982,7 @@
         </is>
       </c>
       <c r="AO66" t="n">
-        <v>559</v>
+        <v>65</v>
       </c>
       <c r="AQ66" t="inlineStr">
         <is>
@@ -25994,11 +26002,11 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=76&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=68&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -26127,7 +26135,7 @@
         </is>
       </c>
       <c r="AO67" t="n">
-        <v>560</v>
+        <v>602</v>
       </c>
       <c r="AQ67" t="inlineStr">
         <is>
@@ -26147,11 +26155,11 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=25&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=69&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -26280,7 +26288,7 @@
         </is>
       </c>
       <c r="AO68" t="n">
-        <v>563</v>
+        <v>595</v>
       </c>
       <c r="AQ68" t="inlineStr">
         <is>
@@ -26300,11 +26308,11 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=1&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=70&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -26433,7 +26441,7 @@
         </is>
       </c>
       <c r="AO69" t="n">
-        <v>578</v>
+        <v>559</v>
       </c>
       <c r="AQ69" t="inlineStr">
         <is>
@@ -26453,11 +26461,11 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=6&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=71&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -26586,7 +26594,7 @@
         </is>
       </c>
       <c r="AO70" t="n">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="AQ70" t="inlineStr">
         <is>
@@ -26606,11 +26614,11 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=7&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=72&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -26739,7 +26747,7 @@
         </is>
       </c>
       <c r="AO71" t="n">
-        <v>579</v>
+        <v>558</v>
       </c>
       <c r="AQ71" t="inlineStr">
         <is>
@@ -26759,11 +26767,11 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=9&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=73&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -26892,7 +26900,7 @@
         </is>
       </c>
       <c r="AO72" t="n">
-        <v>579</v>
+        <v>589</v>
       </c>
       <c r="AQ72" t="inlineStr">
         <is>
@@ -26912,11 +26920,11 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=49&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=74&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -27045,7 +27053,7 @@
         </is>
       </c>
       <c r="AO73" t="n">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="AQ73" t="inlineStr">
         <is>
@@ -27065,11 +27073,11 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=51&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=75&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -27198,7 +27206,7 @@
         </is>
       </c>
       <c r="AO74" t="n">
-        <v>579</v>
+        <v>594</v>
       </c>
       <c r="AQ74" t="inlineStr">
         <is>
@@ -27218,11 +27226,11 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=99&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=76&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -27351,7 +27359,7 @@
         </is>
       </c>
       <c r="AO75" t="n">
-        <v>579</v>
+        <v>560</v>
       </c>
       <c r="AQ75" t="inlineStr">
         <is>
@@ -27371,11 +27379,11 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=23&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=77&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -27504,7 +27512,7 @@
         </is>
       </c>
       <c r="AO76" t="n">
-        <v>584</v>
+        <v>214</v>
       </c>
       <c r="AQ76" t="inlineStr">
         <is>
@@ -27524,11 +27532,11 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=26&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=80&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -27657,7 +27665,7 @@
         </is>
       </c>
       <c r="AO77" t="n">
-        <v>585</v>
+        <v>617</v>
       </c>
       <c r="AQ77" t="inlineStr">
         <is>
@@ -27677,11 +27685,11 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=71&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=81&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -27810,7 +27818,7 @@
         </is>
       </c>
       <c r="AO78" t="n">
-        <v>586</v>
+        <v>146</v>
       </c>
       <c r="AQ78" t="inlineStr">
         <is>
@@ -27830,11 +27838,11 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=29&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=83&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -27963,7 +27971,7 @@
         </is>
       </c>
       <c r="AO79" t="n">
-        <v>587</v>
+        <v>627</v>
       </c>
       <c r="AQ79" t="inlineStr">
         <is>
@@ -27983,11 +27991,11 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=19&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=85&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -28116,7 +28124,7 @@
         </is>
       </c>
       <c r="AO80" t="n">
-        <v>588</v>
+        <v>257</v>
       </c>
       <c r="AQ80" t="inlineStr">
         <is>
@@ -28136,11 +28144,11 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=73&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=86&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -28269,7 +28277,7 @@
         </is>
       </c>
       <c r="AO81" t="n">
-        <v>589</v>
+        <v>149</v>
       </c>
       <c r="AQ81" t="inlineStr">
         <is>
@@ -28289,11 +28297,11 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=74&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=87&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -28422,7 +28430,7 @@
         </is>
       </c>
       <c r="AO82" t="n">
-        <v>590</v>
+        <v>149</v>
       </c>
       <c r="AQ82" t="inlineStr">
         <is>
@@ -28442,11 +28450,11 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=75&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=90&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -28575,7 +28583,7 @@
         </is>
       </c>
       <c r="AO83" t="n">
-        <v>594</v>
+        <v>651</v>
       </c>
       <c r="AQ83" t="inlineStr">
         <is>
@@ -28595,11 +28603,11 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=69&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=92&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -28728,7 +28736,7 @@
         </is>
       </c>
       <c r="AO84" t="n">
-        <v>595</v>
+        <v>637</v>
       </c>
       <c r="AQ84" t="inlineStr">
         <is>
@@ -28748,11 +28756,11 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=68&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=95&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -28881,7 +28889,7 @@
         </is>
       </c>
       <c r="AO85" t="n">
-        <v>602</v>
+        <v>548</v>
       </c>
       <c r="AQ85" t="inlineStr">
         <is>
@@ -28901,11 +28909,11 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=27&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=96&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -29034,7 +29042,7 @@
         </is>
       </c>
       <c r="AO86" t="n">
-        <v>603</v>
+        <v>620</v>
       </c>
       <c r="AQ86" t="inlineStr">
         <is>
@@ -29054,11 +29062,11 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=80&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=97&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -29187,7 +29195,7 @@
         </is>
       </c>
       <c r="AO87" t="n">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="AQ87" t="inlineStr">
         <is>
@@ -29207,11 +29215,11 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>58</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=58&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+        <v>98</v>
+      </c>
+      <c r="B88" s="1" t="inlineStr">
+        <is>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=98&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -29340,7 +29348,7 @@
         </is>
       </c>
       <c r="AO88" t="n">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="AQ88" t="inlineStr">
         <is>
@@ -29360,11 +29368,11 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=96&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=99&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -29493,7 +29501,7 @@
         </is>
       </c>
       <c r="AO89" t="n">
-        <v>620</v>
+        <v>579</v>
       </c>
       <c r="AQ89" t="inlineStr">
         <is>
@@ -29513,11 +29521,11 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=97&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=100&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -29646,7 +29654,7 @@
         </is>
       </c>
       <c r="AO90" t="n">
-        <v>621</v>
+        <v>853</v>
       </c>
       <c r="AQ90" t="inlineStr">
         <is>
@@ -29666,11 +29674,11 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=98&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=104&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -29750,7 +29758,7 @@
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>%d/%m/%Y %H:%M</t>
+          <t>%Y-%m-%d %H:%M:%S</t>
         </is>
       </c>
       <c r="S91" t="inlineStr">
@@ -29760,7 +29768,7 @@
       </c>
       <c r="T91" t="inlineStr">
         <is>
-          <t>%d/%m/%Y %H:%M</t>
+          <t>%Y-%m-%d %H:%M:%S</t>
         </is>
       </c>
       <c r="U91" t="inlineStr">
@@ -29799,7 +29807,7 @@
         </is>
       </c>
       <c r="AO91" t="n">
-        <v>622</v>
+        <v>964</v>
       </c>
       <c r="AQ91" t="inlineStr">
         <is>
@@ -29819,11 +29827,11 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=83&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=105&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -29952,7 +29960,7 @@
         </is>
       </c>
       <c r="AO92" t="n">
-        <v>627</v>
+        <v>1165</v>
       </c>
       <c r="AQ92" t="inlineStr">
         <is>
@@ -29972,11 +29980,11 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=92&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=109&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -30104,8 +30112,11 @@
           <t>millimeter_per_pixel</t>
         </is>
       </c>
+      <c r="AN93" t="n">
+        <v>9999</v>
+      </c>
       <c r="AO93" t="n">
-        <v>637</v>
+        <v>881</v>
       </c>
       <c r="AQ93" t="inlineStr">
         <is>
@@ -30125,11 +30136,11 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=90&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=110&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -30257,8 +30268,10 @@
           <t>millimeter_per_pixel</t>
         </is>
       </c>
-      <c r="AO94" t="n">
-        <v>651</v>
+      <c r="AO94" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
       </c>
       <c r="AQ94" t="inlineStr">
         <is>
@@ -30278,11 +30291,11 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=100&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=111&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -30411,7 +30424,7 @@
         </is>
       </c>
       <c r="AO95" t="n">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="AQ95" t="inlineStr">
         <is>
@@ -30431,11 +30444,11 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=111&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=112&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -30564,7 +30577,7 @@
         </is>
       </c>
       <c r="AO96" t="n">
-        <v>855</v>
+        <v>1261</v>
       </c>
       <c r="AQ96" t="inlineStr">
         <is>
@@ -30584,11 +30597,11 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=109&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=121&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -30716,11 +30729,8 @@
           <t>millimeter_per_pixel</t>
         </is>
       </c>
-      <c r="AN97" t="n">
-        <v>9999</v>
-      </c>
       <c r="AO97" t="n">
-        <v>881</v>
+        <v>1343</v>
       </c>
       <c r="AQ97" t="inlineStr">
         <is>
@@ -30740,11 +30750,11 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=104&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=124&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -30873,7 +30883,7 @@
         </is>
       </c>
       <c r="AO98" t="n">
-        <v>964</v>
+        <v>1451</v>
       </c>
       <c r="AQ98" t="inlineStr">
         <is>
@@ -30893,11 +30903,11 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=105&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=130&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -31026,7 +31036,7 @@
         </is>
       </c>
       <c r="AO99" t="n">
-        <v>1165</v>
+        <v>1666</v>
       </c>
       <c r="AQ99" t="inlineStr">
         <is>
@@ -31046,11 +31056,11 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>236</v>
+        <v>131</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=236&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=131&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -31179,7 +31189,7 @@
         </is>
       </c>
       <c r="AO100" t="n">
-        <v>1252</v>
+        <v>1692</v>
       </c>
       <c r="AQ100" t="inlineStr">
         <is>
@@ -31199,11 +31209,11 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=112&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=132&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -31332,7 +31342,7 @@
         </is>
       </c>
       <c r="AO101" t="n">
-        <v>1261</v>
+        <v>1892</v>
       </c>
       <c r="AQ101" t="inlineStr">
         <is>
@@ -31352,11 +31362,11 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>228</v>
+        <v>134</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=228&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=134&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -31485,7 +31495,7 @@
         </is>
       </c>
       <c r="AO102" t="n">
-        <v>1286</v>
+        <v>2163</v>
       </c>
       <c r="AQ102" t="inlineStr">
         <is>
@@ -31505,11 +31515,11 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>232</v>
+        <v>138</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=232&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=138&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -31638,7 +31648,7 @@
         </is>
       </c>
       <c r="AO103" t="n">
-        <v>1337</v>
+        <v>2289</v>
       </c>
       <c r="AQ103" t="inlineStr">
         <is>
@@ -31658,11 +31668,11 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=121&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=139&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -31791,7 +31801,7 @@
         </is>
       </c>
       <c r="AO104" t="n">
-        <v>1343</v>
+        <v>4019</v>
       </c>
       <c r="AQ104" t="inlineStr">
         <is>
@@ -31811,11 +31821,11 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>234</v>
+        <v>141</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=234&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=141&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -31944,7 +31954,7 @@
         </is>
       </c>
       <c r="AO105" t="n">
-        <v>1446</v>
+        <v>2430</v>
       </c>
       <c r="AQ105" t="inlineStr">
         <is>
@@ -31964,11 +31974,11 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=124&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=142&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -32097,7 +32107,7 @@
         </is>
       </c>
       <c r="AO106" t="n">
-        <v>1451</v>
+        <v>2417</v>
       </c>
       <c r="AQ106" t="inlineStr">
         <is>
@@ -32117,11 +32127,11 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>230</v>
+        <v>144</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=230&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=144&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -32250,7 +32260,7 @@
         </is>
       </c>
       <c r="AO107" t="n">
-        <v>1591</v>
+        <v>2410</v>
       </c>
       <c r="AQ107" t="inlineStr">
         <is>
@@ -32270,11 +32280,11 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=130&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=146&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -32403,7 +32413,7 @@
         </is>
       </c>
       <c r="AO108" t="n">
-        <v>1666</v>
+        <v>2412</v>
       </c>
       <c r="AQ108" t="inlineStr">
         <is>
@@ -32423,11 +32433,11 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=131&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=147&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -32556,7 +32566,7 @@
         </is>
       </c>
       <c r="AO109" t="n">
-        <v>1692</v>
+        <v>2431</v>
       </c>
       <c r="AQ109" t="inlineStr">
         <is>
@@ -32576,11 +32586,11 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=132&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=148&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -32709,7 +32719,7 @@
         </is>
       </c>
       <c r="AO110" t="n">
-        <v>1892</v>
+        <v>2453</v>
       </c>
       <c r="AQ110" t="inlineStr">
         <is>
@@ -32729,11 +32739,11 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>63</v>
+        <v>149</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=63&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=149&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -32862,7 +32872,7 @@
         </is>
       </c>
       <c r="AO111" t="n">
-        <v>1904</v>
+        <v>2436</v>
       </c>
       <c r="AQ111" t="inlineStr">
         <is>
@@ -32882,11 +32892,11 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=134&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=150&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -33015,7 +33025,7 @@
         </is>
       </c>
       <c r="AO112" t="n">
-        <v>2163</v>
+        <v>3373</v>
       </c>
       <c r="AQ112" t="inlineStr">
         <is>
@@ -33035,11 +33045,11 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>235</v>
+        <v>151</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=235&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=151&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -33168,7 +33178,7 @@
         </is>
       </c>
       <c r="AO113" t="n">
-        <v>2164</v>
+        <v>2464</v>
       </c>
       <c r="AQ113" t="inlineStr">
         <is>
@@ -33188,11 +33198,11 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=138&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=152&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -33321,7 +33331,7 @@
         </is>
       </c>
       <c r="AO114" t="n">
-        <v>2289</v>
+        <v>2469</v>
       </c>
       <c r="AQ114" t="inlineStr">
         <is>
@@ -33341,11 +33351,11 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=144&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=153&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -33474,7 +33484,7 @@
         </is>
       </c>
       <c r="AO115" t="n">
-        <v>2410</v>
+        <v>2483</v>
       </c>
       <c r="AQ115" t="inlineStr">
         <is>
@@ -33494,11 +33504,11 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=146&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=154&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -33627,7 +33637,7 @@
         </is>
       </c>
       <c r="AO116" t="n">
-        <v>2412</v>
+        <v>2485</v>
       </c>
       <c r="AQ116" t="inlineStr">
         <is>
@@ -33647,11 +33657,11 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=142&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=161&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -33780,7 +33790,7 @@
         </is>
       </c>
       <c r="AO117" t="n">
-        <v>2417</v>
+        <v>2489</v>
       </c>
       <c r="AQ117" t="inlineStr">
         <is>
@@ -33800,11 +33810,11 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>141</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=141&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+        <v>164</v>
+      </c>
+      <c r="B118" s="1" t="inlineStr">
+        <is>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=164&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -33931,9 +33941,6 @@
         <is>
           <t>millimeter_per_pixel</t>
         </is>
-      </c>
-      <c r="AO118" t="n">
-        <v>2430</v>
       </c>
       <c r="AQ118" t="inlineStr">
         <is>
@@ -33953,11 +33960,11 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>147</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=147&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+        <v>165</v>
+      </c>
+      <c r="B119" s="1" t="inlineStr">
+        <is>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=165&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -34086,7 +34093,7 @@
         </is>
       </c>
       <c r="AO119" t="n">
-        <v>2431</v>
+        <v>10111</v>
       </c>
       <c r="AQ119" t="inlineStr">
         <is>
@@ -34106,11 +34113,11 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=149&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=166&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -34239,7 +34246,7 @@
         </is>
       </c>
       <c r="AO120" t="n">
-        <v>2436</v>
+        <v>35</v>
       </c>
       <c r="AQ120" t="inlineStr">
         <is>
@@ -34259,11 +34266,11 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=148&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=168&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -34392,7 +34399,7 @@
         </is>
       </c>
       <c r="AO121" t="n">
-        <v>2453</v>
+        <v>2784</v>
       </c>
       <c r="AQ121" t="inlineStr">
         <is>
@@ -34412,11 +34419,11 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>239</v>
+        <v>171</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=239&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=171&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -34545,7 +34552,7 @@
         </is>
       </c>
       <c r="AO122" t="n">
-        <v>2463</v>
+        <v>2806</v>
       </c>
       <c r="AQ122" t="inlineStr">
         <is>
@@ -34565,11 +34572,11 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=151&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=172&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -34698,7 +34705,7 @@
         </is>
       </c>
       <c r="AO123" t="n">
-        <v>2464</v>
+        <v>2807</v>
       </c>
       <c r="AQ123" t="inlineStr">
         <is>
@@ -34718,11 +34725,11 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>307</v>
+        <v>173</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=307&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=173&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -34851,7 +34858,7 @@
         </is>
       </c>
       <c r="AO124" t="n">
-        <v>2465</v>
+        <v>2808</v>
       </c>
       <c r="AQ124" t="inlineStr">
         <is>
@@ -34871,11 +34878,11 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>152</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=152&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+        <v>183</v>
+      </c>
+      <c r="B125" s="1" t="inlineStr">
+        <is>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=183&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -35002,9 +35009,6 @@
         <is>
           <t>millimeter_per_pixel</t>
         </is>
-      </c>
-      <c r="AO125" t="n">
-        <v>2469</v>
       </c>
       <c r="AQ125" t="inlineStr">
         <is>
@@ -35024,11 +35028,11 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>153</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=153&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+        <v>186</v>
+      </c>
+      <c r="B126" s="1" t="inlineStr">
+        <is>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=186&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -35155,9 +35159,6 @@
         <is>
           <t>millimeter_per_pixel</t>
         </is>
-      </c>
-      <c r="AO126" t="n">
-        <v>2483</v>
       </c>
       <c r="AQ126" t="inlineStr">
         <is>
@@ -35177,11 +35178,11 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>154</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=154&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+        <v>192</v>
+      </c>
+      <c r="B127" s="1" t="inlineStr">
+        <is>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=192&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -35309,8 +35310,10 @@
           <t>millimeter_per_pixel</t>
         </is>
       </c>
-      <c r="AO127" t="n">
-        <v>2485</v>
+      <c r="AO127" t="inlineStr">
+        <is>
+          <t>3039</t>
+        </is>
       </c>
       <c r="AQ127" t="inlineStr">
         <is>
@@ -35324,17 +35327,17 @@
       </c>
       <c r="AU127" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:default_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=161&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=193&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -35459,11 +35462,11 @@
       </c>
       <c r="AJ128" t="inlineStr">
         <is>
-          <t>millimeter_per_pixel</t>
+          <t>micron_per_pixel</t>
         </is>
       </c>
       <c r="AO128" t="n">
-        <v>2489</v>
+        <v>3040</v>
       </c>
       <c r="AQ128" t="inlineStr">
         <is>
@@ -35483,11 +35486,11 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=168&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=194&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -35612,11 +35615,11 @@
       </c>
       <c r="AJ129" t="inlineStr">
         <is>
-          <t>millimeter_per_pixel</t>
+          <t>micron_per_pixel</t>
         </is>
       </c>
       <c r="AO129" t="n">
-        <v>2784</v>
+        <v>3004</v>
       </c>
       <c r="AQ129" t="inlineStr">
         <is>
@@ -35636,11 +35639,11 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=171&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=195&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -35765,11 +35768,11 @@
       </c>
       <c r="AJ130" t="inlineStr">
         <is>
-          <t>millimeter_per_pixel</t>
+          <t>micron_per_pixel</t>
         </is>
       </c>
       <c r="AO130" t="n">
-        <v>2806</v>
+        <v>3005</v>
       </c>
       <c r="AQ130" t="inlineStr">
         <is>
@@ -35789,11 +35792,11 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=172&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=197&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -35918,11 +35921,11 @@
       </c>
       <c r="AJ131" t="inlineStr">
         <is>
-          <t>millimeter_per_pixel</t>
+          <t>micron_per_pixel</t>
         </is>
       </c>
       <c r="AO131" t="n">
-        <v>2807</v>
+        <v>3047</v>
       </c>
       <c r="AQ131" t="inlineStr">
         <is>
@@ -35936,17 +35939,17 @@
       </c>
       <c r="AU131" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:default_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=173&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=198&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -36071,11 +36074,11 @@
       </c>
       <c r="AJ132" t="inlineStr">
         <is>
-          <t>millimeter_per_pixel</t>
+          <t>micron_per_pixel</t>
         </is>
       </c>
       <c r="AO132" t="n">
-        <v>2808</v>
+        <v>3050</v>
       </c>
       <c r="AQ132" t="inlineStr">
         <is>
@@ -36095,11 +36098,11 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=238&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=199&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -36224,11 +36227,11 @@
       </c>
       <c r="AJ133" t="inlineStr">
         <is>
-          <t>millimeter_per_pixel</t>
+          <t>micron_per_pixel</t>
         </is>
       </c>
       <c r="AO133" t="n">
-        <v>2970</v>
+        <v>3007</v>
       </c>
       <c r="AQ133" t="inlineStr">
         <is>
@@ -36248,11 +36251,11 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>194</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=194&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+        <v>200</v>
+      </c>
+      <c r="B134" s="1" t="inlineStr">
+        <is>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=200&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -36377,11 +36380,8 @@
       </c>
       <c r="AJ134" t="inlineStr">
         <is>
-          <t>micron_per_pixel</t>
-        </is>
-      </c>
-      <c r="AO134" t="n">
-        <v>3004</v>
+          <t>millimeter_per_pixel</t>
+        </is>
       </c>
       <c r="AQ134" t="inlineStr">
         <is>
@@ -36395,17 +36395,17 @@
       </c>
       <c r="AU134" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:default_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimg}</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=195&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=201&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -36534,7 +36534,7 @@
         </is>
       </c>
       <c r="AO135" t="n">
-        <v>3005</v>
+        <v>3006</v>
       </c>
       <c r="AQ135" t="inlineStr">
         <is>
@@ -36554,11 +36554,11 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>201</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=201&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+        <v>202</v>
+      </c>
+      <c r="B136" s="1" t="inlineStr">
+        <is>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=202&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -36687,7 +36687,7 @@
         </is>
       </c>
       <c r="AO136" t="n">
-        <v>3006</v>
+        <v>3039</v>
       </c>
       <c r="AQ136" t="inlineStr">
         <is>
@@ -36707,11 +36707,11 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=199&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=203&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -36840,7 +36840,7 @@
         </is>
       </c>
       <c r="AO137" t="n">
-        <v>3007</v>
+        <v>3056</v>
       </c>
       <c r="AQ137" t="inlineStr">
         <is>
@@ -36860,11 +36860,11 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>208</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=208&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+        <v>204</v>
+      </c>
+      <c r="B138" s="1" t="inlineStr">
+        <is>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=204&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -36991,9 +36991,6 @@
         <is>
           <t>micron_per_pixel</t>
         </is>
-      </c>
-      <c r="AO138" t="n">
-        <v>3008</v>
       </c>
       <c r="AQ138" t="inlineStr">
         <is>
@@ -37013,11 +37010,11 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>209</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=209&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+        <v>205</v>
+      </c>
+      <c r="B139" s="1" t="inlineStr">
+        <is>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=205&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -37144,9 +37141,6 @@
         <is>
           <t>micron_per_pixel</t>
         </is>
-      </c>
-      <c r="AO139" t="n">
-        <v>3009</v>
       </c>
       <c r="AQ139" t="inlineStr">
         <is>
@@ -37166,11 +37160,11 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=210&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=206&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -37299,7 +37293,7 @@
         </is>
       </c>
       <c r="AO140" t="n">
-        <v>3010</v>
+        <v>3015</v>
       </c>
       <c r="AQ140" t="inlineStr">
         <is>
@@ -37319,11 +37313,11 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=211&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=208&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -37452,7 +37446,7 @@
         </is>
       </c>
       <c r="AO141" t="n">
-        <v>3011</v>
+        <v>3008</v>
       </c>
       <c r="AQ141" t="inlineStr">
         <is>
@@ -37472,11 +37466,11 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=206&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=209&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -37605,7 +37599,7 @@
         </is>
       </c>
       <c r="AO142" t="n">
-        <v>3015</v>
+        <v>3009</v>
       </c>
       <c r="AQ142" t="inlineStr">
         <is>
@@ -37625,11 +37619,11 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=215&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=210&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -37758,7 +37752,7 @@
         </is>
       </c>
       <c r="AO143" t="n">
-        <v>3016</v>
+        <v>3010</v>
       </c>
       <c r="AQ143" t="inlineStr">
         <is>
@@ -37778,11 +37772,11 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=216&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=211&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -37911,7 +37905,7 @@
         </is>
       </c>
       <c r="AO144" t="n">
-        <v>3017</v>
+        <v>3011</v>
       </c>
       <c r="AQ144" t="inlineStr">
         <is>
@@ -37931,11 +37925,11 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=217&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=212&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -38064,7 +38058,7 @@
         </is>
       </c>
       <c r="AO145" t="n">
-        <v>3018</v>
+        <v>3063</v>
       </c>
       <c r="AQ145" t="inlineStr">
         <is>
@@ -38084,11 +38078,11 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>192</v>
-      </c>
-      <c r="B146" s="1" t="inlineStr">
-        <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=192&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+        <v>213</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=213&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -38213,13 +38207,11 @@
       </c>
       <c r="AJ146" t="inlineStr">
         <is>
-          <t>millimeter_per_pixel</t>
-        </is>
-      </c>
-      <c r="AO146" t="inlineStr">
-        <is>
-          <t>3039</t>
-        </is>
+          <t>micron_per_pixel</t>
+        </is>
+      </c>
+      <c r="AO146" t="n">
+        <v>3064</v>
       </c>
       <c r="AQ146" t="inlineStr">
         <is>
@@ -38233,17 +38225,17 @@
       </c>
       <c r="AU146" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:default_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>202</v>
-      </c>
-      <c r="B147" s="1" t="inlineStr">
-        <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=202&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+        <v>214</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=214&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -38371,8 +38363,10 @@
           <t>micron_per_pixel</t>
         </is>
       </c>
-      <c r="AO147" t="n">
-        <v>3039</v>
+      <c r="AO147" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
       </c>
       <c r="AQ147" t="inlineStr">
         <is>
@@ -38392,11 +38386,11 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=193&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=215&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -38525,7 +38519,7 @@
         </is>
       </c>
       <c r="AO148" t="n">
-        <v>3040</v>
+        <v>3016</v>
       </c>
       <c r="AQ148" t="inlineStr">
         <is>
@@ -38545,11 +38539,11 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=197&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=216&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -38678,7 +38672,7 @@
         </is>
       </c>
       <c r="AO149" t="n">
-        <v>3047</v>
+        <v>3017</v>
       </c>
       <c r="AQ149" t="inlineStr">
         <is>
@@ -38692,17 +38686,17 @@
       </c>
       <c r="AU149" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:default_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=198&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=217&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -38831,7 +38825,7 @@
         </is>
       </c>
       <c r="AO150" t="n">
-        <v>3050</v>
+        <v>3018</v>
       </c>
       <c r="AQ150" t="inlineStr">
         <is>
@@ -38851,11 +38845,11 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=203&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=218&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -38984,7 +38978,7 @@
         </is>
       </c>
       <c r="AO151" t="n">
-        <v>3056</v>
+        <v>3076</v>
       </c>
       <c r="AQ151" t="inlineStr">
         <is>
@@ -39004,11 +38998,11 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=212&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=219&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -39137,7 +39131,7 @@
         </is>
       </c>
       <c r="AO152" t="n">
-        <v>3063</v>
+        <v>3077</v>
       </c>
       <c r="AQ152" t="inlineStr">
         <is>
@@ -39157,11 +39151,11 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>213</v>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=213&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+        <v>220</v>
+      </c>
+      <c r="B153" s="1" t="inlineStr">
+        <is>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=220&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -39288,9 +39282,6 @@
         <is>
           <t>micron_per_pixel</t>
         </is>
-      </c>
-      <c r="AO153" t="n">
-        <v>3064</v>
       </c>
       <c r="AQ153" t="inlineStr">
         <is>
@@ -39310,11 +39301,11 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=218&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=222&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -39443,7 +39434,7 @@
         </is>
       </c>
       <c r="AO154" t="n">
-        <v>3076</v>
+        <v>3083</v>
       </c>
       <c r="AQ154" t="inlineStr">
         <is>
@@ -39463,11 +39454,11 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=219&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=223&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -39592,11 +39583,11 @@
       </c>
       <c r="AJ155" t="inlineStr">
         <is>
-          <t>micron_per_pixel</t>
+          <t>millimeter_per_pixel</t>
         </is>
       </c>
       <c r="AO155" t="n">
-        <v>3077</v>
+        <v>545</v>
       </c>
       <c r="AQ155" t="inlineStr">
         <is>
@@ -39616,11 +39607,11 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=222&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=224&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -39749,7 +39740,7 @@
         </is>
       </c>
       <c r="AO156" t="n">
-        <v>3083</v>
+        <v>3116</v>
       </c>
       <c r="AQ156" t="inlineStr">
         <is>
@@ -39922,11 +39913,11 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=224&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=226&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -40051,11 +40042,11 @@
       </c>
       <c r="AJ158" t="inlineStr">
         <is>
-          <t>micron_per_pixel</t>
+          <t>millimeter_per_pixel</t>
         </is>
       </c>
       <c r="AO158" t="n">
-        <v>3116</v>
+        <v>3117</v>
       </c>
       <c r="AQ158" t="inlineStr">
         <is>
@@ -40075,11 +40066,11 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=226&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=228&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -40208,7 +40199,7 @@
         </is>
       </c>
       <c r="AO159" t="n">
-        <v>3117</v>
+        <v>1286</v>
       </c>
       <c r="AQ159" t="inlineStr">
         <is>
@@ -40228,11 +40219,11 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=246&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=230&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -40361,7 +40352,7 @@
         </is>
       </c>
       <c r="AO160" t="n">
-        <v>3221</v>
+        <v>1591</v>
       </c>
       <c r="AQ160" t="inlineStr">
         <is>
@@ -40381,11 +40372,11 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=247&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=232&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -40514,7 +40505,7 @@
         </is>
       </c>
       <c r="AO161" t="n">
-        <v>3222</v>
+        <v>1337</v>
       </c>
       <c r="AQ161" t="inlineStr">
         <is>
@@ -40534,11 +40525,11 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>248</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=248&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+        <v>233</v>
+      </c>
+      <c r="B162" s="1" t="inlineStr">
+        <is>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=233&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -40665,9 +40656,6 @@
         <is>
           <t>micron_per_pixel</t>
         </is>
-      </c>
-      <c r="AO162" t="n">
-        <v>3251</v>
       </c>
       <c r="AQ162" t="inlineStr">
         <is>
@@ -40687,11 +40675,11 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=249&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=234&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -40816,11 +40804,11 @@
       </c>
       <c r="AJ163" t="inlineStr">
         <is>
-          <t>micron_per_pixel</t>
+          <t>millimeter_per_pixel</t>
         </is>
       </c>
       <c r="AO163" t="n">
-        <v>3278</v>
+        <v>1446</v>
       </c>
       <c r="AQ163" t="inlineStr">
         <is>
@@ -40834,17 +40822,17 @@
       </c>
       <c r="AU163" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:default_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=250&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=235&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -40969,11 +40957,11 @@
       </c>
       <c r="AJ164" t="inlineStr">
         <is>
-          <t>micron_per_pixel</t>
+          <t>millimeter_per_pixel</t>
         </is>
       </c>
       <c r="AO164" t="n">
-        <v>3327</v>
+        <v>2164</v>
       </c>
       <c r="AQ164" t="inlineStr">
         <is>
@@ -40987,17 +40975,17 @@
       </c>
       <c r="AU164" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:default_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>150</v>
+        <v>236</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=150&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=236&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -41126,7 +41114,7 @@
         </is>
       </c>
       <c r="AO165" t="n">
-        <v>3373</v>
+        <v>1252</v>
       </c>
       <c r="AQ165" t="inlineStr">
         <is>
@@ -41146,11 +41134,11 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=254&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=237&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -41279,7 +41267,7 @@
         </is>
       </c>
       <c r="AO166" t="n">
-        <v>3403</v>
+        <v>256</v>
       </c>
       <c r="AQ166" t="inlineStr">
         <is>
@@ -41299,11 +41287,11 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=259&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=238&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -41428,11 +41416,11 @@
       </c>
       <c r="AJ167" t="inlineStr">
         <is>
-          <t>micron_per_pixel</t>
+          <t>millimeter_per_pixel</t>
         </is>
       </c>
       <c r="AO167" t="n">
-        <v>3458</v>
+        <v>2970</v>
       </c>
       <c r="AQ167" t="inlineStr">
         <is>
@@ -41446,17 +41434,17 @@
       </c>
       <c r="AU167" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:default_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=261&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=239&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -41581,11 +41569,11 @@
       </c>
       <c r="AJ168" t="inlineStr">
         <is>
-          <t>micron_per_pixel</t>
+          <t>millimeter_per_pixel</t>
         </is>
       </c>
       <c r="AO168" t="n">
-        <v>3501</v>
+        <v>2463</v>
       </c>
       <c r="AQ168" t="inlineStr">
         <is>
@@ -41599,17 +41587,17 @@
       </c>
       <c r="AU168" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:default_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=262&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=240&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -41734,11 +41722,11 @@
       </c>
       <c r="AJ169" t="inlineStr">
         <is>
-          <t>micron_per_pixel</t>
+          <t>millimeter_per_pixel</t>
         </is>
       </c>
       <c r="AO169" t="n">
-        <v>3502</v>
+        <v>3813</v>
       </c>
       <c r="AQ169" t="inlineStr">
         <is>
@@ -41752,17 +41740,17 @@
       </c>
       <c r="AU169" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:default_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=263&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=246&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -41887,11 +41875,11 @@
       </c>
       <c r="AJ170" t="inlineStr">
         <is>
-          <t>micron_per_pixel</t>
+          <t>millimeter_per_pixel</t>
         </is>
       </c>
       <c r="AO170" t="n">
-        <v>3503</v>
+        <v>3221</v>
       </c>
       <c r="AQ170" t="inlineStr">
         <is>
@@ -41905,17 +41893,17 @@
       </c>
       <c r="AU170" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:default_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=264&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=247&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -42040,11 +42028,11 @@
       </c>
       <c r="AJ171" t="inlineStr">
         <is>
-          <t>micron_per_pixel</t>
+          <t>millimeter_per_pixel</t>
         </is>
       </c>
       <c r="AO171" t="n">
-        <v>3504</v>
+        <v>3222</v>
       </c>
       <c r="AQ171" t="inlineStr">
         <is>
@@ -42058,17 +42046,17 @@
       </c>
       <c r="AU171" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:default_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=265&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=248&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -42197,7 +42185,7 @@
         </is>
       </c>
       <c r="AO172" t="n">
-        <v>3505</v>
+        <v>3251</v>
       </c>
       <c r="AQ172" t="inlineStr">
         <is>
@@ -42217,11 +42205,11 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=266&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=249&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -42350,7 +42338,7 @@
         </is>
       </c>
       <c r="AO173" t="n">
-        <v>3506</v>
+        <v>3278</v>
       </c>
       <c r="AQ173" t="inlineStr">
         <is>
@@ -42370,11 +42358,11 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=267&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=250&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -42503,7 +42491,7 @@
         </is>
       </c>
       <c r="AO174" t="n">
-        <v>3507</v>
+        <v>3327</v>
       </c>
       <c r="AQ174" t="inlineStr">
         <is>
@@ -42523,11 +42511,11 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=268&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=251&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -42656,7 +42644,7 @@
         </is>
       </c>
       <c r="AO175" t="n">
-        <v>3581</v>
+        <v>6733</v>
       </c>
       <c r="AQ175" t="inlineStr">
         <is>
@@ -42676,11 +42664,11 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>302</v>
+        <v>252</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=302&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=252&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -42809,7 +42797,7 @@
         </is>
       </c>
       <c r="AO176" t="n">
-        <v>3581</v>
+        <v>6734</v>
       </c>
       <c r="AQ176" t="inlineStr">
         <is>
@@ -42829,11 +42817,11 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=269&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=254&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -42958,11 +42946,11 @@
       </c>
       <c r="AJ177" t="inlineStr">
         <is>
-          <t>micron_per_pixel</t>
+          <t>millimeter_per_pixel</t>
         </is>
       </c>
       <c r="AO177" t="n">
-        <v>3662</v>
+        <v>3403</v>
       </c>
       <c r="AQ177" t="inlineStr">
         <is>
@@ -42976,17 +42964,17 @@
       </c>
       <c r="AU177" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:default_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=240&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=255&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -43114,8 +43102,10 @@
           <t>millimeter_per_pixel</t>
         </is>
       </c>
-      <c r="AO178" t="n">
-        <v>3813</v>
+      <c r="AO178" t="inlineStr">
+        <is>
+          <t>5693</t>
+        </is>
       </c>
       <c r="AQ178" t="inlineStr">
         <is>
@@ -43129,17 +43119,17 @@
       </c>
       <c r="AU178" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:default_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:default_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimg}</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>276</v>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=276&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+        <v>256</v>
+      </c>
+      <c r="B179" s="1" t="inlineStr">
+        <is>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=256&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -43268,7 +43258,7 @@
         </is>
       </c>
       <c r="AO179" t="n">
-        <v>3887</v>
+        <v>10123</v>
       </c>
       <c r="AQ179" t="inlineStr">
         <is>
@@ -43282,17 +43272,17 @@
       </c>
       <c r="AU179" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:default_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=281&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=257&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -43421,7 +43411,7 @@
         </is>
       </c>
       <c r="AO180" t="n">
-        <v>3904</v>
+        <v>4020</v>
       </c>
       <c r="AQ180" t="inlineStr">
         <is>
@@ -43441,11 +43431,11 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>284</v>
+        <v>259</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=284&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=259&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -43574,7 +43564,7 @@
         </is>
       </c>
       <c r="AO181" t="n">
-        <v>3943</v>
+        <v>3458</v>
       </c>
       <c r="AQ181" t="inlineStr">
         <is>
@@ -43594,11 +43584,11 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=285&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=261&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -43727,7 +43717,7 @@
         </is>
       </c>
       <c r="AO182" t="n">
-        <v>3945</v>
+        <v>3501</v>
       </c>
       <c r="AQ182" t="inlineStr">
         <is>
@@ -43747,11 +43737,11 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>297</v>
+        <v>262</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=297&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=262&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -43876,13 +43866,11 @@
       </c>
       <c r="AJ183" t="inlineStr">
         <is>
-          <t>millimeter_per_pixel</t>
-        </is>
-      </c>
-      <c r="AO183" t="inlineStr">
-        <is>
-          <t>3990</t>
-        </is>
+          <t>micron_per_pixel</t>
+        </is>
+      </c>
+      <c r="AO183" t="n">
+        <v>3502</v>
       </c>
       <c r="AQ183" t="inlineStr">
         <is>
@@ -43902,11 +43890,11 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>298</v>
+        <v>263</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=298&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=263&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -44031,13 +44019,11 @@
       </c>
       <c r="AJ184" t="inlineStr">
         <is>
-          <t>millimeter_per_pixel</t>
-        </is>
-      </c>
-      <c r="AO184" t="inlineStr">
-        <is>
-          <t>4008</t>
-        </is>
+          <t>micron_per_pixel</t>
+        </is>
+      </c>
+      <c r="AO184" t="n">
+        <v>3503</v>
       </c>
       <c r="AQ184" t="inlineStr">
         <is>
@@ -44057,11 +44043,11 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>299</v>
+        <v>264</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=299&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=264&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -44186,13 +44172,11 @@
       </c>
       <c r="AJ185" t="inlineStr">
         <is>
-          <t>millimeter_per_pixel</t>
-        </is>
-      </c>
-      <c r="AO185" t="inlineStr">
-        <is>
-          <t>4011</t>
-        </is>
+          <t>micron_per_pixel</t>
+        </is>
+      </c>
+      <c r="AO185" t="n">
+        <v>3504</v>
       </c>
       <c r="AQ185" t="inlineStr">
         <is>
@@ -44212,11 +44196,11 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>139</v>
+        <v>265</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=139&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=265&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -44341,11 +44325,11 @@
       </c>
       <c r="AJ186" t="inlineStr">
         <is>
-          <t>millimeter_per_pixel</t>
+          <t>micron_per_pixel</t>
         </is>
       </c>
       <c r="AO186" t="n">
-        <v>4019</v>
+        <v>3505</v>
       </c>
       <c r="AQ186" t="inlineStr">
         <is>
@@ -44359,17 +44343,17 @@
       </c>
       <c r="AU186" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:default_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=257&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=266&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -44494,11 +44478,11 @@
       </c>
       <c r="AJ187" t="inlineStr">
         <is>
-          <t>millimeter_per_pixel</t>
+          <t>micron_per_pixel</t>
         </is>
       </c>
       <c r="AO187" t="n">
-        <v>4020</v>
+        <v>3506</v>
       </c>
       <c r="AQ187" t="inlineStr">
         <is>
@@ -44512,19 +44496,17 @@
       </c>
       <c r="AU187" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:default_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
         </is>
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>301</t>
-        </is>
-      </c>
-      <c r="B188" s="1" t="inlineStr">
-        <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=301&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+      <c r="A188" t="n">
+        <v>267</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=267&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -44649,11 +44631,11 @@
       </c>
       <c r="AJ188" t="inlineStr">
         <is>
-          <t>millimeter_per_pixel</t>
+          <t>micron_per_pixel</t>
         </is>
       </c>
       <c r="AO188" t="n">
-        <v>4028</v>
+        <v>3507</v>
       </c>
       <c r="AQ188" t="inlineStr">
         <is>
@@ -44667,17 +44649,17 @@
       </c>
       <c r="AU188" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimg}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=287&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=268&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -44806,7 +44788,7 @@
         </is>
       </c>
       <c r="AO189" t="n">
-        <v>4034</v>
+        <v>3581</v>
       </c>
       <c r="AQ189" t="inlineStr">
         <is>
@@ -44825,14 +44807,12 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>303</t>
-        </is>
-      </c>
-      <c r="B190" s="1" t="inlineStr">
-        <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=303&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+      <c r="A190" t="n">
+        <v>269</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=269&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -44957,11 +44937,11 @@
       </c>
       <c r="AJ190" t="inlineStr">
         <is>
-          <t>millimeter_per_pixel</t>
+          <t>micron_per_pixel</t>
         </is>
       </c>
       <c r="AO190" t="n">
-        <v>4041</v>
+        <v>3662</v>
       </c>
       <c r="AQ190" t="inlineStr">
         <is>
@@ -44975,17 +44955,17 @@
       </c>
       <c r="AU190" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimg}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>305</v>
+        <v>270</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=305&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=270&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -45113,10 +45093,8 @@
           <t>millimeter_per_pixel</t>
         </is>
       </c>
-      <c r="AO191" t="inlineStr">
-        <is>
-          <t>4065</t>
-        </is>
+      <c r="AO191" t="n">
+        <v>5690</v>
       </c>
       <c r="AQ191" t="inlineStr">
         <is>
@@ -45130,17 +45108,17 @@
       </c>
       <c r="AU191" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimg}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:default_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>308</v>
+        <v>271</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=308&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=271&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -45269,7 +45247,7 @@
         </is>
       </c>
       <c r="AO192" t="n">
-        <v>4065</v>
+        <v>5691</v>
       </c>
       <c r="AQ192" t="inlineStr">
         <is>
@@ -45283,17 +45261,17 @@
       </c>
       <c r="AU192" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:default_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>306</v>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=306&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+        <v>272</v>
+      </c>
+      <c r="B193" s="1" t="inlineStr">
+        <is>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=272&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -45421,11 +45399,6 @@
           <t>millimeter_per_pixel</t>
         </is>
       </c>
-      <c r="AO193" t="inlineStr">
-        <is>
-          <t>4105</t>
-        </is>
-      </c>
       <c r="AQ193" t="inlineStr">
         <is>
           <t>acq_smbase</t>
@@ -45438,17 +45411,17 @@
       </c>
       <c r="AU193" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:default_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimg}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:default_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>311</v>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=311&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+        <v>273</v>
+      </c>
+      <c r="B194" s="1" t="inlineStr">
+        <is>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=273&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -45576,11 +45549,6 @@
           <t>millimeter_per_pixel</t>
         </is>
       </c>
-      <c r="AO194" t="inlineStr">
-        <is>
-          <t>4171</t>
-        </is>
-      </c>
       <c r="AQ194" t="inlineStr">
         <is>
           <t>acq_smbase</t>
@@ -45593,17 +45561,17 @@
       </c>
       <c r="AU194" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:default_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>309</v>
+        <v>275</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=309&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=275&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -45728,13 +45696,11 @@
       </c>
       <c r="AJ195" t="inlineStr">
         <is>
-          <t>micron_per_pixel</t>
-        </is>
-      </c>
-      <c r="AO195" t="inlineStr">
-        <is>
-          <t>4205</t>
-        </is>
+          <t>millimeter_per_pixel</t>
+        </is>
+      </c>
+      <c r="AO195" t="n">
+        <v>5695</v>
       </c>
       <c r="AQ195" t="inlineStr">
         <is>
@@ -45748,17 +45714,17 @@
       </c>
       <c r="AU195" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimg}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:default_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>310</v>
+        <v>276</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=310&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=276&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -45883,13 +45849,11 @@
       </c>
       <c r="AJ196" t="inlineStr">
         <is>
-          <t>micron_per_pixel</t>
-        </is>
-      </c>
-      <c r="AO196" t="inlineStr">
-        <is>
-          <t>4206</t>
-        </is>
+          <t>millimeter_per_pixel</t>
+        </is>
+      </c>
+      <c r="AO196" t="n">
+        <v>3887</v>
       </c>
       <c r="AQ196" t="inlineStr">
         <is>
@@ -45903,17 +45867,17 @@
       </c>
       <c r="AU196" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:default_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimg}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>313</v>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=313&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+        <v>277</v>
+      </c>
+      <c r="B197" s="1" t="inlineStr">
+        <is>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=277&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -46038,12 +46002,7 @@
       </c>
       <c r="AJ197" t="inlineStr">
         <is>
-          <t>micron_per_pixel</t>
-        </is>
-      </c>
-      <c r="AO197" t="inlineStr">
-        <is>
-          <t>4207</t>
+          <t>millimeter_per_pixel</t>
         </is>
       </c>
       <c r="AQ197" t="inlineStr">
@@ -46058,17 +46017,17 @@
       </c>
       <c r="AU197" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimg}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>322</v>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=322&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+        <v>278</v>
+      </c>
+      <c r="B198" s="1" t="inlineStr">
+        <is>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=278&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -46193,12 +46152,7 @@
       </c>
       <c r="AJ198" t="inlineStr">
         <is>
-          <t>micron_per_pixel</t>
-        </is>
-      </c>
-      <c r="AO198" t="inlineStr">
-        <is>
-          <t>4208</t>
+          <t>millimeter_per_pixel</t>
         </is>
       </c>
       <c r="AQ198" t="inlineStr">
@@ -46213,19 +46167,17 @@
       </c>
       <c r="AU198" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimg}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>328</t>
-        </is>
-      </c>
-      <c r="B199" s="1" t="inlineStr">
-        <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=328&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+      <c r="A199" t="n">
+        <v>279</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=279&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -46353,8 +46305,10 @@
           <t>millimeter_per_pixel</t>
         </is>
       </c>
-      <c r="AO199" t="n">
-        <v>4211</v>
+      <c r="AO199" t="inlineStr">
+        <is>
+          <t>6117</t>
+        </is>
       </c>
       <c r="AQ199" t="inlineStr">
         <is>
@@ -46368,19 +46322,17 @@
       </c>
       <c r="AU199" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimg}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
         </is>
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
-      </c>
-      <c r="B200" s="1" t="inlineStr">
-        <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=332&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+      <c r="A200" t="n">
+        <v>281</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=281&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -46509,7 +46461,7 @@
         </is>
       </c>
       <c r="AO200" t="n">
-        <v>4282</v>
+        <v>3904</v>
       </c>
       <c r="AQ200" t="inlineStr">
         <is>
@@ -46523,19 +46475,17 @@
       </c>
       <c r="AU200" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimg}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:default_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
         </is>
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>343</t>
-        </is>
-      </c>
-      <c r="B201" s="1" t="inlineStr">
-        <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=343&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+      <c r="A201" t="n">
+        <v>284</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=284&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -46660,11 +46610,11 @@
       </c>
       <c r="AJ201" t="inlineStr">
         <is>
-          <t>millimeter_per_pixel</t>
+          <t>micron_per_pixel</t>
         </is>
       </c>
       <c r="AO201" t="n">
-        <v>4360</v>
+        <v>3943</v>
       </c>
       <c r="AQ201" t="inlineStr">
         <is>
@@ -46678,19 +46628,17 @@
       </c>
       <c r="AU201" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimg}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
         </is>
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>347</t>
-        </is>
-      </c>
-      <c r="B202" s="1" t="inlineStr">
-        <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=347&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+      <c r="A202" t="n">
+        <v>285</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=285&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -46815,11 +46763,11 @@
       </c>
       <c r="AJ202" t="inlineStr">
         <is>
-          <t>millimeter_per_pixel</t>
+          <t>micron_per_pixel</t>
         </is>
       </c>
       <c r="AO202" t="n">
-        <v>4448</v>
+        <v>3945</v>
       </c>
       <c r="AQ202" t="inlineStr">
         <is>
@@ -46833,17 +46781,17 @@
       </c>
       <c r="AU202" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimg}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>323</v>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=323&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+        <v>286</v>
+      </c>
+      <c r="B203" s="1" t="inlineStr">
+        <is>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=286&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -46971,11 +46919,6 @@
           <t>micron_per_pixel</t>
         </is>
       </c>
-      <c r="AO203" t="inlineStr">
-        <is>
-          <t>4515</t>
-        </is>
-      </c>
       <c r="AQ203" t="inlineStr">
         <is>
           <t>acq_smbase</t>
@@ -46988,19 +46931,17 @@
       </c>
       <c r="AU203" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimg}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
         </is>
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>366</t>
-        </is>
-      </c>
-      <c r="B204" s="1" t="inlineStr">
-        <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=366&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+      <c r="A204" t="n">
+        <v>287</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=287&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -47129,7 +47070,7 @@
         </is>
       </c>
       <c r="AO204" t="n">
-        <v>4545</v>
+        <v>4034</v>
       </c>
       <c r="AQ204" t="inlineStr">
         <is>
@@ -47143,19 +47084,17 @@
       </c>
       <c r="AU204" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimg}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:default_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
         </is>
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>367</t>
-        </is>
-      </c>
-      <c r="B205" s="1" t="inlineStr">
-        <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=367&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+      <c r="A205" t="n">
+        <v>288</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=288&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -47283,9 +47222,6 @@
           <t>millimeter_per_pixel</t>
         </is>
       </c>
-      <c r="AO205" t="n">
-        <v>4551</v>
-      </c>
       <c r="AQ205" t="inlineStr">
         <is>
           <t>acq_smbase</t>
@@ -47298,17 +47234,17 @@
       </c>
       <c r="AU205" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimg}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:default_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>356</v>
+        <v>289</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=356&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=289&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -47436,11 +47372,6 @@
           <t>millimeter_per_pixel</t>
         </is>
       </c>
-      <c r="AO206" t="inlineStr">
-        <is>
-          <t>4661</t>
-        </is>
-      </c>
       <c r="AQ206" t="inlineStr">
         <is>
           <t>acq_smbase</t>
@@ -47453,17 +47384,17 @@
       </c>
       <c r="AU206" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:default_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimg}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>371</v>
+        <v>290</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=371&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=290&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -47591,11 +47522,6 @@
           <t>millimeter_per_pixel</t>
         </is>
       </c>
-      <c r="AO207" t="inlineStr">
-        <is>
-          <t>4661;7546</t>
-        </is>
-      </c>
       <c r="AQ207" t="inlineStr">
         <is>
           <t>acq_smbase</t>
@@ -47608,17 +47534,17 @@
       </c>
       <c r="AU207" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:default_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>374</v>
+        <v>291</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=374&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=291&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -47746,9 +47672,6 @@
           <t>millimeter_per_pixel</t>
         </is>
       </c>
-      <c r="AO208" t="n">
-        <v>4933</v>
-      </c>
       <c r="AQ208" t="inlineStr">
         <is>
           <t>acq_smbase</t>
@@ -47761,17 +47684,17 @@
       </c>
       <c r="AU208" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:default_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>378</v>
+        <v>292</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=378&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=292&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -47896,11 +47819,8 @@
       </c>
       <c r="AJ209" t="inlineStr">
         <is>
-          <t>micron_per_pixel</t>
-        </is>
-      </c>
-      <c r="AO209" t="n">
-        <v>5031</v>
+          <t>millimeter_per_pixel</t>
+        </is>
       </c>
       <c r="AQ209" t="inlineStr">
         <is>
@@ -47914,17 +47834,17 @@
       </c>
       <c r="AU209" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>380</v>
+        <v>293</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=380&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=293&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -48052,9 +47972,6 @@
           <t>micron_per_pixel</t>
         </is>
       </c>
-      <c r="AO210" t="n">
-        <v>5033</v>
-      </c>
       <c r="AQ210" t="inlineStr">
         <is>
           <t>acq_smbase</t>
@@ -48067,17 +47984,17 @@
       </c>
       <c r="AU210" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>423</v>
+        <v>294</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=423&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=294&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -48202,11 +48119,8 @@
       </c>
       <c r="AJ211" t="inlineStr">
         <is>
-          <t>millimeter_per_pixel</t>
-        </is>
-      </c>
-      <c r="AO211" t="n">
-        <v>5197</v>
+          <t>micron_per_pixel</t>
+        </is>
       </c>
       <c r="AQ211" t="inlineStr">
         <is>
@@ -48220,17 +48134,17 @@
       </c>
       <c r="AU211" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:default_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimg}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>426</v>
+        <v>295</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=426&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=295&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -48355,11 +48269,8 @@
       </c>
       <c r="AJ212" t="inlineStr">
         <is>
-          <t>millimeter_per_pixel</t>
-        </is>
-      </c>
-      <c r="AO212" t="n">
-        <v>5208</v>
+          <t>micron_per_pixel</t>
+        </is>
       </c>
       <c r="AQ212" t="inlineStr">
         <is>
@@ -48373,17 +48284,17 @@
       </c>
       <c r="AU212" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:default_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimg}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>430</v>
+        <v>296</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=430&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=296&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -48508,11 +48419,8 @@
       </c>
       <c r="AJ213" t="inlineStr">
         <is>
-          <t>millimeter_per_pixel</t>
-        </is>
-      </c>
-      <c r="AO213" t="n">
-        <v>5208</v>
+          <t>micron_per_pixel</t>
+        </is>
       </c>
       <c r="AQ213" t="inlineStr">
         <is>
@@ -48526,17 +48434,17 @@
       </c>
       <c r="AU213" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:default_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>427</v>
+        <v>297</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=427&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=297&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -48664,8 +48572,10 @@
           <t>millimeter_per_pixel</t>
         </is>
       </c>
-      <c r="AO214" t="n">
-        <v>5254</v>
+      <c r="AO214" t="inlineStr">
+        <is>
+          <t>3990</t>
+        </is>
       </c>
       <c r="AQ214" t="inlineStr">
         <is>
@@ -48679,17 +48589,17 @@
       </c>
       <c r="AU214" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:default_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>428</v>
+        <v>298</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=428&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=298&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -48814,11 +48724,13 @@
       </c>
       <c r="AJ215" t="inlineStr">
         <is>
-          <t>micron_per_pixel</t>
-        </is>
-      </c>
-      <c r="AO215" t="n">
-        <v>5680</v>
+          <t>millimeter_per_pixel</t>
+        </is>
+      </c>
+      <c r="AO215" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
       </c>
       <c r="AQ215" t="inlineStr">
         <is>
@@ -48832,17 +48744,17 @@
       </c>
       <c r="AU215" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:default_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimg}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>270</v>
+        <v>299</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=270&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=299&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -48970,8 +48882,10 @@
           <t>millimeter_per_pixel</t>
         </is>
       </c>
-      <c r="AO216" t="n">
-        <v>5690</v>
+      <c r="AO216" t="inlineStr">
+        <is>
+          <t>4011</t>
+        </is>
       </c>
       <c r="AQ216" t="inlineStr">
         <is>
@@ -48985,17 +48899,19 @@
       </c>
       <c r="AU216" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:default_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="n">
-        <v>271</v>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=271&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="B217" s="1" t="inlineStr">
+        <is>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=301&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -49124,7 +49040,7 @@
         </is>
       </c>
       <c r="AO217" t="n">
-        <v>5691</v>
+        <v>4028</v>
       </c>
       <c r="AQ217" t="inlineStr">
         <is>
@@ -49138,17 +49054,17 @@
       </c>
       <c r="AU217" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:default_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimg}</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>255</v>
+        <v>302</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=255&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=302&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -49276,10 +49192,8 @@
           <t>millimeter_per_pixel</t>
         </is>
       </c>
-      <c r="AO218" t="inlineStr">
-        <is>
-          <t>5693</t>
-        </is>
+      <c r="AO218" t="n">
+        <v>3581</v>
       </c>
       <c r="AQ218" t="inlineStr">
         <is>
@@ -49293,17 +49207,19 @@
       </c>
       <c r="AU218" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:default_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimg}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:default_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
         </is>
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="n">
-        <v>275</v>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=275&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="B219" s="1" t="inlineStr">
+        <is>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=303&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -49432,7 +49348,7 @@
         </is>
       </c>
       <c r="AO219" t="n">
-        <v>5695</v>
+        <v>4041</v>
       </c>
       <c r="AQ219" t="inlineStr">
         <is>
@@ -49446,17 +49362,17 @@
       </c>
       <c r="AU219" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:default_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimg}</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>433</v>
+        <v>304</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=433&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=304&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -49581,12 +49497,7 @@
       </c>
       <c r="AJ220" t="inlineStr">
         <is>
-          <t>micron_per_pixel</t>
-        </is>
-      </c>
-      <c r="AO220" t="inlineStr">
-        <is>
-          <t>6047</t>
+          <t>millimeter_per_pixel</t>
         </is>
       </c>
       <c r="AQ220" t="inlineStr">
@@ -49601,17 +49512,17 @@
       </c>
       <c r="AU220" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:default_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimg}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>593</v>
+        <v>305</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=593&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=305&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -49739,8 +49650,10 @@
           <t>millimeter_per_pixel</t>
         </is>
       </c>
-      <c r="AO221" t="n">
-        <v>6099</v>
+      <c r="AO221" t="inlineStr">
+        <is>
+          <t>4065</t>
+        </is>
       </c>
       <c r="AQ221" t="inlineStr">
         <is>
@@ -49754,17 +49667,17 @@
       </c>
       <c r="AU221" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:default_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimg}</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>592</v>
+        <v>306</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=592&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=306&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -49892,8 +49805,10 @@
           <t>millimeter_per_pixel</t>
         </is>
       </c>
-      <c r="AO222" t="n">
-        <v>6103</v>
+      <c r="AO222" t="inlineStr">
+        <is>
+          <t>4105</t>
+        </is>
       </c>
       <c r="AQ222" t="inlineStr">
         <is>
@@ -49907,17 +49822,17 @@
       </c>
       <c r="AU222" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:default_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:default_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimg}</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>596</v>
+        <v>307</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=596&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=307&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -50045,10 +49960,8 @@
           <t>millimeter_per_pixel</t>
         </is>
       </c>
-      <c r="AO223" t="inlineStr">
-        <is>
-          <t>6107</t>
-        </is>
+      <c r="AO223" t="n">
+        <v>2465</v>
       </c>
       <c r="AQ223" t="inlineStr">
         <is>
@@ -50062,17 +49975,17 @@
       </c>
       <c r="AU223" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:default_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>597</v>
+        <v>308</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=597&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=308&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -50200,10 +50113,8 @@
           <t>millimeter_per_pixel</t>
         </is>
       </c>
-      <c r="AO224" t="inlineStr">
-        <is>
-          <t>6108</t>
-        </is>
+      <c r="AO224" t="n">
+        <v>4065</v>
       </c>
       <c r="AQ224" t="inlineStr">
         <is>
@@ -50223,11 +50134,11 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=279&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=309&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -50352,12 +50263,12 @@
       </c>
       <c r="AJ225" t="inlineStr">
         <is>
-          <t>millimeter_per_pixel</t>
+          <t>micron_per_pixel</t>
         </is>
       </c>
       <c r="AO225" t="inlineStr">
         <is>
-          <t>6117</t>
+          <t>4205</t>
         </is>
       </c>
       <c r="AQ225" t="inlineStr">
@@ -50372,17 +50283,17 @@
       </c>
       <c r="AU225" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimg}</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>416</v>
+        <v>310</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=416&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=310&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -50510,8 +50421,10 @@
           <t>micron_per_pixel</t>
         </is>
       </c>
-      <c r="AO226" t="n">
-        <v>6283</v>
+      <c r="AO226" t="inlineStr">
+        <is>
+          <t>4206</t>
+        </is>
       </c>
       <c r="AQ226" t="inlineStr">
         <is>
@@ -50525,17 +50438,17 @@
       </c>
       <c r="AU226" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:default_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimg}</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>440</v>
+        <v>311</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=440&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=311&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -50660,11 +50573,13 @@
       </c>
       <c r="AJ227" t="inlineStr">
         <is>
-          <t>micron_per_pixel</t>
-        </is>
-      </c>
-      <c r="AO227" t="n">
-        <v>6543</v>
+          <t>millimeter_per_pixel</t>
+        </is>
+      </c>
+      <c r="AO227" t="inlineStr">
+        <is>
+          <t>4171</t>
+        </is>
       </c>
       <c r="AQ227" t="inlineStr">
         <is>
@@ -50684,11 +50599,11 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>494</v>
+        <v>313</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=494&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=313&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -50813,11 +50728,13 @@
       </c>
       <c r="AJ228" t="inlineStr">
         <is>
-          <t>millimeter_per_pixel</t>
-        </is>
-      </c>
-      <c r="AO228" t="n">
-        <v>6702</v>
+          <t>micron_per_pixel</t>
+        </is>
+      </c>
+      <c r="AO228" t="inlineStr">
+        <is>
+          <t>4207</t>
+        </is>
       </c>
       <c r="AQ228" t="inlineStr">
         <is>
@@ -50837,11 +50754,11 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>558</v>
+        <v>322</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=558&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=322&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -50966,11 +50883,13 @@
       </c>
       <c r="AJ229" t="inlineStr">
         <is>
-          <t>millimeter_per_pixel</t>
-        </is>
-      </c>
-      <c r="AO229" t="n">
-        <v>6702</v>
+          <t>micron_per_pixel</t>
+        </is>
+      </c>
+      <c r="AO229" t="inlineStr">
+        <is>
+          <t>4208</t>
+        </is>
       </c>
       <c r="AQ229" t="inlineStr">
         <is>
@@ -50984,17 +50903,17 @@
       </c>
       <c r="AU229" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:default_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimg}</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>546</v>
+        <v>323</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=546&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=323&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -51119,11 +51038,13 @@
       </c>
       <c r="AJ230" t="inlineStr">
         <is>
-          <t>millimeter_per_pixel</t>
-        </is>
-      </c>
-      <c r="AO230" t="n">
-        <v>6703</v>
+          <t>micron_per_pixel</t>
+        </is>
+      </c>
+      <c r="AO230" t="inlineStr">
+        <is>
+          <t>4515</t>
+        </is>
       </c>
       <c r="AQ230" t="inlineStr">
         <is>
@@ -51137,17 +51058,17 @@
       </c>
       <c r="AU230" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:default_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimg}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimg}</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>559</v>
+        <v>324</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=559&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=324&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -51275,9 +51196,6 @@
           <t>millimeter_per_pixel</t>
         </is>
       </c>
-      <c r="AO231" t="n">
-        <v>6703</v>
-      </c>
       <c r="AQ231" t="inlineStr">
         <is>
           <t>acq_smbase</t>
@@ -51290,17 +51208,17 @@
       </c>
       <c r="AU231" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:default_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>560</v>
+        <v>325</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=560&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=325&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -51428,9 +51346,6 @@
           <t>millimeter_per_pixel</t>
         </is>
       </c>
-      <c r="AO232" t="n">
-        <v>6704</v>
-      </c>
       <c r="AQ232" t="inlineStr">
         <is>
           <t>acq_smbase</t>
@@ -51443,17 +51358,17 @@
       </c>
       <c r="AU232" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:default_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>575</v>
+        <v>326</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=575&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=326&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -51581,9 +51496,6 @@
           <t>millimeter_per_pixel</t>
         </is>
       </c>
-      <c r="AO233" t="n">
-        <v>6704</v>
-      </c>
       <c r="AQ233" t="inlineStr">
         <is>
           <t>acq_smbase</t>
@@ -51596,17 +51508,19 @@
       </c>
       <c r="AU233" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:default_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimg}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
         </is>
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="n">
-        <v>30</v>
-      </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=30&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>328</t>
+        </is>
+      </c>
+      <c r="B234" s="1" t="inlineStr">
+        <is>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=328&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -51735,7 +51649,7 @@
         </is>
       </c>
       <c r="AO234" t="n">
-        <v>6732</v>
+        <v>4211</v>
       </c>
       <c r="AQ234" t="inlineStr">
         <is>
@@ -51749,17 +51663,19 @@
       </c>
       <c r="AU234" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:default_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimg}</t>
         </is>
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="n">
-        <v>251</v>
-      </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=251&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="B235" s="1" t="inlineStr">
+        <is>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=332&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -51888,7 +51804,7 @@
         </is>
       </c>
       <c r="AO235" t="n">
-        <v>6733</v>
+        <v>4282</v>
       </c>
       <c r="AQ235" t="inlineStr">
         <is>
@@ -51902,17 +51818,19 @@
       </c>
       <c r="AU235" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:default_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimg}</t>
         </is>
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="n">
-        <v>252</v>
-      </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=252&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="B236" s="1" t="inlineStr">
+        <is>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=343&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -52041,7 +51959,7 @@
         </is>
       </c>
       <c r="AO236" t="n">
-        <v>6734</v>
+        <v>4360</v>
       </c>
       <c r="AQ236" t="inlineStr">
         <is>
@@ -52055,17 +51973,19 @@
       </c>
       <c r="AU236" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:default_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimg}</t>
         </is>
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="n">
-        <v>591</v>
-      </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=591&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>347</t>
+        </is>
+      </c>
+      <c r="B237" s="1" t="inlineStr">
+        <is>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=347&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -52194,7 +52114,7 @@
         </is>
       </c>
       <c r="AO237" t="n">
-        <v>6846</v>
+        <v>4448</v>
       </c>
       <c r="AQ237" t="inlineStr">
         <is>
@@ -52208,17 +52128,17 @@
       </c>
       <c r="AU237" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:default_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimg}</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>656</v>
+        <v>350</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=656&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=350&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -52344,11 +52264,6 @@
       <c r="AJ238" t="inlineStr">
         <is>
           <t>millimeter_per_pixel</t>
-        </is>
-      </c>
-      <c r="AO238" t="inlineStr">
-        <is>
-          <t>7797</t>
         </is>
       </c>
       <c r="AQ238" t="inlineStr">
@@ -52369,11 +52284,11 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>22</v>
-      </c>
-      <c r="B239" s="1" t="inlineStr">
-        <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=22&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+        <v>351</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=351&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -52501,11 +52416,6 @@
           <t>millimeter_per_pixel</t>
         </is>
       </c>
-      <c r="AO239" t="inlineStr">
-        <is>
-          <t>48;47</t>
-        </is>
-      </c>
       <c r="AQ239" t="inlineStr">
         <is>
           <t>acq_smbase</t>
@@ -52518,17 +52428,17 @@
       </c>
       <c r="AU239" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:default_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>33</v>
-      </c>
-      <c r="B240" s="1" t="inlineStr">
-        <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=33&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+        <v>356</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=356&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -52656,6 +52566,11 @@
           <t>millimeter_per_pixel</t>
         </is>
       </c>
+      <c r="AO240" t="inlineStr">
+        <is>
+          <t>4661</t>
+        </is>
+      </c>
       <c r="AQ240" t="inlineStr">
         <is>
           <t>acq_smbase</t>
@@ -52668,17 +52583,17 @@
       </c>
       <c r="AU240" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:default_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:default_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimg}</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>164</v>
-      </c>
-      <c r="B241" s="1" t="inlineStr">
-        <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=164&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+        <v>358</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=358&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -52823,12 +52738,14 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="n">
-        <v>165</v>
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>366</t>
+        </is>
       </c>
       <c r="B242" s="1" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=165&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=366&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -52957,7 +52874,7 @@
         </is>
       </c>
       <c r="AO242" t="n">
-        <v>10111</v>
+        <v>4545</v>
       </c>
       <c r="AQ242" t="inlineStr">
         <is>
@@ -52971,17 +52888,19 @@
       </c>
       <c r="AU242" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:default_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimg}</t>
         </is>
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="n">
-        <v>183</v>
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>367</t>
+        </is>
       </c>
       <c r="B243" s="1" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=183&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=367&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -53109,6 +53028,9 @@
           <t>millimeter_per_pixel</t>
         </is>
       </c>
+      <c r="AO243" t="n">
+        <v>4551</v>
+      </c>
       <c r="AQ243" t="inlineStr">
         <is>
           <t>acq_smbase</t>
@@ -53121,17 +53043,17 @@
       </c>
       <c r="AU243" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:default_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimg}</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>186</v>
-      </c>
-      <c r="B244" s="1" t="inlineStr">
-        <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=186&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+        <v>368</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=368&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -53277,11 +53199,11 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>200</v>
-      </c>
-      <c r="B245" s="1" t="inlineStr">
-        <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=200&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+        <v>371</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=371&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -53409,6 +53331,11 @@
           <t>millimeter_per_pixel</t>
         </is>
       </c>
+      <c r="AO245" t="inlineStr">
+        <is>
+          <t>4661;7546</t>
+        </is>
+      </c>
       <c r="AQ245" t="inlineStr">
         <is>
           <t>acq_smbase</t>
@@ -53421,17 +53348,17 @@
       </c>
       <c r="AU245" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimg}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:default_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>204</v>
-      </c>
-      <c r="B246" s="1" t="inlineStr">
-        <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=204&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+        <v>374</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=374&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -53556,8 +53483,11 @@
       </c>
       <c r="AJ246" t="inlineStr">
         <is>
-          <t>micron_per_pixel</t>
-        </is>
+          <t>millimeter_per_pixel</t>
+        </is>
+      </c>
+      <c r="AO246" t="n">
+        <v>4933</v>
       </c>
       <c r="AQ246" t="inlineStr">
         <is>
@@ -53577,11 +53507,11 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>205</v>
-      </c>
-      <c r="B247" s="1" t="inlineStr">
-        <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=205&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+        <v>378</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=378&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -53709,6 +53639,9 @@
           <t>micron_per_pixel</t>
         </is>
       </c>
+      <c r="AO247" t="n">
+        <v>5031</v>
+      </c>
       <c r="AQ247" t="inlineStr">
         <is>
           <t>acq_smbase</t>
@@ -53721,17 +53654,17 @@
       </c>
       <c r="AU247" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:default_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
+          <t>serial_number:{field:default_instrumsn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>220</v>
-      </c>
-      <c r="B248" s="1" t="inlineStr">
-        <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=220&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+        <v>380</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=380&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -53859,6 +53792,9 @@
           <t>micron_per_pixel</t>
         </is>
       </c>
+      <c r="AO248" t="n">
+        <v>5033</v>
+      </c>
       <c r="AQ248" t="inlineStr">
         <is>
           <t>acq_smbase</t>
@@ -53871,17 +53807,17 @@
       </c>
       <c r="AU248" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:default_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
+          <t>serial_number:{field:default_instrumsn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>233</v>
-      </c>
-      <c r="B249" s="1" t="inlineStr">
-        <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=233&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+        <v>394</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=394&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -54006,7 +53942,7 @@
       </c>
       <c r="AJ249" t="inlineStr">
         <is>
-          <t>micron_per_pixel</t>
+          <t>millimeter_per_pixel</t>
         </is>
       </c>
       <c r="AQ249" t="inlineStr">
@@ -54027,11 +53963,11 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>256</v>
-      </c>
-      <c r="B250" s="1" t="inlineStr">
-        <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=256&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+        <v>411</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=411&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -54159,9 +54095,6 @@
           <t>millimeter_per_pixel</t>
         </is>
       </c>
-      <c r="AO250" t="n">
-        <v>10123</v>
-      </c>
       <c r="AQ250" t="inlineStr">
         <is>
           <t>acq_smbase</t>
@@ -54174,17 +54107,17 @@
       </c>
       <c r="AU250" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:default_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>272</v>
-      </c>
-      <c r="B251" s="1" t="inlineStr">
-        <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=272&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+        <v>412</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=412&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -54324,17 +54257,17 @@
       </c>
       <c r="AU251" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:default_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>273</v>
-      </c>
-      <c r="B252" s="1" t="inlineStr">
-        <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=273&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+        <v>415</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=415&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -54459,7 +54392,7 @@
       </c>
       <c r="AJ252" t="inlineStr">
         <is>
-          <t>millimeter_per_pixel</t>
+          <t>micron_per_pixel</t>
         </is>
       </c>
       <c r="AQ252" t="inlineStr">
@@ -54474,17 +54407,17 @@
       </c>
       <c r="AU252" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:default_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>277</v>
-      </c>
-      <c r="B253" s="1" t="inlineStr">
-        <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=277&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+        <v>416</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=416&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -54609,8 +54542,11 @@
       </c>
       <c r="AJ253" t="inlineStr">
         <is>
-          <t>millimeter_per_pixel</t>
-        </is>
+          <t>micron_per_pixel</t>
+        </is>
+      </c>
+      <c r="AO253" t="n">
+        <v>6283</v>
       </c>
       <c r="AQ253" t="inlineStr">
         <is>
@@ -54630,11 +54566,11 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>278</v>
-      </c>
-      <c r="B254" s="1" t="inlineStr">
-        <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=278&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+        <v>423</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=423&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -54762,6 +54698,9 @@
           <t>millimeter_per_pixel</t>
         </is>
       </c>
+      <c r="AO254" t="n">
+        <v>5197</v>
+      </c>
       <c r="AQ254" t="inlineStr">
         <is>
           <t>acq_smbase</t>
@@ -54774,17 +54713,17 @@
       </c>
       <c r="AU254" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:default_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimg}</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>286</v>
-      </c>
-      <c r="B255" s="1" t="inlineStr">
-        <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=286&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+        <v>426</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=426&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -54909,8 +54848,11 @@
       </c>
       <c r="AJ255" t="inlineStr">
         <is>
-          <t>micron_per_pixel</t>
-        </is>
+          <t>millimeter_per_pixel</t>
+        </is>
+      </c>
+      <c r="AO255" t="n">
+        <v>5208</v>
       </c>
       <c r="AQ255" t="inlineStr">
         <is>
@@ -54924,17 +54866,17 @@
       </c>
       <c r="AU255" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:default_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimg}</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>288</v>
+        <v>427</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=288&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=427&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -55061,6 +55003,9 @@
         <is>
           <t>millimeter_per_pixel</t>
         </is>
+      </c>
+      <c r="AO256" t="n">
+        <v>5254</v>
       </c>
       <c r="AQ256" t="inlineStr">
         <is>
@@ -55080,11 +55025,11 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>289</v>
+        <v>428</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=289&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=428&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -55209,8 +55154,11 @@
       </c>
       <c r="AJ257" t="inlineStr">
         <is>
-          <t>millimeter_per_pixel</t>
-        </is>
+          <t>micron_per_pixel</t>
+        </is>
+      </c>
+      <c r="AO257" t="n">
+        <v>5680</v>
       </c>
       <c r="AQ257" t="inlineStr">
         <is>
@@ -55224,17 +55172,17 @@
       </c>
       <c r="AU257" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:default_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimg}</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>290</v>
+        <v>430</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=290&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=430&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -55362,6 +55310,9 @@
           <t>millimeter_per_pixel</t>
         </is>
       </c>
+      <c r="AO258" t="n">
+        <v>5208</v>
+      </c>
       <c r="AQ258" t="inlineStr">
         <is>
           <t>acq_smbase</t>
@@ -55374,17 +55325,17 @@
       </c>
       <c r="AU258" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:default_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>291</v>
+        <v>433</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=291&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=433&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -55509,7 +55460,12 @@
       </c>
       <c r="AJ259" t="inlineStr">
         <is>
-          <t>millimeter_per_pixel</t>
+          <t>micron_per_pixel</t>
+        </is>
+      </c>
+      <c r="AO259" t="inlineStr">
+        <is>
+          <t>6047</t>
         </is>
       </c>
       <c r="AQ259" t="inlineStr">
@@ -55524,17 +55480,17 @@
       </c>
       <c r="AU259" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:default_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimg}</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>292</v>
+        <v>438</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=292&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=438&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -55659,7 +55615,12 @@
       </c>
       <c r="AJ260" t="inlineStr">
         <is>
-          <t>millimeter_per_pixel</t>
+          <t>micron_per_pixel</t>
+        </is>
+      </c>
+      <c r="AO260" t="inlineStr">
+        <is>
+          <t>223</t>
         </is>
       </c>
       <c r="AQ260" t="inlineStr">
@@ -55680,11 +55641,11 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>293</v>
+        <v>440</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=293&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=440&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -55811,6 +55772,9 @@
         <is>
           <t>micron_per_pixel</t>
         </is>
+      </c>
+      <c r="AO261" t="n">
+        <v>6543</v>
       </c>
       <c r="AQ261" t="inlineStr">
         <is>
@@ -55830,11 +55794,11 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>294</v>
+        <v>494</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=294&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=494&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -55959,8 +55923,11 @@
       </c>
       <c r="AJ262" t="inlineStr">
         <is>
-          <t>micron_per_pixel</t>
-        </is>
+          <t>millimeter_per_pixel</t>
+        </is>
+      </c>
+      <c r="AO262" t="n">
+        <v>6702</v>
       </c>
       <c r="AQ262" t="inlineStr">
         <is>
@@ -55974,17 +55941,17 @@
       </c>
       <c r="AU262" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimg}</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>295</v>
+        <v>546</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=295&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=546&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -56109,8 +56076,11 @@
       </c>
       <c r="AJ263" t="inlineStr">
         <is>
-          <t>micron_per_pixel</t>
-        </is>
+          <t>millimeter_per_pixel</t>
+        </is>
+      </c>
+      <c r="AO263" t="n">
+        <v>6703</v>
       </c>
       <c r="AQ263" t="inlineStr">
         <is>
@@ -56124,17 +56094,17 @@
       </c>
       <c r="AU263" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:default_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimg}</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>296</v>
+        <v>558</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=296&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=558&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -56259,8 +56229,11 @@
       </c>
       <c r="AJ264" t="inlineStr">
         <is>
-          <t>micron_per_pixel</t>
-        </is>
+          <t>millimeter_per_pixel</t>
+        </is>
+      </c>
+      <c r="AO264" t="n">
+        <v>6702</v>
       </c>
       <c r="AQ264" t="inlineStr">
         <is>
@@ -56274,17 +56247,17 @@
       </c>
       <c r="AU264" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:default_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>304</v>
+        <v>559</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=304&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=559&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -56412,6 +56385,9 @@
           <t>millimeter_per_pixel</t>
         </is>
       </c>
+      <c r="AO265" t="n">
+        <v>6703</v>
+      </c>
       <c r="AQ265" t="inlineStr">
         <is>
           <t>acq_smbase</t>
@@ -56424,17 +56400,17 @@
       </c>
       <c r="AU265" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:default_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>324</v>
+        <v>560</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=324&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=560&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -56562,6 +56538,9 @@
           <t>millimeter_per_pixel</t>
         </is>
       </c>
+      <c r="AO266" t="n">
+        <v>6704</v>
+      </c>
       <c r="AQ266" t="inlineStr">
         <is>
           <t>acq_smbase</t>
@@ -56574,17 +56553,17 @@
       </c>
       <c r="AU266" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:default_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>325</v>
+        <v>575</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=325&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=575&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -56712,6 +56691,9 @@
           <t>millimeter_per_pixel</t>
         </is>
       </c>
+      <c r="AO267" t="n">
+        <v>6704</v>
+      </c>
       <c r="AQ267" t="inlineStr">
         <is>
           <t>acq_smbase</t>
@@ -56724,17 +56706,17 @@
       </c>
       <c r="AU267" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:default_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimg}</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>326</v>
+        <v>591</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=326&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=591&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -56862,6 +56844,9 @@
           <t>millimeter_per_pixel</t>
         </is>
       </c>
+      <c r="AO268" t="n">
+        <v>6846</v>
+      </c>
       <c r="AQ268" t="inlineStr">
         <is>
           <t>acq_smbase</t>
@@ -56874,17 +56859,17 @@
       </c>
       <c r="AU268" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:default_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>350</v>
+        <v>592</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=350&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=592&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -57012,6 +56997,9 @@
           <t>millimeter_per_pixel</t>
         </is>
       </c>
+      <c r="AO269" t="n">
+        <v>6103</v>
+      </c>
       <c r="AQ269" t="inlineStr">
         <is>
           <t>acq_smbase</t>
@@ -57024,17 +57012,17 @@
       </c>
       <c r="AU269" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:default_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>351</v>
+        <v>593</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=351&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=593&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -57162,6 +57150,9 @@
           <t>millimeter_per_pixel</t>
         </is>
       </c>
+      <c r="AO270" t="n">
+        <v>6099</v>
+      </c>
       <c r="AQ270" t="inlineStr">
         <is>
           <t>acq_smbase</t>
@@ -57174,17 +57165,17 @@
       </c>
       <c r="AU270" t="inlineStr">
         <is>
-          <t>serial_number:{field:default_instrumsn};depth_offset:{field:acq_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
+          <t>serial_number:{field:default_instrumsn};depth_offset:{field:default_depthoffset};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa};first_image:{field:firstimage};last_image:{field:lastimgused}</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>358</v>
+        <v>594</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=358&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=594&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -57310,6 +57301,11 @@
       <c r="AJ271" t="inlineStr">
         <is>
           <t>millimeter_per_pixel</t>
+        </is>
+      </c>
+      <c r="AO271" t="inlineStr">
+        <is>
+          <t>22</t>
         </is>
       </c>
       <c r="AQ271" t="inlineStr">
@@ -57330,11 +57326,11 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>368</v>
+        <v>595</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=368&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=595&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -57460,6 +57456,11 @@
       <c r="AJ272" t="inlineStr">
         <is>
           <t>millimeter_per_pixel</t>
+        </is>
+      </c>
+      <c r="AO272" t="inlineStr">
+        <is>
+          <t>75</t>
         </is>
       </c>
       <c r="AQ272" t="inlineStr">
@@ -57480,11 +57481,11 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>394</v>
+        <v>596</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=394&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=596&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -57610,6 +57611,11 @@
       <c r="AJ273" t="inlineStr">
         <is>
           <t>millimeter_per_pixel</t>
+        </is>
+      </c>
+      <c r="AO273" t="inlineStr">
+        <is>
+          <t>6107</t>
         </is>
       </c>
       <c r="AQ273" t="inlineStr">
@@ -57630,11 +57636,11 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>411</v>
+        <v>597</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=411&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=597&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -57760,6 +57766,11 @@
       <c r="AJ274" t="inlineStr">
         <is>
           <t>millimeter_per_pixel</t>
+        </is>
+      </c>
+      <c r="AO274" t="inlineStr">
+        <is>
+          <t>6108</t>
         </is>
       </c>
       <c r="AQ274" t="inlineStr">
@@ -57780,11 +57791,11 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>412</v>
+        <v>603</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=412&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=603&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -57909,7 +57920,12 @@
       </c>
       <c r="AJ275" t="inlineStr">
         <is>
-          <t>millimeter_per_pixel</t>
+          <t>micron_per_pixel</t>
+        </is>
+      </c>
+      <c r="AO275" t="inlineStr">
+        <is>
+          <t>27</t>
         </is>
       </c>
       <c r="AQ275" t="inlineStr">
@@ -57930,11 +57946,11 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>415</v>
+        <v>656</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=415&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
+          <t>https://ecopart.obs-vlfr.fr/?MapN=&amp;MapW=&amp;MapE=&amp;MapS=&amp;filt_fromdate=&amp;filt_todate=&amp;filt_instrum=&amp;filt_proftype=&amp;filt_uproj=656&amp;filt_depthmin=&amp;filt_depthmax=&amp;XScale=I&amp;TimeScale=R</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -58059,7 +58075,12 @@
       </c>
       <c r="AJ276" t="inlineStr">
         <is>
-          <t>micron_per_pixel</t>
+          <t>millimeter_per_pixel</t>
+        </is>
+      </c>
+      <c r="AO276" t="inlineStr">
+        <is>
+          <t>7797</t>
         </is>
       </c>
       <c r="AQ276" t="inlineStr">
@@ -58080,33 +58101,34 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B146" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B147" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B188" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B190" r:id="rId4"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B199" r:id="rId5"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B200" r:id="rId6"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B201" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B202" r:id="rId8"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B204" r:id="rId9"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B205" r:id="rId10"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B239" r:id="rId11"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B240" r:id="rId12"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B241" r:id="rId13"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B242" r:id="rId14"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B243" r:id="rId15"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B244" r:id="rId16"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B245" r:id="rId17"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B246" r:id="rId18"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B247" r:id="rId19"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B248" r:id="rId20"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B249" r:id="rId21"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B250" r:id="rId22"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B251" r:id="rId23"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B252" r:id="rId24"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B253" r:id="rId25"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B254" r:id="rId26"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B255" r:id="rId27"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B22" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B33" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B88" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B118" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B119" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B125" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B126" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B127" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B134" r:id="rId9"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B136" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B138" r:id="rId11"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B139" r:id="rId12"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B153" r:id="rId13"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B162" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B179" r:id="rId15"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B193" r:id="rId16"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B194" r:id="rId17"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B197" r:id="rId18"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B198" r:id="rId19"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B203" r:id="rId20"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B217" r:id="rId21"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B219" r:id="rId22"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B234" r:id="rId23"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B235" r:id="rId24"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B236" r:id="rId25"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B237" r:id="rId26"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B242" r:id="rId27"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B243" r:id="rId28"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -58953,246 +58975,246 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU77"/>
+  <dimension ref="A1:AU78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="inlineStr">
+      <c r="A1" s="7" t="inlineStr">
         <is>
           <t>Project_ID</t>
         </is>
       </c>
-      <c r="B1" s="5" t="inlineStr">
+      <c r="B1" s="7" t="inlineStr">
         <is>
           <t>Project_source</t>
         </is>
       </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="C1" s="7" t="inlineStr">
         <is>
           <t>Project_localpath</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
+      <c r="D1" s="7" t="inlineStr">
         <is>
           <t>Instrument</t>
         </is>
       </c>
-      <c r="E1" s="5" t="inlineStr">
+      <c r="E1" s="7" t="inlineStr">
         <is>
           <t>Cruise_field</t>
         </is>
       </c>
-      <c r="F1" s="5" t="inlineStr">
+      <c r="F1" s="7" t="inlineStr">
         <is>
           <t>Station_field</t>
         </is>
       </c>
-      <c r="G1" s="5" t="inlineStr">
+      <c r="G1" s="7" t="inlineStr">
         <is>
           <t>Profile_field</t>
         </is>
       </c>
-      <c r="H1" s="5" t="inlineStr">
+      <c r="H1" s="7" t="inlineStr">
         <is>
           <t>Sample_field</t>
         </is>
       </c>
-      <c r="I1" s="5" t="inlineStr">
+      <c r="I1" s="7" t="inlineStr">
         <is>
           <t>Latitude_field</t>
         </is>
       </c>
-      <c r="J1" s="5" t="inlineStr">
+      <c r="J1" s="7" t="inlineStr">
         <is>
           <t>Latitude_unit</t>
         </is>
       </c>
-      <c r="K1" s="5" t="inlineStr">
+      <c r="K1" s="7" t="inlineStr">
         <is>
           <t>Longitude_field</t>
         </is>
       </c>
-      <c r="L1" s="5" t="inlineStr">
+      <c r="L1" s="7" t="inlineStr">
         <is>
           <t>Longitude_unit</t>
         </is>
       </c>
-      <c r="M1" s="5" t="inlineStr">
+      <c r="M1" s="7" t="inlineStr">
         <is>
           <t>Depth_min_field</t>
         </is>
       </c>
-      <c r="N1" s="5" t="inlineStr">
+      <c r="N1" s="7" t="inlineStr">
         <is>
           <t>Depth_min_unit</t>
         </is>
       </c>
-      <c r="O1" s="5" t="inlineStr">
+      <c r="O1" s="7" t="inlineStr">
         <is>
           <t>Depth_max_field</t>
         </is>
       </c>
-      <c r="P1" s="5" t="inlineStr">
+      <c r="P1" s="7" t="inlineStr">
         <is>
           <t>Depth_max_unit</t>
         </is>
       </c>
-      <c r="Q1" s="5" t="inlineStr">
+      <c r="Q1" s="7" t="inlineStr">
         <is>
           <t>Sampling_date_field</t>
         </is>
       </c>
-      <c r="R1" s="5" t="inlineStr">
+      <c r="R1" s="7" t="inlineStr">
         <is>
           <t>Sampling_date_format</t>
         </is>
       </c>
-      <c r="S1" s="5" t="inlineStr">
+      <c r="S1" s="7" t="inlineStr">
         <is>
           <t>Sampling_time_field</t>
         </is>
       </c>
-      <c r="T1" s="5" t="inlineStr">
+      <c r="T1" s="7" t="inlineStr">
         <is>
           <t>Sampling_time_format</t>
         </is>
       </c>
-      <c r="U1" s="5" t="inlineStr">
+      <c r="U1" s="7" t="inlineStr">
         <is>
           <t>Volume_analyzed_field</t>
         </is>
       </c>
-      <c r="V1" s="5" t="inlineStr">
+      <c r="V1" s="7" t="inlineStr">
         <is>
           <t>Volume_analyzed_unit</t>
         </is>
       </c>
-      <c r="W1" s="5" t="inlineStr">
+      <c r="W1" s="7" t="inlineStr">
         <is>
           <t>Dilution_field</t>
         </is>
       </c>
-      <c r="X1" s="5" t="inlineStr">
+      <c r="X1" s="7" t="inlineStr">
         <is>
           <t>ROI_field</t>
         </is>
       </c>
-      <c r="Y1" s="5" t="inlineStr">
+      <c r="Y1" s="7" t="inlineStr">
         <is>
           <t>ESD_field</t>
         </is>
       </c>
-      <c r="Z1" s="5" t="inlineStr">
+      <c r="Z1" s="7" t="inlineStr">
         <is>
           <t>ESD_unit</t>
         </is>
       </c>
-      <c r="AA1" s="5" t="inlineStr">
+      <c r="AA1" s="7" t="inlineStr">
         <is>
           <t>Biovolume_field</t>
         </is>
       </c>
-      <c r="AB1" s="5" t="inlineStr">
+      <c r="AB1" s="7" t="inlineStr">
         <is>
           <t>Biovolume_unit</t>
         </is>
       </c>
-      <c r="AC1" s="5" t="inlineStr">
+      <c r="AC1" s="7" t="inlineStr">
         <is>
           <t>Area_field</t>
         </is>
       </c>
-      <c r="AD1" s="5" t="inlineStr">
+      <c r="AD1" s="7" t="inlineStr">
         <is>
           <t>Area_unit</t>
         </is>
       </c>
-      <c r="AE1" s="5" t="inlineStr">
+      <c r="AE1" s="7" t="inlineStr">
         <is>
           <t>Minor_axis_field</t>
         </is>
       </c>
-      <c r="AF1" s="5" t="inlineStr">
+      <c r="AF1" s="7" t="inlineStr">
         <is>
           <t>Minor_axis_unit</t>
         </is>
       </c>
-      <c r="AG1" s="5" t="inlineStr">
+      <c r="AG1" s="7" t="inlineStr">
         <is>
           <t>Major_axis_field</t>
         </is>
       </c>
-      <c r="AH1" s="5" t="inlineStr">
+      <c r="AH1" s="7" t="inlineStr">
         <is>
           <t>Major_axis_unit</t>
         </is>
       </c>
-      <c r="AI1" s="5" t="inlineStr">
+      <c r="AI1" s="7" t="inlineStr">
         <is>
           <t>Pixel_field</t>
         </is>
       </c>
-      <c r="AJ1" s="5" t="inlineStr">
+      <c r="AJ1" s="7" t="inlineStr">
         <is>
           <t>Pixel_unit</t>
         </is>
       </c>
-      <c r="AK1" s="5" t="inlineStr">
+      <c r="AK1" s="7" t="inlineStr">
         <is>
           <t>Category_field</t>
         </is>
       </c>
-      <c r="AL1" s="5" t="inlineStr">
+      <c r="AL1" s="7" t="inlineStr">
         <is>
           <t>Annotation_field</t>
         </is>
       </c>
-      <c r="AM1" s="5" t="inlineStr">
+      <c r="AM1" s="7" t="inlineStr">
         <is>
           <t>Flag_path</t>
         </is>
       </c>
-      <c r="AN1" s="5" t="inlineStr">
+      <c r="AN1" s="7" t="inlineStr">
         <is>
           <t>NA_value</t>
         </is>
       </c>
-      <c r="AO1" s="5" t="inlineStr">
+      <c r="AO1" s="7" t="inlineStr">
         <is>
           <t>External_project</t>
         </is>
       </c>
-      <c r="AP1" s="5" t="inlineStr">
+      <c r="AP1" s="7" t="inlineStr">
         <is>
           <t>Sampling_type_field</t>
         </is>
       </c>
-      <c r="AQ1" s="5" t="inlineStr">
+      <c r="AQ1" s="7" t="inlineStr">
         <is>
           <t>Sampling_lower_size_field</t>
         </is>
       </c>
-      <c r="AR1" s="5" t="inlineStr">
+      <c r="AR1" s="7" t="inlineStr">
         <is>
           <t>Sampling_lower_size_unit</t>
         </is>
       </c>
-      <c r="AS1" s="5" t="inlineStr">
+      <c r="AS1" s="7" t="inlineStr">
         <is>
           <t>Sampling_upper_size_field</t>
         </is>
       </c>
-      <c r="AT1" s="5" t="inlineStr">
+      <c r="AT1" s="7" t="inlineStr">
         <is>
           <t>Sampling_upper_size_unit</t>
         </is>
       </c>
-      <c r="AU1" s="5" t="inlineStr">
+      <c r="AU1" s="7" t="inlineStr">
         <is>
           <t>Sampling_description</t>
         </is>
@@ -73549,6 +73571,196 @@
         </is>
       </c>
       <c r="AU77" t="inlineStr">
+        <is>
+          <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>622</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>https://ecotaxa.obs-vlfr.fr/prj/622</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>~/GIT/PSSdb/raw/ecotaxa</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>UVP</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>sample_cruise</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>sample_stationid</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>sample_profileid</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>sample_id</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>object_lat</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>degree</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>object_lon</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>degree</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>object_depth_min</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>meter</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>object_depth_max</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>meter</t>
+        </is>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>object_date</t>
+        </is>
+      </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>%Y%m%d</t>
+        </is>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>object_time</t>
+        </is>
+      </c>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>%H%M%S</t>
+        </is>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>acq_volimage</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>cubic_decimeter</t>
+        </is>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>object_id</t>
+        </is>
+      </c>
+      <c r="AC78" t="inlineStr">
+        <is>
+          <t>object_area</t>
+        </is>
+      </c>
+      <c r="AD78" t="inlineStr">
+        <is>
+          <t>square_pixel</t>
+        </is>
+      </c>
+      <c r="AE78" t="inlineStr">
+        <is>
+          <t>object_minor</t>
+        </is>
+      </c>
+      <c r="AF78" t="inlineStr">
+        <is>
+          <t>pixel</t>
+        </is>
+      </c>
+      <c r="AG78" t="inlineStr">
+        <is>
+          <t>object_major</t>
+        </is>
+      </c>
+      <c r="AH78" t="inlineStr">
+        <is>
+          <t>pixel</t>
+        </is>
+      </c>
+      <c r="AI78" t="inlineStr">
+        <is>
+          <t>process_pixel</t>
+        </is>
+      </c>
+      <c r="AJ78" t="inlineStr">
+        <is>
+          <t>millimeter_per_pixel</t>
+        </is>
+      </c>
+      <c r="AK78" t="inlineStr">
+        <is>
+          <t>object_annotation_category</t>
+        </is>
+      </c>
+      <c r="AL78" t="inlineStr">
+        <is>
+          <t>object_annotation_status</t>
+        </is>
+      </c>
+      <c r="AM78" t="inlineStr">
+        <is>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_622_flags.csv</t>
+        </is>
+      </c>
+      <c r="AO78" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AP78" t="inlineStr">
+        <is>
+          <t>acq_instrument</t>
+        </is>
+      </c>
+      <c r="AQ78" t="inlineStr">
+        <is>
+          <t>acq_smzoo</t>
+        </is>
+      </c>
+      <c r="AU78" t="inlineStr">
         <is>
           <t>platform:rosette;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
         </is>

--- a/raw/project_UVP_standardizer.xlsx
+++ b/raw/project_UVP_standardizer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dugennem/GIT/PSSdb/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1481CC-8E54-B84D-9118-A739239FC258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC4E9BF-A63E-3941-B9A2-AFF5EAB876B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36160" yWindow="-440" windowWidth="29300" windowHeight="17580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ecotaxa" sheetId="1" r:id="rId1"/>
@@ -3147,9 +3147,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AI88" sqref="AI88"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12515,6 +12515,9 @@
       <c r="AL84" t="s">
         <v>73</v>
       </c>
+      <c r="AO84">
+        <v>605</v>
+      </c>
       <c r="AP84" t="s">
         <v>76</v>
       </c>
@@ -12621,6 +12624,9 @@
       </c>
       <c r="AL85" t="s">
         <v>73</v>
+      </c>
+      <c r="AO85">
+        <v>655</v>
       </c>
       <c r="AP85" t="s">
         <v>76</v>
@@ -12762,8 +12768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AU400"/>
   <sheetViews>
-    <sheetView topLeftCell="B363" workbookViewId="0">
-      <selection activeCell="B374" sqref="B374"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A362" sqref="A362:XFD362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/raw/project_UVP_standardizer.xlsx
+++ b/raw/project_UVP_standardizer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dugennem/GIT/PSSdb/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC4E9BF-A63E-3941-B9A2-AFF5EAB876B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C50A19AE-E522-E74E-863B-5445C734E95E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3147,9 +3147,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B86" sqref="B86"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AC80" sqref="AC80:AC86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12043,7 +12043,7 @@
         <v>64</v>
       </c>
       <c r="AC80" t="s">
-        <v>65</v>
+        <v>885</v>
       </c>
       <c r="AD80" t="s">
         <v>66</v>
@@ -12156,7 +12156,7 @@
         <v>64</v>
       </c>
       <c r="AC81" t="s">
-        <v>65</v>
+        <v>885</v>
       </c>
       <c r="AD81" t="s">
         <v>66</v>
@@ -12266,7 +12266,7 @@
         <v>64</v>
       </c>
       <c r="AC82" t="s">
-        <v>65</v>
+        <v>885</v>
       </c>
       <c r="AD82" t="s">
         <v>66</v>
@@ -12376,7 +12376,7 @@
         <v>64</v>
       </c>
       <c r="AC83" t="s">
-        <v>65</v>
+        <v>885</v>
       </c>
       <c r="AD83" t="s">
         <v>66</v>
@@ -12486,7 +12486,7 @@
         <v>64</v>
       </c>
       <c r="AC84" t="s">
-        <v>65</v>
+        <v>885</v>
       </c>
       <c r="AD84" t="s">
         <v>66</v>
@@ -12596,7 +12596,7 @@
         <v>64</v>
       </c>
       <c r="AC85" t="s">
-        <v>65</v>
+        <v>885</v>
       </c>
       <c r="AD85" t="s">
         <v>66</v>
@@ -12706,7 +12706,7 @@
         <v>64</v>
       </c>
       <c r="AC86" t="s">
-        <v>65</v>
+        <v>885</v>
       </c>
       <c r="AD86" t="s">
         <v>66</v>

--- a/raw/project_UVP_standardizer.xlsx
+++ b/raw/project_UVP_standardizer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dugennem/GIT/PSSdb/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C50A19AE-E522-E74E-863B-5445C734E95E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8087F5AA-99A9-0444-9228-0120DE72840F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17872" uniqueCount="896">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17886" uniqueCount="897">
   <si>
     <t>Project_ID</t>
   </si>
@@ -2711,6 +2711,9 @@
   </si>
   <si>
     <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_622_flags.csv</t>
+  </si>
+  <si>
+    <t>platform:float;serial_number:{field:acq_sn};size_calibration_exp:{field:acq_exp};size_calibration_aa:{field:acq_aa}</t>
   </si>
 </sst>
 </file>
@@ -3147,9 +3150,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AF1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC80" sqref="AC80:AC86"/>
+      <selection pane="bottomLeft" activeCell="AV89" sqref="AV89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12001,7 +12004,7 @@
         <v>52</v>
       </c>
       <c r="H80" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I80" t="s">
         <v>54</v>
@@ -12016,25 +12019,31 @@
         <v>55</v>
       </c>
       <c r="M80" t="s">
-        <v>57</v>
+        <v>880</v>
       </c>
       <c r="N80" t="s">
         <v>58</v>
       </c>
       <c r="O80" t="s">
-        <v>59</v>
+        <v>881</v>
       </c>
       <c r="P80" t="s">
         <v>58</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>882</v>
+      </c>
+      <c r="R80" t="s">
+        <v>883</v>
       </c>
       <c r="S80" t="s">
         <v>60</v>
       </c>
       <c r="T80" t="s">
-        <v>61</v>
+        <v>884</v>
       </c>
       <c r="U80" t="s">
-        <v>62</v>
+        <v>335</v>
       </c>
       <c r="V80" t="s">
         <v>63</v>
@@ -12082,7 +12091,7 @@
         <v>76</v>
       </c>
       <c r="AQ80" t="s">
-        <v>77</v>
+        <v>886</v>
       </c>
       <c r="AR80" t="s">
         <v>68</v>
@@ -12114,7 +12123,7 @@
         <v>52</v>
       </c>
       <c r="H81" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I81" t="s">
         <v>54</v>
@@ -12129,25 +12138,31 @@
         <v>55</v>
       </c>
       <c r="M81" t="s">
-        <v>57</v>
+        <v>880</v>
       </c>
       <c r="N81" t="s">
         <v>58</v>
       </c>
       <c r="O81" t="s">
-        <v>59</v>
+        <v>881</v>
       </c>
       <c r="P81" t="s">
         <v>58</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>882</v>
+      </c>
+      <c r="R81" t="s">
+        <v>883</v>
       </c>
       <c r="S81" t="s">
         <v>60</v>
       </c>
       <c r="T81" t="s">
-        <v>61</v>
+        <v>884</v>
       </c>
       <c r="U81" t="s">
-        <v>62</v>
+        <v>335</v>
       </c>
       <c r="V81" t="s">
         <v>63</v>
@@ -12192,13 +12207,13 @@
         <v>76</v>
       </c>
       <c r="AQ81" t="s">
-        <v>77</v>
+        <v>886</v>
       </c>
       <c r="AR81" t="s">
         <v>68</v>
       </c>
       <c r="AU81" t="s">
-        <v>78</v>
+        <v>896</v>
       </c>
     </row>
     <row r="82" spans="1:47" x14ac:dyDescent="0.2">
@@ -12224,7 +12239,7 @@
         <v>52</v>
       </c>
       <c r="H82" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I82" t="s">
         <v>54</v>
@@ -12239,25 +12254,31 @@
         <v>55</v>
       </c>
       <c r="M82" t="s">
-        <v>57</v>
+        <v>880</v>
       </c>
       <c r="N82" t="s">
         <v>58</v>
       </c>
       <c r="O82" t="s">
-        <v>59</v>
+        <v>881</v>
       </c>
       <c r="P82" t="s">
         <v>58</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>882</v>
+      </c>
+      <c r="R82" t="s">
+        <v>883</v>
       </c>
       <c r="S82" t="s">
         <v>60</v>
       </c>
       <c r="T82" t="s">
-        <v>61</v>
+        <v>884</v>
       </c>
       <c r="U82" t="s">
-        <v>62</v>
+        <v>335</v>
       </c>
       <c r="V82" t="s">
         <v>63</v>
@@ -12302,13 +12323,13 @@
         <v>76</v>
       </c>
       <c r="AQ82" t="s">
-        <v>77</v>
+        <v>886</v>
       </c>
       <c r="AR82" t="s">
         <v>68</v>
       </c>
       <c r="AU82" t="s">
-        <v>78</v>
+        <v>896</v>
       </c>
     </row>
     <row r="83" spans="1:47" x14ac:dyDescent="0.2">
@@ -12334,7 +12355,7 @@
         <v>52</v>
       </c>
       <c r="H83" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I83" t="s">
         <v>54</v>
@@ -12349,25 +12370,31 @@
         <v>55</v>
       </c>
       <c r="M83" t="s">
-        <v>57</v>
+        <v>880</v>
       </c>
       <c r="N83" t="s">
         <v>58</v>
       </c>
       <c r="O83" t="s">
-        <v>59</v>
+        <v>881</v>
       </c>
       <c r="P83" t="s">
         <v>58</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>882</v>
+      </c>
+      <c r="R83" t="s">
+        <v>883</v>
       </c>
       <c r="S83" t="s">
         <v>60</v>
       </c>
       <c r="T83" t="s">
-        <v>61</v>
+        <v>884</v>
       </c>
       <c r="U83" t="s">
-        <v>62</v>
+        <v>335</v>
       </c>
       <c r="V83" t="s">
         <v>63</v>
@@ -12412,13 +12439,13 @@
         <v>76</v>
       </c>
       <c r="AQ83" t="s">
-        <v>77</v>
+        <v>886</v>
       </c>
       <c r="AR83" t="s">
         <v>68</v>
       </c>
       <c r="AU83" t="s">
-        <v>78</v>
+        <v>896</v>
       </c>
     </row>
     <row r="84" spans="1:47" x14ac:dyDescent="0.2">
@@ -12444,7 +12471,7 @@
         <v>52</v>
       </c>
       <c r="H84" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I84" t="s">
         <v>54</v>
@@ -12459,25 +12486,31 @@
         <v>55</v>
       </c>
       <c r="M84" t="s">
-        <v>57</v>
+        <v>880</v>
       </c>
       <c r="N84" t="s">
         <v>58</v>
       </c>
       <c r="O84" t="s">
-        <v>59</v>
+        <v>881</v>
       </c>
       <c r="P84" t="s">
         <v>58</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>882</v>
+      </c>
+      <c r="R84" t="s">
+        <v>883</v>
       </c>
       <c r="S84" t="s">
         <v>60</v>
       </c>
       <c r="T84" t="s">
-        <v>61</v>
+        <v>884</v>
       </c>
       <c r="U84" t="s">
-        <v>62</v>
+        <v>335</v>
       </c>
       <c r="V84" t="s">
         <v>63</v>
@@ -12522,13 +12555,13 @@
         <v>76</v>
       </c>
       <c r="AQ84" t="s">
-        <v>77</v>
+        <v>886</v>
       </c>
       <c r="AR84" t="s">
         <v>68</v>
       </c>
       <c r="AU84" t="s">
-        <v>78</v>
+        <v>896</v>
       </c>
     </row>
     <row r="85" spans="1:47" x14ac:dyDescent="0.2">
@@ -12554,7 +12587,7 @@
         <v>52</v>
       </c>
       <c r="H85" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I85" t="s">
         <v>54</v>
@@ -12569,25 +12602,31 @@
         <v>55</v>
       </c>
       <c r="M85" t="s">
-        <v>57</v>
+        <v>880</v>
       </c>
       <c r="N85" t="s">
         <v>58</v>
       </c>
       <c r="O85" t="s">
-        <v>59</v>
+        <v>881</v>
       </c>
       <c r="P85" t="s">
         <v>58</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>882</v>
+      </c>
+      <c r="R85" t="s">
+        <v>883</v>
       </c>
       <c r="S85" t="s">
         <v>60</v>
       </c>
       <c r="T85" t="s">
-        <v>61</v>
+        <v>884</v>
       </c>
       <c r="U85" t="s">
-        <v>62</v>
+        <v>335</v>
       </c>
       <c r="V85" t="s">
         <v>63</v>
@@ -12632,13 +12671,13 @@
         <v>76</v>
       </c>
       <c r="AQ85" t="s">
-        <v>77</v>
+        <v>886</v>
       </c>
       <c r="AR85" t="s">
         <v>68</v>
       </c>
       <c r="AU85" t="s">
-        <v>78</v>
+        <v>896</v>
       </c>
     </row>
     <row r="86" spans="1:47" x14ac:dyDescent="0.2">
@@ -12664,7 +12703,7 @@
         <v>52</v>
       </c>
       <c r="H86" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I86" t="s">
         <v>54</v>
@@ -12679,25 +12718,31 @@
         <v>55</v>
       </c>
       <c r="M86" t="s">
-        <v>57</v>
+        <v>880</v>
       </c>
       <c r="N86" t="s">
         <v>58</v>
       </c>
       <c r="O86" t="s">
-        <v>59</v>
+        <v>881</v>
       </c>
       <c r="P86" t="s">
         <v>58</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>882</v>
+      </c>
+      <c r="R86" t="s">
+        <v>883</v>
       </c>
       <c r="S86" t="s">
         <v>60</v>
       </c>
       <c r="T86" t="s">
-        <v>61</v>
+        <v>884</v>
       </c>
       <c r="U86" t="s">
-        <v>62</v>
+        <v>335</v>
       </c>
       <c r="V86" t="s">
         <v>63</v>
@@ -12742,13 +12787,13 @@
         <v>76</v>
       </c>
       <c r="AQ86" t="s">
-        <v>77</v>
+        <v>886</v>
       </c>
       <c r="AR86" t="s">
         <v>68</v>
       </c>
       <c r="AU86" t="s">
-        <v>78</v>
+        <v>896</v>
       </c>
     </row>
   </sheetData>
@@ -51273,7 +51318,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AU80"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="AG45" workbookViewId="0">
+      <selection activeCell="AP80" sqref="AP80:AU80"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
